--- a/features.xlsx
+++ b/features.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/features.xlsx
+++ b/features.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/features.xlsx
+++ b/features.xlsx
@@ -467,19 +467,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>457.4073134816754</v>
+        <v>29.55884498616202</v>
       </c>
       <c r="B2" t="n">
-        <v>9.427874127399651</v>
+        <v>1.963374246152842</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4732219183534987</v>
+        <v>0.7113823051408426</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1431236355828805</v>
+        <v>0.1673186122704394</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6440476568297892</v>
+        <v>0.9743163817712363</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -489,19 +489,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>248.7581533595113</v>
+        <v>23.16933839125469</v>
       </c>
       <c r="B3" t="n">
-        <v>5.770369764397905</v>
+        <v>1.567411758307499</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5620764442230598</v>
+        <v>0.7713383273280552</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1355911380383329</v>
+        <v>0.1255268702293486</v>
       </c>
       <c r="E3" t="n">
-        <v>0.639092888483927</v>
+        <v>0.9807121352329367</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -511,19 +511,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>384.5123527486911</v>
+        <v>31.68929503974525</v>
       </c>
       <c r="B4" t="n">
-        <v>6.632662521815009</v>
+        <v>1.44322168658137</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5924972228453462</v>
+        <v>0.8210652408824377</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2037742212191279</v>
+        <v>0.2702599227986909</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6789144994542445</v>
+        <v>0.9684721966927508</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -533,19 +533,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>246.1099203752181</v>
+        <v>19.09216451300799</v>
       </c>
       <c r="B5" t="n">
-        <v>4.994355366492147</v>
+        <v>1.214103723617841</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6305492597677971</v>
+        <v>0.8223095711769243</v>
       </c>
       <c r="D5" t="n">
-        <v>0.123203533022291</v>
+        <v>0.1315680329427749</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6527363611074243</v>
+        <v>0.9795394722531625</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -555,19 +555,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>346.679537521815</v>
+        <v>11.30320936250294</v>
       </c>
       <c r="B6" t="n">
-        <v>7.033049738219894</v>
+        <v>0.8900275229357799</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5411338811010378</v>
+        <v>0.8561907694705386</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1519706822196233</v>
+        <v>0.2027084071042161</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5858641420338945</v>
+        <v>0.984638553456354</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -577,19 +577,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>472.8557482547994</v>
+        <v>17.91341824025713</v>
       </c>
       <c r="B7" t="n">
-        <v>8.816917539267015</v>
+        <v>1.215927413954734</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4959562342328621</v>
+        <v>0.8198167050656349</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1026988364425108</v>
+        <v>0.1397807737876776</v>
       </c>
       <c r="E7" t="n">
-        <v>0.526102312971268</v>
+        <v>0.9806746955337289</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -599,19 +599,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>592.7575261780105</v>
+        <v>42.64286819004668</v>
       </c>
       <c r="B8" t="n">
-        <v>10.11414703315881</v>
+        <v>2.156262584173855</v>
       </c>
       <c r="C8" t="n">
-        <v>0.448009292532948</v>
+        <v>0.7412298748495068</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1014108335427685</v>
+        <v>0.1250664844079324</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6646098887060908</v>
+        <v>0.96878036165048</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -621,19 +621,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>479.4778577661431</v>
+        <v>37.43916331045437</v>
       </c>
       <c r="B9" t="n">
-        <v>8.072207678883071</v>
+        <v>1.867977574829353</v>
       </c>
       <c r="C9" t="n">
-        <v>0.505445179513287</v>
+        <v>0.7711120085081032</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1151401899874356</v>
+        <v>0.1404951541616929</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6619710832934735</v>
+        <v>0.9766839591387499</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -643,19 +643,19 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>725.7384653141361</v>
+        <v>18.76512100456621</v>
       </c>
       <c r="B10" t="n">
-        <v>12.18485493019197</v>
+        <v>1.273214491708724</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3999479542921074</v>
+        <v>0.8180274406701389</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08108499601520071</v>
+        <v>0.1551019322810776</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6216296641834422</v>
+        <v>0.9845468546327164</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -665,19 +665,19 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>751.9650141797557</v>
+        <v>33.40584702797203</v>
       </c>
       <c r="B11" t="n">
-        <v>12.04960187609075</v>
+        <v>1.787868881118881</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3967857672071307</v>
+        <v>0.7718214574409681</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08853283978143626</v>
+        <v>0.1469353071510255</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6803321328437485</v>
+        <v>0.9796905551070637</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -687,19 +687,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>329.0936681937173</v>
+        <v>14.37096676561978</v>
       </c>
       <c r="B12" t="n">
-        <v>7.617064790575917</v>
+        <v>1.337748357401096</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4708825592096614</v>
+        <v>0.7722033935020765</v>
       </c>
       <c r="D12" t="n">
-        <v>0.11053362045444</v>
+        <v>0.1549590955272082</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7159327719488515</v>
+        <v>0.9884262505387038</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -709,19 +709,19 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>649.4243564572427</v>
+        <v>56.6655591700077</v>
       </c>
       <c r="B13" t="n">
-        <v>11.84964005235602</v>
+        <v>3.109927026642709</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2249517762860437</v>
+        <v>0.4857756410111257</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04325028787319063</v>
+        <v>0.04668697204677446</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5886591142445654</v>
+        <v>0.9665449433324301</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -731,19 +731,19 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>458.1660394851658</v>
+        <v>25.23884554800586</v>
       </c>
       <c r="B14" t="n">
-        <v>9.183436954624783</v>
+        <v>1.607591411980725</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4555013740094108</v>
+        <v>0.7656116356741379</v>
       </c>
       <c r="D14" t="n">
-        <v>0.08321933288037327</v>
+        <v>0.1084810411249552</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6139110305009376</v>
+        <v>0.9814777713237465</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -753,19 +753,19 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>398.1715205061083</v>
+        <v>33.78557565564724</v>
       </c>
       <c r="B15" t="n">
-        <v>8.606293630017452</v>
+        <v>2.118708572029222</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3080855130175119</v>
+        <v>0.6035531869404983</v>
       </c>
       <c r="D15" t="n">
-        <v>0.04866041428407338</v>
+        <v>0.06099893797477288</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6927423574631345</v>
+        <v>0.9778282278704198</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -775,19 +775,19 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>262.7110329406632</v>
+        <v>33.80563411468174</v>
       </c>
       <c r="B16" t="n">
-        <v>6.106320898778361</v>
+        <v>2.058381032313324</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3813529371984364</v>
+        <v>0.619001399953411</v>
       </c>
       <c r="D16" t="n">
-        <v>0.06048200411761018</v>
+        <v>0.07906018142494971</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6742912567861673</v>
+        <v>0.9630155504784413</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -797,19 +797,19 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1245.901341623037</v>
+        <v>90.33494609085798</v>
       </c>
       <c r="B17" t="n">
-        <v>18.43193717277487</v>
+        <v>4.047752333825589</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1987625779635059</v>
+        <v>0.5072369208295167</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03055609152715454</v>
+        <v>0.0471950552470031</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4832107176603895</v>
+        <v>0.9636681305504996</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -819,19 +819,19 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>704.9268379144852</v>
+        <v>85.19006520114209</v>
       </c>
       <c r="B18" t="n">
-        <v>11.86821007853403</v>
+        <v>3.717593870789619</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2641180283948866</v>
+        <v>0.5576545761404748</v>
       </c>
       <c r="D18" t="n">
-        <v>0.04118241989828478</v>
+        <v>0.05991281576955211</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6107532688523811</v>
+        <v>0.9560897301772829</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -841,19 +841,19 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1413.440744982548</v>
+        <v>108.3151329450845</v>
       </c>
       <c r="B19" t="n">
-        <v>19.3840804973822</v>
+        <v>4.333401994054022</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1837952908728624</v>
+        <v>0.4874707908251347</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03125575779429404</v>
+        <v>0.04509365427006545</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4232398516970275</v>
+        <v>0.9568405575153711</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -863,19 +863,19 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1259.964441535777</v>
+        <v>88.63649334956635</v>
       </c>
       <c r="B20" t="n">
-        <v>18.58000654450262</v>
+        <v>3.677807898520972</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2245659802565814</v>
+        <v>0.5664024020552925</v>
       </c>
       <c r="D20" t="n">
-        <v>0.03695913636762315</v>
+        <v>0.06332846876315699</v>
       </c>
       <c r="E20" t="n">
-        <v>0.386732935356781</v>
+        <v>0.9496456938066716</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -885,19 +885,19 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>871.5156795375218</v>
+        <v>87.76839617811942</v>
       </c>
       <c r="B21" t="n">
-        <v>14.39509707678883</v>
+        <v>3.692334058739068</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2567457499323697</v>
+        <v>0.5802008543404992</v>
       </c>
       <c r="D21" t="n">
-        <v>0.03878086154960033</v>
+        <v>0.06717980971298536</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4946449185474143</v>
+        <v>0.9528077430922076</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -907,19 +907,19 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1109.580033813264</v>
+        <v>89.05076935913367</v>
       </c>
       <c r="B22" t="n">
-        <v>16.89618782722513</v>
+        <v>3.848353881475354</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2038777505841621</v>
+        <v>0.5286028241954133</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03192425475328802</v>
+        <v>0.05111811340234364</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4646667955686969</v>
+        <v>0.9609383900267832</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -929,19 +929,19 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>434.5537467277487</v>
+        <v>50.83881639635711</v>
       </c>
       <c r="B23" t="n">
-        <v>8.799983638743456</v>
+        <v>2.645142814014726</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3508741076086367</v>
+        <v>0.6097014584380923</v>
       </c>
       <c r="D23" t="n">
-        <v>0.05848456648832838</v>
+        <v>0.06512324780018465</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7291661395945542</v>
+        <v>0.9758807964772626</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -951,19 +951,19 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1089.72834860384</v>
+        <v>103.593932716437</v>
       </c>
       <c r="B24" t="n">
-        <v>14.91590314136126</v>
+        <v>3.762942566765988</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2780376243508271</v>
+        <v>0.5701600111361312</v>
       </c>
       <c r="D24" t="n">
-        <v>0.04521167959509075</v>
+        <v>0.05743856940654545</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4911026452550558</v>
+        <v>0.9575474871064923</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -973,19 +973,19 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>697.4467986474696</v>
+        <v>35.64441944275551</v>
       </c>
       <c r="B25" t="n">
-        <v>12.9800119982548</v>
+        <v>1.983032493637134</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3531624397384108</v>
+        <v>0.7480140643868719</v>
       </c>
       <c r="D25" t="n">
-        <v>0.07632083863748916</v>
+        <v>0.1303577079560867</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5138314756573253</v>
+        <v>0.9714059882121964</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -995,19 +995,19 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>792.1372164048867</v>
+        <v>64.64350060579635</v>
       </c>
       <c r="B26" t="n">
-        <v>12.60525741710297</v>
+        <v>3.053930522483731</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2972939359326355</v>
+        <v>0.5863029792292382</v>
       </c>
       <c r="D26" t="n">
-        <v>0.04208049590692047</v>
+        <v>0.06322898643832767</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5229527444113884</v>
+        <v>0.9621766892467924</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1017,19 +1017,19 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>463.9875381762653</v>
+        <v>39.02761485026348</v>
       </c>
       <c r="B27" t="n">
-        <v>9.894497164048865</v>
+        <v>2.405783245052525</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2749897478556246</v>
+        <v>0.5681282193462199</v>
       </c>
       <c r="D27" t="n">
-        <v>0.04425989970431028</v>
+        <v>0.0678909539629263</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6133441868503386</v>
+        <v>0.9635185510373967</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1039,19 +1039,19 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>724.8918248254801</v>
+        <v>80.86027719362156</v>
       </c>
       <c r="B28" t="n">
-        <v>12.23890161431065</v>
+        <v>3.639840203732174</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2608928226423147</v>
+        <v>0.5404217385309382</v>
       </c>
       <c r="D28" t="n">
-        <v>0.03512288916176953</v>
+        <v>0.05221068687510077</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5659035415535305</v>
+        <v>0.9640578159083012</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1061,19 +1061,19 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>623.3836441972077</v>
+        <v>35.86648708796438</v>
       </c>
       <c r="B29" t="n">
-        <v>11.66140379581152</v>
+        <v>2.301618993908903</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2806881905375812</v>
+        <v>0.5913956986055006</v>
       </c>
       <c r="D29" t="n">
-        <v>0.04049988922715369</v>
+        <v>0.05606996553706148</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6852019302003591</v>
+        <v>0.9832508323607635</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1083,19 +1083,19 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>540.0697534904015</v>
+        <v>47.40455583341991</v>
       </c>
       <c r="B30" t="n">
-        <v>10.29450261780105</v>
+        <v>2.643900157969414</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2831885520759785</v>
+        <v>0.5943153147372547</v>
       </c>
       <c r="D30" t="n">
-        <v>0.04333502889433762</v>
+        <v>0.05769601717893288</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6655951763322088</v>
+        <v>0.9779612959805427</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1105,19 +1105,19 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>455.4154123036649</v>
+        <v>58.37961851055189</v>
       </c>
       <c r="B31" t="n">
-        <v>9.693444589877835</v>
+        <v>2.912788377732492</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2675283534550306</v>
+        <v>0.5820925602433354</v>
       </c>
       <c r="D31" t="n">
-        <v>0.04475284290486925</v>
+        <v>0.05787677563251428</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5614843980069475</v>
+        <v>0.9691492152558233</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1127,19 +1127,19 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>929.036867364747</v>
+        <v>89.57067955448839</v>
       </c>
       <c r="B32" t="n">
-        <v>13.97807591623037</v>
+        <v>3.984319475855565</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2504818003712891</v>
+        <v>0.4152039018183958</v>
       </c>
       <c r="D32" t="n">
-        <v>0.03790259675805858</v>
+        <v>0.04074801200205668</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4226354184115114</v>
+        <v>0.9541425324231727</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1149,19 +1149,19 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>540.9093859075044</v>
+        <v>50.4877147062672</v>
       </c>
       <c r="B33" t="n">
-        <v>8.861665575916231</v>
+        <v>2.56124038273032</v>
       </c>
       <c r="C33" t="n">
-        <v>0.36910965003026</v>
+        <v>0.5821337334133025</v>
       </c>
       <c r="D33" t="n">
-        <v>0.05407574051464054</v>
+        <v>0.05940977928463884</v>
       </c>
       <c r="E33" t="n">
-        <v>0.538371942415329</v>
+        <v>0.9704330827687075</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1171,19 +1171,19 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>588.4277377835951</v>
+        <v>55.16934173904509</v>
       </c>
       <c r="B34" t="n">
-        <v>10.30726439790576</v>
+        <v>3.116767410662926</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2665719611229749</v>
+        <v>0.4472903944443269</v>
       </c>
       <c r="D34" t="n">
-        <v>0.042039387391291</v>
+        <v>0.04536601682490101</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5308533008697831</v>
+        <v>0.9667220669147819</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1193,19 +1193,19 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>389.0370582460735</v>
+        <v>51.38407039355069</v>
       </c>
       <c r="B35" t="n">
-        <v>7.725158158813265</v>
+        <v>3.019259479596029</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2726644251506658</v>
+        <v>0.4452151523526547</v>
       </c>
       <c r="D35" t="n">
-        <v>0.04440656385861719</v>
+        <v>0.0429720269035849</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5935799958544268</v>
+        <v>0.969855679578052</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1215,19 +1215,19 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>438.8825534467713</v>
+        <v>15.58162672081868</v>
       </c>
       <c r="B36" t="n">
-        <v>9.42536540139616</v>
+        <v>1.160695083981821</v>
       </c>
       <c r="C36" t="n">
-        <v>0.416343595983566</v>
+        <v>0.8056417468597088</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07963535479676456</v>
+        <v>0.1144980358272248</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6163805460531399</v>
+        <v>0.9870504862041272</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1237,19 +1237,19 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>220.3684282286212</v>
+        <v>30.65527915135852</v>
       </c>
       <c r="B37" t="n">
-        <v>5.998718368237347</v>
+        <v>2.205845709173341</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4180710385115505</v>
+        <v>0.5767345224529206</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07858795155387371</v>
+        <v>0.0671306397143057</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6837263749537635</v>
+        <v>0.978231650867925</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1259,19 +1259,19 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>302.9723494764398</v>
+        <v>55.59477448627884</v>
       </c>
       <c r="B38" t="n">
-        <v>6.420429755671901</v>
+        <v>2.859235409913838</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3871906281175064</v>
+        <v>0.5239201607687719</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07258143563349058</v>
+        <v>0.05413381223883382</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6781872894081223</v>
+        <v>0.9658498606161459</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1281,19 +1281,19 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>238.6266906631763</v>
+        <v>37.94224327569292</v>
       </c>
       <c r="B39" t="n">
-        <v>5.491873909249564</v>
+        <v>2.369331164651135</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3947341079712128</v>
+        <v>0.5342764944749187</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07886548299489783</v>
+        <v>0.06281340902478202</v>
       </c>
       <c r="E39" t="n">
-        <v>0.7190345320899986</v>
+        <v>0.9713277079143954</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1303,19 +1303,19 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>615.4981184554973</v>
+        <v>51.53506691623328</v>
       </c>
       <c r="B40" t="n">
-        <v>10.83788721640489</v>
+        <v>3.118994802916497</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2456333023578752</v>
+        <v>0.4289869966728636</v>
       </c>
       <c r="D40" t="n">
-        <v>0.04777258109405571</v>
+        <v>0.05180603014879207</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6302814957128652</v>
+        <v>0.9683389990739649</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1325,19 +1325,19 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>425.8736638307156</v>
+        <v>38.19837841253452</v>
       </c>
       <c r="B41" t="n">
-        <v>8.51747927574171</v>
+        <v>2.315599868547629</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3558885874423198</v>
+        <v>0.5624711108043988</v>
       </c>
       <c r="D41" t="n">
-        <v>0.07145005202510574</v>
+        <v>0.06239660565801368</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6049911691906106</v>
+        <v>0.9749392703982215</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1347,19 +1347,19 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>472.2389561518325</v>
+        <v>69.16993293704078</v>
       </c>
       <c r="B42" t="n">
-        <v>8.083687827225132</v>
+        <v>3.063993074938519</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3684658064535182</v>
+        <v>0.5297825120993666</v>
       </c>
       <c r="D42" t="n">
-        <v>0.06796816468814017</v>
+        <v>0.06841016506372348</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6239951046885874</v>
+        <v>0.9453821391148177</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1369,19 +1369,19 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>382.3733093368238</v>
+        <v>40.02350844506812</v>
       </c>
       <c r="B43" t="n">
-        <v>7.689081588132637</v>
+        <v>2.458165046203525</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3977139785664882</v>
+        <v>0.5472675243213535</v>
       </c>
       <c r="D43" t="n">
-        <v>0.08447210091888493</v>
+        <v>0.07134329305803043</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5749943710042053</v>
+        <v>0.9741969765666108</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1391,19 +1391,19 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>482.1194371727749</v>
+        <v>42.64101483329897</v>
       </c>
       <c r="B44" t="n">
-        <v>9.62881762652705</v>
+        <v>2.39650368003093</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3251599887628214</v>
+        <v>0.5671875617105495</v>
       </c>
       <c r="D44" t="n">
-        <v>0.05316171000366457</v>
+        <v>0.07005799398251691</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6161200784857158</v>
+        <v>0.9591164875152471</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1413,19 +1413,19 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>587.5539376090751</v>
+        <v>59.5395314227563</v>
       </c>
       <c r="B45" t="n">
-        <v>9.648723821989531</v>
+        <v>2.780089962392928</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3978415465655463</v>
+        <v>0.5925172938734977</v>
       </c>
       <c r="D45" t="n">
-        <v>0.100896760812439</v>
+        <v>0.1032175528313082</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7324288640015312</v>
+        <v>0.9667079046962141</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1435,19 +1435,19 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>621.8794993455499</v>
+        <v>45.8172352133549</v>
       </c>
       <c r="B46" t="n">
-        <v>9.175529013961608</v>
+        <v>2.363651400051848</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4076173711448685</v>
+        <v>0.5717181282128786</v>
       </c>
       <c r="D46" t="n">
-        <v>0.08253964748452997</v>
+        <v>0.0945281263729309</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6441167907968566</v>
+        <v>0.9653142726484745</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1457,19 +1457,19 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>776.9349640052355</v>
+        <v>24.69604979321754</v>
       </c>
       <c r="B47" t="n">
-        <v>13.85686627399651</v>
+        <v>1.533046980976013</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3599065712644668</v>
+        <v>0.7889850573669891</v>
       </c>
       <c r="D47" t="n">
-        <v>0.07517930866700823</v>
+        <v>0.1387344370956861</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5480363005595389</v>
+        <v>0.9787028296431929</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1479,19 +1479,19 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>569.0843695462479</v>
+        <v>52.33236823439749</v>
       </c>
       <c r="B48" t="n">
-        <v>9.404232111692844</v>
+        <v>2.568545808373423</v>
       </c>
       <c r="C48" t="n">
-        <v>0.439004854523523</v>
+        <v>0.6187128974553752</v>
       </c>
       <c r="D48" t="n">
-        <v>0.07543425498972808</v>
+        <v>0.08511916284021755</v>
       </c>
       <c r="E48" t="n">
-        <v>0.615008587344145</v>
+        <v>0.9592596997536736</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1501,19 +1501,19 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>558.8810536649215</v>
+        <v>44.8166269741122</v>
       </c>
       <c r="B49" t="n">
-        <v>9.83022469458988</v>
+        <v>2.30646030619841</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3598096274065174</v>
+        <v>0.652564146815495</v>
       </c>
       <c r="D49" t="n">
-        <v>0.05904848535873519</v>
+        <v>0.08189596533705588</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5903443074283077</v>
+        <v>0.9689665168766207</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1523,19 +1523,19 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>969.1179101221642</v>
+        <v>69.35622932006649</v>
       </c>
       <c r="B50" t="n">
-        <v>15.2482002617801</v>
+        <v>3.448028233849931</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2716139191351017</v>
+        <v>0.5423719301926606</v>
       </c>
       <c r="D50" t="n">
-        <v>0.05929224462035775</v>
+        <v>0.06735975814174468</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5519298932545024</v>
+        <v>0.9647103306208519</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1545,19 +1545,19 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>263.6154013961606</v>
+        <v>35.24498869217312</v>
       </c>
       <c r="B51" t="n">
-        <v>5.683791448516581</v>
+        <v>2.17843202197762</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5275905080872982</v>
+        <v>0.6397220391037844</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1039581553390615</v>
+        <v>0.08864039943211595</v>
       </c>
       <c r="E51" t="n">
-        <v>0.7622207101195082</v>
+        <v>0.9747946670870632</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1567,19 +1567,19 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1075.136834642234</v>
+        <v>69.39022351734987</v>
       </c>
       <c r="B52" t="n">
-        <v>16.27770506108203</v>
+        <v>3.277678567302442</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3077331533430334</v>
+        <v>0.5977311811727775</v>
       </c>
       <c r="D52" t="n">
-        <v>0.07397823357384008</v>
+        <v>0.09428279131137238</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4729828435951229</v>
+        <v>0.9575799389466466</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1589,19 +1589,19 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1794.008180628272</v>
+        <v>196.752254464324</v>
       </c>
       <c r="B53" t="n">
-        <v>13.51178010471204</v>
+        <v>3.815518371568116</v>
       </c>
       <c r="C53" t="n">
-        <v>0.562377292683844</v>
+        <v>0.758148522096262</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3883506991201955</v>
+        <v>0.5756434397644672</v>
       </c>
       <c r="E53" t="n">
-        <v>0.7743002727908481</v>
+        <v>0.9746307923211304</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1611,19 +1611,19 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3122.867910122164</v>
+        <v>221.0180088713235</v>
       </c>
       <c r="B54" t="n">
-        <v>21.75370855148342</v>
+        <v>4.272563922298859</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4299582547464283</v>
+        <v>0.7289483783142829</v>
       </c>
       <c r="D54" t="n">
-        <v>0.2681426790925595</v>
+        <v>0.5378911637061772</v>
       </c>
       <c r="E54" t="n">
-        <v>0.6568623190804089</v>
+        <v>0.971180279071047</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1633,19 +1633,19 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1440.563754363002</v>
+        <v>228.9257281040732</v>
       </c>
       <c r="B55" t="n">
-        <v>10.82313481675393</v>
+        <v>4.144339341862085</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5733170203471345</v>
+        <v>0.742759178006313</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3740767353545096</v>
+        <v>0.548096726421185</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7760334789866508</v>
+        <v>0.9708026539537837</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1655,19 +1655,19 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2185.035122164049</v>
+        <v>231.3707898743066</v>
       </c>
       <c r="B56" t="n">
-        <v>15.84571335078534</v>
+        <v>4.391180163786133</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5139380314303077</v>
+        <v>0.7145261403716231</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3372040800255025</v>
+        <v>0.5173016018807125</v>
       </c>
       <c r="E56" t="n">
-        <v>0.7078540375265495</v>
+        <v>0.9699724210647276</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1677,19 +1677,19 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2128.187336387435</v>
+        <v>259.3720654127643</v>
       </c>
       <c r="B57" t="n">
-        <v>15.83818717277487</v>
+        <v>4.282871075105136</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4650904649750817</v>
+        <v>0.7219036226647196</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3080782725192298</v>
+        <v>0.4861796314600343</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7167333961734232</v>
+        <v>0.9688936197880812</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1699,19 +1699,19 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>361.0851058027923</v>
+        <v>22.27428191926867</v>
       </c>
       <c r="B58" t="n">
-        <v>8.731866273996509</v>
+        <v>1.623350328612386</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4567645715779475</v>
+        <v>0.7648388872820833</v>
       </c>
       <c r="D58" t="n">
-        <v>0.09588945296375491</v>
+        <v>0.1327670424517706</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6513400399420776</v>
+        <v>0.9776372860069946</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1721,19 +1721,19 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1762.721695026178</v>
+        <v>262.0996670824073</v>
       </c>
       <c r="B59" t="n">
-        <v>13.76428883071553</v>
+        <v>4.813837728515161</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5171185214628489</v>
+        <v>0.7001586353732849</v>
       </c>
       <c r="D59" t="n">
-        <v>0.342441092419307</v>
+        <v>0.4674752744579534</v>
       </c>
       <c r="E59" t="n">
-        <v>0.7875340314378653</v>
+        <v>0.9710690129841342</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1743,19 +1743,19 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2552.369464441536</v>
+        <v>203.0717360605842</v>
       </c>
       <c r="B60" t="n">
-        <v>16.71561409249564</v>
+        <v>3.378249561025655</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5288199679432196</v>
+        <v>0.7854080748230187</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3809949351851736</v>
+        <v>0.5556713845176712</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6685324401102892</v>
+        <v>0.9693412864957807</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -1765,19 +1765,19 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2512.066726657941</v>
+        <v>231.6230920493045</v>
       </c>
       <c r="B61" t="n">
-        <v>18.77255126527051</v>
+        <v>4.283693278203381</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5589113404788173</v>
+        <v>0.8165117425539681</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4853126445116728</v>
+        <v>0.7282318989372355</v>
       </c>
       <c r="E61" t="n">
-        <v>0.430832190823153</v>
+        <v>0.9345422412103529</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -1787,19 +1787,19 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3266.916939354276</v>
+        <v>310.4405951602197</v>
       </c>
       <c r="B62" t="n">
-        <v>21.6776832460733</v>
+        <v>4.713225889158058</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4768210627400731</v>
+        <v>0.723832365246183</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3426632559822504</v>
+        <v>0.5327196617711837</v>
       </c>
       <c r="E62" t="n">
-        <v>0.6443772263834904</v>
+        <v>0.9604702955720585</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -1809,19 +1809,19 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>359.899787303665</v>
+        <v>101.3666297149183</v>
       </c>
       <c r="B63" t="n">
-        <v>4.45650632635253</v>
+        <v>2.362347678688215</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6094388820417945</v>
+        <v>0.7786537547518095</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3436305637745846</v>
+        <v>0.5219114206639252</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9031636288414059</v>
+        <v>0.9773714739297771</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -1831,19 +1831,19 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1021.65714986911</v>
+        <v>131.6887710144525</v>
       </c>
       <c r="B64" t="n">
-        <v>8.692708333333332</v>
+        <v>2.917979655763</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6143355230490115</v>
+        <v>0.743588016237979</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4376449271188899</v>
+        <v>0.4905838142107468</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8062927415038796</v>
+        <v>0.9748751936214176</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -1853,19 +1853,19 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1760.760280322861</v>
+        <v>148.4228976417517</v>
       </c>
       <c r="B65" t="n">
-        <v>14.40311409249563</v>
+        <v>2.963947155319573</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4886292121618018</v>
+        <v>0.7732046594413886</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3271816445526481</v>
+        <v>0.5752781224913806</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7326660787350665</v>
+        <v>0.9726383929053283</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -1875,19 +1875,19 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>276.3888797993019</v>
+        <v>147.4292157788245</v>
       </c>
       <c r="B66" t="n">
-        <v>3.48175719895288</v>
+        <v>2.890164255481142</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6499636240699481</v>
+        <v>0.7809192054993735</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4107024896860715</v>
+        <v>0.5844426308333742</v>
       </c>
       <c r="E66" t="n">
-        <v>0.917808914170542</v>
+        <v>0.97148843242824</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -1897,19 +1897,19 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1760.280486474694</v>
+        <v>131.3828370438934</v>
       </c>
       <c r="B67" t="n">
-        <v>12.97038612565445</v>
+        <v>2.744666439323817</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5788386055023924</v>
+        <v>0.8067974434640569</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4301300654091463</v>
+        <v>0.6333261135424101</v>
       </c>
       <c r="E67" t="n">
-        <v>0.719817047307557</v>
+        <v>0.9758522910524822</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -1919,19 +1919,19 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1692.420266143107</v>
+        <v>158.6890046143803</v>
       </c>
       <c r="B68" t="n">
-        <v>11.98205715532286</v>
+        <v>3.088639424032444</v>
       </c>
       <c r="C68" t="n">
-        <v>0.625578761381954</v>
+        <v>0.8186997593964369</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4961909773098487</v>
+        <v>0.6632628139940776</v>
       </c>
       <c r="E68" t="n">
-        <v>0.7096422918579126</v>
+        <v>0.9727398919180631</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -1941,19 +1941,19 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>448.9463078097731</v>
+        <v>16.07340444484706</v>
       </c>
       <c r="B69" t="n">
-        <v>9.905622818499127</v>
+        <v>1.277911495606486</v>
       </c>
       <c r="C69" t="n">
-        <v>0.4110874216849224</v>
+        <v>0.7860555808808924</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1030151567970298</v>
+        <v>0.1229689908173391</v>
       </c>
       <c r="E69" t="n">
-        <v>0.6492712779722536</v>
+        <v>0.9895906743367821</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -1963,19 +1963,19 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1792.114828752182</v>
+        <v>186.8368339134749</v>
       </c>
       <c r="B70" t="n">
-        <v>13.36684664048866</v>
+        <v>3.348044174805048</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5625463321349956</v>
+        <v>0.7599104424383522</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3511385985648694</v>
+        <v>0.5198862831127445</v>
       </c>
       <c r="E70" t="n">
-        <v>0.7460750579207969</v>
+        <v>0.9680231117149573</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -1985,19 +1985,19 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1405.332515270506</v>
+        <v>155.5401985385896</v>
       </c>
       <c r="B71" t="n">
-        <v>11.07989746945899</v>
+        <v>3.172519521382508</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5928220870297695</v>
+        <v>0.7615759594046543</v>
       </c>
       <c r="D71" t="n">
-        <v>0.3963559264003187</v>
+        <v>0.5585770969902163</v>
       </c>
       <c r="E71" t="n">
-        <v>0.760621717216216</v>
+        <v>0.9749397737587694</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2007,19 +2007,19 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1350.155840968586</v>
+        <v>120.5247818730956</v>
       </c>
       <c r="B72" t="n">
-        <v>10.56410885689354</v>
+        <v>2.469897817855668</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5952771377404549</v>
+        <v>0.8070961931011679</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4170754707662574</v>
+        <v>0.6082450229632821</v>
       </c>
       <c r="E72" t="n">
-        <v>0.7574855747672045</v>
+        <v>0.9779170388991036</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2029,19 +2029,19 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2077.559882198953</v>
+        <v>149.4759675767437</v>
       </c>
       <c r="B73" t="n">
-        <v>15.80371945898778</v>
+        <v>3.000537673138581</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5389572666785982</v>
+        <v>0.7797902680484843</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4193192890926813</v>
+        <v>0.6093733958371411</v>
       </c>
       <c r="E73" t="n">
-        <v>0.714665309224107</v>
+        <v>0.9740611380325691</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2051,19 +2051,19 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1557.762952661431</v>
+        <v>166.1249531426727</v>
       </c>
       <c r="B74" t="n">
-        <v>12.76982438917976</v>
+        <v>3.265548873710429</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5487593460170054</v>
+        <v>0.7779866502160719</v>
       </c>
       <c r="D74" t="n">
-        <v>0.3786521969890027</v>
+        <v>0.5819913028304661</v>
       </c>
       <c r="E74" t="n">
-        <v>0.7656449736680117</v>
+        <v>0.9710414940892161</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2073,19 +2073,19 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1932.392697425829</v>
+        <v>211.9906031330435</v>
       </c>
       <c r="B75" t="n">
-        <v>15.25989856020942</v>
+        <v>4.153726757381377</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6291273768306053</v>
+        <v>0.8326535276805654</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5612949867547574</v>
+        <v>0.7648458731020209</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5104850092940629</v>
+        <v>0.9470675096376696</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2095,19 +2095,19 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2286.508207897033</v>
+        <v>187.9856863193175</v>
       </c>
       <c r="B76" t="n">
-        <v>15.71005126527051</v>
+        <v>3.158877666057282</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6725000584789681</v>
+        <v>0.887288616280682</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6225809508578904</v>
+        <v>0.8286253245772828</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4386578545581681</v>
+        <v>0.9439234195248362</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2117,19 +2117,19 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>756.9464441535777</v>
+        <v>82.39666131064902</v>
       </c>
       <c r="B77" t="n">
-        <v>5.662085514834207</v>
+        <v>1.589895715185885</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8477420630444484</v>
+        <v>0.9354310710229772</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8177205478955788</v>
+        <v>0.9011563806155294</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5405007736504202</v>
+        <v>0.9563679135838061</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2139,19 +2139,19 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1673.8876254363</v>
+        <v>102.1125888420066</v>
       </c>
       <c r="B78" t="n">
-        <v>12.16740292321117</v>
+        <v>1.82123050476637</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6792346753732619</v>
+        <v>0.926422562699652</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6268679167944906</v>
+        <v>0.8851223771718829</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4920204401242994</v>
+        <v>0.9510387533373533</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2161,19 +2161,19 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1776.631762652705</v>
+        <v>140.1305331301988</v>
       </c>
       <c r="B79" t="n">
-        <v>13.0021815008726</v>
+        <v>2.394723563933495</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6645000231179654</v>
+        <v>0.9089723240665393</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6007034266472737</v>
+        <v>0.865414547918712</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5252652450984302</v>
+        <v>0.9447979169742248</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2183,19 +2183,19 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>294.6201461605585</v>
+        <v>13.62172346170651</v>
       </c>
       <c r="B80" t="n">
-        <v>7.324825479930192</v>
+        <v>1.145890955164546</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5152671158532797</v>
+        <v>0.8099654770298856</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1056547293366175</v>
+        <v>0.1276233240615063</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6522357747073926</v>
+        <v>0.9851879656319148</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2205,19 +2205,19 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2489.789976003491</v>
+        <v>184.6543323408648</v>
       </c>
       <c r="B81" t="n">
-        <v>18.54930191972077</v>
+        <v>3.473757837679947</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5763466818035889</v>
+        <v>0.8611440533450044</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5251747072211007</v>
+        <v>0.8001112553808952</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4886636756747811</v>
+        <v>0.9469301487085222</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2227,19 +2227,19 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2164.599640052356</v>
+        <v>183.4329173857462</v>
       </c>
       <c r="B82" t="n">
-        <v>17.37189136125654</v>
+        <v>3.600172099712368</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5682372769929412</v>
+        <v>0.8617574516749297</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5094504897279178</v>
+        <v>0.8054849240928067</v>
       </c>
       <c r="E82" t="n">
-        <v>0.4794750239793863</v>
+        <v>0.9506977079787104</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2249,19 +2249,19 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2050.623527486911</v>
+        <v>172.8772190031153</v>
       </c>
       <c r="B83" t="n">
-        <v>15.00812609075043</v>
+        <v>3.046704361370717</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5551695759440675</v>
+        <v>0.8798336290199452</v>
       </c>
       <c r="D83" t="n">
-        <v>0.459737147041215</v>
+        <v>0.825648376864184</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5848621776608054</v>
+        <v>0.9496408227043915</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2271,19 +2271,19 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2130.184255017452</v>
+        <v>226.868088893774</v>
       </c>
       <c r="B84" t="n">
-        <v>15.67329297556719</v>
+        <v>4.29084267324722</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6520410508063054</v>
+        <v>0.821287910274763</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5985520291001767</v>
+        <v>0.7347361560440235</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4653815386775498</v>
+        <v>0.9488973029635199</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2293,19 +2293,19 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2383.870227966841</v>
+        <v>213.4918569792891</v>
       </c>
       <c r="B85" t="n">
-        <v>19.14613328970332</v>
+        <v>4.291526947783329</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5200428411670724</v>
+        <v>0.8091943207839881</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4575598742420093</v>
+        <v>0.7337370311891451</v>
       </c>
       <c r="E85" t="n">
-        <v>0.545183259923808</v>
+        <v>0.9487318161463345</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2315,19 +2315,19 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1840.156359075044</v>
+        <v>259.0438214787603</v>
       </c>
       <c r="B86" t="n">
-        <v>12.36818280977312</v>
+        <v>4.398192227415885</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7479945444462713</v>
+        <v>0.8445773414363645</v>
       </c>
       <c r="D86" t="n">
-        <v>0.7058294889626626</v>
+        <v>0.7930495855781289</v>
       </c>
       <c r="E86" t="n">
-        <v>0.4350713100121468</v>
+        <v>0.9341125325943838</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2337,19 +2337,19 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1786.308027923211</v>
+        <v>101.0401628578216</v>
       </c>
       <c r="B87" t="n">
-        <v>12.39561518324607</v>
+        <v>1.838174072425552</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7253039903604187</v>
+        <v>0.9183434485646916</v>
       </c>
       <c r="D87" t="n">
-        <v>0.6772618205282944</v>
+        <v>0.8739192677974947</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5506402490022478</v>
+        <v>0.9582551866274831</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2359,19 +2359,19 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2717.667511998255</v>
+        <v>170.4426152017403</v>
       </c>
       <c r="B88" t="n">
-        <v>18.76284358638743</v>
+        <v>3.112529387825609</v>
       </c>
       <c r="C88" t="n">
-        <v>0.561096135072905</v>
+        <v>0.8698173470564264</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4791129648998284</v>
+        <v>0.8080468226941289</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5176973236053116</v>
+        <v>0.9583337402571426</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2381,19 +2381,19 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2067.366792102967</v>
+        <v>188.5820950784088</v>
       </c>
       <c r="B89" t="n">
-        <v>14.70050719895288</v>
+        <v>3.465512618947814</v>
       </c>
       <c r="C89" t="n">
-        <v>0.6786308080841853</v>
+        <v>0.8492475491069367</v>
       </c>
       <c r="D89" t="n">
-        <v>0.623268386706349</v>
+        <v>0.7827751099247543</v>
       </c>
       <c r="E89" t="n">
-        <v>0.5441681929901074</v>
+        <v>0.9510308252240486</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2403,19 +2403,19 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>3868.72354930192</v>
+        <v>216.0344612548741</v>
       </c>
       <c r="B90" t="n">
-        <v>27.29150305410122</v>
+        <v>4.224008791208791</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4218872563103072</v>
+        <v>0.8166712993243673</v>
       </c>
       <c r="D90" t="n">
-        <v>0.3176903334752499</v>
+        <v>0.7268674842115727</v>
       </c>
       <c r="E90" t="n">
-        <v>0.4908002308944847</v>
+        <v>0.9589222636967616</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2425,19 +2425,19 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>513.8724640052355</v>
+        <v>36.55468737552079</v>
       </c>
       <c r="B91" t="n">
-        <v>9.85795702443281</v>
+        <v>2.128764504108445</v>
       </c>
       <c r="C91" t="n">
-        <v>0.445061371183171</v>
+        <v>0.7378157614228792</v>
       </c>
       <c r="D91" t="n">
-        <v>0.07517830721439336</v>
+        <v>0.1339459411657472</v>
       </c>
       <c r="E91" t="n">
-        <v>0.6108685680068466</v>
+        <v>0.9693402621155917</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2447,19 +2447,19 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1729.278414048866</v>
+        <v>182.7512338244034</v>
       </c>
       <c r="B92" t="n">
-        <v>12.37941753926702</v>
+        <v>3.364976259369259</v>
       </c>
       <c r="C92" t="n">
-        <v>0.73780974496128</v>
+        <v>0.8617691511771911</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6858191407677072</v>
+        <v>0.7999772426723618</v>
       </c>
       <c r="E92" t="n">
-        <v>0.5904774719507065</v>
+        <v>0.9560815733274947</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2469,19 +2469,19 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2020.188863438045</v>
+        <v>149.8499959271462</v>
       </c>
       <c r="B93" t="n">
-        <v>15.1769742582897</v>
+        <v>2.839161365698175</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6497093486049963</v>
+        <v>0.8794994712898716</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5857117944450309</v>
+        <v>0.8248737023116581</v>
       </c>
       <c r="E93" t="n">
-        <v>0.6066911214578765</v>
+        <v>0.959777337701864</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2491,19 +2491,19 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>995.5671629581155</v>
+        <v>148.6082085711742</v>
       </c>
       <c r="B94" t="n">
-        <v>6.702634162303665</v>
+        <v>2.723115980127071</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8190148861455303</v>
+        <v>0.8756154490404372</v>
       </c>
       <c r="D94" t="n">
-        <v>0.7380964329313695</v>
+        <v>0.7778236236321446</v>
       </c>
       <c r="E94" t="n">
-        <v>0.7183619639723807</v>
+        <v>0.9604876794279055</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2513,19 +2513,19 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1829.960896596858</v>
+        <v>136.2331761433573</v>
       </c>
       <c r="B95" t="n">
-        <v>14.00850785340314</v>
+        <v>3.013176249926734</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6881813237845508</v>
+        <v>0.8620495508814794</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6283142345071823</v>
+        <v>0.8014038853836003</v>
       </c>
       <c r="E95" t="n">
-        <v>0.5958706612084423</v>
+        <v>0.9644882842234134</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -2535,19 +2535,19 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1926.051483420593</v>
+        <v>169.0554040852766</v>
       </c>
       <c r="B96" t="n">
-        <v>14.7038612565445</v>
+        <v>3.362254049890124</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6672412520060259</v>
+        <v>0.8503900177529479</v>
       </c>
       <c r="D96" t="n">
-        <v>0.606094631006211</v>
+        <v>0.7799034391353962</v>
       </c>
       <c r="E96" t="n">
-        <v>0.5287637016197627</v>
+        <v>0.9487914888669547</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -2557,19 +2557,19 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2089.742610165794</v>
+        <v>155.4938251719886</v>
       </c>
       <c r="B97" t="n">
-        <v>14.53471313263525</v>
+        <v>2.830724037527502</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6807381990590774</v>
+        <v>0.8878252690401465</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6223449676294021</v>
+        <v>0.8385794343745112</v>
       </c>
       <c r="E97" t="n">
-        <v>0.5323239882860028</v>
+        <v>0.9515112906056608</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -2579,19 +2579,19 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>779.1097840314137</v>
+        <v>92.65012747967481</v>
       </c>
       <c r="B98" t="n">
-        <v>6.528795811518325</v>
+        <v>1.990109593495935</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8050156624568747</v>
+        <v>0.9078661421371585</v>
       </c>
       <c r="D98" t="n">
-        <v>0.7542535929894374</v>
+        <v>0.8573552934449618</v>
       </c>
       <c r="E98" t="n">
-        <v>0.7566093926039724</v>
+        <v>0.9689769718986105</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -2601,19 +2601,19 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1030.786485602094</v>
+        <v>89.77435920299095</v>
       </c>
       <c r="B99" t="n">
-        <v>7.142233856893543</v>
+        <v>1.720886200825644</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8432146253751958</v>
+        <v>0.9261133850674831</v>
       </c>
       <c r="D99" t="n">
-        <v>0.8118505520181769</v>
+        <v>0.8924926005967115</v>
       </c>
       <c r="E99" t="n">
-        <v>0.5361225914021445</v>
+        <v>0.9582898663154348</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -2623,19 +2623,19 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>158.2260580279232</v>
+        <v>19.98344932186284</v>
       </c>
       <c r="B100" t="n">
-        <v>2.914921465968586</v>
+        <v>1.027874855879715</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7280755825179793</v>
+        <v>0.8573677879698161</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2673258835505852</v>
+        <v>0.2992477207544054</v>
       </c>
       <c r="E100" t="n">
-        <v>0.7227984615173877</v>
+        <v>0.9753006571815115</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -2645,19 +2645,19 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>269.8747545811518</v>
+        <v>24.98015584002238</v>
       </c>
       <c r="B101" t="n">
-        <v>4.977612347294937</v>
+        <v>1.270345798524506</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5890021057561564</v>
+        <v>0.8081203995358422</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1579274837453457</v>
+        <v>0.194069261574177</v>
       </c>
       <c r="E101" t="n">
-        <v>0.721606748574646</v>
+        <v>0.980062532800932</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -2667,19 +2667,19 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>427.3255344677139</v>
+        <v>47.77975743498614</v>
       </c>
       <c r="B102" t="n">
-        <v>6.578261343804538</v>
+        <v>2.697884746637563</v>
       </c>
       <c r="C102" t="n">
-        <v>0.5517094407776639</v>
+        <v>0.4521163754439488</v>
       </c>
       <c r="D102" t="n">
-        <v>0.08177514268792982</v>
+        <v>0.04438879880750834</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6212051323556262</v>
+        <v>0.9769907884202166</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -2689,19 +2689,19 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1897.978921247819</v>
+        <v>124.2490424485444</v>
       </c>
       <c r="B103" t="n">
-        <v>19.78689463350786</v>
+        <v>4.276257363402354</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2564827629361957</v>
+        <v>0.4055046667631306</v>
       </c>
       <c r="D103" t="n">
-        <v>0.04705834073612238</v>
+        <v>0.04020244742441013</v>
       </c>
       <c r="E103" t="n">
-        <v>0.4729245152438493</v>
+        <v>0.9562862198574148</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -2711,19 +2711,19 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>542.9852476003491</v>
+        <v>57.77528944658408</v>
       </c>
       <c r="B104" t="n">
-        <v>8.384244109947645</v>
+        <v>2.780486389313841</v>
       </c>
       <c r="C104" t="n">
-        <v>0.444941579257078</v>
+        <v>0.4770352202557479</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1047464683621467</v>
+        <v>0.06192926537675554</v>
       </c>
       <c r="E104" t="n">
-        <v>0.3994097527035075</v>
+        <v>0.9589458286866254</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -2733,19 +2733,19 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>228.3934336823735</v>
+        <v>49.22636599586182</v>
       </c>
       <c r="B105" t="n">
-        <v>5.105857329842932</v>
+        <v>2.726735371516521</v>
       </c>
       <c r="C105" t="n">
-        <v>0.442077303933185</v>
+        <v>0.4771197938405415</v>
       </c>
       <c r="D105" t="n">
-        <v>0.04182003441597684</v>
+        <v>0.03243177319488405</v>
       </c>
       <c r="E105" t="n">
-        <v>0.8407199443283057</v>
+        <v>0.9887875146175067</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -2755,19 +2755,19 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1093.010198516579</v>
+        <v>97.41431751554285</v>
       </c>
       <c r="B106" t="n">
-        <v>13.02770506108202</v>
+        <v>3.478925175698789</v>
       </c>
       <c r="C106" t="n">
-        <v>0.3412717558423028</v>
+        <v>0.4307015974332145</v>
       </c>
       <c r="D106" t="n">
-        <v>0.08361508780293676</v>
+        <v>0.06388243018085306</v>
       </c>
       <c r="E106" t="n">
-        <v>0.6192402000843037</v>
+        <v>0.9502437555977737</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -2777,19 +2777,19 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>894.2713514397905</v>
+        <v>91.30009511359955</v>
       </c>
       <c r="B107" t="n">
-        <v>11.19036321989529</v>
+        <v>3.896374771437999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.3937423705985881</v>
+        <v>0.3836914133919015</v>
       </c>
       <c r="D107" t="n">
-        <v>0.05747728609729909</v>
+        <v>0.03674352250438282</v>
       </c>
       <c r="E107" t="n">
-        <v>0.692993696258331</v>
+        <v>0.9617747072700331</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -2799,19 +2799,19 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1555.64152486911</v>
+        <v>175.3048561953616</v>
       </c>
       <c r="B108" t="n">
-        <v>16.79248472949389</v>
+        <v>4.981293527809607</v>
       </c>
       <c r="C108" t="n">
-        <v>0.312967830661992</v>
+        <v>0.3953147212937466</v>
       </c>
       <c r="D108" t="n">
-        <v>0.07759527278874502</v>
+        <v>0.06915518752667103</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4500000310027182</v>
+        <v>0.9254753949763724</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -2821,19 +2821,19 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>455.0312500000001</v>
+        <v>64.95547203236893</v>
       </c>
       <c r="B109" t="n">
-        <v>7.430028359511345</v>
+        <v>3.26562902827787</v>
       </c>
       <c r="C109" t="n">
-        <v>0.4266949909171374</v>
+        <v>0.4231117458335132</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1138820505423913</v>
+        <v>0.07537039740402611</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4928143666145165</v>
+        <v>0.9456893993873535</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -2843,19 +2843,19 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2315.55017452007</v>
+        <v>148.3676851345782</v>
       </c>
       <c r="B110" t="n">
-        <v>23.24509162303665</v>
+        <v>4.691258651582448</v>
       </c>
       <c r="C110" t="n">
-        <v>0.2596723459111685</v>
+        <v>0.3757727930277739</v>
       </c>
       <c r="D110" t="n">
-        <v>0.03217190322951709</v>
+        <v>0.02825052413737041</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3961093161970467</v>
+        <v>0.9641020002180523</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -2865,19 +2865,19 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>753.8960787521816</v>
+        <v>114.4403841939249</v>
       </c>
       <c r="B111" t="n">
-        <v>9.711360165794066</v>
+        <v>4.073341819585023</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4437950849492813</v>
+        <v>0.4030652934716648</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0534673059585899</v>
+        <v>0.03289783415232985</v>
       </c>
       <c r="E111" t="n">
-        <v>0.7443528132516758</v>
+        <v>0.9736772945083501</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -2887,19 +2887,19 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1686.333196989529</v>
+        <v>123.6933145572962</v>
       </c>
       <c r="B112" t="n">
-        <v>16.34148669284468</v>
+        <v>4.181476500616089</v>
       </c>
       <c r="C112" t="n">
-        <v>0.4193169891845808</v>
+        <v>0.4204395386527514</v>
       </c>
       <c r="D112" t="n">
-        <v>0.06463365075469522</v>
+        <v>0.05679543472570405</v>
       </c>
       <c r="E112" t="n">
-        <v>0.5597433363150821</v>
+        <v>0.9661431750850927</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -2909,19 +2909,19 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>415.8913612565445</v>
+        <v>52.60042271928857</v>
       </c>
       <c r="B113" t="n">
-        <v>5.859620418848167</v>
+        <v>3.182163424731276</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5516459658579927</v>
+        <v>0.4063189601300523</v>
       </c>
       <c r="D113" t="n">
-        <v>0.07087033710563015</v>
+        <v>0.03922667490361538</v>
       </c>
       <c r="E113" t="n">
-        <v>0.6402909046760554</v>
+        <v>0.9741386154712958</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -2931,19 +2931,19 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1353.743946335078</v>
+        <v>50.00760482481333</v>
       </c>
       <c r="B114" t="n">
-        <v>16.5875872600349</v>
+        <v>2.824665406036825</v>
       </c>
       <c r="C114" t="n">
-        <v>0.3735820205451764</v>
+        <v>0.446809306362431</v>
       </c>
       <c r="D114" t="n">
-        <v>0.04868188715154944</v>
+        <v>0.0420840730227803</v>
       </c>
       <c r="E114" t="n">
-        <v>0.4744366187362664</v>
+        <v>0.976799149861806</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -2953,19 +2953,19 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>537.3769906195463</v>
+        <v>43.45964655707278</v>
       </c>
       <c r="B115" t="n">
-        <v>8.117828315881328</v>
+        <v>2.55173645326618</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4829406196409834</v>
+        <v>0.4584120557904698</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1109909586040584</v>
+        <v>0.05346530751730302</v>
       </c>
       <c r="E115" t="n">
-        <v>0.7686099298974814</v>
+        <v>0.974354430553995</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -2975,19 +2975,19 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>908.4175665357767</v>
+        <v>50.35763380034643</v>
       </c>
       <c r="B116" t="n">
-        <v>12.09524978184991</v>
+        <v>2.857846185328918</v>
       </c>
       <c r="C116" t="n">
-        <v>0.3393962503320115</v>
+        <v>0.4339167018535112</v>
       </c>
       <c r="D116" t="n">
-        <v>0.04397294215356635</v>
+        <v>0.04637547668908721</v>
       </c>
       <c r="E116" t="n">
-        <v>0.5178106752042969</v>
+        <v>0.9799612053372759</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -2997,19 +2997,19 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1189.252617801047</v>
+        <v>51.99447155594432</v>
       </c>
       <c r="B117" t="n">
-        <v>15.96427792321117</v>
+        <v>3.328974008767757</v>
       </c>
       <c r="C117" t="n">
-        <v>0.3174976808895777</v>
+        <v>0.4188953981135766</v>
       </c>
       <c r="D117" t="n">
-        <v>0.04288434669120045</v>
+        <v>0.03920611622043827</v>
       </c>
       <c r="E117" t="n">
-        <v>0.5565159501813257</v>
+        <v>0.9851789449013123</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3019,19 +3019,19 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1357.094486256545</v>
+        <v>48.41610475943768</v>
       </c>
       <c r="B118" t="n">
-        <v>17.29643869982548</v>
+        <v>2.797716353837666</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2668293026392071</v>
+        <v>0.4376556139238791</v>
       </c>
       <c r="D118" t="n">
-        <v>0.03798265305478386</v>
+        <v>0.04830554866680647</v>
       </c>
       <c r="E118" t="n">
-        <v>0.5712356823392658</v>
+        <v>0.9821816030567873</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -3041,19 +3041,19 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1218.929019415358</v>
+        <v>66.30263005090677</v>
       </c>
       <c r="B119" t="n">
-        <v>16.27031522687609</v>
+        <v>3.208171730830417</v>
       </c>
       <c r="C119" t="n">
-        <v>0.2556171480220989</v>
+        <v>0.4211596681038242</v>
       </c>
       <c r="D119" t="n">
-        <v>0.02912867879570875</v>
+        <v>0.03735386209162245</v>
       </c>
       <c r="E119" t="n">
-        <v>0.4343659324459544</v>
+        <v>0.9724450036737134</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -3063,19 +3063,19 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>741.4153850349041</v>
+        <v>53.34845533280918</v>
       </c>
       <c r="B120" t="n">
-        <v>10.6729657504363</v>
+        <v>3.364166899915094</v>
       </c>
       <c r="C120" t="n">
-        <v>0.3182183072144333</v>
+        <v>0.3794857065588953</v>
       </c>
       <c r="D120" t="n">
-        <v>0.03716232917799261</v>
+        <v>0.03123557765019211</v>
       </c>
       <c r="E120" t="n">
-        <v>0.5902985204688641</v>
+        <v>0.9804027997916099</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -3085,19 +3085,19 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1541.228403141361</v>
+        <v>153.5765146068472</v>
       </c>
       <c r="B121" t="n">
-        <v>17.74972731239092</v>
+        <v>4.76817740350491</v>
       </c>
       <c r="C121" t="n">
-        <v>0.3099961754754055</v>
+        <v>0.3808886922535849</v>
       </c>
       <c r="D121" t="n">
-        <v>0.08113860704192898</v>
+        <v>0.06518140286388077</v>
       </c>
       <c r="E121" t="n">
-        <v>0.4157993166381527</v>
+        <v>0.9257732345520826</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -3107,19 +3107,19 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>985.8477585078533</v>
+        <v>100.1854848961793</v>
       </c>
       <c r="B122" t="n">
-        <v>12.26682482547993</v>
+        <v>3.617804678735058</v>
       </c>
       <c r="C122" t="n">
-        <v>0.4173859043475423</v>
+        <v>0.4343737034244979</v>
       </c>
       <c r="D122" t="n">
-        <v>0.09744429995786485</v>
+        <v>0.06127441424145826</v>
       </c>
       <c r="E122" t="n">
-        <v>0.5496568462757567</v>
+        <v>0.9410316225881159</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -3129,19 +3129,19 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1314.191753926701</v>
+        <v>115.6056759347973</v>
       </c>
       <c r="B123" t="n">
-        <v>15.23778359511344</v>
+        <v>4.167722615485118</v>
       </c>
       <c r="C123" t="n">
-        <v>0.3277514686702344</v>
+        <v>0.3907642274765673</v>
       </c>
       <c r="D123" t="n">
-        <v>0.07664763639094681</v>
+        <v>0.0609136182724215</v>
       </c>
       <c r="E123" t="n">
-        <v>0.4512138631137149</v>
+        <v>0.9529935441062144</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -3151,19 +3151,19 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1220.667484729494</v>
+        <v>102.1599087605685</v>
       </c>
       <c r="B124" t="n">
-        <v>13.8811627399651</v>
+        <v>3.857943096505653</v>
       </c>
       <c r="C124" t="n">
-        <v>0.3108244091358158</v>
+        <v>0.40351446864254</v>
       </c>
       <c r="D124" t="n">
-        <v>0.05024053669474603</v>
+        <v>0.03659378528777021</v>
       </c>
       <c r="E124" t="n">
-        <v>0.5626396327492393</v>
+        <v>0.961569227552605</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -3173,19 +3173,19 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1249.301156195462</v>
+        <v>92.90933743634153</v>
       </c>
       <c r="B125" t="n">
-        <v>13.83436954624782</v>
+        <v>3.723270826031079</v>
       </c>
       <c r="C125" t="n">
-        <v>0.4191012071206248</v>
+        <v>0.3927217107758546</v>
       </c>
       <c r="D125" t="n">
-        <v>0.09440365472265352</v>
+        <v>0.05504049686865175</v>
       </c>
       <c r="E125" t="n">
-        <v>0.408781539502818</v>
+        <v>0.9474027876243735</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -3195,19 +3195,19 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1366.549520069808</v>
+        <v>195.5051797286567</v>
       </c>
       <c r="B126" t="n">
-        <v>15.0675719895288</v>
+        <v>5.48099777779242</v>
       </c>
       <c r="C126" t="n">
-        <v>0.4224057296158279</v>
+        <v>0.3698753520854942</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0582997913486814</v>
+        <v>0.03803343289018072</v>
       </c>
       <c r="E126" t="n">
-        <v>0.5907115465735735</v>
+        <v>0.9510353282485867</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -3217,19 +3217,19 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>481.2792593804537</v>
+        <v>38.83347581520665</v>
       </c>
       <c r="B127" t="n">
-        <v>6.919311736474695</v>
+        <v>2.443432162156409</v>
       </c>
       <c r="C127" t="n">
-        <v>0.4275660279075962</v>
+        <v>0.4654113247465514</v>
       </c>
       <c r="D127" t="n">
-        <v>0.05905537951014903</v>
+        <v>0.03827590884242652</v>
       </c>
       <c r="E127" t="n">
-        <v>0.62192953277109</v>
+        <v>0.9860680666098769</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -3239,19 +3239,19 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1099.346804101222</v>
+        <v>76.30533918642085</v>
       </c>
       <c r="B128" t="n">
-        <v>12.74503708551483</v>
+        <v>3.217455244784481</v>
       </c>
       <c r="C128" t="n">
-        <v>0.3760941344674358</v>
+        <v>0.4273602939536201</v>
       </c>
       <c r="D128" t="n">
-        <v>0.04905077091504716</v>
+        <v>0.04385894905703257</v>
       </c>
       <c r="E128" t="n">
-        <v>0.5208522797415507</v>
+        <v>0.9642428526994281</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -3261,19 +3261,19 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1198.517397469459</v>
+        <v>129.3504410873861</v>
       </c>
       <c r="B129" t="n">
-        <v>13.31424520069808</v>
+        <v>4.248066793816683</v>
       </c>
       <c r="C129" t="n">
-        <v>0.4218504836277664</v>
+        <v>0.4129231013225045</v>
       </c>
       <c r="D129" t="n">
-        <v>0.05941598004549974</v>
+        <v>0.04618686587787344</v>
       </c>
       <c r="E129" t="n">
-        <v>0.4583289226349114</v>
+        <v>0.9450409593986396</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -3283,19 +3283,19 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1566.937472731239</v>
+        <v>147.6253108101473</v>
       </c>
       <c r="B130" t="n">
-        <v>16.55489201570681</v>
+        <v>4.694632190587719</v>
       </c>
       <c r="C130" t="n">
-        <v>0.3193514769260468</v>
+        <v>0.3532668004250816</v>
       </c>
       <c r="D130" t="n">
-        <v>0.04998552431369754</v>
+        <v>0.03864431743614632</v>
       </c>
       <c r="E130" t="n">
-        <v>0.4240322735634008</v>
+        <v>0.958840209971661</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -3305,19 +3305,19 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>922.1304264834208</v>
+        <v>48.21764750124338</v>
       </c>
       <c r="B131" t="n">
-        <v>11.8128544938918</v>
+        <v>2.63870408229872</v>
       </c>
       <c r="C131" t="n">
-        <v>0.3983364971136596</v>
+        <v>0.4646450470365255</v>
       </c>
       <c r="D131" t="n">
-        <v>0.04781225952953998</v>
+        <v>0.03911478047799365</v>
       </c>
       <c r="E131" t="n">
-        <v>0.5035774038292637</v>
+        <v>0.9791537128424459</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -3327,19 +3327,19 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1426.87589986911</v>
+        <v>66.81232378963635</v>
       </c>
       <c r="B132" t="n">
-        <v>14.99184664048865</v>
+        <v>3.000050767742368</v>
       </c>
       <c r="C132" t="n">
-        <v>0.3742090412013124</v>
+        <v>0.4530866733614957</v>
       </c>
       <c r="D132" t="n">
-        <v>0.04463191064978363</v>
+        <v>0.03885236858554669</v>
       </c>
       <c r="E132" t="n">
-        <v>0.5196360603047788</v>
+        <v>0.9738617754069896</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -3349,19 +3349,19 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1556.051565226876</v>
+        <v>82.17875181668286</v>
       </c>
       <c r="B133" t="n">
-        <v>18.56372709424084</v>
+        <v>3.747485688265298</v>
       </c>
       <c r="C133" t="n">
-        <v>0.291738807208218</v>
+        <v>0.3923016030607817</v>
       </c>
       <c r="D133" t="n">
-        <v>0.04137836124279243</v>
+        <v>0.04692234198315214</v>
       </c>
       <c r="E133" t="n">
-        <v>0.5030707934209105</v>
+        <v>0.9710647343815301</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -3371,19 +3371,19 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>790.6667757417102</v>
+        <v>69.27379921321675</v>
       </c>
       <c r="B134" t="n">
-        <v>11.59887652705061</v>
+        <v>3.637098773249529</v>
       </c>
       <c r="C134" t="n">
-        <v>0.3119643445953452</v>
+        <v>0.3957874433591395</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0444414968116635</v>
+        <v>0.03337829012019013</v>
       </c>
       <c r="E134" t="n">
-        <v>0.5904101796997872</v>
+        <v>0.9758306901642232</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -3393,19 +3393,19 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1174.131326352531</v>
+        <v>61.59604774424839</v>
       </c>
       <c r="B135" t="n">
-        <v>15.48020287958115</v>
+        <v>3.190298610731193</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3483488603427393</v>
+        <v>0.4466533454514811</v>
       </c>
       <c r="D135" t="n">
-        <v>0.05931392408332002</v>
+        <v>0.05226793796920511</v>
       </c>
       <c r="E135" t="n">
-        <v>0.3515244982704214</v>
+        <v>0.9780290999060213</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -3415,19 +3415,19 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1495.299656413612</v>
+        <v>98.77791523070148</v>
       </c>
       <c r="B136" t="n">
-        <v>18.81699934554974</v>
+        <v>4.228275601742643</v>
       </c>
       <c r="C136" t="n">
-        <v>0.2732134533494666</v>
+        <v>0.3746967623787071</v>
       </c>
       <c r="D136" t="n">
-        <v>0.03780228305428419</v>
+        <v>0.04218871283875938</v>
       </c>
       <c r="E136" t="n">
-        <v>0.450988984216503</v>
+        <v>0.9709520863475238</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -3437,19 +3437,19 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>856.1462423647472</v>
+        <v>77.35755465909656</v>
       </c>
       <c r="B137" t="n">
-        <v>11.82425283595114</v>
+        <v>3.79662532994671</v>
       </c>
       <c r="C137" t="n">
-        <v>0.4426068643934692</v>
+        <v>0.3899537603782694</v>
       </c>
       <c r="D137" t="n">
-        <v>0.07377052366028194</v>
+        <v>0.04776129865366573</v>
       </c>
       <c r="E137" t="n">
-        <v>0.6520715169723674</v>
+        <v>0.9710982581121286</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -3459,19 +3459,19 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>994.5340859511344</v>
+        <v>84.7872614933577</v>
       </c>
       <c r="B138" t="n">
-        <v>11.9534794938918</v>
+        <v>3.297417571669722</v>
       </c>
       <c r="C138" t="n">
-        <v>0.4013407364949006</v>
+        <v>0.4341055709859868</v>
       </c>
       <c r="D138" t="n">
-        <v>0.1001605493485829</v>
+        <v>0.06951785657816786</v>
       </c>
       <c r="E138" t="n">
-        <v>0.3756679125590644</v>
+        <v>0.9560484267839482</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -3481,19 +3481,19 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>990.9072589441537</v>
+        <v>115.132152340893</v>
       </c>
       <c r="B139" t="n">
-        <v>12.43103730366492</v>
+        <v>4.40282615754861</v>
       </c>
       <c r="C139" t="n">
-        <v>0.3086515663295806</v>
+        <v>0.3698704271120948</v>
       </c>
       <c r="D139" t="n">
-        <v>0.05838925618142444</v>
+        <v>0.03678669363971993</v>
       </c>
       <c r="E139" t="n">
-        <v>0.5854022147699615</v>
+        <v>0.9576721278628351</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -3503,19 +3503,19 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1289.10154886562</v>
+        <v>79.44623981758167</v>
       </c>
       <c r="B140" t="n">
-        <v>14.85089441535776</v>
+        <v>3.572960242741584</v>
       </c>
       <c r="C140" t="n">
-        <v>0.3237630771687093</v>
+        <v>0.400766690450838</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0593876145007568</v>
+        <v>0.04205503459087671</v>
       </c>
       <c r="E140" t="n">
-        <v>0.366736390224925</v>
+        <v>0.9583369128714941</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -3525,19 +3525,19 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1333.149296465969</v>
+        <v>105.4709946217445</v>
       </c>
       <c r="B141" t="n">
-        <v>14.55598276614311</v>
+        <v>3.74610113401258</v>
       </c>
       <c r="C141" t="n">
-        <v>0.3926196410402449</v>
+        <v>0.4324643904676535</v>
       </c>
       <c r="D141" t="n">
-        <v>0.07147673856085343</v>
+        <v>0.04976303031782396</v>
       </c>
       <c r="E141" t="n">
-        <v>0.5345161353482185</v>
+        <v>0.960287267732063</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -3547,19 +3547,19 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>540.4730584642234</v>
+        <v>105.1395665249226</v>
       </c>
       <c r="B142" t="n">
-        <v>8.044011780104713</v>
+        <v>4.181644879175121</v>
       </c>
       <c r="C142" t="n">
-        <v>0.3705910211008375</v>
+        <v>0.3854979456622363</v>
       </c>
       <c r="D142" t="n">
-        <v>0.05957447640789359</v>
+        <v>0.03531570128886446</v>
       </c>
       <c r="E142" t="n">
-        <v>0.4357357209348987</v>
+        <v>0.9590740808750273</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -3569,19 +3569,19 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>971.8041557591623</v>
+        <v>116.0174701350382</v>
       </c>
       <c r="B143" t="n">
-        <v>10.63230802792321</v>
+        <v>3.912128606353197</v>
       </c>
       <c r="C143" t="n">
-        <v>0.4580496093265219</v>
+        <v>0.4083105949548095</v>
       </c>
       <c r="D143" t="n">
-        <v>0.1302318208967808</v>
+        <v>0.07255510102172022</v>
       </c>
       <c r="E143" t="n">
-        <v>0.6182565824568043</v>
+        <v>0.9524432405452813</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -3591,19 +3591,19 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1311.506926265271</v>
+        <v>84.98184542297049</v>
       </c>
       <c r="B144" t="n">
-        <v>15.51685209424084</v>
+        <v>3.541851405341184</v>
       </c>
       <c r="C144" t="n">
-        <v>0.3268830012206098</v>
+        <v>0.4119612025835187</v>
       </c>
       <c r="D144" t="n">
-        <v>0.05650039223644743</v>
+        <v>0.0387810745011114</v>
       </c>
       <c r="E144" t="n">
-        <v>0.3001496618257012</v>
+        <v>0.9627782244050607</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -3613,19 +3613,19 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>898.0996400523561</v>
+        <v>61.99761205389827</v>
       </c>
       <c r="B145" t="n">
-        <v>11.94126308900524</v>
+        <v>3.102562428265676</v>
       </c>
       <c r="C145" t="n">
-        <v>0.4003592059050604</v>
+        <v>0.4338108430506534</v>
       </c>
       <c r="D145" t="n">
-        <v>0.04844226492902037</v>
+        <v>0.03811701684023999</v>
       </c>
       <c r="E145" t="n">
-        <v>0.4995093379305069</v>
+        <v>0.979544437310539</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -3635,19 +3635,19 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>482.5192517452007</v>
+        <v>68.13301604250042</v>
       </c>
       <c r="B146" t="n">
-        <v>7.02950479930192</v>
+        <v>3.213803254852136</v>
       </c>
       <c r="C146" t="n">
-        <v>0.4687465971164042</v>
+        <v>0.4534633947728165</v>
       </c>
       <c r="D146" t="n">
-        <v>0.04433444763003767</v>
+        <v>0.03077722228013727</v>
       </c>
       <c r="E146" t="n">
-        <v>0.8315791808228445</v>
+        <v>0.9863549741898517</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -3657,19 +3657,19 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1735.545566099477</v>
+        <v>129.4242134642671</v>
       </c>
       <c r="B147" t="n">
-        <v>18.25319044502618</v>
+        <v>4.679627469513484</v>
       </c>
       <c r="C147" t="n">
-        <v>0.2872803985752972</v>
+        <v>0.3462664268999905</v>
       </c>
       <c r="D147" t="n">
-        <v>0.02727347117913656</v>
+        <v>0.02577754350952719</v>
       </c>
       <c r="E147" t="n">
-        <v>0.4751653185439139</v>
+        <v>0.9739972735426498</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -3679,19 +3679,19 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1338.287712696335</v>
+        <v>107.5043634743424</v>
       </c>
       <c r="B148" t="n">
-        <v>15.9818117364747</v>
+        <v>4.339948248525721</v>
       </c>
       <c r="C148" t="n">
-        <v>0.3404108758140404</v>
+        <v>0.4103947892204509</v>
       </c>
       <c r="D148" t="n">
-        <v>0.05841647401599816</v>
+        <v>0.04287309848631662</v>
       </c>
       <c r="E148" t="n">
-        <v>0.5201297471833803</v>
+        <v>0.9697509952683874</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -3701,19 +3701,19 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>971.9105039267018</v>
+        <v>83.35233928404475</v>
       </c>
       <c r="B149" t="n">
-        <v>12.07291666666667</v>
+        <v>3.624442265854436</v>
       </c>
       <c r="C149" t="n">
-        <v>0.4428107303795965</v>
+        <v>0.4162865738477067</v>
       </c>
       <c r="D149" t="n">
-        <v>0.060867707367208</v>
+        <v>0.04125335606625426</v>
       </c>
       <c r="E149" t="n">
-        <v>0.5937285854826448</v>
+        <v>0.9672320440061702</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -3723,19 +3723,19 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1304.128381326352</v>
+        <v>137.7168669517441</v>
       </c>
       <c r="B150" t="n">
-        <v>18.86196553228621</v>
+        <v>5.478965965209013</v>
       </c>
       <c r="C150" t="n">
-        <v>0.1643890859767588</v>
+        <v>0.3070285304489557</v>
       </c>
       <c r="D150" t="n">
-        <v>0.02627837164487566</v>
+        <v>0.02765329308589219</v>
       </c>
       <c r="E150" t="n">
-        <v>0.5674538305370225</v>
+        <v>0.956849748747796</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -3745,19 +3745,19 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1531.795238874345</v>
+        <v>83.92122926412056</v>
       </c>
       <c r="B151" t="n">
-        <v>17.97679428446771</v>
+        <v>3.613622361531561</v>
       </c>
       <c r="C151" t="n">
-        <v>0.3206769435194466</v>
+        <v>0.4365496202512473</v>
       </c>
       <c r="D151" t="n">
-        <v>0.03768269467957479</v>
+        <v>0.03819750873810426</v>
       </c>
       <c r="E151" t="n">
-        <v>0.440711977471049</v>
+        <v>0.9699701778778259</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -3767,19 +3767,19 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>358.6711660122164</v>
+        <v>49.23414071025712</v>
       </c>
       <c r="B152" t="n">
-        <v>5.003244982547993</v>
+        <v>3.040983462350458</v>
       </c>
       <c r="C152" t="n">
-        <v>0.5521833781104138</v>
+        <v>0.4054753338754832</v>
       </c>
       <c r="D152" t="n">
-        <v>0.08381051779575006</v>
+        <v>0.04527347601725817</v>
       </c>
       <c r="E152" t="n">
-        <v>0.7276281196364122</v>
+        <v>0.9828997134536712</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -3789,19 +3789,19 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>533.6718204624782</v>
+        <v>47.06310961619751</v>
       </c>
       <c r="B153" t="n">
-        <v>7.54392997382199</v>
+        <v>2.914563653255393</v>
       </c>
       <c r="C153" t="n">
-        <v>0.4143927623668893</v>
+        <v>0.4220772516587856</v>
       </c>
       <c r="D153" t="n">
-        <v>0.04845502671388116</v>
+        <v>0.03524125168233814</v>
       </c>
       <c r="E153" t="n">
-        <v>0.6610225556464674</v>
+        <v>0.9812312593830024</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -3811,19 +3811,19 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>881.1486147469461</v>
+        <v>85.37832148609311</v>
       </c>
       <c r="B154" t="n">
-        <v>11.23860165794066</v>
+        <v>3.466633475505984</v>
       </c>
       <c r="C154" t="n">
-        <v>0.3777807746864468</v>
+        <v>0.4382188014499727</v>
       </c>
       <c r="D154" t="n">
-        <v>0.06004063493639494</v>
+        <v>0.03943081961759547</v>
       </c>
       <c r="E154" t="n">
-        <v>0.5294004449421896</v>
+        <v>0.9709821592247486</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -3833,19 +3833,19 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1329.429482984293</v>
+        <v>55.90044788267303</v>
       </c>
       <c r="B155" t="n">
-        <v>15.19099040139616</v>
+        <v>2.783310983124947</v>
       </c>
       <c r="C155" t="n">
-        <v>0.3439622253543411</v>
+        <v>0.4442610019192771</v>
       </c>
       <c r="D155" t="n">
-        <v>0.05374295412329956</v>
+        <v>0.05492817946216091</v>
       </c>
       <c r="E155" t="n">
-        <v>0.3750092847188459</v>
+        <v>0.9787134543071511</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -3855,19 +3855,19 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1129.212914485166</v>
+        <v>50.76752457743923</v>
       </c>
       <c r="B156" t="n">
-        <v>12.67822862129145</v>
+        <v>2.612673871916937</v>
       </c>
       <c r="C156" t="n">
-        <v>0.3797178931653323</v>
+        <v>0.4428141094873191</v>
       </c>
       <c r="D156" t="n">
-        <v>0.06439862707943399</v>
+        <v>0.04393864882864367</v>
       </c>
       <c r="E156" t="n">
-        <v>0.4876560603233057</v>
+        <v>0.9686757558275599</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -3877,19 +3877,19 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1233.954570244328</v>
+        <v>65.51922669147315</v>
       </c>
       <c r="B157" t="n">
-        <v>15.13863438045375</v>
+        <v>2.851857422168747</v>
       </c>
       <c r="C157" t="n">
-        <v>0.3792996937392888</v>
+        <v>0.5013078347911422</v>
       </c>
       <c r="D157" t="n">
-        <v>0.09823139178585936</v>
+        <v>0.07302531228100163</v>
       </c>
       <c r="E157" t="n">
-        <v>0.4796045524412292</v>
+        <v>0.9532836499199943</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -3899,19 +3899,19 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1100.31579952007</v>
+        <v>90.50153971591804</v>
       </c>
       <c r="B158" t="n">
-        <v>14.00040903141361</v>
+        <v>3.715921239658376</v>
       </c>
       <c r="C158" t="n">
-        <v>0.3176256154161599</v>
+        <v>0.414142193794521</v>
       </c>
       <c r="D158" t="n">
-        <v>0.06486347826296533</v>
+        <v>0.04577070291711123</v>
       </c>
       <c r="E158" t="n">
-        <v>0.49086481934759</v>
+        <v>0.9630335970371303</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -3921,19 +3921,19 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1307.798511125655</v>
+        <v>94.74911647376443</v>
       </c>
       <c r="B159" t="n">
-        <v>15.92432918848168</v>
+        <v>3.7379302770792</v>
       </c>
       <c r="C159" t="n">
-        <v>0.2993173607299871</v>
+        <v>0.4308370082346352</v>
       </c>
       <c r="D159" t="n">
-        <v>0.03451370453142243</v>
+        <v>0.03708402363039387</v>
       </c>
       <c r="E159" t="n">
-        <v>0.5835776496817587</v>
+        <v>0.9699108596575995</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -3943,19 +3943,19 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>745.2451461605585</v>
+        <v>122.7405475289897</v>
       </c>
       <c r="B160" t="n">
-        <v>9.271051483420594</v>
+        <v>4.138786308863624</v>
       </c>
       <c r="C160" t="n">
-        <v>0.4269139655911111</v>
+        <v>0.3984227357818234</v>
       </c>
       <c r="D160" t="n">
-        <v>0.1038680293403425</v>
+        <v>0.0668806673525454</v>
       </c>
       <c r="E160" t="n">
-        <v>0.7611464085460924</v>
+        <v>0.9582319804342536</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -3965,19 +3965,19 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>962.9870200698082</v>
+        <v>74.82307023135371</v>
       </c>
       <c r="B161" t="n">
-        <v>10.83224258289703</v>
+        <v>3.507946674041714</v>
       </c>
       <c r="C161" t="n">
-        <v>0.3889520740160007</v>
+        <v>0.3841613582235983</v>
       </c>
       <c r="D161" t="n">
-        <v>0.06259738734089723</v>
+        <v>0.0370264023667215</v>
       </c>
       <c r="E161" t="n">
-        <v>0.4748356846402127</v>
+        <v>0.9701140617782285</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -3987,19 +3987,19 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>686.2252945026179</v>
+        <v>62.45033317646357</v>
       </c>
       <c r="B162" t="n">
-        <v>9.633616928446772</v>
+        <v>3.365226578854687</v>
       </c>
       <c r="C162" t="n">
-        <v>0.3629399232049446</v>
+        <v>0.3943678029252357</v>
       </c>
       <c r="D162" t="n">
-        <v>0.05999561205162666</v>
+        <v>0.03957664441679232</v>
       </c>
       <c r="E162" t="n">
-        <v>0.5159686824429777</v>
+        <v>0.9725262004716955</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -4009,19 +4009,19 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>647.4586332897034</v>
+        <v>49.07452526988558</v>
       </c>
       <c r="B163" t="n">
-        <v>9.873445680628272</v>
+        <v>2.993425199625624</v>
       </c>
       <c r="C163" t="n">
-        <v>0.4489221959687884</v>
+        <v>0.4365518916209615</v>
       </c>
       <c r="D163" t="n">
-        <v>0.06433894101395364</v>
+        <v>0.03618647734287758</v>
       </c>
       <c r="E163" t="n">
-        <v>0.6191932412458517</v>
+        <v>0.9859327596836333</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -4031,19 +4031,19 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>587.7530541012217</v>
+        <v>59.39170893627335</v>
       </c>
       <c r="B164" t="n">
-        <v>7.846804101221641</v>
+        <v>2.840391970920081</v>
       </c>
       <c r="C164" t="n">
-        <v>0.464860179080561</v>
+        <v>0.4459638811920475</v>
       </c>
       <c r="D164" t="n">
-        <v>0.06014644637487086</v>
+        <v>0.0433768566923655</v>
       </c>
       <c r="E164" t="n">
-        <v>0.5372645780447585</v>
+        <v>0.9772358703118275</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -4053,19 +4053,19 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>475.0031359075043</v>
+        <v>56.48286138435213</v>
       </c>
       <c r="B165" t="n">
-        <v>6.004826570680629</v>
+        <v>2.881933809003733</v>
       </c>
       <c r="C165" t="n">
-        <v>0.5409257623013835</v>
+        <v>0.437228745675008</v>
       </c>
       <c r="D165" t="n">
-        <v>0.07540554725440274</v>
+        <v>0.04436852855079645</v>
       </c>
       <c r="E165" t="n">
-        <v>0.5715046530261614</v>
+        <v>0.9844230284005022</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -4075,19 +4075,19 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1579.985193062827</v>
+        <v>110.8401434317465</v>
       </c>
       <c r="B166" t="n">
-        <v>18.59339550610821</v>
+        <v>3.96998213715771</v>
       </c>
       <c r="C166" t="n">
-        <v>0.2872373384393228</v>
+        <v>0.4061925822802499</v>
       </c>
       <c r="D166" t="n">
-        <v>0.03240968808038112</v>
+        <v>0.03350341400377333</v>
       </c>
       <c r="E166" t="n">
-        <v>0.4593522178713014</v>
+        <v>0.9685774670128576</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -4097,19 +4097,19 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>271.7595167975567</v>
+        <v>46.42406323949559</v>
       </c>
       <c r="B167" t="n">
-        <v>4.696362347294939</v>
+        <v>2.979367935723924</v>
       </c>
       <c r="C167" t="n">
-        <v>0.5654848103313407</v>
+        <v>0.4372430797765393</v>
       </c>
       <c r="D167" t="n">
-        <v>0.0971311407073638</v>
+        <v>0.05168913842691969</v>
       </c>
       <c r="E167" t="n">
-        <v>0.6542351090091968</v>
+        <v>0.9812168687649054</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -4119,19 +4119,19 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1518.274241928447</v>
+        <v>102.3345143596975</v>
       </c>
       <c r="B168" t="n">
-        <v>17.70983311518325</v>
+        <v>4.211880919017445</v>
       </c>
       <c r="C168" t="n">
-        <v>0.2735377091305674</v>
+        <v>0.3657836011695015</v>
       </c>
       <c r="D168" t="n">
-        <v>0.04496035722687158</v>
+        <v>0.04093036821356911</v>
       </c>
       <c r="E168" t="n">
-        <v>0.4154157815973702</v>
+        <v>0.966230617263887</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -4141,19 +4141,19 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>363.1314626963352</v>
+        <v>87.21524367735374</v>
       </c>
       <c r="B169" t="n">
-        <v>9.378408595113438</v>
+        <v>4.832073215748769</v>
       </c>
       <c r="C169" t="n">
-        <v>0.1723486784477001</v>
+        <v>0.2777081812990553</v>
       </c>
       <c r="D169" t="n">
-        <v>0.02927221784396804</v>
+        <v>0.02647153192363686</v>
       </c>
       <c r="E169" t="n">
-        <v>0.669345464942223</v>
+        <v>0.9611460848583093</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -4163,19 +4163,19 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1261.354657504363</v>
+        <v>101.0082028810546</v>
       </c>
       <c r="B170" t="n">
-        <v>15.01510689354276</v>
+        <v>4.290050352279709</v>
       </c>
       <c r="C170" t="n">
-        <v>0.2726721305918285</v>
+        <v>0.377189322479625</v>
       </c>
       <c r="D170" t="n">
-        <v>0.0428675155802407</v>
+        <v>0.03220334480775661</v>
       </c>
       <c r="E170" t="n">
-        <v>0.4976853820020338</v>
+        <v>0.9699070901562507</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -4185,19 +4185,19 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>843.4147305846424</v>
+        <v>65.1286984251867</v>
       </c>
       <c r="B171" t="n">
-        <v>12.59137761780105</v>
+        <v>3.413665061094221</v>
       </c>
       <c r="C171" t="n">
-        <v>0.3583375713781777</v>
+        <v>0.4373224887140213</v>
       </c>
       <c r="D171" t="n">
-        <v>0.04932456433326055</v>
+        <v>0.04108023340591707</v>
       </c>
       <c r="E171" t="n">
-        <v>0.5274743446274391</v>
+        <v>0.9795507980756839</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -4207,19 +4207,19 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1399.657967931937</v>
+        <v>63.86112341850046</v>
       </c>
       <c r="B172" t="n">
-        <v>17.17482002617801</v>
+        <v>4.063151676266431</v>
       </c>
       <c r="C172" t="n">
-        <v>0.3256857661707788</v>
+        <v>0.3288134029185639</v>
       </c>
       <c r="D172" t="n">
-        <v>0.04262933337983929</v>
+        <v>0.03152434413856475</v>
       </c>
       <c r="E172" t="n">
-        <v>0.5208392185005521</v>
+        <v>0.9817139532678869</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -4229,19 +4229,19 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>835.9679592059338</v>
+        <v>74.77335279975105</v>
       </c>
       <c r="B173" t="n">
-        <v>10.94974367364747</v>
+        <v>3.529612461853517</v>
       </c>
       <c r="C173" t="n">
-        <v>0.3675371397395246</v>
+        <v>0.4202291263593805</v>
       </c>
       <c r="D173" t="n">
-        <v>0.05911316115131863</v>
+        <v>0.03770267042709965</v>
       </c>
       <c r="E173" t="n">
-        <v>0.6623585239436625</v>
+        <v>0.9747171545363141</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -4251,19 +4251,19 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>573.8451407068062</v>
+        <v>38.47781342694759</v>
       </c>
       <c r="B174" t="n">
-        <v>9.066563045375215</v>
+        <v>3.001081778566324</v>
       </c>
       <c r="C174" t="n">
-        <v>0.3934013342317335</v>
+        <v>0.3838585431001125</v>
       </c>
       <c r="D174" t="n">
-        <v>0.06590368158921124</v>
+        <v>0.05112692082537421</v>
       </c>
       <c r="E174" t="n">
-        <v>0.5794697888946163</v>
+        <v>0.9847688234827698</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -4273,19 +4273,19 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>907.9650414485166</v>
+        <v>82.08925084477131</v>
       </c>
       <c r="B175" t="n">
-        <v>11.27083333333333</v>
+        <v>3.242214756309766</v>
       </c>
       <c r="C175" t="n">
-        <v>0.3942677472005783</v>
+        <v>0.4575779219035624</v>
       </c>
       <c r="D175" t="n">
-        <v>0.06477706350180983</v>
+        <v>0.04174112980416817</v>
       </c>
       <c r="E175" t="n">
-        <v>0.5933189080853193</v>
+        <v>0.9652281679705</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -4295,19 +4295,19 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>674.4727039703314</v>
+        <v>73.55902298087454</v>
       </c>
       <c r="B176" t="n">
-        <v>9.110138525305409</v>
+        <v>3.248834005252933</v>
       </c>
       <c r="C176" t="n">
-        <v>0.4511179136743078</v>
+        <v>0.440563667185476</v>
       </c>
       <c r="D176" t="n">
-        <v>0.1179694502169534</v>
+        <v>0.07489345848463776</v>
       </c>
       <c r="E176" t="n">
-        <v>0.5704652945666595</v>
+        <v>0.9537181972033182</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -4317,19 +4317,19 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1143.390625</v>
+        <v>85.82654543419092</v>
       </c>
       <c r="B177" t="n">
-        <v>13.34819480802792</v>
+        <v>3.545430692480461</v>
       </c>
       <c r="C177" t="n">
-        <v>0.3017645356885637</v>
+        <v>0.3913075323580726</v>
       </c>
       <c r="D177" t="n">
-        <v>0.05351371530421577</v>
+        <v>0.04165049460388113</v>
       </c>
       <c r="E177" t="n">
-        <v>0.5074175683365004</v>
+        <v>0.9567253913452828</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -4339,19 +4339,19 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1133.39872382199</v>
+        <v>83.48540896573265</v>
       </c>
       <c r="B178" t="n">
-        <v>14.15068717277487</v>
+        <v>3.667206086931834</v>
       </c>
       <c r="C178" t="n">
-        <v>0.3950406526194387</v>
+        <v>0.4106723053037241</v>
       </c>
       <c r="D178" t="n">
-        <v>0.09096296039670869</v>
+        <v>0.05983611014376022</v>
       </c>
       <c r="E178" t="n">
-        <v>0.5693051799835458</v>
+        <v>0.9717774751303299</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -4361,19 +4361,19 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1289.636889179756</v>
+        <v>88.76632799130908</v>
       </c>
       <c r="B179" t="n">
-        <v>16.02775959860384</v>
+        <v>3.849271805480733</v>
       </c>
       <c r="C179" t="n">
-        <v>0.2525702899545562</v>
+        <v>0.3948077376496482</v>
       </c>
       <c r="D179" t="n">
-        <v>0.03673047434847915</v>
+        <v>0.03619668149487579</v>
       </c>
       <c r="E179" t="n">
-        <v>0.4381922346586496</v>
+        <v>0.9651622650049814</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -4383,19 +4383,19 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1025.989419720768</v>
+        <v>74.15579242489407</v>
       </c>
       <c r="B180" t="n">
-        <v>12.55328315881327</v>
+        <v>3.5525415814809</v>
       </c>
       <c r="C180" t="n">
-        <v>0.4144230320129452</v>
+        <v>0.4139019988275243</v>
       </c>
       <c r="D180" t="n">
-        <v>0.05122697114950889</v>
+        <v>0.04003689812468652</v>
       </c>
       <c r="E180" t="n">
-        <v>0.5890918180945806</v>
+        <v>0.9785704799933501</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -4405,19 +4405,19 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1177.495664267016</v>
+        <v>72.65145937827729</v>
       </c>
       <c r="B181" t="n">
-        <v>15.29600239965096</v>
+        <v>3.706235449623109</v>
       </c>
       <c r="C181" t="n">
-        <v>0.2833953492481807</v>
+        <v>0.393555832777907</v>
       </c>
       <c r="D181" t="n">
-        <v>0.03220261136905571</v>
+        <v>0.03174496259169936</v>
       </c>
       <c r="E181" t="n">
-        <v>0.4843563819455486</v>
+        <v>0.9764582769101604</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -4427,19 +4427,19 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2025.169202661431</v>
+        <v>136.1793002388016</v>
       </c>
       <c r="B182" t="n">
-        <v>21.30767342931938</v>
+        <v>4.443008977271189</v>
       </c>
       <c r="C182" t="n">
-        <v>0.2826968662643046</v>
+        <v>0.3910632155216724</v>
       </c>
       <c r="D182" t="n">
-        <v>0.04469392753937527</v>
+        <v>0.03406159577920672</v>
       </c>
       <c r="E182" t="n">
-        <v>0.3867899979180905</v>
+        <v>0.9619224150999658</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -4449,19 +4449,19 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>239.8986965532287</v>
+        <v>65.81356349826204</v>
       </c>
       <c r="B183" t="n">
-        <v>4.23382962478185</v>
+        <v>3.053623118567489</v>
       </c>
       <c r="C183" t="n">
-        <v>0.5890118882445665</v>
+        <v>0.4489087170617957</v>
       </c>
       <c r="D183" t="n">
-        <v>0.07949532275855355</v>
+        <v>0.03982282304301374</v>
       </c>
       <c r="E183" t="n">
-        <v>0.7528781448090206</v>
+        <v>0.9803411284883042</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -4471,19 +4471,19 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>814.6082569808028</v>
+        <v>34.55805301556885</v>
       </c>
       <c r="B184" t="n">
-        <v>11.36125654450262</v>
+        <v>2.553040806110941</v>
       </c>
       <c r="C184" t="n">
-        <v>0.3860321153225634</v>
+        <v>0.4372394953279755</v>
       </c>
       <c r="D184" t="n">
-        <v>0.03620744697332676</v>
+        <v>0.03116503959513481</v>
       </c>
       <c r="E184" t="n">
-        <v>0.5865768357116893</v>
+        <v>0.9909593162302629</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -4493,19 +4493,19 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1299.500190881326</v>
+        <v>95.66460460851762</v>
       </c>
       <c r="B185" t="n">
-        <v>15.34034140488656</v>
+        <v>3.484696873083323</v>
       </c>
       <c r="C185" t="n">
-        <v>0.3293617400838551</v>
+        <v>0.4289705890360963</v>
       </c>
       <c r="D185" t="n">
-        <v>0.04691369408990559</v>
+        <v>0.04287764814265794</v>
       </c>
       <c r="E185" t="n">
-        <v>0.4814790666541774</v>
+        <v>0.9525468808723886</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -4515,19 +4515,19 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1874.356457242583</v>
+        <v>125.3027925353005</v>
       </c>
       <c r="B186" t="n">
-        <v>20.68166448516579</v>
+        <v>4.64931696096029</v>
       </c>
       <c r="C186" t="n">
-        <v>0.2518269223382739</v>
+        <v>0.3660304995086296</v>
       </c>
       <c r="D186" t="n">
-        <v>0.03595174908057951</v>
+        <v>0.03763241713387781</v>
       </c>
       <c r="E186" t="n">
-        <v>0.4342801050017004</v>
+        <v>0.9655013546402266</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -4537,19 +4537,19 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>976.8874890924953</v>
+        <v>94.39243504048962</v>
       </c>
       <c r="B187" t="n">
-        <v>11.83426047120419</v>
+        <v>3.735708429292226</v>
       </c>
       <c r="C187" t="n">
-        <v>0.4156001595326906</v>
+        <v>0.4112165293436484</v>
       </c>
       <c r="D187" t="n">
-        <v>0.04840175103759024</v>
+        <v>0.03825557155665434</v>
       </c>
       <c r="E187" t="n">
-        <v>0.5188885457147848</v>
+        <v>0.9659797160991976</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -4559,19 +4559,19 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>310.3214986910994</v>
+        <v>77.74919162482929</v>
       </c>
       <c r="B188" t="n">
-        <v>5.434282286212913</v>
+        <v>3.541367553426818</v>
       </c>
       <c r="C188" t="n">
-        <v>0.5181626353887793</v>
+        <v>0.4057989227168169</v>
       </c>
       <c r="D188" t="n">
-        <v>0.09701003784468928</v>
+        <v>0.04537859878886431</v>
       </c>
       <c r="E188" t="n">
-        <v>0.7190395573724738</v>
+        <v>0.9645302819385213</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -4581,19 +4581,19 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1357.130944589878</v>
+        <v>86.76218632099707</v>
       </c>
       <c r="B189" t="n">
-        <v>17.50812609075044</v>
+        <v>3.781987195107045</v>
       </c>
       <c r="C189" t="n">
-        <v>0.265611382666356</v>
+        <v>0.4139032351328206</v>
       </c>
       <c r="D189" t="n">
-        <v>0.03208230851810537</v>
+        <v>0.04259483525488465</v>
       </c>
       <c r="E189" t="n">
-        <v>0.3821395933995437</v>
+        <v>0.9736862888695428</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -4603,19 +4603,19 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1201.648287521815</v>
+        <v>63.06596919784104</v>
       </c>
       <c r="B190" t="n">
-        <v>14.65794066317627</v>
+        <v>3.234796203238415</v>
       </c>
       <c r="C190" t="n">
-        <v>0.3301904123537934</v>
+        <v>0.4196839571495962</v>
       </c>
       <c r="D190" t="n">
-        <v>0.0348564369600473</v>
+        <v>0.03619521523916013</v>
       </c>
       <c r="E190" t="n">
-        <v>0.5564140372322747</v>
+        <v>0.9780243463709259</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -4625,19 +4625,19 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1265.157368019197</v>
+        <v>64.07270507505314</v>
       </c>
       <c r="B191" t="n">
-        <v>14.58243346422339</v>
+        <v>3.147471951398082</v>
       </c>
       <c r="C191" t="n">
-        <v>0.3411874292656417</v>
+        <v>0.4132692196709056</v>
       </c>
       <c r="D191" t="n">
-        <v>0.05958704718229198</v>
+        <v>0.03948721995805504</v>
       </c>
       <c r="E191" t="n">
-        <v>0.454265698072541</v>
+        <v>0.966469376980045</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -4647,19 +4647,19 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1291.75539921466</v>
+        <v>66.07825794343562</v>
       </c>
       <c r="B192" t="n">
-        <v>15.62554537521815</v>
+        <v>3.355918893955373</v>
       </c>
       <c r="C192" t="n">
-        <v>0.3314959396829214</v>
+        <v>0.4149190377788548</v>
       </c>
       <c r="D192" t="n">
-        <v>0.05051660684448433</v>
+        <v>0.04743010472067868</v>
       </c>
       <c r="E192" t="n">
-        <v>0.5267450130242767</v>
+        <v>0.9784803081757909</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -4669,19 +4669,19 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>923.2312118237347</v>
+        <v>65.94611927643243</v>
       </c>
       <c r="B193" t="n">
-        <v>12.55009271378709</v>
+        <v>3.252949643898775</v>
       </c>
       <c r="C193" t="n">
-        <v>0.3870550113064646</v>
+        <v>0.4375444490695531</v>
       </c>
       <c r="D193" t="n">
-        <v>0.1092580288438003</v>
+        <v>0.07560965823274433</v>
       </c>
       <c r="E193" t="n">
-        <v>0.4098911038975988</v>
+        <v>0.9551447987725595</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -4691,19 +4691,19 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1246.477421465969</v>
+        <v>58.77263320620692</v>
       </c>
       <c r="B194" t="n">
-        <v>15.65652268760908</v>
+        <v>3.097067958444477</v>
       </c>
       <c r="C194" t="n">
-        <v>0.3195692208696418</v>
+        <v>0.4183151686453349</v>
       </c>
       <c r="D194" t="n">
-        <v>0.05891060330216548</v>
+        <v>0.04032668011729584</v>
       </c>
       <c r="E194" t="n">
-        <v>0.4977881204848859</v>
+        <v>0.9715241873103257</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -4713,19 +4713,19 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>450.468477312391</v>
+        <v>83.27925232812902</v>
       </c>
       <c r="B195" t="n">
-        <v>6.18706369982548</v>
+        <v>3.320553149539844</v>
       </c>
       <c r="C195" t="n">
-        <v>0.4871974137146081</v>
+        <v>0.4371382391618043</v>
       </c>
       <c r="D195" t="n">
-        <v>0.101122823803143</v>
+        <v>0.05009711070310439</v>
       </c>
       <c r="E195" t="n">
-        <v>0.5614435954408494</v>
+        <v>0.9430605434957962</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -4735,19 +4735,19 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1512.273532940663</v>
+        <v>148.6199737692683</v>
       </c>
       <c r="B196" t="n">
-        <v>16.62879035776614</v>
+        <v>4.648582043159196</v>
       </c>
       <c r="C196" t="n">
-        <v>0.3333014157437788</v>
+        <v>0.3928916201083912</v>
       </c>
       <c r="D196" t="n">
-        <v>0.06373961015481455</v>
+        <v>0.04862258757301353</v>
       </c>
       <c r="E196" t="n">
-        <v>0.5260966136037046</v>
+        <v>0.9415588564004552</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -4757,19 +4757,19 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1119.282013525306</v>
+        <v>57.61571827207456</v>
       </c>
       <c r="B197" t="n">
-        <v>12.82106239092496</v>
+        <v>2.880815654223363</v>
       </c>
       <c r="C197" t="n">
-        <v>0.4500334309327175</v>
+        <v>0.4376053976989294</v>
       </c>
       <c r="D197" t="n">
-        <v>0.0576613118203613</v>
+        <v>0.0436931316656619</v>
       </c>
       <c r="E197" t="n">
-        <v>0.3922194262281575</v>
+        <v>0.9792835126587783</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -4779,19 +4779,19 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1395.599530977312</v>
+        <v>116.3031313219732</v>
       </c>
       <c r="B198" t="n">
-        <v>18.22813045375218</v>
+        <v>4.34215897006951</v>
       </c>
       <c r="C198" t="n">
-        <v>0.301866483985175</v>
+        <v>0.4174146844300273</v>
       </c>
       <c r="D198" t="n">
-        <v>0.04065849063994315</v>
+        <v>0.03670216670475594</v>
       </c>
       <c r="E198" t="n">
-        <v>0.6115220005826472</v>
+        <v>0.9639298895643241</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -4801,19 +4801,19 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>884.3808355148342</v>
+        <v>66.33592177941637</v>
       </c>
       <c r="B199" t="n">
-        <v>13.76712478184991</v>
+        <v>3.834113604186654</v>
       </c>
       <c r="C199" t="n">
-        <v>0.3074785062674043</v>
+        <v>0.3695152347645526</v>
       </c>
       <c r="D199" t="n">
-        <v>0.05537134253420495</v>
+        <v>0.03810278893602341</v>
       </c>
       <c r="E199" t="n">
-        <v>0.7098854207709973</v>
+        <v>0.9773255239187469</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -4823,19 +4823,19 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>817.0205333769634</v>
+        <v>66.87426626200228</v>
       </c>
       <c r="B200" t="n">
-        <v>11.17002072425829</v>
+        <v>3.704369129467196</v>
       </c>
       <c r="C200" t="n">
-        <v>0.3348160669360751</v>
+        <v>0.3912163025820297</v>
       </c>
       <c r="D200" t="n">
-        <v>0.0537266009904952</v>
+        <v>0.04414795148554978</v>
       </c>
       <c r="E200" t="n">
-        <v>0.5373774562961293</v>
+        <v>0.9818088184109808</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -4845,19 +4845,19 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1402.726357984293</v>
+        <v>66.91949435210604</v>
       </c>
       <c r="B201" t="n">
-        <v>16.80532831588133</v>
+        <v>3.302965610419997</v>
       </c>
       <c r="C201" t="n">
-        <v>0.3338196354291594</v>
+        <v>0.4135806706125168</v>
       </c>
       <c r="D201" t="n">
-        <v>0.06566685370801811</v>
+        <v>0.0516621965360631</v>
       </c>
       <c r="E201" t="n">
-        <v>0.5236810920663502</v>
+        <v>0.9799175125428625</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -4867,19 +4867,19 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1512.863738001746</v>
+        <v>79.0974665082144</v>
       </c>
       <c r="B202" t="n">
-        <v>16.54774760034904</v>
+        <v>3.588769144971564</v>
       </c>
       <c r="C202" t="n">
-        <v>0.2717376276324791</v>
+        <v>0.4024431074752469</v>
       </c>
       <c r="D202" t="n">
-        <v>0.04517576206657482</v>
+        <v>0.0391103351810321</v>
       </c>
       <c r="E202" t="n">
-        <v>0.5239259985968536</v>
+        <v>0.9696449325629796</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -4889,19 +4889,19 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>657.3804264834206</v>
+        <v>31.60500465457548</v>
       </c>
       <c r="B203" t="n">
-        <v>13.10948407504363</v>
+        <v>3.125955939551018</v>
       </c>
       <c r="C203" t="n">
-        <v>0.2856388774952388</v>
+        <v>0.3560273488926198</v>
       </c>
       <c r="D203" t="n">
-        <v>0.05925558528703637</v>
+        <v>0.05739170984839155</v>
       </c>
       <c r="E203" t="n">
-        <v>0.5417976058413316</v>
+        <v>0.9668499071570432</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -4911,19 +4911,19 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1782.378953970332</v>
+        <v>99.8670479278039</v>
       </c>
       <c r="B204" t="n">
-        <v>22.26867910122164</v>
+        <v>5.593546960309229</v>
       </c>
       <c r="C204" t="n">
-        <v>0.1530865084205211</v>
+        <v>0.2272655232756859</v>
       </c>
       <c r="D204" t="n">
-        <v>0.03070144608723368</v>
+        <v>0.03836014622517236</v>
       </c>
       <c r="E204" t="n">
-        <v>0.5715062196259794</v>
+        <v>0.9637684541012245</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -4933,19 +4933,19 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>990.1569589877836</v>
+        <v>129.8744392224162</v>
       </c>
       <c r="B205" t="n">
-        <v>16.43455497382199</v>
+        <v>7.568803614342096</v>
       </c>
       <c r="C205" t="n">
-        <v>0.1349685442388845</v>
+        <v>0.1472775863974158</v>
       </c>
       <c r="D205" t="n">
-        <v>0.02535866480692021</v>
+        <v>0.02198965487533715</v>
       </c>
       <c r="E205" t="n">
-        <v>0.8030007532904151</v>
+        <v>0.9740451986950182</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -4955,19 +4955,19 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>826.5926047120421</v>
+        <v>81.69488218535047</v>
       </c>
       <c r="B206" t="n">
-        <v>12.22676701570681</v>
+        <v>5.491909020069324</v>
       </c>
       <c r="C206" t="n">
-        <v>0.2216971224440725</v>
+        <v>0.2089894307876632</v>
       </c>
       <c r="D206" t="n">
-        <v>0.03806183767256945</v>
+        <v>0.02700156877596998</v>
       </c>
       <c r="E206" t="n">
-        <v>0.7678531517466983</v>
+        <v>0.9744705664476592</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -4977,19 +4977,19 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>1374.151532504363</v>
+        <v>116.6777002652271</v>
       </c>
       <c r="B207" t="n">
-        <v>17.90927683246073</v>
+        <v>5.689431432024996</v>
       </c>
       <c r="C207" t="n">
-        <v>0.2134240775701193</v>
+        <v>0.2251041357857726</v>
       </c>
       <c r="D207" t="n">
-        <v>0.0444915886266358</v>
+        <v>0.03861665061501205</v>
       </c>
       <c r="E207" t="n">
-        <v>0.5484254353290634</v>
+        <v>0.9562064090003763</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -4999,19 +4999,19 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>961.7487456369984</v>
+        <v>78.27718737307205</v>
       </c>
       <c r="B208" t="n">
-        <v>13.49072862129145</v>
+        <v>5.260192225782344</v>
       </c>
       <c r="C208" t="n">
-        <v>0.2660588073716287</v>
+        <v>0.2234859877393135</v>
       </c>
       <c r="D208" t="n">
-        <v>0.05134643235575839</v>
+        <v>0.03261401290750369</v>
       </c>
       <c r="E208" t="n">
-        <v>0.6344459142634855</v>
+        <v>0.9663915269889185</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -5021,19 +5021,19 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>487.7753326788831</v>
+        <v>44.33192325723971</v>
       </c>
       <c r="B209" t="n">
-        <v>10.44521705933682</v>
+        <v>3.613377536668676</v>
       </c>
       <c r="C209" t="n">
-        <v>0.3359455833358125</v>
+        <v>0.3220013417432499</v>
       </c>
       <c r="D209" t="n">
-        <v>0.08263334015141884</v>
+        <v>0.05684394974017787</v>
       </c>
       <c r="E209" t="n">
-        <v>0.6436725135749395</v>
+        <v>0.961181031214259</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -5043,19 +5043,19 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>730.935154886562</v>
+        <v>48.93882784956467</v>
       </c>
       <c r="B210" t="n">
-        <v>12.7456369982548</v>
+        <v>3.838069789482329</v>
       </c>
       <c r="C210" t="n">
-        <v>0.2689871284358204</v>
+        <v>0.310321040788085</v>
       </c>
       <c r="D210" t="n">
-        <v>0.05417334506968296</v>
+        <v>0.05214542112969219</v>
       </c>
       <c r="E210" t="n">
-        <v>0.5685869334297353</v>
+        <v>0.9615253415117668</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -5065,19 +5065,19 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>651.0492201134381</v>
+        <v>41.69120692883394</v>
       </c>
       <c r="B211" t="n">
-        <v>12.8928065008726</v>
+        <v>3.249014866607108</v>
       </c>
       <c r="C211" t="n">
-        <v>0.2693404705312673</v>
+        <v>0.3633508799204257</v>
       </c>
       <c r="D211" t="n">
-        <v>0.05751072505896522</v>
+        <v>0.06397839345765229</v>
       </c>
       <c r="E211" t="n">
-        <v>0.6186155494135225</v>
+        <v>0.9656257291716159</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -5087,19 +5087,19 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>488.590259598604</v>
+        <v>40.95397276999113</v>
       </c>
       <c r="B212" t="n">
-        <v>10.2696335078534</v>
+        <v>3.382500549850895</v>
       </c>
       <c r="C212" t="n">
-        <v>0.3288692914747672</v>
+        <v>0.3322945254280855</v>
       </c>
       <c r="D212" t="n">
-        <v>0.07346647773250604</v>
+        <v>0.05665366314868982</v>
       </c>
       <c r="E212" t="n">
-        <v>0.686486048396527</v>
+        <v>0.9631225650141385</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -5109,19 +5109,19 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>423.3724367364747</v>
+        <v>40.89213323536616</v>
       </c>
       <c r="B213" t="n">
-        <v>8.949934554973822</v>
+        <v>3.226442678066484</v>
       </c>
       <c r="C213" t="n">
-        <v>0.3655971727953631</v>
+        <v>0.3554862892257465</v>
       </c>
       <c r="D213" t="n">
-        <v>0.08486168077762955</v>
+        <v>0.06201669497280296</v>
       </c>
       <c r="E213" t="n">
-        <v>0.7002917700764165</v>
+        <v>0.9602828770289147</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -5131,19 +5131,19 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>432.9904832024433</v>
+        <v>28.85988646215406</v>
       </c>
       <c r="B214" t="n">
-        <v>7.82714332460733</v>
+        <v>3.038845115038347</v>
       </c>
       <c r="C214" t="n">
-        <v>0.410360758853456</v>
+        <v>0.3376284651146497</v>
       </c>
       <c r="D214" t="n">
-        <v>0.08890837210957597</v>
+        <v>0.06037415957338432</v>
       </c>
       <c r="E214" t="n">
-        <v>0.6734567191812009</v>
+        <v>0.9803239227793873</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -5153,19 +5153,19 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>489.7330115619547</v>
+        <v>37.94861283882362</v>
       </c>
       <c r="B215" t="n">
-        <v>8.096067844677139</v>
+        <v>3.306708323734931</v>
       </c>
       <c r="C215" t="n">
-        <v>0.4384499856134338</v>
+        <v>0.339081589286264</v>
       </c>
       <c r="D215" t="n">
-        <v>0.09018651386242835</v>
+        <v>0.05491522606011764</v>
       </c>
       <c r="E215" t="n">
-        <v>0.6253791000048384</v>
+        <v>0.964761764723686</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -5175,19 +5175,19 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>461.4824661867364</v>
+        <v>31.73286002406305</v>
       </c>
       <c r="B216" t="n">
-        <v>11.11542866492147</v>
+        <v>3.310720034846276</v>
       </c>
       <c r="C216" t="n">
-        <v>0.2766885269811978</v>
+        <v>0.3261177861367109</v>
       </c>
       <c r="D216" t="n">
-        <v>0.06077490179169445</v>
+        <v>0.06600254245745908</v>
       </c>
       <c r="E216" t="n">
-        <v>0.5910902512657759</v>
+        <v>0.9618896422601257</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -5197,19 +5197,19 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>353.7456642670157</v>
+        <v>27.33311380533514</v>
       </c>
       <c r="B217" t="n">
-        <v>8.530840968586388</v>
+        <v>3.012054800057194</v>
       </c>
       <c r="C217" t="n">
-        <v>0.3706771812267983</v>
+        <v>0.3549252946588566</v>
       </c>
       <c r="D217" t="n">
-        <v>0.08082204969304221</v>
+        <v>0.06512293818993332</v>
       </c>
       <c r="E217" t="n">
-        <v>0.6814318306618051</v>
+        <v>0.9737660266294558</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -5219,19 +5219,19 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>552.5900141797556</v>
+        <v>46.36264182116614</v>
       </c>
       <c r="B218" t="n">
-        <v>11.06569044502618</v>
+        <v>3.889959686834758</v>
       </c>
       <c r="C218" t="n">
-        <v>0.3013651929771144</v>
+        <v>0.2907855176078636</v>
       </c>
       <c r="D218" t="n">
-        <v>0.06107154819121737</v>
+        <v>0.0479300318568812</v>
       </c>
       <c r="E218" t="n">
-        <v>0.5836510341447437</v>
+        <v>0.9535129435500603</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -5241,19 +5241,19 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>467.9561791012217</v>
+        <v>38.99325689713339</v>
       </c>
       <c r="B219" t="n">
-        <v>8.029586605584642</v>
+        <v>3.362134171211046</v>
       </c>
       <c r="C219" t="n">
-        <v>0.3983388683240802</v>
+        <v>0.3387723651752272</v>
       </c>
       <c r="D219" t="n">
-        <v>0.09545396550902435</v>
+        <v>0.06184040968993868</v>
       </c>
       <c r="E219" t="n">
-        <v>0.6159538251897355</v>
+        <v>0.9619458464711014</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -5263,19 +5263,19 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>628.8320789703316</v>
+        <v>25.9118079150821</v>
       </c>
       <c r="B220" t="n">
-        <v>10.50785340314136</v>
+        <v>2.749611370318606</v>
       </c>
       <c r="C220" t="n">
-        <v>0.4377140761979482</v>
+        <v>0.3843835868259916</v>
       </c>
       <c r="D220" t="n">
-        <v>0.1195396745850731</v>
+        <v>0.07622312014372136</v>
       </c>
       <c r="E220" t="n">
-        <v>0.5384547625051211</v>
+        <v>0.968627771744345</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -5285,19 +5285,19 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>455.1857820680628</v>
+        <v>34.93597301850852</v>
       </c>
       <c r="B221" t="n">
-        <v>8.650332678883071</v>
+        <v>3.244888907483702</v>
       </c>
       <c r="C221" t="n">
-        <v>0.4495611157924218</v>
+        <v>0.3435625248924393</v>
       </c>
       <c r="D221" t="n">
-        <v>0.1143878236993417</v>
+        <v>0.07063491018358931</v>
       </c>
       <c r="E221" t="n">
-        <v>0.5878966465419696</v>
+        <v>0.9612787822610476</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -5307,19 +5307,19 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>796.1804101221639</v>
+        <v>46.76215495035327</v>
       </c>
       <c r="B222" t="n">
-        <v>13.29815663176265</v>
+        <v>3.982231808016412</v>
       </c>
       <c r="C222" t="n">
-        <v>0.2919198244842362</v>
+        <v>0.2850931927089623</v>
       </c>
       <c r="D222" t="n">
-        <v>0.05854262573716928</v>
+        <v>0.04812462145159045</v>
       </c>
       <c r="E222" t="n">
-        <v>0.5599552346603363</v>
+        <v>0.9565554778176075</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -5329,19 +5329,19 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>395.8439681500873</v>
+        <v>41.48781934919725</v>
       </c>
       <c r="B223" t="n">
-        <v>8.044938917975568</v>
+        <v>3.370574772553449</v>
       </c>
       <c r="C223" t="n">
-        <v>0.3898619172693559</v>
+        <v>0.343743684633096</v>
       </c>
       <c r="D223" t="n">
-        <v>0.09595623567427194</v>
+        <v>0.06407623568195711</v>
       </c>
       <c r="E223" t="n">
-        <v>0.701486580968539</v>
+        <v>0.9607085079214923</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -5351,19 +5351,19 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>588.9609511343805</v>
+        <v>34.59417750580892</v>
       </c>
       <c r="B224" t="n">
-        <v>11.24530977312391</v>
+        <v>3.258387842060661</v>
       </c>
       <c r="C224" t="n">
-        <v>0.287805942900738</v>
+        <v>0.3339183815846655</v>
       </c>
       <c r="D224" t="n">
-        <v>0.06318006545728268</v>
+        <v>0.06065337207411272</v>
       </c>
       <c r="E224" t="n">
-        <v>0.5575652488116312</v>
+        <v>0.9614734458459928</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -5373,19 +5373,19 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>678.5786158376964</v>
+        <v>42.55341580737218</v>
       </c>
       <c r="B225" t="n">
-        <v>12.78373145724258</v>
+        <v>3.354847573329444</v>
       </c>
       <c r="C225" t="n">
-        <v>0.2930450714395731</v>
+        <v>0.3468437759560176</v>
       </c>
       <c r="D225" t="n">
-        <v>0.0644477968332091</v>
+        <v>0.06707646386743613</v>
       </c>
       <c r="E225" t="n">
-        <v>0.555223012041005</v>
+        <v>0.9608694935861712</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -5395,19 +5395,19 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>437.661867364747</v>
+        <v>39.02486011309584</v>
       </c>
       <c r="B226" t="n">
-        <v>9.208442408376964</v>
+        <v>3.240744938367849</v>
       </c>
       <c r="C226" t="n">
-        <v>0.3653318336447819</v>
+        <v>0.3468140940187542</v>
       </c>
       <c r="D226" t="n">
-        <v>0.08354941643362859</v>
+        <v>0.05983856368653145</v>
       </c>
       <c r="E226" t="n">
-        <v>0.6713774393932573</v>
+        <v>0.9629082015945325</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -5417,19 +5417,19 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>1233.843231893543</v>
+        <v>108.6552985842628</v>
       </c>
       <c r="B227" t="n">
-        <v>17.53640379581152</v>
+        <v>6.450578105175775</v>
       </c>
       <c r="C227" t="n">
-        <v>0.1644222113479048</v>
+        <v>0.1839754744522855</v>
       </c>
       <c r="D227" t="n">
-        <v>0.0309366706391821</v>
+        <v>0.03068840598580842</v>
       </c>
       <c r="E227" t="n">
-        <v>0.640205643135389</v>
+        <v>0.953449275809335</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -5439,19 +5439,19 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>558.0141797556719</v>
+        <v>37.7062845537668</v>
       </c>
       <c r="B228" t="n">
-        <v>9.37652705061082</v>
+        <v>3.435045006213953</v>
       </c>
       <c r="C228" t="n">
-        <v>0.401283414860592</v>
+        <v>0.3201436255925847</v>
       </c>
       <c r="D228" t="n">
-        <v>0.09256013865096134</v>
+        <v>0.06178135782885504</v>
       </c>
       <c r="E228" t="n">
-        <v>0.5403874700180017</v>
+        <v>0.9592444383800907</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -5461,19 +5461,19 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>374.9693226439791</v>
+        <v>93.12255737234655</v>
       </c>
       <c r="B229" t="n">
-        <v>7.495500654450262</v>
+        <v>5.400111986407167</v>
       </c>
       <c r="C229" t="n">
-        <v>0.3115826466417621</v>
+        <v>0.228688540486205</v>
       </c>
       <c r="D229" t="n">
-        <v>0.06062552374182886</v>
+        <v>0.03905700061899113</v>
       </c>
       <c r="E229" t="n">
-        <v>0.7546213115339366</v>
+        <v>0.9583477803108684</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -5483,19 +5483,19 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>597.3450589005236</v>
+        <v>44.91426946643718</v>
       </c>
       <c r="B230" t="n">
-        <v>11.91132198952879</v>
+        <v>3.563425725760184</v>
       </c>
       <c r="C230" t="n">
-        <v>0.2576429904965513</v>
+        <v>0.3269276920117945</v>
       </c>
       <c r="D230" t="n">
-        <v>0.04904602197076294</v>
+        <v>0.05334719656758705</v>
       </c>
       <c r="E230" t="n">
-        <v>0.6012038740979913</v>
+        <v>0.9602195773479307</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -5505,19 +5505,19 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>702.1476058027923</v>
+        <v>61.51513565026022</v>
       </c>
       <c r="B231" t="n">
-        <v>13.86319262652705</v>
+        <v>5.002100536653625</v>
       </c>
       <c r="C231" t="n">
-        <v>0.2458932657455006</v>
+        <v>0.2197889993717888</v>
       </c>
       <c r="D231" t="n">
-        <v>0.05066899738391028</v>
+        <v>0.04371503914665973</v>
       </c>
       <c r="E231" t="n">
-        <v>0.5771442321863269</v>
+        <v>0.9438568488153136</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -5527,19 +5527,19 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>295.8852530541012</v>
+        <v>26.81154760053311</v>
       </c>
       <c r="B232" t="n">
-        <v>7.476930628272252</v>
+        <v>2.848503938247958</v>
       </c>
       <c r="C232" t="n">
-        <v>0.4048463403251011</v>
+        <v>0.3665926607659265</v>
       </c>
       <c r="D232" t="n">
-        <v>0.08495821513069363</v>
+        <v>0.05994415268522634</v>
       </c>
       <c r="E232" t="n">
-        <v>0.7253480897008072</v>
+        <v>0.9688248907296358</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -5549,19 +5549,19 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>1358.404123036649</v>
+        <v>124.4672810368069</v>
       </c>
       <c r="B233" t="n">
-        <v>18.47687609075044</v>
+        <v>6.781300401871714</v>
       </c>
       <c r="C233" t="n">
-        <v>0.151005438191351</v>
+        <v>0.178192244821951</v>
       </c>
       <c r="D233" t="n">
-        <v>0.03120301172209141</v>
+        <v>0.02825537228283099</v>
       </c>
       <c r="E233" t="n">
-        <v>0.7472671519987359</v>
+        <v>0.973929652872479</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -5571,19 +5571,19 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>1724.496345986038</v>
+        <v>154.0228823397452</v>
       </c>
       <c r="B234" t="n">
-        <v>20.92244764397906</v>
+        <v>8.163512024272276</v>
       </c>
       <c r="C234" t="n">
-        <v>0.1462718875171478</v>
+        <v>0.1390229101748126</v>
       </c>
       <c r="D234" t="n">
-        <v>0.02572716188349839</v>
+        <v>0.02178055583309538</v>
       </c>
       <c r="E234" t="n">
-        <v>0.7036654803115129</v>
+        <v>0.9668179587307149</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -5593,19 +5593,19 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>934.4865565008724</v>
+        <v>123.3989201052102</v>
       </c>
       <c r="B235" t="n">
-        <v>16.69319917102967</v>
+        <v>7.411768023293822</v>
       </c>
       <c r="C235" t="n">
-        <v>0.1176418090048149</v>
+        <v>0.1525309611926481</v>
       </c>
       <c r="D235" t="n">
-        <v>0.02211736064961153</v>
+        <v>0.0239981528721407</v>
       </c>
       <c r="E235" t="n">
-        <v>0.7800397687609477</v>
+        <v>0.9678647703491735</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -5615,19 +5615,19 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>1200.923347513089</v>
+        <v>138.0465696843906</v>
       </c>
       <c r="B236" t="n">
-        <v>18.39542430191972</v>
+        <v>7.297917007122145</v>
       </c>
       <c r="C236" t="n">
-        <v>0.1239676841191094</v>
+        <v>0.1655023262772538</v>
       </c>
       <c r="D236" t="n">
-        <v>0.02471074139693825</v>
+        <v>0.02615136329456054</v>
       </c>
       <c r="E236" t="n">
-        <v>0.768472733888685</v>
+        <v>0.9698298903904641</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -5637,19 +5637,19 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>874.7503817626528</v>
+        <v>123.1260777760394</v>
       </c>
       <c r="B237" t="n">
-        <v>13.36278359511344</v>
+        <v>7.331392361065179</v>
       </c>
       <c r="C237" t="n">
-        <v>0.1769614624319866</v>
+        <v>0.1498797962822226</v>
       </c>
       <c r="D237" t="n">
-        <v>0.03277612046517883</v>
+        <v>0.02372814881225028</v>
       </c>
       <c r="E237" t="n">
-        <v>0.7866599701233931</v>
+        <v>0.9671250556772137</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -5659,19 +5659,19 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1490.320517015707</v>
+        <v>103.4534473574339</v>
       </c>
       <c r="B238" t="n">
-        <v>19.87592713787086</v>
+        <v>5.588377639312107</v>
       </c>
       <c r="C238" t="n">
-        <v>0.1893704389123752</v>
+        <v>0.220313249903522</v>
       </c>
       <c r="D238" t="n">
-        <v>0.03304370794374203</v>
+        <v>0.03512229494909899</v>
       </c>
       <c r="E238" t="n">
-        <v>0.544969333091457</v>
+        <v>0.9538343503240669</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -5681,19 +5681,19 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>1352.066835732985</v>
+        <v>143.3990767865797</v>
       </c>
       <c r="B239" t="n">
-        <v>18.40491383071554</v>
+        <v>7.536850889370855</v>
       </c>
       <c r="C239" t="n">
-        <v>0.1266517924890052</v>
+        <v>0.1504158852638573</v>
       </c>
       <c r="D239" t="n">
-        <v>0.02577125856746973</v>
+        <v>0.02546347546795382</v>
       </c>
       <c r="E239" t="n">
-        <v>0.6639284469335641</v>
+        <v>0.9567965432434354</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -5703,19 +5703,19 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>1350.813836169285</v>
+        <v>141.5229120112053</v>
       </c>
       <c r="B240" t="n">
-        <v>17.09388634380454</v>
+        <v>7.792047551161712</v>
       </c>
       <c r="C240" t="n">
-        <v>0.1553259205361803</v>
+        <v>0.1445600427601578</v>
       </c>
       <c r="D240" t="n">
-        <v>0.03025020756917611</v>
+        <v>0.02631885442439551</v>
       </c>
       <c r="E240" t="n">
-        <v>0.7416582237637704</v>
+        <v>0.9689597554814799</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -5725,19 +5725,19 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>567.1008671465969</v>
+        <v>116.5795581948263</v>
       </c>
       <c r="B241" t="n">
-        <v>10.73279341186737</v>
+        <v>6.689903104242727</v>
       </c>
       <c r="C241" t="n">
-        <v>0.1823355522479317</v>
+        <v>0.1735416509726451</v>
       </c>
       <c r="D241" t="n">
-        <v>0.03765491544840976</v>
+        <v>0.02892245312480992</v>
       </c>
       <c r="E241" t="n">
-        <v>0.8291762981792722</v>
+        <v>0.9673138500931069</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -5747,19 +5747,19 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>1270.83622382199</v>
+        <v>111.0354681491267</v>
       </c>
       <c r="B242" t="n">
-        <v>18.9058682373473</v>
+        <v>6.652535968315849</v>
       </c>
       <c r="C242" t="n">
-        <v>0.1383322263096277</v>
+        <v>0.1772858396020967</v>
       </c>
       <c r="D242" t="n">
-        <v>0.02844576185202788</v>
+        <v>0.03331783791538689</v>
       </c>
       <c r="E242" t="n">
-        <v>0.6457720493382418</v>
+        <v>0.9632291701252741</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -5769,19 +5769,19 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>957.3856620855152</v>
+        <v>79.58392672227593</v>
       </c>
       <c r="B243" t="n">
-        <v>14.15038721640489</v>
+        <v>5.700495481783285</v>
       </c>
       <c r="C243" t="n">
-        <v>0.1831692326672157</v>
+        <v>0.1952439346319581</v>
       </c>
       <c r="D243" t="n">
-        <v>0.03302530654923255</v>
+        <v>0.02793173053091585</v>
       </c>
       <c r="E243" t="n">
-        <v>0.7078597663036086</v>
+        <v>0.9715799157020908</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -5791,19 +5791,19 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>1752.067926483421</v>
+        <v>181.9969109866222</v>
       </c>
       <c r="B244" t="n">
-        <v>20.20737892670157</v>
+        <v>7.418843484148483</v>
       </c>
       <c r="C244" t="n">
-        <v>0.1293801074109134</v>
+        <v>0.1737938213489825</v>
       </c>
       <c r="D244" t="n">
-        <v>0.02710538838290584</v>
+        <v>0.02661320647597283</v>
       </c>
       <c r="E244" t="n">
-        <v>0.651114996217495</v>
+        <v>0.961226054589294</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -5813,19 +5813,19 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>1587.277077879581</v>
+        <v>130.7884525070161</v>
       </c>
       <c r="B245" t="n">
-        <v>21.3644469895288</v>
+        <v>6.94445998695523</v>
       </c>
       <c r="C245" t="n">
-        <v>0.1100407388415153</v>
+        <v>0.17449510061282</v>
       </c>
       <c r="D245" t="n">
-        <v>0.02192022544312175</v>
+        <v>0.02337598709034227</v>
       </c>
       <c r="E245" t="n">
-        <v>0.6581881132752389</v>
+        <v>0.9665304255475822</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -5835,19 +5835,19 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>1385.667021160559</v>
+        <v>127.6867373908977</v>
       </c>
       <c r="B246" t="n">
-        <v>17.9618510034904</v>
+        <v>6.376398027748182</v>
       </c>
       <c r="C246" t="n">
-        <v>0.1406050120095015</v>
+        <v>0.1975459391012072</v>
       </c>
       <c r="D246" t="n">
-        <v>0.02542448223287083</v>
+        <v>0.02721971193879714</v>
       </c>
       <c r="E246" t="n">
-        <v>0.6844277867611162</v>
+        <v>0.9704681556937685</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -5857,19 +5857,19 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>1826.111229275742</v>
+        <v>138.6347687178916</v>
       </c>
       <c r="B247" t="n">
-        <v>19.8386507417103</v>
+        <v>6.709374583830654</v>
       </c>
       <c r="C247" t="n">
-        <v>0.1488799371008847</v>
+        <v>0.1813602147214869</v>
       </c>
       <c r="D247" t="n">
-        <v>0.03174261222459933</v>
+        <v>0.02920547106129777</v>
       </c>
       <c r="E247" t="n">
-        <v>0.6515326082313697</v>
+        <v>0.9659135620774341</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -5879,19 +5879,19 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>1700.612619982548</v>
+        <v>117.4055506810386</v>
       </c>
       <c r="B248" t="n">
-        <v>18.80911867364747</v>
+        <v>6.127635300716928</v>
       </c>
       <c r="C248" t="n">
-        <v>0.1629866047284421</v>
+        <v>0.2064112931049625</v>
       </c>
       <c r="D248" t="n">
-        <v>0.03336941568958615</v>
+        <v>0.03544274908092796</v>
       </c>
       <c r="E248" t="n">
-        <v>0.6796228104612836</v>
+        <v>0.9724262120178135</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -5901,19 +5901,19 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>647.9586060209425</v>
+        <v>32.3327677864495</v>
       </c>
       <c r="B249" t="n">
-        <v>11.53615837696335</v>
+        <v>3.095468334467109</v>
       </c>
       <c r="C249" t="n">
-        <v>0.3679041035408</v>
+        <v>0.3640396443169381</v>
       </c>
       <c r="D249" t="n">
-        <v>0.08278622460861024</v>
+        <v>0.06146112443475249</v>
       </c>
       <c r="E249" t="n">
-        <v>0.5722040900532605</v>
+        <v>0.9670699861087606</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -5923,19 +5923,19 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>2637.167593804538</v>
+        <v>156.1803522168706</v>
       </c>
       <c r="B250" t="n">
-        <v>27.66344895287958</v>
+        <v>7.54172511391112</v>
       </c>
       <c r="C250" t="n">
-        <v>0.08807449832526078</v>
+        <v>0.1628601228392675</v>
       </c>
       <c r="D250" t="n">
-        <v>0.0193736630277607</v>
+        <v>0.02518861883173122</v>
       </c>
       <c r="E250" t="n">
-        <v>0.5854406366432683</v>
+        <v>0.965216973770904</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -5945,19 +5945,19 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>1146.548511125655</v>
+        <v>130.3545171968905</v>
       </c>
       <c r="B251" t="n">
-        <v>16.51677028795812</v>
+        <v>6.999296465363924</v>
       </c>
       <c r="C251" t="n">
-        <v>0.1407768529733659</v>
+        <v>0.1726391164843585</v>
       </c>
       <c r="D251" t="n">
-        <v>0.03070730068485715</v>
+        <v>0.03202747322682728</v>
       </c>
       <c r="E251" t="n">
-        <v>0.7086851610134073</v>
+        <v>0.9642717829934354</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -5967,19 +5967,19 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>277.5326407068063</v>
+        <v>33.59041332509251</v>
       </c>
       <c r="B252" t="n">
-        <v>8.202579624781849</v>
+        <v>3.883133760481696</v>
       </c>
       <c r="C252" t="n">
-        <v>0.2855609963271743</v>
+        <v>0.2701651157289177</v>
       </c>
       <c r="D252" t="n">
-        <v>0.05653885448297315</v>
+        <v>0.04752561658021509</v>
       </c>
       <c r="E252" t="n">
-        <v>0.7942302326571617</v>
+        <v>0.9756511507375577</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -5989,19 +5989,19 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>1411.712887216405</v>
+        <v>117.3688497278483</v>
       </c>
       <c r="B253" t="n">
-        <v>18.32621618673648</v>
+        <v>5.832173012678149</v>
       </c>
       <c r="C253" t="n">
-        <v>0.140465160797484</v>
+        <v>0.2137450600595976</v>
       </c>
       <c r="D253" t="n">
-        <v>0.02976225670937908</v>
+        <v>0.03928116047129313</v>
       </c>
       <c r="E253" t="n">
-        <v>0.6183299823397576</v>
+        <v>0.9633740660754108</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -6011,19 +6011,19 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>1322.833742364747</v>
+        <v>128.166212162134</v>
       </c>
       <c r="B254" t="n">
-        <v>17.20890597731239</v>
+        <v>6.880132753468304</v>
       </c>
       <c r="C254" t="n">
-        <v>0.1467130565079574</v>
+        <v>0.1719850601514323</v>
       </c>
       <c r="D254" t="n">
-        <v>0.03103389859648291</v>
+        <v>0.03203494779585876</v>
       </c>
       <c r="E254" t="n">
-        <v>0.6965004844407046</v>
+        <v>0.9604701004509639</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -6033,19 +6033,19 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>2088.120282504363</v>
+        <v>181.8829949489336</v>
       </c>
       <c r="B255" t="n">
-        <v>25.70377945026178</v>
+        <v>8.533593502360869</v>
       </c>
       <c r="C255" t="n">
-        <v>0.07750209376826485</v>
+        <v>0.1423248873452864</v>
       </c>
       <c r="D255" t="n">
-        <v>0.01803166274180177</v>
+        <v>0.0240699338908281</v>
       </c>
       <c r="E255" t="n">
-        <v>0.6567764550114115</v>
+        <v>0.9607364807241665</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -6055,19 +6055,19 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>1678.183218804538</v>
+        <v>125.1958827063466</v>
       </c>
       <c r="B256" t="n">
-        <v>20.51884271378709</v>
+        <v>6.716683768508148</v>
       </c>
       <c r="C256" t="n">
-        <v>0.1491615310172649</v>
+        <v>0.1816109559301298</v>
       </c>
       <c r="D256" t="n">
-        <v>0.0308362365749758</v>
+        <v>0.03208756661133144</v>
       </c>
       <c r="E256" t="n">
-        <v>0.6844990318444359</v>
+        <v>0.967993111811719</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -6077,19 +6077,19 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1365.048565663176</v>
+        <v>150.4267187641181</v>
       </c>
       <c r="B257" t="n">
-        <v>19.62551810645724</v>
+        <v>7.584255457917426</v>
       </c>
       <c r="C257" t="n">
-        <v>0.09431620486931924</v>
+        <v>0.1549505683782816</v>
       </c>
       <c r="D257" t="n">
-        <v>0.02288130973305603</v>
+        <v>0.02537690405963116</v>
       </c>
       <c r="E257" t="n">
-        <v>0.7222256034019561</v>
+        <v>0.9652774890486365</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -6099,19 +6099,19 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>466.8151178010472</v>
+        <v>36.39546434963023</v>
       </c>
       <c r="B258" t="n">
-        <v>10.33818717277487</v>
+        <v>3.434667836138617</v>
       </c>
       <c r="C258" t="n">
-        <v>0.2796129552955195</v>
+        <v>0.3195839709087001</v>
       </c>
       <c r="D258" t="n">
-        <v>0.05985814769504943</v>
+        <v>0.06463623945701433</v>
       </c>
       <c r="E258" t="n">
-        <v>0.6993109299060524</v>
+        <v>0.9711669402392057</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -6121,19 +6121,19 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>1262.048156631763</v>
+        <v>72.85036105429219</v>
       </c>
       <c r="B259" t="n">
-        <v>18.31010034904014</v>
+        <v>5.062983788825584</v>
       </c>
       <c r="C259" t="n">
-        <v>0.1805697712948856</v>
+        <v>0.232913061446989</v>
       </c>
       <c r="D259" t="n">
-        <v>0.03787536655581069</v>
+        <v>0.04339362183374873</v>
       </c>
       <c r="E259" t="n">
-        <v>0.6393012221117097</v>
+        <v>0.9707314928015425</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -6143,19 +6143,19 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>825.7887761780106</v>
+        <v>45.2597242035455</v>
       </c>
       <c r="B260" t="n">
-        <v>15.02645069808028</v>
+        <v>3.430352783098511</v>
       </c>
       <c r="C260" t="n">
-        <v>0.2316958768620529</v>
+        <v>0.3649743462709739</v>
       </c>
       <c r="D260" t="n">
-        <v>0.0518888408840938</v>
+        <v>0.07159068163909184</v>
       </c>
       <c r="E260" t="n">
-        <v>0.5918947808812186</v>
+        <v>0.967060641967904</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -6165,19 +6165,19 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>1324.617010253054</v>
+        <v>128.6710560186729</v>
       </c>
       <c r="B261" t="n">
-        <v>19.47723058464224</v>
+        <v>7.308496665555185</v>
       </c>
       <c r="C261" t="n">
-        <v>0.1068240329207443</v>
+        <v>0.1605851128713241</v>
       </c>
       <c r="D261" t="n">
-        <v>0.02326353754106153</v>
+        <v>0.02670392743033522</v>
       </c>
       <c r="E261" t="n">
-        <v>0.7529930937484034</v>
+        <v>0.9706359727229558</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -6187,19 +6187,19 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>1052.715995855148</v>
+        <v>114.8079387877959</v>
       </c>
       <c r="B262" t="n">
-        <v>15.34334096858639</v>
+        <v>6.712536210937672</v>
       </c>
       <c r="C262" t="n">
-        <v>0.1691946250130121</v>
+        <v>0.1747434610003219</v>
       </c>
       <c r="D262" t="n">
-        <v>0.02857661411451994</v>
+        <v>0.02908841038953416</v>
       </c>
       <c r="E262" t="n">
-        <v>0.7385030580567661</v>
+        <v>0.966009559612914</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -6209,19 +6209,19 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>1952.308436954625</v>
+        <v>131.7011612069684</v>
       </c>
       <c r="B263" t="n">
-        <v>23.83330606457243</v>
+        <v>6.468971159456531</v>
       </c>
       <c r="C263" t="n">
-        <v>0.1522862767024649</v>
+        <v>0.2063042278662488</v>
       </c>
       <c r="D263" t="n">
-        <v>0.02994822625519856</v>
+        <v>0.03149661613645407</v>
       </c>
       <c r="E263" t="n">
-        <v>0.4204382121528544</v>
+        <v>0.9612799741749439</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -6231,19 +6231,19 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>690.0794339005236</v>
+        <v>44.11110336778926</v>
       </c>
       <c r="B264" t="n">
-        <v>11.61112020069808</v>
+        <v>3.48674108036012</v>
       </c>
       <c r="C264" t="n">
-        <v>0.3284927660274867</v>
+        <v>0.3212694977235127</v>
       </c>
       <c r="D264" t="n">
-        <v>0.07172654012246776</v>
+        <v>0.05656671015281291</v>
       </c>
       <c r="E264" t="n">
-        <v>0.5791919700083616</v>
+        <v>0.9644569160445133</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -6253,19 +6253,19 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>516.864965095986</v>
+        <v>28.54184011337112</v>
       </c>
       <c r="B265" t="n">
-        <v>9.547720331588133</v>
+        <v>3.082786428809603</v>
       </c>
       <c r="C265" t="n">
-        <v>0.3693057749052278</v>
+        <v>0.3295615530363394</v>
       </c>
       <c r="D265" t="n">
-        <v>0.07379659777630644</v>
+        <v>0.05284207551707706</v>
       </c>
       <c r="E265" t="n">
-        <v>0.670365190464425</v>
+        <v>0.972179406051936</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -6275,19 +6275,19 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>1010.157286212914</v>
+        <v>85.31109839794179</v>
       </c>
       <c r="B266" t="n">
-        <v>14.98445680628272</v>
+        <v>6.089873752294029</v>
       </c>
       <c r="C266" t="n">
-        <v>0.2198761994326826</v>
+        <v>0.1827237225929655</v>
       </c>
       <c r="D266" t="n">
-        <v>0.03986036251357609</v>
+        <v>0.02675430270399596</v>
       </c>
       <c r="E266" t="n">
-        <v>0.7225339739633815</v>
+        <v>0.9729531363021817</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -6297,19 +6297,19 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>2637.166612129145</v>
+        <v>145.5303120780195</v>
       </c>
       <c r="B267" t="n">
-        <v>31.04090314136126</v>
+        <v>7.094556472451446</v>
       </c>
       <c r="C267" t="n">
-        <v>0.08167060166366487</v>
+        <v>0.1835700538946705</v>
       </c>
       <c r="D267" t="n">
-        <v>0.01598035474246077</v>
+        <v>0.02290801364249125</v>
       </c>
       <c r="E267" t="n">
-        <v>0.4670487895279977</v>
+        <v>0.9668753133127754</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -6319,19 +6319,19 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>2811.097567626527</v>
+        <v>147.7343722597316</v>
       </c>
       <c r="B268" t="n">
-        <v>31.10634816753927</v>
+        <v>7.157912144702843</v>
       </c>
       <c r="C268" t="n">
-        <v>0.09389282929802287</v>
+        <v>0.1845701194335491</v>
       </c>
       <c r="D268" t="n">
-        <v>0.02107477437694518</v>
+        <v>0.02906347189988406</v>
       </c>
       <c r="E268" t="n">
-        <v>0.4180009541498887</v>
+        <v>0.9641826786581473</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -6341,19 +6341,19 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>1562.175201788831</v>
+        <v>100.9827851431734</v>
       </c>
       <c r="B269" t="n">
-        <v>19.4738492582897</v>
+        <v>6.246549457721977</v>
       </c>
       <c r="C269" t="n">
-        <v>0.1742562693141144</v>
+        <v>0.185402401976756</v>
       </c>
       <c r="D269" t="n">
-        <v>0.0291291893432761</v>
+        <v>0.02478991483078851</v>
       </c>
       <c r="E269" t="n">
-        <v>0.6860534481774154</v>
+        <v>0.9704212144650641</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -6363,19 +6363,19 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>467.2742146596859</v>
+        <v>46.67050013167748</v>
       </c>
       <c r="B270" t="n">
-        <v>8.377017888307158</v>
+        <v>3.317854361989873</v>
       </c>
       <c r="C270" t="n">
-        <v>0.4481912337550204</v>
+        <v>0.3714685187809111</v>
       </c>
       <c r="D270" t="n">
-        <v>0.1010142585584965</v>
+        <v>0.05237835231104436</v>
       </c>
       <c r="E270" t="n">
-        <v>0.6390277231222558</v>
+        <v>0.9678208197957867</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -6385,19 +6385,19 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>927.0940772251309</v>
+        <v>118.8694623052275</v>
       </c>
       <c r="B271" t="n">
-        <v>14.32258944153578</v>
+        <v>5.9211406277765</v>
       </c>
       <c r="C271" t="n">
-        <v>0.2189745848688172</v>
+        <v>0.211867971762159</v>
       </c>
       <c r="D271" t="n">
-        <v>0.04125046148539667</v>
+        <v>0.03469396392217702</v>
       </c>
       <c r="E271" t="n">
-        <v>0.7177962403276281</v>
+        <v>0.9537777566862966</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -6407,19 +6407,19 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>3524.84854930192</v>
+        <v>195.7879313161624</v>
       </c>
       <c r="B272" t="n">
-        <v>35.97414921465969</v>
+        <v>7.780172376427441</v>
       </c>
       <c r="C272" t="n">
-        <v>0.08413133855514254</v>
+        <v>0.1777418969940583</v>
       </c>
       <c r="D272" t="n">
-        <v>0.01579962925742747</v>
+        <v>0.02364885315702022</v>
       </c>
       <c r="E272" t="n">
-        <v>0.4255206406479907</v>
+        <v>0.9629857846584177</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -6429,19 +6429,19 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>723.7790412303665</v>
+        <v>28.87496090689339</v>
       </c>
       <c r="B273" t="n">
-        <v>15.66614856020943</v>
+        <v>3.265810619321496</v>
       </c>
       <c r="C273" t="n">
-        <v>0.1772684530685167</v>
+        <v>0.3237508793667049</v>
       </c>
       <c r="D273" t="n">
-        <v>0.04326467139768051</v>
+        <v>0.05996428079116621</v>
       </c>
       <c r="E273" t="n">
-        <v>0.4351361897492971</v>
+        <v>0.9694724266696459</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -6451,19 +6451,19 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>2559.832815226876</v>
+        <v>217.8452591481203</v>
       </c>
       <c r="B274" t="n">
-        <v>29.81160013089005</v>
+        <v>8.895454697007585</v>
       </c>
       <c r="C274" t="n">
-        <v>0.09399676884046071</v>
+        <v>0.1506232816190232</v>
       </c>
       <c r="D274" t="n">
-        <v>0.02190375844285253</v>
+        <v>0.02534442725474417</v>
       </c>
       <c r="E274" t="n">
-        <v>0.4101835821545942</v>
+        <v>0.9480936113531853</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -6473,19 +6473,19 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>1311.852530541012</v>
+        <v>53.6685186296574</v>
       </c>
       <c r="B275" t="n">
-        <v>22.89081588132635</v>
+        <v>4.360870217554387</v>
       </c>
       <c r="C275" t="n">
-        <v>0.1121297128675388</v>
+        <v>0.2615011567929769</v>
       </c>
       <c r="D275" t="n">
-        <v>0.02627225889502741</v>
+        <v>0.04721631877859112</v>
       </c>
       <c r="E275" t="n">
-        <v>0.3732280705755674</v>
+        <v>0.9539560850129598</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -6495,19 +6495,19 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>642.9176483420594</v>
+        <v>43.63519506502168</v>
       </c>
       <c r="B276" t="n">
-        <v>12.24547338568935</v>
+        <v>3.978282260753585</v>
       </c>
       <c r="C276" t="n">
-        <v>0.2531622750824865</v>
+        <v>0.2699134326586346</v>
       </c>
       <c r="D276" t="n">
-        <v>0.04970270475404617</v>
+        <v>0.04904468779687637</v>
       </c>
       <c r="E276" t="n">
-        <v>0.5491900413621632</v>
+        <v>0.9568473138759077</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -6517,19 +6517,19 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>2298.340586823735</v>
+        <v>135.1327248249416</v>
       </c>
       <c r="B277" t="n">
-        <v>24.7652705061082</v>
+        <v>6.729230660220074</v>
       </c>
       <c r="C277" t="n">
-        <v>0.1564893733485422</v>
+        <v>0.1889542310131974</v>
       </c>
       <c r="D277" t="n">
-        <v>0.02667572023670079</v>
+        <v>0.02255204970733399</v>
       </c>
       <c r="E277" t="n">
-        <v>0.5866163454741835</v>
+        <v>0.9689995778043089</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -6539,19 +6539,19 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>1407.829461169284</v>
+        <v>173.5615169223074</v>
       </c>
       <c r="B278" t="n">
-        <v>17.0744982547993</v>
+        <v>7.892984078026009</v>
       </c>
       <c r="C278" t="n">
-        <v>0.1941610913832921</v>
+        <v>0.1614366921525584</v>
       </c>
       <c r="D278" t="n">
-        <v>0.03572410107269512</v>
+        <v>0.02041457671571808</v>
       </c>
       <c r="E278" t="n">
-        <v>0.6149081714421829</v>
+        <v>0.9550758867098296</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -6561,19 +6561,19 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>2187.818390052356</v>
+        <v>170.9902828442814</v>
       </c>
       <c r="B279" t="n">
-        <v>26.22393106457243</v>
+        <v>8.143620123374458</v>
       </c>
       <c r="C279" t="n">
-        <v>0.07653080334603783</v>
+        <v>0.1492953317622354</v>
       </c>
       <c r="D279" t="n">
-        <v>0.01861692648165668</v>
+        <v>0.0249244358792919</v>
       </c>
       <c r="E279" t="n">
-        <v>0.671660911612557</v>
+        <v>0.9636522579732686</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -6583,19 +6583,19 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>2099.490237783595</v>
+        <v>173.4163564521507</v>
       </c>
       <c r="B280" t="n">
-        <v>25.11905541012217</v>
+        <v>8.394832444148049</v>
       </c>
       <c r="C280" t="n">
-        <v>0.08811912175251402</v>
+        <v>0.1433737501910652</v>
       </c>
       <c r="D280" t="n">
-        <v>0.02027058700164783</v>
+        <v>0.02539975333961776</v>
       </c>
       <c r="E280" t="n">
-        <v>0.6324817012154602</v>
+        <v>0.9584159395189931</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -6605,19 +6605,19 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>2004.658158813264</v>
+        <v>144.5274371457153</v>
       </c>
       <c r="B281" t="n">
-        <v>25.11960078534031</v>
+        <v>7.689065021673891</v>
       </c>
       <c r="C281" t="n">
-        <v>0.08765131972122636</v>
+        <v>0.1544724857035332</v>
       </c>
       <c r="D281" t="n">
-        <v>0.02020190099142172</v>
+        <v>0.02602183382611547</v>
       </c>
       <c r="E281" t="n">
-        <v>0.6527462529455162</v>
+        <v>0.9671041581266605</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -6627,19 +6627,19 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>429.2587805410122</v>
+        <v>61.66097011654496</v>
       </c>
       <c r="B282" t="n">
-        <v>11.05535558464223</v>
+        <v>4.791074568699207</v>
       </c>
       <c r="C282" t="n">
-        <v>0.2340479132247408</v>
+        <v>0.2439989509753595</v>
       </c>
       <c r="D282" t="n">
-        <v>0.04767144092373668</v>
+        <v>0.04396747010793124</v>
       </c>
       <c r="E282" t="n">
-        <v>0.7773956983697676</v>
+        <v>0.9682652075278343</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -6649,19 +6649,19 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>1742.830606457243</v>
+        <v>165.0013662054018</v>
       </c>
       <c r="B283" t="n">
-        <v>22.72845767888307</v>
+        <v>8.0363527009003</v>
       </c>
       <c r="C283" t="n">
-        <v>0.09760669266140939</v>
+        <v>0.153676562260728</v>
       </c>
       <c r="D283" t="n">
-        <v>0.02008159571186467</v>
+        <v>0.02469546733565573</v>
       </c>
       <c r="E283" t="n">
-        <v>0.6765189697399041</v>
+        <v>0.9635265367176181</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -6671,19 +6671,19 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>232.9888743455497</v>
+        <v>30.98832969323108</v>
       </c>
       <c r="B284" t="n">
-        <v>5.865783158813264</v>
+        <v>3.63102675891964</v>
       </c>
       <c r="C284" t="n">
-        <v>0.3936593697058855</v>
+        <v>0.2782514754378027</v>
       </c>
       <c r="D284" t="n">
-        <v>0.08105409031815725</v>
+        <v>0.04905278766267338</v>
       </c>
       <c r="E284" t="n">
-        <v>0.7297571912992176</v>
+        <v>0.9600949983858557</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -6693,19 +6693,19 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>827.7943390052357</v>
+        <v>72.31535575560557</v>
       </c>
       <c r="B285" t="n">
-        <v>14.45855148342059</v>
+        <v>4.414245144619488</v>
       </c>
       <c r="C285" t="n">
-        <v>0.2111553039851985</v>
+        <v>0.279803393444859</v>
       </c>
       <c r="D285" t="n">
-        <v>0.04882828573313853</v>
+        <v>0.05474245343968865</v>
       </c>
       <c r="E285" t="n">
-        <v>0.2456951788954138</v>
+        <v>0.9066031290095941</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -6715,19 +6715,19 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>974.2219404450262</v>
+        <v>42.0149222240747</v>
       </c>
       <c r="B286" t="n">
-        <v>16.88538939790576</v>
+        <v>4.012725325108369</v>
       </c>
       <c r="C286" t="n">
-        <v>0.1937829054403771</v>
+        <v>0.2665920800956796</v>
       </c>
       <c r="D286" t="n">
-        <v>0.03846741288035269</v>
+        <v>0.04661809155023493</v>
       </c>
       <c r="E286" t="n">
-        <v>0.5515461303712206</v>
+        <v>0.9609965743800337</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -6737,19 +6737,19 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>1102.768951788831</v>
+        <v>66.93141931396912</v>
       </c>
       <c r="B287" t="n">
-        <v>18.81438154450262</v>
+        <v>4.582038937668155</v>
       </c>
       <c r="C287" t="n">
-        <v>0.1693593643903085</v>
+        <v>0.2690012980894311</v>
       </c>
       <c r="D287" t="n">
-        <v>0.03632211747883748</v>
+        <v>0.04870502303325352</v>
       </c>
       <c r="E287" t="n">
-        <v>0.4682699256022545</v>
+        <v>0.9544497145644576</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -6759,19 +6759,19 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>622.4343368237348</v>
+        <v>51.16042183517672</v>
       </c>
       <c r="B288" t="n">
-        <v>9.082569808027925</v>
+        <v>3.976107865672107</v>
       </c>
       <c r="C288" t="n">
-        <v>0.3670009060202039</v>
+        <v>0.2901288784082713</v>
       </c>
       <c r="D288" t="n">
-        <v>0.07018730625672444</v>
+        <v>0.04882212949174813</v>
       </c>
       <c r="E288" t="n">
-        <v>0.5486402520123796</v>
+        <v>0.9493632611776219</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -6781,19 +6781,19 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>656.2006708115184</v>
+        <v>49.30196638423929</v>
       </c>
       <c r="B289" t="n">
-        <v>10.02691426701571</v>
+        <v>3.907826486711955</v>
       </c>
       <c r="C289" t="n">
-        <v>0.3469984194897017</v>
+        <v>0.2883246416296568</v>
       </c>
       <c r="D289" t="n">
-        <v>0.0636668603879295</v>
+        <v>0.04642858981341201</v>
       </c>
       <c r="E289" t="n">
-        <v>0.5736877890900445</v>
+        <v>0.9511052505914253</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -6803,19 +6803,19 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>730.4243019197207</v>
+        <v>62.06311257519276</v>
       </c>
       <c r="B290" t="n">
-        <v>11.34315008726004</v>
+        <v>4.97513464240402</v>
       </c>
       <c r="C290" t="n">
-        <v>0.3254516542522358</v>
+        <v>0.2216922675944591</v>
       </c>
       <c r="D290" t="n">
-        <v>0.06647040005085449</v>
+        <v>0.04096807961186218</v>
       </c>
       <c r="E290" t="n">
-        <v>0.5707755702591264</v>
+        <v>0.9439810849728871</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -6825,19 +6825,19 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>1085.92457460733</v>
+        <v>117.2227343504413</v>
       </c>
       <c r="B291" t="n">
-        <v>15.58169720767888</v>
+        <v>7.277793091903163</v>
       </c>
       <c r="C291" t="n">
-        <v>0.2165569951505766</v>
+        <v>0.148918966244281</v>
       </c>
       <c r="D291" t="n">
-        <v>0.04217021963601819</v>
+        <v>0.02562206974070172</v>
       </c>
       <c r="E291" t="n">
-        <v>0.6134127601465111</v>
+        <v>0.9470658692328445</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -6847,19 +6847,19 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>616.2023887434556</v>
+        <v>70.16991796025752</v>
       </c>
       <c r="B292" t="n">
-        <v>9.841295811518327</v>
+        <v>4.795868814687213</v>
       </c>
       <c r="C292" t="n">
-        <v>0.313919334198853</v>
+        <v>0.242422927518271</v>
       </c>
       <c r="D292" t="n">
-        <v>0.06414020366538495</v>
+        <v>0.03919522343518568</v>
       </c>
       <c r="E292" t="n">
-        <v>0.5655519228757974</v>
+        <v>0.9414660947446676</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -6869,19 +6869,19 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>859.4599694589875</v>
+        <v>31.24715471951377</v>
       </c>
       <c r="B293" t="n">
-        <v>13.15003272251309</v>
+        <v>3.043528735178398</v>
       </c>
       <c r="C293" t="n">
-        <v>0.3147315416893269</v>
+        <v>0.375666753536801</v>
       </c>
       <c r="D293" t="n">
-        <v>0.07252686902330252</v>
+        <v>0.07098982630089999</v>
       </c>
       <c r="E293" t="n">
-        <v>0.6234921521219383</v>
+        <v>0.9723451276027358</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -6891,19 +6891,19 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>448.4072589441535</v>
+        <v>38.79058146168594</v>
       </c>
       <c r="B294" t="n">
-        <v>9.525932591623036</v>
+        <v>3.810247491441361</v>
       </c>
       <c r="C294" t="n">
-        <v>0.3129299590900202</v>
+        <v>0.2783568287795611</v>
       </c>
       <c r="D294" t="n">
-        <v>0.07071309452245761</v>
+        <v>0.05069468033292238</v>
       </c>
       <c r="E294" t="n">
-        <v>0.6041284630016903</v>
+        <v>0.9494330929956454</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -6913,19 +6913,19 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>630.9580333769633</v>
+        <v>47.23431243475358</v>
       </c>
       <c r="B295" t="n">
-        <v>9.870827879581153</v>
+        <v>3.781644492674706</v>
       </c>
       <c r="C295" t="n">
-        <v>0.3458735126349899</v>
+        <v>0.2959609133922753</v>
       </c>
       <c r="D295" t="n">
-        <v>0.07210457250137671</v>
+        <v>0.04611624746735601</v>
       </c>
       <c r="E295" t="n">
-        <v>0.5313192665846604</v>
+        <v>0.9514017869233312</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -6935,19 +6935,19 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>1068.186818280977</v>
+        <v>110.3120012442734</v>
       </c>
       <c r="B296" t="n">
-        <v>13.36068390052356</v>
+        <v>6.653332916444487</v>
       </c>
       <c r="C296" t="n">
-        <v>0.2099603785753857</v>
+        <v>0.1709204317586538</v>
       </c>
       <c r="D296" t="n">
-        <v>0.03818547223651245</v>
+        <v>0.02743394538507883</v>
       </c>
       <c r="E296" t="n">
-        <v>0.4670252030754692</v>
+        <v>0.9471545133099726</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -6957,19 +6957,19 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>173.53125</v>
+        <v>34.97688338454626</v>
       </c>
       <c r="B297" t="n">
-        <v>5.476930628272251</v>
+        <v>4.044095222752152</v>
       </c>
       <c r="C297" t="n">
-        <v>0.396422912823504</v>
+        <v>0.2546068623916964</v>
       </c>
       <c r="D297" t="n">
-        <v>0.08343772532598849</v>
+        <v>0.04173423704657334</v>
       </c>
       <c r="E297" t="n">
-        <v>0.7923805147205069</v>
+        <v>0.9601701130602992</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -6979,19 +6979,19 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>1362.716214005236</v>
+        <v>156.1303057475615</v>
       </c>
       <c r="B298" t="n">
-        <v>20.66102203315882</v>
+        <v>8.447054573746806</v>
       </c>
       <c r="C298" t="n">
-        <v>0.107810431578749</v>
+        <v>0.1366183861103123</v>
       </c>
       <c r="D298" t="n">
-        <v>0.02127429141115073</v>
+        <v>0.02252837125772024</v>
       </c>
       <c r="E298" t="n">
-        <v>0.7073311447238321</v>
+        <v>0.9607105547083258</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -7001,19 +7001,19 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>1489.229330279232</v>
+        <v>140.1259601990631</v>
       </c>
       <c r="B299" t="n">
-        <v>18.49574607329843</v>
+        <v>7.455190062470923</v>
       </c>
       <c r="C299" t="n">
-        <v>0.1597817791469132</v>
+        <v>0.1577543878939069</v>
       </c>
       <c r="D299" t="n">
-        <v>0.02941518917620188</v>
+        <v>0.02318270744130204</v>
       </c>
       <c r="E299" t="n">
-        <v>0.7101957213904602</v>
+        <v>0.970126880175508</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -7023,19 +7023,19 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>1883.882607984294</v>
+        <v>145.574695844073</v>
       </c>
       <c r="B300" t="n">
-        <v>23.97532177137871</v>
+        <v>7.897930921813613</v>
       </c>
       <c r="C300" t="n">
-        <v>0.09469741246185105</v>
+        <v>0.1495000655103923</v>
       </c>
       <c r="D300" t="n">
-        <v>0.01989138824776072</v>
+        <v>0.02131680824775951</v>
       </c>
       <c r="E300" t="n">
-        <v>0.6726047620381543</v>
+        <v>0.9676563579271312</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -7045,19 +7045,19 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>1264.730639179756</v>
+        <v>82.47250079761803</v>
       </c>
       <c r="B301" t="n">
-        <v>16.12020069808028</v>
+        <v>5.579669558641514</v>
       </c>
       <c r="C301" t="n">
-        <v>0.1886246309243806</v>
+        <v>0.2024178286076736</v>
       </c>
       <c r="D301" t="n">
-        <v>0.03483092960055577</v>
+        <v>0.0289660364072405</v>
       </c>
       <c r="E301" t="n">
-        <v>0.6834196828271037</v>
+        <v>0.9730100219121645</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -7067,19 +7067,19 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>956.0585187609075</v>
+        <v>69.90695649981839</v>
       </c>
       <c r="B302" t="n">
-        <v>14.26210732984293</v>
+        <v>5.079934663215344</v>
       </c>
       <c r="C302" t="n">
-        <v>0.2047063733264227</v>
+        <v>0.2277574832505673</v>
       </c>
       <c r="D302" t="n">
-        <v>0.03391506027315968</v>
+        <v>0.03109099122216429</v>
       </c>
       <c r="E302" t="n">
-        <v>0.7019544123555211</v>
+        <v>0.9775932649511225</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -7089,19 +7089,19 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>932.3150087260035</v>
+        <v>65.67659380291302</v>
       </c>
       <c r="B303" t="n">
-        <v>14.01532504363002</v>
+        <v>4.764165847617947</v>
       </c>
       <c r="C303" t="n">
-        <v>0.2079147919405607</v>
+        <v>0.2407929641322901</v>
       </c>
       <c r="D303" t="n">
-        <v>0.03412719472501373</v>
+        <v>0.03229593623856727</v>
       </c>
       <c r="E303" t="n">
-        <v>0.7274838639592688</v>
+        <v>0.9744057623865438</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>

--- a/features.xlsx
+++ b/features.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -467,19 +467,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>457.4073134816754</v>
+        <v>29.55884498616202</v>
       </c>
       <c r="B2" t="n">
-        <v>9.427874127399651</v>
+        <v>1.963374246152842</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4732219183534987</v>
+        <v>0.7113823051408426</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1431236355828805</v>
+        <v>0.1673186122704394</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6440476568297892</v>
+        <v>0.9743163817712363</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -489,19 +489,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>248.7581533595113</v>
+        <v>23.16933839125469</v>
       </c>
       <c r="B3" t="n">
-        <v>5.770369764397905</v>
+        <v>1.567411758307499</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5620764442230598</v>
+        <v>0.7713383273280552</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1355911380383329</v>
+        <v>0.1255268702293486</v>
       </c>
       <c r="E3" t="n">
-        <v>0.639092888483927</v>
+        <v>0.9807121352329367</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -511,19 +511,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>384.5123527486911</v>
+        <v>31.68929503974525</v>
       </c>
       <c r="B4" t="n">
-        <v>6.632662521815009</v>
+        <v>1.44322168658137</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5924972228453462</v>
+        <v>0.8210652408824377</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2037742212191279</v>
+        <v>0.2702599227986909</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6789144994542445</v>
+        <v>0.9684721966927508</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -533,19 +533,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>246.1099203752181</v>
+        <v>19.09216451300799</v>
       </c>
       <c r="B5" t="n">
-        <v>4.994355366492147</v>
+        <v>1.214103723617841</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6305492597677971</v>
+        <v>0.8223095711769243</v>
       </c>
       <c r="D5" t="n">
-        <v>0.123203533022291</v>
+        <v>0.1315680329427749</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6527363611074243</v>
+        <v>0.9795394722531625</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -555,19 +555,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>346.679537521815</v>
+        <v>11.30320936250294</v>
       </c>
       <c r="B6" t="n">
-        <v>7.033049738219894</v>
+        <v>0.8900275229357799</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5411338811010378</v>
+        <v>0.8561907694705386</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1519706822196233</v>
+        <v>0.2027084071042161</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5858641420338945</v>
+        <v>0.984638553456354</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -577,19 +577,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>472.8557482547994</v>
+        <v>17.91341824025713</v>
       </c>
       <c r="B7" t="n">
-        <v>8.816917539267015</v>
+        <v>1.215927413954734</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4959562342328621</v>
+        <v>0.8198167050656349</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1026988364425108</v>
+        <v>0.1397807737876776</v>
       </c>
       <c r="E7" t="n">
-        <v>0.526102312971268</v>
+        <v>0.9806746955337289</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -599,19 +599,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>592.7575261780105</v>
+        <v>42.64286819004668</v>
       </c>
       <c r="B8" t="n">
-        <v>10.11414703315881</v>
+        <v>2.156262584173855</v>
       </c>
       <c r="C8" t="n">
-        <v>0.448009292532948</v>
+        <v>0.7412298748495068</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1014108335427685</v>
+        <v>0.1250664844079324</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6646098887060908</v>
+        <v>0.96878036165048</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -621,19 +621,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>479.4778577661431</v>
+        <v>37.43916331045437</v>
       </c>
       <c r="B9" t="n">
-        <v>8.072207678883071</v>
+        <v>1.867977574829353</v>
       </c>
       <c r="C9" t="n">
-        <v>0.505445179513287</v>
+        <v>0.7711120085081032</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1151401899874356</v>
+        <v>0.1404951541616929</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6619710832934735</v>
+        <v>0.9766839591387499</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -643,19 +643,19 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>725.7384653141361</v>
+        <v>18.76512100456621</v>
       </c>
       <c r="B10" t="n">
-        <v>12.18485493019197</v>
+        <v>1.273214491708724</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3999479542921074</v>
+        <v>0.8180274406701389</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08108499601520071</v>
+        <v>0.1551019322810776</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6216296641834422</v>
+        <v>0.9845468546327164</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -665,19 +665,19 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>751.9650141797557</v>
+        <v>33.40584702797203</v>
       </c>
       <c r="B11" t="n">
-        <v>12.04960187609075</v>
+        <v>1.787868881118881</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3967857672071307</v>
+        <v>0.7718214574409681</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08853283978143626</v>
+        <v>0.1469353071510255</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6803321328437485</v>
+        <v>0.9796905551070637</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -687,19 +687,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>329.0936681937173</v>
+        <v>14.37096676561978</v>
       </c>
       <c r="B12" t="n">
-        <v>7.617064790575917</v>
+        <v>1.337748357401096</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4708825592096614</v>
+        <v>0.7722033935020765</v>
       </c>
       <c r="D12" t="n">
-        <v>0.11053362045444</v>
+        <v>0.1549590955272082</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7159327719488515</v>
+        <v>0.9884262505387038</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -709,19 +709,19 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>649.4243564572427</v>
+        <v>56.6655591700077</v>
       </c>
       <c r="B13" t="n">
-        <v>11.84964005235602</v>
+        <v>3.109927026642709</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2249517762860437</v>
+        <v>0.4857756410111257</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04325028787319063</v>
+        <v>0.04668697204677446</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5886591142445654</v>
+        <v>0.9665449433324301</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -731,19 +731,19 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>458.1660394851658</v>
+        <v>25.23884554800586</v>
       </c>
       <c r="B14" t="n">
-        <v>9.183436954624783</v>
+        <v>1.607591411980725</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4555013740094108</v>
+        <v>0.7656116356741379</v>
       </c>
       <c r="D14" t="n">
-        <v>0.08321933288037327</v>
+        <v>0.1084810411249552</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6139110305009376</v>
+        <v>0.9814777713237465</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -753,19 +753,19 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>398.1715205061083</v>
+        <v>33.78557565564724</v>
       </c>
       <c r="B15" t="n">
-        <v>8.606293630017452</v>
+        <v>2.118708572029222</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3080855130175119</v>
+        <v>0.6035531869404983</v>
       </c>
       <c r="D15" t="n">
-        <v>0.04866041428407338</v>
+        <v>0.06099893797477288</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6927423574631345</v>
+        <v>0.9778282278704198</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -775,19 +775,19 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>262.7110329406632</v>
+        <v>33.80563411468174</v>
       </c>
       <c r="B16" t="n">
-        <v>6.106320898778361</v>
+        <v>2.058381032313324</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3813529371984364</v>
+        <v>0.619001399953411</v>
       </c>
       <c r="D16" t="n">
-        <v>0.06048200411761018</v>
+        <v>0.07906018142494971</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6742912567861673</v>
+        <v>0.9630155504784413</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -797,19 +797,19 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1245.901341623037</v>
+        <v>90.33494609085798</v>
       </c>
       <c r="B17" t="n">
-        <v>18.43193717277487</v>
+        <v>4.047752333825589</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1987625779635059</v>
+        <v>0.5072369208295167</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03055609152715454</v>
+        <v>0.0471950552470031</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4832107176603895</v>
+        <v>0.9636681305504996</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -819,19 +819,19 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>704.9268379144852</v>
+        <v>85.19006520114209</v>
       </c>
       <c r="B18" t="n">
-        <v>11.86821007853403</v>
+        <v>3.717593870789619</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2641180283948866</v>
+        <v>0.5576545761404748</v>
       </c>
       <c r="D18" t="n">
-        <v>0.04118241989828478</v>
+        <v>0.05991281576955211</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6107532688523811</v>
+        <v>0.9560897301772829</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -841,19 +841,19 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1413.440744982548</v>
+        <v>108.3151329450845</v>
       </c>
       <c r="B19" t="n">
-        <v>19.3840804973822</v>
+        <v>4.333401994054022</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1837952908728624</v>
+        <v>0.4874707908251347</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03125575779429404</v>
+        <v>0.04509365427006545</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4232398516970275</v>
+        <v>0.9568405575153711</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -863,19 +863,19 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1259.964441535777</v>
+        <v>88.63649334956635</v>
       </c>
       <c r="B20" t="n">
-        <v>18.58000654450262</v>
+        <v>3.677807898520972</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2245659802565814</v>
+        <v>0.5664024020552925</v>
       </c>
       <c r="D20" t="n">
-        <v>0.03695913636762315</v>
+        <v>0.06332846876315699</v>
       </c>
       <c r="E20" t="n">
-        <v>0.386732935356781</v>
+        <v>0.9496456938066716</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -885,19 +885,19 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>871.5156795375218</v>
+        <v>87.76839617811942</v>
       </c>
       <c r="B21" t="n">
-        <v>14.39509707678883</v>
+        <v>3.692334058739068</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2567457499323697</v>
+        <v>0.5802008543404992</v>
       </c>
       <c r="D21" t="n">
-        <v>0.03878086154960033</v>
+        <v>0.06717980971298536</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4946449185474143</v>
+        <v>0.9528077430922076</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -907,19 +907,19 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1109.580033813264</v>
+        <v>89.05076935913367</v>
       </c>
       <c r="B22" t="n">
-        <v>16.89618782722513</v>
+        <v>3.848353881475354</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2038777505841621</v>
+        <v>0.5286028241954133</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03192425475328802</v>
+        <v>0.05111811340234364</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4646667955686969</v>
+        <v>0.9609383900267832</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -929,19 +929,19 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>434.5537467277487</v>
+        <v>50.83881639635711</v>
       </c>
       <c r="B23" t="n">
-        <v>8.799983638743456</v>
+        <v>2.645142814014726</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3508741076086367</v>
+        <v>0.6097014584380923</v>
       </c>
       <c r="D23" t="n">
-        <v>0.05848456648832838</v>
+        <v>0.06512324780018465</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7291661395945542</v>
+        <v>0.9758807964772626</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -951,19 +951,19 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1089.72834860384</v>
+        <v>103.593932716437</v>
       </c>
       <c r="B24" t="n">
-        <v>14.91590314136126</v>
+        <v>3.762942566765988</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2780376243508271</v>
+        <v>0.5701600111361312</v>
       </c>
       <c r="D24" t="n">
-        <v>0.04521167959509075</v>
+        <v>0.05743856940654545</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4911026452550558</v>
+        <v>0.9575474871064923</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -973,19 +973,19 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>697.4467986474696</v>
+        <v>35.64441944275551</v>
       </c>
       <c r="B25" t="n">
-        <v>12.9800119982548</v>
+        <v>1.983032493637134</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3531624397384108</v>
+        <v>0.7480140643868719</v>
       </c>
       <c r="D25" t="n">
-        <v>0.07632083863748916</v>
+        <v>0.1303577079560867</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5138314756573253</v>
+        <v>0.9714059882121964</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -995,19 +995,19 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>792.1372164048867</v>
+        <v>64.64350060579635</v>
       </c>
       <c r="B26" t="n">
-        <v>12.60525741710297</v>
+        <v>3.053930522483731</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2972939359326355</v>
+        <v>0.5863029792292382</v>
       </c>
       <c r="D26" t="n">
-        <v>0.04208049590692047</v>
+        <v>0.06322898643832767</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5229527444113884</v>
+        <v>0.9621766892467924</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1017,19 +1017,19 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>463.9875381762653</v>
+        <v>39.02761485026348</v>
       </c>
       <c r="B27" t="n">
-        <v>9.894497164048865</v>
+        <v>2.405783245052525</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2749897478556246</v>
+        <v>0.5681282193462199</v>
       </c>
       <c r="D27" t="n">
-        <v>0.04425989970431028</v>
+        <v>0.0678909539629263</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6133441868503386</v>
+        <v>0.9635185510373967</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1039,19 +1039,19 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>724.8918248254801</v>
+        <v>80.86027719362156</v>
       </c>
       <c r="B28" t="n">
-        <v>12.23890161431065</v>
+        <v>3.639840203732174</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2608928226423147</v>
+        <v>0.5404217385309382</v>
       </c>
       <c r="D28" t="n">
-        <v>0.03512288916176953</v>
+        <v>0.05221068687510077</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5659035415535305</v>
+        <v>0.9640578159083012</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1061,19 +1061,19 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>623.3836441972077</v>
+        <v>35.86648708796438</v>
       </c>
       <c r="B29" t="n">
-        <v>11.66140379581152</v>
+        <v>2.301618993908903</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2806881905375812</v>
+        <v>0.5913956986055006</v>
       </c>
       <c r="D29" t="n">
-        <v>0.04049988922715369</v>
+        <v>0.05606996553706148</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6852019302003591</v>
+        <v>0.9832508323607635</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1083,19 +1083,19 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>540.0697534904015</v>
+        <v>47.40455583341991</v>
       </c>
       <c r="B30" t="n">
-        <v>10.29450261780105</v>
+        <v>2.643900157969414</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2831885520759785</v>
+        <v>0.5943153147372547</v>
       </c>
       <c r="D30" t="n">
-        <v>0.04333502889433762</v>
+        <v>0.05769601717893288</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6655951763322088</v>
+        <v>0.9779612959805427</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1105,19 +1105,19 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>455.4154123036649</v>
+        <v>58.37961851055189</v>
       </c>
       <c r="B31" t="n">
-        <v>9.693444589877835</v>
+        <v>2.912788377732492</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2675283534550306</v>
+        <v>0.5820925602433354</v>
       </c>
       <c r="D31" t="n">
-        <v>0.04475284290486925</v>
+        <v>0.05787677563251428</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5614843980069475</v>
+        <v>0.9691492152558233</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1127,19 +1127,19 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>929.036867364747</v>
+        <v>89.57067955448839</v>
       </c>
       <c r="B32" t="n">
-        <v>13.97807591623037</v>
+        <v>3.984319475855565</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2504818003712891</v>
+        <v>0.4152039018183958</v>
       </c>
       <c r="D32" t="n">
-        <v>0.03790259675805858</v>
+        <v>0.04074801200205668</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4226354184115114</v>
+        <v>0.9541425324231727</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1149,19 +1149,19 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>540.9093859075044</v>
+        <v>50.4877147062672</v>
       </c>
       <c r="B33" t="n">
-        <v>8.861665575916231</v>
+        <v>2.56124038273032</v>
       </c>
       <c r="C33" t="n">
-        <v>0.36910965003026</v>
+        <v>0.5821337334133025</v>
       </c>
       <c r="D33" t="n">
-        <v>0.05407574051464054</v>
+        <v>0.05940977928463884</v>
       </c>
       <c r="E33" t="n">
-        <v>0.538371942415329</v>
+        <v>0.9704330827687075</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1171,19 +1171,19 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>588.4277377835951</v>
+        <v>55.16934173904509</v>
       </c>
       <c r="B34" t="n">
-        <v>10.30726439790576</v>
+        <v>3.116767410662926</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2665719611229749</v>
+        <v>0.4472903944443269</v>
       </c>
       <c r="D34" t="n">
-        <v>0.042039387391291</v>
+        <v>0.04536601682490101</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5308533008697831</v>
+        <v>0.9667220669147819</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1193,19 +1193,19 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>389.0370582460735</v>
+        <v>51.38407039355069</v>
       </c>
       <c r="B35" t="n">
-        <v>7.725158158813265</v>
+        <v>3.019259479596029</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2726644251506658</v>
+        <v>0.4452151523526547</v>
       </c>
       <c r="D35" t="n">
-        <v>0.04440656385861719</v>
+        <v>0.0429720269035849</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5935799958544268</v>
+        <v>0.969855679578052</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1215,19 +1215,19 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>438.8825534467713</v>
+        <v>15.58162672081868</v>
       </c>
       <c r="B36" t="n">
-        <v>9.42536540139616</v>
+        <v>1.160695083981821</v>
       </c>
       <c r="C36" t="n">
-        <v>0.416343595983566</v>
+        <v>0.8056417468597088</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07963535479676456</v>
+        <v>0.1144980358272248</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6163805460531399</v>
+        <v>0.9870504862041272</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1237,19 +1237,19 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>220.3684282286212</v>
+        <v>30.65527915135852</v>
       </c>
       <c r="B37" t="n">
-        <v>5.998718368237347</v>
+        <v>2.205845709173341</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4180710385115505</v>
+        <v>0.5767345224529206</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07858795155387371</v>
+        <v>0.0671306397143057</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6837263749537635</v>
+        <v>0.978231650867925</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1259,19 +1259,19 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>302.9723494764398</v>
+        <v>55.59477448627884</v>
       </c>
       <c r="B38" t="n">
-        <v>6.420429755671901</v>
+        <v>2.859235409913838</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3871906281175064</v>
+        <v>0.5239201607687719</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07258143563349058</v>
+        <v>0.05413381223883382</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6781872894081223</v>
+        <v>0.9658498606161459</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1281,19 +1281,19 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>238.6266906631763</v>
+        <v>37.94224327569292</v>
       </c>
       <c r="B39" t="n">
-        <v>5.491873909249564</v>
+        <v>2.369331164651135</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3947341079712128</v>
+        <v>0.5342764944749187</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07886548299489783</v>
+        <v>0.06281340902478202</v>
       </c>
       <c r="E39" t="n">
-        <v>0.7190345320899986</v>
+        <v>0.9713277079143954</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1303,19 +1303,19 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>615.4981184554973</v>
+        <v>51.53506691623328</v>
       </c>
       <c r="B40" t="n">
-        <v>10.83788721640489</v>
+        <v>3.118994802916497</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2456333023578752</v>
+        <v>0.4289869966728636</v>
       </c>
       <c r="D40" t="n">
-        <v>0.04777258109405571</v>
+        <v>0.05180603014879207</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6302814957128652</v>
+        <v>0.9683389990739649</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1325,19 +1325,19 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>425.8736638307156</v>
+        <v>38.19837841253452</v>
       </c>
       <c r="B41" t="n">
-        <v>8.51747927574171</v>
+        <v>2.315599868547629</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3558885874423198</v>
+        <v>0.5624711108043988</v>
       </c>
       <c r="D41" t="n">
-        <v>0.07145005202510574</v>
+        <v>0.06239660565801368</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6049911691906106</v>
+        <v>0.9749392703982215</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1347,19 +1347,19 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>472.2389561518325</v>
+        <v>69.16993293704078</v>
       </c>
       <c r="B42" t="n">
-        <v>8.083687827225132</v>
+        <v>3.063993074938519</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3684658064535182</v>
+        <v>0.5297825120993666</v>
       </c>
       <c r="D42" t="n">
-        <v>0.06796816468814017</v>
+        <v>0.06841016506372348</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6239951046885874</v>
+        <v>0.9453821391148177</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1369,19 +1369,19 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>382.3733093368238</v>
+        <v>40.02350844506812</v>
       </c>
       <c r="B43" t="n">
-        <v>7.689081588132637</v>
+        <v>2.458165046203525</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3977139785664882</v>
+        <v>0.5472675243213535</v>
       </c>
       <c r="D43" t="n">
-        <v>0.08447210091888493</v>
+        <v>0.07134329305803043</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5749943710042053</v>
+        <v>0.9741969765666108</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1391,19 +1391,19 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>482.1194371727749</v>
+        <v>42.64101483329897</v>
       </c>
       <c r="B44" t="n">
-        <v>9.62881762652705</v>
+        <v>2.39650368003093</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3251599887628214</v>
+        <v>0.5671875617105495</v>
       </c>
       <c r="D44" t="n">
-        <v>0.05316171000366457</v>
+        <v>0.07005799398251691</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6161200784857158</v>
+        <v>0.9591164875152471</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1413,19 +1413,19 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>587.5539376090751</v>
+        <v>59.5395314227563</v>
       </c>
       <c r="B45" t="n">
-        <v>9.648723821989531</v>
+        <v>2.780089962392928</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3978415465655463</v>
+        <v>0.5925172938734977</v>
       </c>
       <c r="D45" t="n">
-        <v>0.100896760812439</v>
+        <v>0.1032175528313082</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7324288640015312</v>
+        <v>0.9667079046962141</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1435,19 +1435,19 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>621.8794993455499</v>
+        <v>45.8172352133549</v>
       </c>
       <c r="B46" t="n">
-        <v>9.175529013961608</v>
+        <v>2.363651400051848</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4076173711448685</v>
+        <v>0.5717181282128786</v>
       </c>
       <c r="D46" t="n">
-        <v>0.08253964748452997</v>
+        <v>0.0945281263729309</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6441167907968566</v>
+        <v>0.9653142726484745</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1457,19 +1457,19 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>776.9349640052355</v>
+        <v>24.69604979321754</v>
       </c>
       <c r="B47" t="n">
-        <v>13.85686627399651</v>
+        <v>1.533046980976013</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3599065712644668</v>
+        <v>0.7889850573669891</v>
       </c>
       <c r="D47" t="n">
-        <v>0.07517930866700823</v>
+        <v>0.1387344370956861</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5480363005595389</v>
+        <v>0.9787028296431929</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1479,19 +1479,19 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>569.0843695462479</v>
+        <v>52.33236823439749</v>
       </c>
       <c r="B48" t="n">
-        <v>9.404232111692844</v>
+        <v>2.568545808373423</v>
       </c>
       <c r="C48" t="n">
-        <v>0.439004854523523</v>
+        <v>0.6187128974553752</v>
       </c>
       <c r="D48" t="n">
-        <v>0.07543425498972808</v>
+        <v>0.08511916284021755</v>
       </c>
       <c r="E48" t="n">
-        <v>0.615008587344145</v>
+        <v>0.9592596997536736</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1501,19 +1501,19 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>558.8810536649215</v>
+        <v>44.8166269741122</v>
       </c>
       <c r="B49" t="n">
-        <v>9.83022469458988</v>
+        <v>2.30646030619841</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3598096274065174</v>
+        <v>0.652564146815495</v>
       </c>
       <c r="D49" t="n">
-        <v>0.05904848535873519</v>
+        <v>0.08189596533705588</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5903443074283077</v>
+        <v>0.9689665168766207</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1523,19 +1523,19 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>969.1179101221642</v>
+        <v>69.35622932006649</v>
       </c>
       <c r="B50" t="n">
-        <v>15.2482002617801</v>
+        <v>3.448028233849931</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2716139191351017</v>
+        <v>0.5423719301926606</v>
       </c>
       <c r="D50" t="n">
-        <v>0.05929224462035775</v>
+        <v>0.06735975814174468</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5519298932545024</v>
+        <v>0.9647103306208519</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1545,19 +1545,19 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>263.6154013961606</v>
+        <v>35.24498869217312</v>
       </c>
       <c r="B51" t="n">
-        <v>5.683791448516581</v>
+        <v>2.17843202197762</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5275905080872982</v>
+        <v>0.6397220391037844</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1039581553390615</v>
+        <v>0.08864039943211595</v>
       </c>
       <c r="E51" t="n">
-        <v>0.7622207101195082</v>
+        <v>0.9747946670870632</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1567,19 +1567,19 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1075.136834642234</v>
+        <v>69.39022351734987</v>
       </c>
       <c r="B52" t="n">
-        <v>16.27770506108203</v>
+        <v>3.277678567302442</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3077331533430334</v>
+        <v>0.5977311811727775</v>
       </c>
       <c r="D52" t="n">
-        <v>0.07397823357384008</v>
+        <v>0.09428279131137238</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4729828435951229</v>
+        <v>0.9575799389466466</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1589,19 +1589,19 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1794.008180628272</v>
+        <v>196.752254464324</v>
       </c>
       <c r="B53" t="n">
-        <v>13.51178010471204</v>
+        <v>3.815518371568116</v>
       </c>
       <c r="C53" t="n">
-        <v>0.562377292683844</v>
+        <v>0.758148522096262</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3883506991201955</v>
+        <v>0.5756434397644672</v>
       </c>
       <c r="E53" t="n">
-        <v>0.7743002727908481</v>
+        <v>0.9746307923211304</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1611,19 +1611,19 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3122.867910122164</v>
+        <v>221.0180088713235</v>
       </c>
       <c r="B54" t="n">
-        <v>21.75370855148342</v>
+        <v>4.272563922298859</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4299582547464283</v>
+        <v>0.7289483783142829</v>
       </c>
       <c r="D54" t="n">
-        <v>0.2681426790925595</v>
+        <v>0.5378911637061772</v>
       </c>
       <c r="E54" t="n">
-        <v>0.6568623190804089</v>
+        <v>0.971180279071047</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1633,19 +1633,19 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1440.563754363002</v>
+        <v>228.9257281040732</v>
       </c>
       <c r="B55" t="n">
-        <v>10.82313481675393</v>
+        <v>4.144339341862085</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5733170203471345</v>
+        <v>0.742759178006313</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3740767353545096</v>
+        <v>0.548096726421185</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7760334789866508</v>
+        <v>0.9708026539537837</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1655,19 +1655,19 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2185.035122164049</v>
+        <v>231.3707898743066</v>
       </c>
       <c r="B56" t="n">
-        <v>15.84571335078534</v>
+        <v>4.391180163786133</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5139380314303077</v>
+        <v>0.7145261403716231</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3372040800255025</v>
+        <v>0.5173016018807125</v>
       </c>
       <c r="E56" t="n">
-        <v>0.7078540375265495</v>
+        <v>0.9699724210647276</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1677,19 +1677,19 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2128.187336387435</v>
+        <v>259.3720654127643</v>
       </c>
       <c r="B57" t="n">
-        <v>15.83818717277487</v>
+        <v>4.282871075105136</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4650904649750817</v>
+        <v>0.7219036226647196</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3080782725192298</v>
+        <v>0.4861796314600343</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7167333961734232</v>
+        <v>0.9688936197880812</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1699,19 +1699,19 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>361.0851058027923</v>
+        <v>22.27428191926867</v>
       </c>
       <c r="B58" t="n">
-        <v>8.731866273996509</v>
+        <v>1.623350328612386</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4567645715779475</v>
+        <v>0.7648388872820833</v>
       </c>
       <c r="D58" t="n">
-        <v>0.09588945296375491</v>
+        <v>0.1327670424517706</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6513400399420776</v>
+        <v>0.9776372860069946</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1721,19 +1721,19 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1762.721695026178</v>
+        <v>262.0996670824073</v>
       </c>
       <c r="B59" t="n">
-        <v>13.76428883071553</v>
+        <v>4.813837728515161</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5171185214628489</v>
+        <v>0.7001586353732849</v>
       </c>
       <c r="D59" t="n">
-        <v>0.342441092419307</v>
+        <v>0.4674752744579534</v>
       </c>
       <c r="E59" t="n">
-        <v>0.7875340314378653</v>
+        <v>0.9710690129841342</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1743,19 +1743,19 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2552.369464441536</v>
+        <v>203.0717360605842</v>
       </c>
       <c r="B60" t="n">
-        <v>16.71561409249564</v>
+        <v>3.378249561025655</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5288199679432196</v>
+        <v>0.7854080748230187</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3809949351851736</v>
+        <v>0.5556713845176712</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6685324401102892</v>
+        <v>0.9693412864957807</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -1765,19 +1765,19 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2512.066726657941</v>
+        <v>231.6230920493045</v>
       </c>
       <c r="B61" t="n">
-        <v>18.77255126527051</v>
+        <v>4.283693278203381</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5589113404788173</v>
+        <v>0.8165117425539681</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4853126445116728</v>
+        <v>0.7282318989372355</v>
       </c>
       <c r="E61" t="n">
-        <v>0.430832190823153</v>
+        <v>0.9345422412103529</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -1787,19 +1787,19 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3266.916939354276</v>
+        <v>310.4405951602197</v>
       </c>
       <c r="B62" t="n">
-        <v>21.6776832460733</v>
+        <v>4.713225889158058</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4768210627400731</v>
+        <v>0.723832365246183</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3426632559822504</v>
+        <v>0.5327196617711837</v>
       </c>
       <c r="E62" t="n">
-        <v>0.6443772263834904</v>
+        <v>0.9604702955720585</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -1809,19 +1809,19 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>359.899787303665</v>
+        <v>101.3666297149183</v>
       </c>
       <c r="B63" t="n">
-        <v>4.45650632635253</v>
+        <v>2.362347678688215</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6094388820417945</v>
+        <v>0.7786537547518095</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3436305637745846</v>
+        <v>0.5219114206639252</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9031636288414059</v>
+        <v>0.9773714739297771</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -1831,19 +1831,19 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1021.65714986911</v>
+        <v>131.6887710144525</v>
       </c>
       <c r="B64" t="n">
-        <v>8.692708333333332</v>
+        <v>2.917979655763</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6143355230490115</v>
+        <v>0.743588016237979</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4376449271188899</v>
+        <v>0.4905838142107468</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8062927415038796</v>
+        <v>0.9748751936214176</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -1853,19 +1853,19 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1760.760280322861</v>
+        <v>148.4228976417517</v>
       </c>
       <c r="B65" t="n">
-        <v>14.40311409249563</v>
+        <v>2.963947155319573</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4886292121618018</v>
+        <v>0.7732046594413886</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3271816445526481</v>
+        <v>0.5752781224913806</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7326660787350665</v>
+        <v>0.9726383929053283</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -1875,19 +1875,19 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>276.3888797993019</v>
+        <v>147.4292157788245</v>
       </c>
       <c r="B66" t="n">
-        <v>3.48175719895288</v>
+        <v>2.890164255481142</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6499636240699481</v>
+        <v>0.7809192054993735</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4107024896860715</v>
+        <v>0.5844426308333742</v>
       </c>
       <c r="E66" t="n">
-        <v>0.917808914170542</v>
+        <v>0.97148843242824</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -1897,19 +1897,19 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1760.280486474694</v>
+        <v>131.3828370438934</v>
       </c>
       <c r="B67" t="n">
-        <v>12.97038612565445</v>
+        <v>2.744666439323817</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5788386055023924</v>
+        <v>0.8067974434640569</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4301300654091463</v>
+        <v>0.6333261135424101</v>
       </c>
       <c r="E67" t="n">
-        <v>0.719817047307557</v>
+        <v>0.9758522910524822</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -1919,19 +1919,19 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1692.420266143107</v>
+        <v>158.6890046143803</v>
       </c>
       <c r="B68" t="n">
-        <v>11.98205715532286</v>
+        <v>3.088639424032444</v>
       </c>
       <c r="C68" t="n">
-        <v>0.625578761381954</v>
+        <v>0.8186997593964369</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4961909773098487</v>
+        <v>0.6632628139940776</v>
       </c>
       <c r="E68" t="n">
-        <v>0.7096422918579126</v>
+        <v>0.9727398919180631</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -1941,19 +1941,19 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>448.9463078097731</v>
+        <v>16.07340444484706</v>
       </c>
       <c r="B69" t="n">
-        <v>9.905622818499127</v>
+        <v>1.277911495606486</v>
       </c>
       <c r="C69" t="n">
-        <v>0.4110874216849224</v>
+        <v>0.7860555808808924</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1030151567970298</v>
+        <v>0.1229689908173391</v>
       </c>
       <c r="E69" t="n">
-        <v>0.6492712779722536</v>
+        <v>0.9895906743367821</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -1963,19 +1963,19 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1792.114828752182</v>
+        <v>186.8368339134749</v>
       </c>
       <c r="B70" t="n">
-        <v>13.36684664048866</v>
+        <v>3.348044174805048</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5625463321349956</v>
+        <v>0.7599104424383522</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3511385985648694</v>
+        <v>0.5198862831127445</v>
       </c>
       <c r="E70" t="n">
-        <v>0.7460750579207969</v>
+        <v>0.9680231117149573</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -1985,19 +1985,19 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1405.332515270506</v>
+        <v>155.5401985385896</v>
       </c>
       <c r="B71" t="n">
-        <v>11.07989746945899</v>
+        <v>3.172519521382508</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5928220870297695</v>
+        <v>0.7615759594046543</v>
       </c>
       <c r="D71" t="n">
-        <v>0.3963559264003187</v>
+        <v>0.5585770969902163</v>
       </c>
       <c r="E71" t="n">
-        <v>0.760621717216216</v>
+        <v>0.9749397737587694</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2007,19 +2007,19 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1350.155840968586</v>
+        <v>120.5247818730956</v>
       </c>
       <c r="B72" t="n">
-        <v>10.56410885689354</v>
+        <v>2.469897817855668</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5952771377404549</v>
+        <v>0.8070961931011679</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4170754707662574</v>
+        <v>0.6082450229632821</v>
       </c>
       <c r="E72" t="n">
-        <v>0.7574855747672045</v>
+        <v>0.9779170388991036</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2029,19 +2029,19 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2077.559882198953</v>
+        <v>149.4759675767437</v>
       </c>
       <c r="B73" t="n">
-        <v>15.80371945898778</v>
+        <v>3.000537673138581</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5389572666785982</v>
+        <v>0.7797902680484843</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4193192890926813</v>
+        <v>0.6093733958371411</v>
       </c>
       <c r="E73" t="n">
-        <v>0.714665309224107</v>
+        <v>0.9740611380325691</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2051,19 +2051,19 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1557.762952661431</v>
+        <v>166.1249531426727</v>
       </c>
       <c r="B74" t="n">
-        <v>12.76982438917976</v>
+        <v>3.265548873710429</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5487593460170054</v>
+        <v>0.7779866502160719</v>
       </c>
       <c r="D74" t="n">
-        <v>0.3786521969890027</v>
+        <v>0.5819913028304661</v>
       </c>
       <c r="E74" t="n">
-        <v>0.7656449736680117</v>
+        <v>0.9710414940892161</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2073,19 +2073,19 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1932.392697425829</v>
+        <v>211.9906031330435</v>
       </c>
       <c r="B75" t="n">
-        <v>15.25989856020942</v>
+        <v>4.153726757381377</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6291273768306053</v>
+        <v>0.8326535276805654</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5612949867547574</v>
+        <v>0.7648458731020209</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5104850092940629</v>
+        <v>0.9470675096376696</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2095,19 +2095,19 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2286.508207897033</v>
+        <v>187.9856863193175</v>
       </c>
       <c r="B76" t="n">
-        <v>15.71005126527051</v>
+        <v>3.158877666057282</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6725000584789681</v>
+        <v>0.887288616280682</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6225809508578904</v>
+        <v>0.8286253245772828</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4386578545581681</v>
+        <v>0.9439234195248362</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2117,19 +2117,19 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>756.9464441535777</v>
+        <v>82.39666131064902</v>
       </c>
       <c r="B77" t="n">
-        <v>5.662085514834207</v>
+        <v>1.589895715185885</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8477420630444484</v>
+        <v>0.9354310710229772</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8177205478955788</v>
+        <v>0.9011563806155294</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5405007736504202</v>
+        <v>0.9563679135838061</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2139,19 +2139,19 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1673.8876254363</v>
+        <v>102.1125888420066</v>
       </c>
       <c r="B78" t="n">
-        <v>12.16740292321117</v>
+        <v>1.82123050476637</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6792346753732619</v>
+        <v>0.926422562699652</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6268679167944906</v>
+        <v>0.8851223771718829</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4920204401242994</v>
+        <v>0.9510387533373533</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2161,19 +2161,19 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1776.631762652705</v>
+        <v>140.1305331301988</v>
       </c>
       <c r="B79" t="n">
-        <v>13.0021815008726</v>
+        <v>2.394723563933495</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6645000231179654</v>
+        <v>0.9089723240665393</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6007034266472737</v>
+        <v>0.865414547918712</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5252652450984302</v>
+        <v>0.9447979169742248</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2183,19 +2183,19 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>294.6201461605585</v>
+        <v>13.62172346170651</v>
       </c>
       <c r="B80" t="n">
-        <v>7.324825479930192</v>
+        <v>1.145890955164546</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5152671158532797</v>
+        <v>0.8099654770298856</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1056547293366175</v>
+        <v>0.1276233240615063</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6522357747073926</v>
+        <v>0.9851879656319148</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2205,19 +2205,19 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2489.789976003491</v>
+        <v>184.6543323408648</v>
       </c>
       <c r="B81" t="n">
-        <v>18.54930191972077</v>
+        <v>3.473757837679947</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5763466818035889</v>
+        <v>0.8611440533450044</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5251747072211007</v>
+        <v>0.8001112553808952</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4886636756747811</v>
+        <v>0.9469301487085222</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2227,19 +2227,19 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2164.599640052356</v>
+        <v>183.4329173857462</v>
       </c>
       <c r="B82" t="n">
-        <v>17.37189136125654</v>
+        <v>3.600172099712368</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5682372769929412</v>
+        <v>0.8617574516749297</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5094504897279178</v>
+        <v>0.8054849240928067</v>
       </c>
       <c r="E82" t="n">
-        <v>0.4794750239793863</v>
+        <v>0.9506977079787104</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2249,19 +2249,19 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2050.623527486911</v>
+        <v>172.8772190031153</v>
       </c>
       <c r="B83" t="n">
-        <v>15.00812609075043</v>
+        <v>3.046704361370717</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5551695759440675</v>
+        <v>0.8798336290199452</v>
       </c>
       <c r="D83" t="n">
-        <v>0.459737147041215</v>
+        <v>0.825648376864184</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5848621776608054</v>
+        <v>0.9496408227043915</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2271,19 +2271,19 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2130.184255017452</v>
+        <v>226.868088893774</v>
       </c>
       <c r="B84" t="n">
-        <v>15.67329297556719</v>
+        <v>4.29084267324722</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6520410508063054</v>
+        <v>0.821287910274763</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5985520291001767</v>
+        <v>0.7347361560440235</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4653815386775498</v>
+        <v>0.9488973029635199</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2293,19 +2293,19 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2383.870227966841</v>
+        <v>213.4918569792891</v>
       </c>
       <c r="B85" t="n">
-        <v>19.14613328970332</v>
+        <v>4.291526947783329</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5200428411670724</v>
+        <v>0.8091943207839881</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4575598742420093</v>
+        <v>0.7337370311891451</v>
       </c>
       <c r="E85" t="n">
-        <v>0.545183259923808</v>
+        <v>0.9487318161463345</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2315,19 +2315,19 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1840.156359075044</v>
+        <v>259.0438214787603</v>
       </c>
       <c r="B86" t="n">
-        <v>12.36818280977312</v>
+        <v>4.398192227415885</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7479945444462713</v>
+        <v>0.8445773414363645</v>
       </c>
       <c r="D86" t="n">
-        <v>0.7058294889626626</v>
+        <v>0.7930495855781289</v>
       </c>
       <c r="E86" t="n">
-        <v>0.4350713100121468</v>
+        <v>0.9341125325943838</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2337,19 +2337,19 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1786.308027923211</v>
+        <v>101.0401628578216</v>
       </c>
       <c r="B87" t="n">
-        <v>12.39561518324607</v>
+        <v>1.838174072425552</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7253039903604187</v>
+        <v>0.9183434485646916</v>
       </c>
       <c r="D87" t="n">
-        <v>0.6772618205282944</v>
+        <v>0.8739192677974947</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5506402490022478</v>
+        <v>0.9582551866274831</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2359,19 +2359,19 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2717.667511998255</v>
+        <v>170.4426152017403</v>
       </c>
       <c r="B88" t="n">
-        <v>18.76284358638743</v>
+        <v>3.112529387825609</v>
       </c>
       <c r="C88" t="n">
-        <v>0.561096135072905</v>
+        <v>0.8698173470564264</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4791129648998284</v>
+        <v>0.8080468226941289</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5176973236053116</v>
+        <v>0.9583337402571426</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2381,19 +2381,19 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2067.366792102967</v>
+        <v>188.5820950784088</v>
       </c>
       <c r="B89" t="n">
-        <v>14.70050719895288</v>
+        <v>3.465512618947814</v>
       </c>
       <c r="C89" t="n">
-        <v>0.6786308080841853</v>
+        <v>0.8492475491069367</v>
       </c>
       <c r="D89" t="n">
-        <v>0.623268386706349</v>
+        <v>0.7827751099247543</v>
       </c>
       <c r="E89" t="n">
-        <v>0.5441681929901074</v>
+        <v>0.9510308252240486</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2403,19 +2403,19 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>3868.72354930192</v>
+        <v>216.0344612548741</v>
       </c>
       <c r="B90" t="n">
-        <v>27.29150305410122</v>
+        <v>4.224008791208791</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4218872563103072</v>
+        <v>0.8166712993243673</v>
       </c>
       <c r="D90" t="n">
-        <v>0.3176903334752499</v>
+        <v>0.7268674842115727</v>
       </c>
       <c r="E90" t="n">
-        <v>0.4908002308944847</v>
+        <v>0.9589222636967616</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2425,19 +2425,19 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>513.8724640052355</v>
+        <v>36.55468737552079</v>
       </c>
       <c r="B91" t="n">
-        <v>9.85795702443281</v>
+        <v>2.128764504108445</v>
       </c>
       <c r="C91" t="n">
-        <v>0.445061371183171</v>
+        <v>0.7378157614228792</v>
       </c>
       <c r="D91" t="n">
-        <v>0.07517830721439336</v>
+        <v>0.1339459411657472</v>
       </c>
       <c r="E91" t="n">
-        <v>0.6108685680068466</v>
+        <v>0.9693402621155917</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2447,19 +2447,19 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1729.278414048866</v>
+        <v>182.7512338244034</v>
       </c>
       <c r="B92" t="n">
-        <v>12.37941753926702</v>
+        <v>3.364976259369259</v>
       </c>
       <c r="C92" t="n">
-        <v>0.73780974496128</v>
+        <v>0.8617691511771911</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6858191407677072</v>
+        <v>0.7999772426723618</v>
       </c>
       <c r="E92" t="n">
-        <v>0.5904774719507065</v>
+        <v>0.9560815733274947</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2469,19 +2469,19 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2020.188863438045</v>
+        <v>149.8499959271462</v>
       </c>
       <c r="B93" t="n">
-        <v>15.1769742582897</v>
+        <v>2.839161365698175</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6497093486049963</v>
+        <v>0.8794994712898716</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5857117944450309</v>
+        <v>0.8248737023116581</v>
       </c>
       <c r="E93" t="n">
-        <v>0.6066911214578765</v>
+        <v>0.959777337701864</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2491,19 +2491,19 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>995.5671629581155</v>
+        <v>148.6082085711742</v>
       </c>
       <c r="B94" t="n">
-        <v>6.702634162303665</v>
+        <v>2.723115980127071</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8190148861455303</v>
+        <v>0.8756154490404372</v>
       </c>
       <c r="D94" t="n">
-        <v>0.7380964329313695</v>
+        <v>0.7778236236321446</v>
       </c>
       <c r="E94" t="n">
-        <v>0.7183619639723807</v>
+        <v>0.9604876794279055</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2513,19 +2513,19 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1829.960896596858</v>
+        <v>136.2331761433573</v>
       </c>
       <c r="B95" t="n">
-        <v>14.00850785340314</v>
+        <v>3.013176249926734</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6881813237845508</v>
+        <v>0.8620495508814794</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6283142345071823</v>
+        <v>0.8014038853836003</v>
       </c>
       <c r="E95" t="n">
-        <v>0.5958706612084423</v>
+        <v>0.9644882842234134</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -2535,19 +2535,19 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1926.051483420593</v>
+        <v>169.0554040852766</v>
       </c>
       <c r="B96" t="n">
-        <v>14.7038612565445</v>
+        <v>3.362254049890124</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6672412520060259</v>
+        <v>0.8503900177529479</v>
       </c>
       <c r="D96" t="n">
-        <v>0.606094631006211</v>
+        <v>0.7799034391353962</v>
       </c>
       <c r="E96" t="n">
-        <v>0.5287637016197627</v>
+        <v>0.9487914888669547</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -2557,19 +2557,19 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2089.742610165794</v>
+        <v>155.4938251719886</v>
       </c>
       <c r="B97" t="n">
-        <v>14.53471313263525</v>
+        <v>2.830724037527502</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6807381990590774</v>
+        <v>0.8878252690401465</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6223449676294021</v>
+        <v>0.8385794343745112</v>
       </c>
       <c r="E97" t="n">
-        <v>0.5323239882860028</v>
+        <v>0.9515112906056608</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -2579,19 +2579,19 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>779.1097840314137</v>
+        <v>92.65012747967481</v>
       </c>
       <c r="B98" t="n">
-        <v>6.528795811518325</v>
+        <v>1.990109593495935</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8050156624568747</v>
+        <v>0.9078661421371585</v>
       </c>
       <c r="D98" t="n">
-        <v>0.7542535929894374</v>
+        <v>0.8573552934449618</v>
       </c>
       <c r="E98" t="n">
-        <v>0.7566093926039724</v>
+        <v>0.9689769718986105</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -2601,19 +2601,19 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1030.786485602094</v>
+        <v>89.77435920299095</v>
       </c>
       <c r="B99" t="n">
-        <v>7.142233856893543</v>
+        <v>1.720886200825644</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8432146253751958</v>
+        <v>0.9261133850674831</v>
       </c>
       <c r="D99" t="n">
-        <v>0.8118505520181769</v>
+        <v>0.8924926005967115</v>
       </c>
       <c r="E99" t="n">
-        <v>0.5361225914021445</v>
+        <v>0.9582898663154348</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -2623,19 +2623,19 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>158.2260580279232</v>
+        <v>19.98344932186284</v>
       </c>
       <c r="B100" t="n">
-        <v>2.914921465968586</v>
+        <v>1.027874855879715</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7280755825179793</v>
+        <v>0.8573677879698161</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2673258835505852</v>
+        <v>0.2992477207544054</v>
       </c>
       <c r="E100" t="n">
-        <v>0.7227984615173877</v>
+        <v>0.9753006571815115</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -2645,19 +2645,19 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>269.8747545811518</v>
+        <v>24.98015584002238</v>
       </c>
       <c r="B101" t="n">
-        <v>4.977612347294937</v>
+        <v>1.270345798524506</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5890021057561564</v>
+        <v>0.8081203995358422</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1579274837453457</v>
+        <v>0.194069261574177</v>
       </c>
       <c r="E101" t="n">
-        <v>0.721606748574646</v>
+        <v>0.980062532800932</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -2667,19 +2667,19 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>427.3255344677139</v>
+        <v>47.77975743498614</v>
       </c>
       <c r="B102" t="n">
-        <v>6.578261343804538</v>
+        <v>2.697884746637563</v>
       </c>
       <c r="C102" t="n">
-        <v>0.5517094407776639</v>
+        <v>0.4521163754439488</v>
       </c>
       <c r="D102" t="n">
-        <v>0.08177514268792982</v>
+        <v>0.04438879880750834</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6212051323556262</v>
+        <v>0.9769907884202166</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -2689,19 +2689,19 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1897.978921247819</v>
+        <v>124.2490424485444</v>
       </c>
       <c r="B103" t="n">
-        <v>19.78689463350786</v>
+        <v>4.276257363402354</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2564827629361957</v>
+        <v>0.4055046667631306</v>
       </c>
       <c r="D103" t="n">
-        <v>0.04705834073612238</v>
+        <v>0.04020244742441013</v>
       </c>
       <c r="E103" t="n">
-        <v>0.4729245152438493</v>
+        <v>0.9562862198574148</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -2711,19 +2711,19 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>542.9852476003491</v>
+        <v>57.77528944658408</v>
       </c>
       <c r="B104" t="n">
-        <v>8.384244109947645</v>
+        <v>2.780486389313841</v>
       </c>
       <c r="C104" t="n">
-        <v>0.444941579257078</v>
+        <v>0.4770352202557479</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1047464683621467</v>
+        <v>0.06192926537675554</v>
       </c>
       <c r="E104" t="n">
-        <v>0.3994097527035075</v>
+        <v>0.9589458286866254</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -2733,19 +2733,19 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>228.3934336823735</v>
+        <v>49.22636599586182</v>
       </c>
       <c r="B105" t="n">
-        <v>5.105857329842932</v>
+        <v>2.726735371516521</v>
       </c>
       <c r="C105" t="n">
-        <v>0.442077303933185</v>
+        <v>0.4771197938405415</v>
       </c>
       <c r="D105" t="n">
-        <v>0.04182003441597684</v>
+        <v>0.03243177319488405</v>
       </c>
       <c r="E105" t="n">
-        <v>0.8407199443283057</v>
+        <v>0.9887875146175067</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -2755,19 +2755,19 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1093.010198516579</v>
+        <v>97.41431751554285</v>
       </c>
       <c r="B106" t="n">
-        <v>13.02770506108202</v>
+        <v>3.478925175698789</v>
       </c>
       <c r="C106" t="n">
-        <v>0.3412717558423028</v>
+        <v>0.4307015974332145</v>
       </c>
       <c r="D106" t="n">
-        <v>0.08361508780293676</v>
+        <v>0.06388243018085306</v>
       </c>
       <c r="E106" t="n">
-        <v>0.6192402000843037</v>
+        <v>0.9502437555977737</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -2777,19 +2777,19 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>894.2713514397905</v>
+        <v>91.30009511359955</v>
       </c>
       <c r="B107" t="n">
-        <v>11.19036321989529</v>
+        <v>3.896374771437999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.3937423705985881</v>
+        <v>0.3836914133919015</v>
       </c>
       <c r="D107" t="n">
-        <v>0.05747728609729909</v>
+        <v>0.03674352250438282</v>
       </c>
       <c r="E107" t="n">
-        <v>0.692993696258331</v>
+        <v>0.9617747072700331</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -2799,19 +2799,19 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1555.64152486911</v>
+        <v>175.3048561953616</v>
       </c>
       <c r="B108" t="n">
-        <v>16.79248472949389</v>
+        <v>4.981293527809607</v>
       </c>
       <c r="C108" t="n">
-        <v>0.312967830661992</v>
+        <v>0.3953147212937466</v>
       </c>
       <c r="D108" t="n">
-        <v>0.07759527278874502</v>
+        <v>0.06915518752667103</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4500000310027182</v>
+        <v>0.9254753949763724</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -2821,19 +2821,19 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>455.0312500000001</v>
+        <v>64.95547203236893</v>
       </c>
       <c r="B109" t="n">
-        <v>7.430028359511345</v>
+        <v>3.26562902827787</v>
       </c>
       <c r="C109" t="n">
-        <v>0.4266949909171374</v>
+        <v>0.4231117458335132</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1138820505423913</v>
+        <v>0.07537039740402611</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4928143666145165</v>
+        <v>0.9456893993873535</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -2843,19 +2843,19 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2315.55017452007</v>
+        <v>148.3676851345782</v>
       </c>
       <c r="B110" t="n">
-        <v>23.24509162303665</v>
+        <v>4.691258651582448</v>
       </c>
       <c r="C110" t="n">
-        <v>0.2596723459111685</v>
+        <v>0.3757727930277739</v>
       </c>
       <c r="D110" t="n">
-        <v>0.03217190322951709</v>
+        <v>0.02825052413737041</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3961093161970467</v>
+        <v>0.9641020002180523</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -2865,19 +2865,19 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>753.8960787521816</v>
+        <v>114.4403841939249</v>
       </c>
       <c r="B111" t="n">
-        <v>9.711360165794066</v>
+        <v>4.073341819585023</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4437950849492813</v>
+        <v>0.4030652934716648</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0534673059585899</v>
+        <v>0.03289783415232985</v>
       </c>
       <c r="E111" t="n">
-        <v>0.7443528132516758</v>
+        <v>0.9736772945083501</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -2887,19 +2887,19 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1686.333196989529</v>
+        <v>123.6933145572962</v>
       </c>
       <c r="B112" t="n">
-        <v>16.34148669284468</v>
+        <v>4.181476500616089</v>
       </c>
       <c r="C112" t="n">
-        <v>0.4193169891845808</v>
+        <v>0.4204395386527514</v>
       </c>
       <c r="D112" t="n">
-        <v>0.06463365075469522</v>
+        <v>0.05679543472570405</v>
       </c>
       <c r="E112" t="n">
-        <v>0.5597433363150821</v>
+        <v>0.9661431750850927</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -2909,19 +2909,19 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>415.8913612565445</v>
+        <v>52.60042271928857</v>
       </c>
       <c r="B113" t="n">
-        <v>5.859620418848167</v>
+        <v>3.182163424731276</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5516459658579927</v>
+        <v>0.4063189601300523</v>
       </c>
       <c r="D113" t="n">
-        <v>0.07087033710563015</v>
+        <v>0.03922667490361538</v>
       </c>
       <c r="E113" t="n">
-        <v>0.6402909046760554</v>
+        <v>0.9741386154712958</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -2931,19 +2931,19 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1353.743946335078</v>
+        <v>50.00760482481333</v>
       </c>
       <c r="B114" t="n">
-        <v>16.5875872600349</v>
+        <v>2.824665406036825</v>
       </c>
       <c r="C114" t="n">
-        <v>0.3735820205451764</v>
+        <v>0.446809306362431</v>
       </c>
       <c r="D114" t="n">
-        <v>0.04868188715154944</v>
+        <v>0.0420840730227803</v>
       </c>
       <c r="E114" t="n">
-        <v>0.4744366187362664</v>
+        <v>0.976799149861806</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -2953,19 +2953,19 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>537.3769906195463</v>
+        <v>43.45964655707278</v>
       </c>
       <c r="B115" t="n">
-        <v>8.117828315881328</v>
+        <v>2.55173645326618</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4829406196409834</v>
+        <v>0.4584120557904698</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1109909586040584</v>
+        <v>0.05346530751730302</v>
       </c>
       <c r="E115" t="n">
-        <v>0.7686099298974814</v>
+        <v>0.974354430553995</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -2975,19 +2975,19 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>908.4175665357767</v>
+        <v>50.35763380034643</v>
       </c>
       <c r="B116" t="n">
-        <v>12.09524978184991</v>
+        <v>2.857846185328918</v>
       </c>
       <c r="C116" t="n">
-        <v>0.3393962503320115</v>
+        <v>0.4339167018535112</v>
       </c>
       <c r="D116" t="n">
-        <v>0.04397294215356635</v>
+        <v>0.04637547668908721</v>
       </c>
       <c r="E116" t="n">
-        <v>0.5178106752042969</v>
+        <v>0.9799612053372759</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -2997,19 +2997,19 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1189.252617801047</v>
+        <v>51.99447155594432</v>
       </c>
       <c r="B117" t="n">
-        <v>15.96427792321117</v>
+        <v>3.328974008767757</v>
       </c>
       <c r="C117" t="n">
-        <v>0.3174976808895777</v>
+        <v>0.4188953981135766</v>
       </c>
       <c r="D117" t="n">
-        <v>0.04288434669120045</v>
+        <v>0.03920611622043827</v>
       </c>
       <c r="E117" t="n">
-        <v>0.5565159501813257</v>
+        <v>0.9851789449013123</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3019,19 +3019,19 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1357.094486256545</v>
+        <v>48.41610475943768</v>
       </c>
       <c r="B118" t="n">
-        <v>17.29643869982548</v>
+        <v>2.797716353837666</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2668293026392071</v>
+        <v>0.4376556139238791</v>
       </c>
       <c r="D118" t="n">
-        <v>0.03798265305478386</v>
+        <v>0.04830554866680647</v>
       </c>
       <c r="E118" t="n">
-        <v>0.5712356823392658</v>
+        <v>0.9821816030567873</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -3041,19 +3041,19 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1218.929019415358</v>
+        <v>66.30263005090677</v>
       </c>
       <c r="B119" t="n">
-        <v>16.27031522687609</v>
+        <v>3.208171730830417</v>
       </c>
       <c r="C119" t="n">
-        <v>0.2556171480220989</v>
+        <v>0.4211596681038242</v>
       </c>
       <c r="D119" t="n">
-        <v>0.02912867879570875</v>
+        <v>0.03735386209162245</v>
       </c>
       <c r="E119" t="n">
-        <v>0.4343659324459544</v>
+        <v>0.9724450036737134</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -3063,19 +3063,19 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>741.4153850349041</v>
+        <v>53.34845533280918</v>
       </c>
       <c r="B120" t="n">
-        <v>10.6729657504363</v>
+        <v>3.364166899915094</v>
       </c>
       <c r="C120" t="n">
-        <v>0.3182183072144333</v>
+        <v>0.3794857065588953</v>
       </c>
       <c r="D120" t="n">
-        <v>0.03716232917799261</v>
+        <v>0.03123557765019211</v>
       </c>
       <c r="E120" t="n">
-        <v>0.5902985204688641</v>
+        <v>0.9804027997916099</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -3085,19 +3085,19 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1541.228403141361</v>
+        <v>153.5765146068472</v>
       </c>
       <c r="B121" t="n">
-        <v>17.74972731239092</v>
+        <v>4.76817740350491</v>
       </c>
       <c r="C121" t="n">
-        <v>0.3099961754754055</v>
+        <v>0.3808886922535849</v>
       </c>
       <c r="D121" t="n">
-        <v>0.08113860704192898</v>
+        <v>0.06518140286388077</v>
       </c>
       <c r="E121" t="n">
-        <v>0.4157993166381527</v>
+        <v>0.9257732345520826</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -3107,19 +3107,19 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>985.8477585078533</v>
+        <v>100.1854848961793</v>
       </c>
       <c r="B122" t="n">
-        <v>12.26682482547993</v>
+        <v>3.617804678735058</v>
       </c>
       <c r="C122" t="n">
-        <v>0.4173859043475423</v>
+        <v>0.4343737034244979</v>
       </c>
       <c r="D122" t="n">
-        <v>0.09744429995786485</v>
+        <v>0.06127441424145826</v>
       </c>
       <c r="E122" t="n">
-        <v>0.5496568462757567</v>
+        <v>0.9410316225881159</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -3129,19 +3129,19 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1314.191753926701</v>
+        <v>115.6056759347973</v>
       </c>
       <c r="B123" t="n">
-        <v>15.23778359511344</v>
+        <v>4.167722615485118</v>
       </c>
       <c r="C123" t="n">
-        <v>0.3277514686702344</v>
+        <v>0.3907642274765673</v>
       </c>
       <c r="D123" t="n">
-        <v>0.07664763639094681</v>
+        <v>0.0609136182724215</v>
       </c>
       <c r="E123" t="n">
-        <v>0.4512138631137149</v>
+        <v>0.9529935441062144</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -3151,19 +3151,19 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1220.667484729494</v>
+        <v>102.1599087605685</v>
       </c>
       <c r="B124" t="n">
-        <v>13.8811627399651</v>
+        <v>3.857943096505653</v>
       </c>
       <c r="C124" t="n">
-        <v>0.3108244091358158</v>
+        <v>0.40351446864254</v>
       </c>
       <c r="D124" t="n">
-        <v>0.05024053669474603</v>
+        <v>0.03659378528777021</v>
       </c>
       <c r="E124" t="n">
-        <v>0.5626396327492393</v>
+        <v>0.961569227552605</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -3173,19 +3173,19 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1249.301156195462</v>
+        <v>92.90933743634153</v>
       </c>
       <c r="B125" t="n">
-        <v>13.83436954624782</v>
+        <v>3.723270826031079</v>
       </c>
       <c r="C125" t="n">
-        <v>0.4191012071206248</v>
+        <v>0.3927217107758546</v>
       </c>
       <c r="D125" t="n">
-        <v>0.09440365472265352</v>
+        <v>0.05504049686865175</v>
       </c>
       <c r="E125" t="n">
-        <v>0.408781539502818</v>
+        <v>0.9474027876243735</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -3195,19 +3195,19 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1366.549520069808</v>
+        <v>195.5051797286567</v>
       </c>
       <c r="B126" t="n">
-        <v>15.0675719895288</v>
+        <v>5.48099777779242</v>
       </c>
       <c r="C126" t="n">
-        <v>0.4224057296158279</v>
+        <v>0.3698753520854942</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0582997913486814</v>
+        <v>0.03803343289018072</v>
       </c>
       <c r="E126" t="n">
-        <v>0.5907115465735735</v>
+        <v>0.9510353282485867</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -3217,19 +3217,19 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>481.2792593804537</v>
+        <v>38.83347581520665</v>
       </c>
       <c r="B127" t="n">
-        <v>6.919311736474695</v>
+        <v>2.443432162156409</v>
       </c>
       <c r="C127" t="n">
-        <v>0.4275660279075962</v>
+        <v>0.4654113247465514</v>
       </c>
       <c r="D127" t="n">
-        <v>0.05905537951014903</v>
+        <v>0.03827590884242652</v>
       </c>
       <c r="E127" t="n">
-        <v>0.62192953277109</v>
+        <v>0.9860680666098769</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -3239,19 +3239,19 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1099.346804101222</v>
+        <v>76.30533918642085</v>
       </c>
       <c r="B128" t="n">
-        <v>12.74503708551483</v>
+        <v>3.217455244784481</v>
       </c>
       <c r="C128" t="n">
-        <v>0.3760941344674358</v>
+        <v>0.4273602939536201</v>
       </c>
       <c r="D128" t="n">
-        <v>0.04905077091504716</v>
+        <v>0.04385894905703257</v>
       </c>
       <c r="E128" t="n">
-        <v>0.5208522797415507</v>
+        <v>0.9642428526994281</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -3261,19 +3261,19 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1198.517397469459</v>
+        <v>129.3504410873861</v>
       </c>
       <c r="B129" t="n">
-        <v>13.31424520069808</v>
+        <v>4.248066793816683</v>
       </c>
       <c r="C129" t="n">
-        <v>0.4218504836277664</v>
+        <v>0.4129231013225045</v>
       </c>
       <c r="D129" t="n">
-        <v>0.05941598004549974</v>
+        <v>0.04618686587787344</v>
       </c>
       <c r="E129" t="n">
-        <v>0.4583289226349114</v>
+        <v>0.9450409593986396</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -3283,19 +3283,19 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1566.937472731239</v>
+        <v>147.6253108101473</v>
       </c>
       <c r="B130" t="n">
-        <v>16.55489201570681</v>
+        <v>4.694632190587719</v>
       </c>
       <c r="C130" t="n">
-        <v>0.3193514769260468</v>
+        <v>0.3532668004250816</v>
       </c>
       <c r="D130" t="n">
-        <v>0.04998552431369754</v>
+        <v>0.03864431743614632</v>
       </c>
       <c r="E130" t="n">
-        <v>0.4240322735634008</v>
+        <v>0.958840209971661</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -3305,19 +3305,19 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>922.1304264834208</v>
+        <v>48.21764750124338</v>
       </c>
       <c r="B131" t="n">
-        <v>11.8128544938918</v>
+        <v>2.63870408229872</v>
       </c>
       <c r="C131" t="n">
-        <v>0.3983364971136596</v>
+        <v>0.4646450470365255</v>
       </c>
       <c r="D131" t="n">
-        <v>0.04781225952953998</v>
+        <v>0.03911478047799365</v>
       </c>
       <c r="E131" t="n">
-        <v>0.5035774038292637</v>
+        <v>0.9791537128424459</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -3327,19 +3327,19 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1426.87589986911</v>
+        <v>66.81232378963635</v>
       </c>
       <c r="B132" t="n">
-        <v>14.99184664048865</v>
+        <v>3.000050767742368</v>
       </c>
       <c r="C132" t="n">
-        <v>0.3742090412013124</v>
+        <v>0.4530866733614957</v>
       </c>
       <c r="D132" t="n">
-        <v>0.04463191064978363</v>
+        <v>0.03885236858554669</v>
       </c>
       <c r="E132" t="n">
-        <v>0.5196360603047788</v>
+        <v>0.9738617754069896</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -3349,19 +3349,19 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1556.051565226876</v>
+        <v>82.17875181668286</v>
       </c>
       <c r="B133" t="n">
-        <v>18.56372709424084</v>
+        <v>3.747485688265298</v>
       </c>
       <c r="C133" t="n">
-        <v>0.291738807208218</v>
+        <v>0.3923016030607817</v>
       </c>
       <c r="D133" t="n">
-        <v>0.04137836124279243</v>
+        <v>0.04692234198315214</v>
       </c>
       <c r="E133" t="n">
-        <v>0.5030707934209105</v>
+        <v>0.9710647343815301</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -3371,19 +3371,19 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>790.6667757417102</v>
+        <v>69.27379921321675</v>
       </c>
       <c r="B134" t="n">
-        <v>11.59887652705061</v>
+        <v>3.637098773249529</v>
       </c>
       <c r="C134" t="n">
-        <v>0.3119643445953452</v>
+        <v>0.3957874433591395</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0444414968116635</v>
+        <v>0.03337829012019013</v>
       </c>
       <c r="E134" t="n">
-        <v>0.5904101796997872</v>
+        <v>0.9758306901642232</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -3393,19 +3393,19 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1174.131326352531</v>
+        <v>61.59604774424839</v>
       </c>
       <c r="B135" t="n">
-        <v>15.48020287958115</v>
+        <v>3.190298610731193</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3483488603427393</v>
+        <v>0.4466533454514811</v>
       </c>
       <c r="D135" t="n">
-        <v>0.05931392408332002</v>
+        <v>0.05226793796920511</v>
       </c>
       <c r="E135" t="n">
-        <v>0.3515244982704214</v>
+        <v>0.9780290999060213</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -3415,19 +3415,19 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1495.299656413612</v>
+        <v>98.77791523070148</v>
       </c>
       <c r="B136" t="n">
-        <v>18.81699934554974</v>
+        <v>4.228275601742643</v>
       </c>
       <c r="C136" t="n">
-        <v>0.2732134533494666</v>
+        <v>0.3746967623787071</v>
       </c>
       <c r="D136" t="n">
-        <v>0.03780228305428419</v>
+        <v>0.04218871283875938</v>
       </c>
       <c r="E136" t="n">
-        <v>0.450988984216503</v>
+        <v>0.9709520863475238</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -3437,19 +3437,19 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>856.1462423647472</v>
+        <v>77.35755465909656</v>
       </c>
       <c r="B137" t="n">
-        <v>11.82425283595114</v>
+        <v>3.79662532994671</v>
       </c>
       <c r="C137" t="n">
-        <v>0.4426068643934692</v>
+        <v>0.3899537603782694</v>
       </c>
       <c r="D137" t="n">
-        <v>0.07377052366028194</v>
+        <v>0.04776129865366573</v>
       </c>
       <c r="E137" t="n">
-        <v>0.6520715169723674</v>
+        <v>0.9710982581121286</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -3459,19 +3459,19 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>994.5340859511344</v>
+        <v>84.7872614933577</v>
       </c>
       <c r="B138" t="n">
-        <v>11.9534794938918</v>
+        <v>3.297417571669722</v>
       </c>
       <c r="C138" t="n">
-        <v>0.4013407364949006</v>
+        <v>0.4341055709859868</v>
       </c>
       <c r="D138" t="n">
-        <v>0.1001605493485829</v>
+        <v>0.06951785657816786</v>
       </c>
       <c r="E138" t="n">
-        <v>0.3756679125590644</v>
+        <v>0.9560484267839482</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -3481,19 +3481,19 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>990.9072589441537</v>
+        <v>115.132152340893</v>
       </c>
       <c r="B139" t="n">
-        <v>12.43103730366492</v>
+        <v>4.40282615754861</v>
       </c>
       <c r="C139" t="n">
-        <v>0.3086515663295806</v>
+        <v>0.3698704271120948</v>
       </c>
       <c r="D139" t="n">
-        <v>0.05838925618142444</v>
+        <v>0.03678669363971993</v>
       </c>
       <c r="E139" t="n">
-        <v>0.5854022147699615</v>
+        <v>0.9576721278628351</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -3503,19 +3503,19 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1289.10154886562</v>
+        <v>79.44623981758167</v>
       </c>
       <c r="B140" t="n">
-        <v>14.85089441535776</v>
+        <v>3.572960242741584</v>
       </c>
       <c r="C140" t="n">
-        <v>0.3237630771687093</v>
+        <v>0.400766690450838</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0593876145007568</v>
+        <v>0.04205503459087671</v>
       </c>
       <c r="E140" t="n">
-        <v>0.366736390224925</v>
+        <v>0.9583369128714941</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -3525,19 +3525,19 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1333.149296465969</v>
+        <v>105.4709946217445</v>
       </c>
       <c r="B141" t="n">
-        <v>14.55598276614311</v>
+        <v>3.74610113401258</v>
       </c>
       <c r="C141" t="n">
-        <v>0.3926196410402449</v>
+        <v>0.4324643904676535</v>
       </c>
       <c r="D141" t="n">
-        <v>0.07147673856085343</v>
+        <v>0.04976303031782396</v>
       </c>
       <c r="E141" t="n">
-        <v>0.5345161353482185</v>
+        <v>0.960287267732063</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -3547,19 +3547,19 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>540.4730584642234</v>
+        <v>105.1395665249226</v>
       </c>
       <c r="B142" t="n">
-        <v>8.044011780104713</v>
+        <v>4.181644879175121</v>
       </c>
       <c r="C142" t="n">
-        <v>0.3705910211008375</v>
+        <v>0.3854979456622363</v>
       </c>
       <c r="D142" t="n">
-        <v>0.05957447640789359</v>
+        <v>0.03531570128886446</v>
       </c>
       <c r="E142" t="n">
-        <v>0.4357357209348987</v>
+        <v>0.9590740808750273</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -3569,19 +3569,19 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>971.8041557591623</v>
+        <v>116.0174701350382</v>
       </c>
       <c r="B143" t="n">
-        <v>10.63230802792321</v>
+        <v>3.912128606353197</v>
       </c>
       <c r="C143" t="n">
-        <v>0.4580496093265219</v>
+        <v>0.4083105949548095</v>
       </c>
       <c r="D143" t="n">
-        <v>0.1302318208967808</v>
+        <v>0.07255510102172022</v>
       </c>
       <c r="E143" t="n">
-        <v>0.6182565824568043</v>
+        <v>0.9524432405452813</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -3591,19 +3591,19 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1311.506926265271</v>
+        <v>84.98184542297049</v>
       </c>
       <c r="B144" t="n">
-        <v>15.51685209424084</v>
+        <v>3.541851405341184</v>
       </c>
       <c r="C144" t="n">
-        <v>0.3268830012206098</v>
+        <v>0.4119612025835187</v>
       </c>
       <c r="D144" t="n">
-        <v>0.05650039223644743</v>
+        <v>0.0387810745011114</v>
       </c>
       <c r="E144" t="n">
-        <v>0.3001496618257012</v>
+        <v>0.9627782244050607</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -3613,19 +3613,19 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>898.0996400523561</v>
+        <v>61.99761205389827</v>
       </c>
       <c r="B145" t="n">
-        <v>11.94126308900524</v>
+        <v>3.102562428265676</v>
       </c>
       <c r="C145" t="n">
-        <v>0.4003592059050604</v>
+        <v>0.4338108430506534</v>
       </c>
       <c r="D145" t="n">
-        <v>0.04844226492902037</v>
+        <v>0.03811701684023999</v>
       </c>
       <c r="E145" t="n">
-        <v>0.4995093379305069</v>
+        <v>0.979544437310539</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -3635,19 +3635,19 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>482.5192517452007</v>
+        <v>68.13301604250042</v>
       </c>
       <c r="B146" t="n">
-        <v>7.02950479930192</v>
+        <v>3.213803254852136</v>
       </c>
       <c r="C146" t="n">
-        <v>0.4687465971164042</v>
+        <v>0.4534633947728165</v>
       </c>
       <c r="D146" t="n">
-        <v>0.04433444763003767</v>
+        <v>0.03077722228013727</v>
       </c>
       <c r="E146" t="n">
-        <v>0.8315791808228445</v>
+        <v>0.9863549741898517</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -3657,19 +3657,19 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1735.545566099477</v>
+        <v>129.4242134642671</v>
       </c>
       <c r="B147" t="n">
-        <v>18.25319044502618</v>
+        <v>4.679627469513484</v>
       </c>
       <c r="C147" t="n">
-        <v>0.2872803985752972</v>
+        <v>0.3462664268999905</v>
       </c>
       <c r="D147" t="n">
-        <v>0.02727347117913656</v>
+        <v>0.02577754350952719</v>
       </c>
       <c r="E147" t="n">
-        <v>0.4751653185439139</v>
+        <v>0.9739972735426498</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -3679,19 +3679,19 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1338.287712696335</v>
+        <v>107.5043634743424</v>
       </c>
       <c r="B148" t="n">
-        <v>15.9818117364747</v>
+        <v>4.339948248525721</v>
       </c>
       <c r="C148" t="n">
-        <v>0.3404108758140404</v>
+        <v>0.4103947892204509</v>
       </c>
       <c r="D148" t="n">
-        <v>0.05841647401599816</v>
+        <v>0.04287309848631662</v>
       </c>
       <c r="E148" t="n">
-        <v>0.5201297471833803</v>
+        <v>0.9697509952683874</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -3701,19 +3701,19 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>971.9105039267018</v>
+        <v>83.35233928404475</v>
       </c>
       <c r="B149" t="n">
-        <v>12.07291666666667</v>
+        <v>3.624442265854436</v>
       </c>
       <c r="C149" t="n">
-        <v>0.4428107303795965</v>
+        <v>0.4162865738477067</v>
       </c>
       <c r="D149" t="n">
-        <v>0.060867707367208</v>
+        <v>0.04125335606625426</v>
       </c>
       <c r="E149" t="n">
-        <v>0.5937285854826448</v>
+        <v>0.9672320440061702</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -3723,19 +3723,19 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1304.128381326352</v>
+        <v>137.7168669517441</v>
       </c>
       <c r="B150" t="n">
-        <v>18.86196553228621</v>
+        <v>5.478965965209013</v>
       </c>
       <c r="C150" t="n">
-        <v>0.1643890859767588</v>
+        <v>0.3070285304489557</v>
       </c>
       <c r="D150" t="n">
-        <v>0.02627837164487566</v>
+        <v>0.02765329308589219</v>
       </c>
       <c r="E150" t="n">
-        <v>0.5674538305370225</v>
+        <v>0.956849748747796</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -3745,19 +3745,19 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1531.795238874345</v>
+        <v>83.92122926412056</v>
       </c>
       <c r="B151" t="n">
-        <v>17.97679428446771</v>
+        <v>3.613622361531561</v>
       </c>
       <c r="C151" t="n">
-        <v>0.3206769435194466</v>
+        <v>0.4365496202512473</v>
       </c>
       <c r="D151" t="n">
-        <v>0.03768269467957479</v>
+        <v>0.03819750873810426</v>
       </c>
       <c r="E151" t="n">
-        <v>0.440711977471049</v>
+        <v>0.9699701778778259</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -3767,19 +3767,19 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>358.6711660122164</v>
+        <v>49.23414071025712</v>
       </c>
       <c r="B152" t="n">
-        <v>5.003244982547993</v>
+        <v>3.040983462350458</v>
       </c>
       <c r="C152" t="n">
-        <v>0.5521833781104138</v>
+        <v>0.4054753338754832</v>
       </c>
       <c r="D152" t="n">
-        <v>0.08381051779575006</v>
+        <v>0.04527347601725817</v>
       </c>
       <c r="E152" t="n">
-        <v>0.7276281196364122</v>
+        <v>0.9828997134536712</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -3789,19 +3789,19 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>533.6718204624782</v>
+        <v>47.06310961619751</v>
       </c>
       <c r="B153" t="n">
-        <v>7.54392997382199</v>
+        <v>2.914563653255393</v>
       </c>
       <c r="C153" t="n">
-        <v>0.4143927623668893</v>
+        <v>0.4220772516587856</v>
       </c>
       <c r="D153" t="n">
-        <v>0.04845502671388116</v>
+        <v>0.03524125168233814</v>
       </c>
       <c r="E153" t="n">
-        <v>0.6610225556464674</v>
+        <v>0.9812312593830024</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -3811,19 +3811,19 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>881.1486147469461</v>
+        <v>85.37832148609311</v>
       </c>
       <c r="B154" t="n">
-        <v>11.23860165794066</v>
+        <v>3.466633475505984</v>
       </c>
       <c r="C154" t="n">
-        <v>0.3777807746864468</v>
+        <v>0.4382188014499727</v>
       </c>
       <c r="D154" t="n">
-        <v>0.06004063493639494</v>
+        <v>0.03943081961759547</v>
       </c>
       <c r="E154" t="n">
-        <v>0.5294004449421896</v>
+        <v>0.9709821592247486</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -3833,19 +3833,19 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1329.429482984293</v>
+        <v>55.90044788267303</v>
       </c>
       <c r="B155" t="n">
-        <v>15.19099040139616</v>
+        <v>2.783310983124947</v>
       </c>
       <c r="C155" t="n">
-        <v>0.3439622253543411</v>
+        <v>0.4442610019192771</v>
       </c>
       <c r="D155" t="n">
-        <v>0.05374295412329956</v>
+        <v>0.05492817946216091</v>
       </c>
       <c r="E155" t="n">
-        <v>0.3750092847188459</v>
+        <v>0.9787134543071511</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -3855,19 +3855,19 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1129.212914485166</v>
+        <v>50.76752457743923</v>
       </c>
       <c r="B156" t="n">
-        <v>12.67822862129145</v>
+        <v>2.612673871916937</v>
       </c>
       <c r="C156" t="n">
-        <v>0.3797178931653323</v>
+        <v>0.4428141094873191</v>
       </c>
       <c r="D156" t="n">
-        <v>0.06439862707943399</v>
+        <v>0.04393864882864367</v>
       </c>
       <c r="E156" t="n">
-        <v>0.4876560603233057</v>
+        <v>0.9686757558275599</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -3877,19 +3877,19 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1233.954570244328</v>
+        <v>65.51922669147315</v>
       </c>
       <c r="B157" t="n">
-        <v>15.13863438045375</v>
+        <v>2.851857422168747</v>
       </c>
       <c r="C157" t="n">
-        <v>0.3792996937392888</v>
+        <v>0.5013078347911422</v>
       </c>
       <c r="D157" t="n">
-        <v>0.09823139178585936</v>
+        <v>0.07302531228100163</v>
       </c>
       <c r="E157" t="n">
-        <v>0.4796045524412292</v>
+        <v>0.9532836499199943</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -3899,19 +3899,19 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1100.31579952007</v>
+        <v>90.50153971591804</v>
       </c>
       <c r="B158" t="n">
-        <v>14.00040903141361</v>
+        <v>3.715921239658376</v>
       </c>
       <c r="C158" t="n">
-        <v>0.3176256154161599</v>
+        <v>0.414142193794521</v>
       </c>
       <c r="D158" t="n">
-        <v>0.06486347826296533</v>
+        <v>0.04577070291711123</v>
       </c>
       <c r="E158" t="n">
-        <v>0.49086481934759</v>
+        <v>0.9630335970371303</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -3921,19 +3921,19 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1307.798511125655</v>
+        <v>94.74911647376443</v>
       </c>
       <c r="B159" t="n">
-        <v>15.92432918848168</v>
+        <v>3.7379302770792</v>
       </c>
       <c r="C159" t="n">
-        <v>0.2993173607299871</v>
+        <v>0.4308370082346352</v>
       </c>
       <c r="D159" t="n">
-        <v>0.03451370453142243</v>
+        <v>0.03708402363039387</v>
       </c>
       <c r="E159" t="n">
-        <v>0.5835776496817587</v>
+        <v>0.9699108596575995</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -3943,19 +3943,19 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>745.2451461605585</v>
+        <v>122.7405475289897</v>
       </c>
       <c r="B160" t="n">
-        <v>9.271051483420594</v>
+        <v>4.138786308863624</v>
       </c>
       <c r="C160" t="n">
-        <v>0.4269139655911111</v>
+        <v>0.3984227357818234</v>
       </c>
       <c r="D160" t="n">
-        <v>0.1038680293403425</v>
+        <v>0.0668806673525454</v>
       </c>
       <c r="E160" t="n">
-        <v>0.7611464085460924</v>
+        <v>0.9582319804342536</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -3965,19 +3965,19 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>962.9870200698082</v>
+        <v>74.82307023135371</v>
       </c>
       <c r="B161" t="n">
-        <v>10.83224258289703</v>
+        <v>3.507946674041714</v>
       </c>
       <c r="C161" t="n">
-        <v>0.3889520740160007</v>
+        <v>0.3841613582235983</v>
       </c>
       <c r="D161" t="n">
-        <v>0.06259738734089723</v>
+        <v>0.0370264023667215</v>
       </c>
       <c r="E161" t="n">
-        <v>0.4748356846402127</v>
+        <v>0.9701140617782285</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -3987,19 +3987,19 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>686.2252945026179</v>
+        <v>62.45033317646357</v>
       </c>
       <c r="B162" t="n">
-        <v>9.633616928446772</v>
+        <v>3.365226578854687</v>
       </c>
       <c r="C162" t="n">
-        <v>0.3629399232049446</v>
+        <v>0.3943678029252357</v>
       </c>
       <c r="D162" t="n">
-        <v>0.05999561205162666</v>
+        <v>0.03957664441679232</v>
       </c>
       <c r="E162" t="n">
-        <v>0.5159686824429777</v>
+        <v>0.9725262004716955</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -4009,19 +4009,19 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>647.4586332897034</v>
+        <v>49.07452526988558</v>
       </c>
       <c r="B163" t="n">
-        <v>9.873445680628272</v>
+        <v>2.993425199625624</v>
       </c>
       <c r="C163" t="n">
-        <v>0.4489221959687884</v>
+        <v>0.4365518916209615</v>
       </c>
       <c r="D163" t="n">
-        <v>0.06433894101395364</v>
+        <v>0.03618647734287758</v>
       </c>
       <c r="E163" t="n">
-        <v>0.6191932412458517</v>
+        <v>0.9859327596836333</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -4031,19 +4031,19 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>587.7530541012217</v>
+        <v>59.39170893627335</v>
       </c>
       <c r="B164" t="n">
-        <v>7.846804101221641</v>
+        <v>2.840391970920081</v>
       </c>
       <c r="C164" t="n">
-        <v>0.464860179080561</v>
+        <v>0.4459638811920475</v>
       </c>
       <c r="D164" t="n">
-        <v>0.06014644637487086</v>
+        <v>0.0433768566923655</v>
       </c>
       <c r="E164" t="n">
-        <v>0.5372645780447585</v>
+        <v>0.9772358703118275</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -4053,19 +4053,19 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>475.0031359075043</v>
+        <v>56.48286138435213</v>
       </c>
       <c r="B165" t="n">
-        <v>6.004826570680629</v>
+        <v>2.881933809003733</v>
       </c>
       <c r="C165" t="n">
-        <v>0.5409257623013835</v>
+        <v>0.437228745675008</v>
       </c>
       <c r="D165" t="n">
-        <v>0.07540554725440274</v>
+        <v>0.04436852855079645</v>
       </c>
       <c r="E165" t="n">
-        <v>0.5715046530261614</v>
+        <v>0.9844230284005022</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -4075,19 +4075,19 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1579.985193062827</v>
+        <v>110.8401434317465</v>
       </c>
       <c r="B166" t="n">
-        <v>18.59339550610821</v>
+        <v>3.96998213715771</v>
       </c>
       <c r="C166" t="n">
-        <v>0.2872373384393228</v>
+        <v>0.4061925822802499</v>
       </c>
       <c r="D166" t="n">
-        <v>0.03240968808038112</v>
+        <v>0.03350341400377333</v>
       </c>
       <c r="E166" t="n">
-        <v>0.4593522178713014</v>
+        <v>0.9685774670128576</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -4097,19 +4097,19 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>271.7595167975567</v>
+        <v>46.42406323949559</v>
       </c>
       <c r="B167" t="n">
-        <v>4.696362347294939</v>
+        <v>2.979367935723924</v>
       </c>
       <c r="C167" t="n">
-        <v>0.5654848103313407</v>
+        <v>0.4372430797765393</v>
       </c>
       <c r="D167" t="n">
-        <v>0.0971311407073638</v>
+        <v>0.05168913842691969</v>
       </c>
       <c r="E167" t="n">
-        <v>0.6542351090091968</v>
+        <v>0.9812168687649054</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -4119,19 +4119,19 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1518.274241928447</v>
+        <v>102.3345143596975</v>
       </c>
       <c r="B168" t="n">
-        <v>17.70983311518325</v>
+        <v>4.211880919017445</v>
       </c>
       <c r="C168" t="n">
-        <v>0.2735377091305674</v>
+        <v>0.3657836011695015</v>
       </c>
       <c r="D168" t="n">
-        <v>0.04496035722687158</v>
+        <v>0.04093036821356911</v>
       </c>
       <c r="E168" t="n">
-        <v>0.4154157815973702</v>
+        <v>0.966230617263887</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -4141,19 +4141,19 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>363.1314626963352</v>
+        <v>87.21524367735374</v>
       </c>
       <c r="B169" t="n">
-        <v>9.378408595113438</v>
+        <v>4.832073215748769</v>
       </c>
       <c r="C169" t="n">
-        <v>0.1723486784477001</v>
+        <v>0.2777081812990553</v>
       </c>
       <c r="D169" t="n">
-        <v>0.02927221784396804</v>
+        <v>0.02647153192363686</v>
       </c>
       <c r="E169" t="n">
-        <v>0.669345464942223</v>
+        <v>0.9611460848583093</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -4163,19 +4163,19 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1261.354657504363</v>
+        <v>101.0082028810546</v>
       </c>
       <c r="B170" t="n">
-        <v>15.01510689354276</v>
+        <v>4.290050352279709</v>
       </c>
       <c r="C170" t="n">
-        <v>0.2726721305918285</v>
+        <v>0.377189322479625</v>
       </c>
       <c r="D170" t="n">
-        <v>0.0428675155802407</v>
+        <v>0.03220334480775661</v>
       </c>
       <c r="E170" t="n">
-        <v>0.4976853820020338</v>
+        <v>0.9699070901562507</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -4185,19 +4185,19 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>843.4147305846424</v>
+        <v>65.1286984251867</v>
       </c>
       <c r="B171" t="n">
-        <v>12.59137761780105</v>
+        <v>3.413665061094221</v>
       </c>
       <c r="C171" t="n">
-        <v>0.3583375713781777</v>
+        <v>0.4373224887140213</v>
       </c>
       <c r="D171" t="n">
-        <v>0.04932456433326055</v>
+        <v>0.04108023340591707</v>
       </c>
       <c r="E171" t="n">
-        <v>0.5274743446274391</v>
+        <v>0.9795507980756839</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -4207,19 +4207,19 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1399.657967931937</v>
+        <v>63.86112341850046</v>
       </c>
       <c r="B172" t="n">
-        <v>17.17482002617801</v>
+        <v>4.063151676266431</v>
       </c>
       <c r="C172" t="n">
-        <v>0.3256857661707788</v>
+        <v>0.3288134029185639</v>
       </c>
       <c r="D172" t="n">
-        <v>0.04262933337983929</v>
+        <v>0.03152434413856475</v>
       </c>
       <c r="E172" t="n">
-        <v>0.5208392185005521</v>
+        <v>0.9817139532678869</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -4229,19 +4229,19 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>835.9679592059338</v>
+        <v>74.77335279975105</v>
       </c>
       <c r="B173" t="n">
-        <v>10.94974367364747</v>
+        <v>3.529612461853517</v>
       </c>
       <c r="C173" t="n">
-        <v>0.3675371397395246</v>
+        <v>0.4202291263593805</v>
       </c>
       <c r="D173" t="n">
-        <v>0.05911316115131863</v>
+        <v>0.03770267042709965</v>
       </c>
       <c r="E173" t="n">
-        <v>0.6623585239436625</v>
+        <v>0.9747171545363141</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -4251,19 +4251,19 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>573.8451407068062</v>
+        <v>38.47781342694759</v>
       </c>
       <c r="B174" t="n">
-        <v>9.066563045375215</v>
+        <v>3.001081778566324</v>
       </c>
       <c r="C174" t="n">
-        <v>0.3934013342317335</v>
+        <v>0.3838585431001125</v>
       </c>
       <c r="D174" t="n">
-        <v>0.06590368158921124</v>
+        <v>0.05112692082537421</v>
       </c>
       <c r="E174" t="n">
-        <v>0.5794697888946163</v>
+        <v>0.9847688234827698</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -4273,19 +4273,19 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>907.9650414485166</v>
+        <v>82.08925084477131</v>
       </c>
       <c r="B175" t="n">
-        <v>11.27083333333333</v>
+        <v>3.242214756309766</v>
       </c>
       <c r="C175" t="n">
-        <v>0.3942677472005783</v>
+        <v>0.4575779219035624</v>
       </c>
       <c r="D175" t="n">
-        <v>0.06477706350180983</v>
+        <v>0.04174112980416817</v>
       </c>
       <c r="E175" t="n">
-        <v>0.5933189080853193</v>
+        <v>0.9652281679705</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -4295,19 +4295,19 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>674.4727039703314</v>
+        <v>73.55902298087454</v>
       </c>
       <c r="B176" t="n">
-        <v>9.110138525305409</v>
+        <v>3.248834005252933</v>
       </c>
       <c r="C176" t="n">
-        <v>0.4511179136743078</v>
+        <v>0.440563667185476</v>
       </c>
       <c r="D176" t="n">
-        <v>0.1179694502169534</v>
+        <v>0.07489345848463776</v>
       </c>
       <c r="E176" t="n">
-        <v>0.5704652945666595</v>
+        <v>0.9537181972033182</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -4317,19 +4317,19 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1143.390625</v>
+        <v>85.82654543419092</v>
       </c>
       <c r="B177" t="n">
-        <v>13.34819480802792</v>
+        <v>3.545430692480461</v>
       </c>
       <c r="C177" t="n">
-        <v>0.3017645356885637</v>
+        <v>0.3913075323580726</v>
       </c>
       <c r="D177" t="n">
-        <v>0.05351371530421577</v>
+        <v>0.04165049460388113</v>
       </c>
       <c r="E177" t="n">
-        <v>0.5074175683365004</v>
+        <v>0.9567253913452828</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -4339,19 +4339,19 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1133.39872382199</v>
+        <v>83.48540896573265</v>
       </c>
       <c r="B178" t="n">
-        <v>14.15068717277487</v>
+        <v>3.667206086931834</v>
       </c>
       <c r="C178" t="n">
-        <v>0.3950406526194387</v>
+        <v>0.4106723053037241</v>
       </c>
       <c r="D178" t="n">
-        <v>0.09096296039670869</v>
+        <v>0.05983611014376022</v>
       </c>
       <c r="E178" t="n">
-        <v>0.5693051799835458</v>
+        <v>0.9717774751303299</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -4361,19 +4361,19 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1289.636889179756</v>
+        <v>88.76632799130908</v>
       </c>
       <c r="B179" t="n">
-        <v>16.02775959860384</v>
+        <v>3.849271805480733</v>
       </c>
       <c r="C179" t="n">
-        <v>0.2525702899545562</v>
+        <v>0.3948077376496482</v>
       </c>
       <c r="D179" t="n">
-        <v>0.03673047434847915</v>
+        <v>0.03619668149487579</v>
       </c>
       <c r="E179" t="n">
-        <v>0.4381922346586496</v>
+        <v>0.9651622650049814</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -4383,19 +4383,19 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1025.989419720768</v>
+        <v>74.15579242489407</v>
       </c>
       <c r="B180" t="n">
-        <v>12.55328315881327</v>
+        <v>3.5525415814809</v>
       </c>
       <c r="C180" t="n">
-        <v>0.4144230320129452</v>
+        <v>0.4139019988275243</v>
       </c>
       <c r="D180" t="n">
-        <v>0.05122697114950889</v>
+        <v>0.04003689812468652</v>
       </c>
       <c r="E180" t="n">
-        <v>0.5890918180945806</v>
+        <v>0.9785704799933501</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -4405,19 +4405,19 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1177.495664267016</v>
+        <v>72.65145937827729</v>
       </c>
       <c r="B181" t="n">
-        <v>15.29600239965096</v>
+        <v>3.706235449623109</v>
       </c>
       <c r="C181" t="n">
-        <v>0.2833953492481807</v>
+        <v>0.393555832777907</v>
       </c>
       <c r="D181" t="n">
-        <v>0.03220261136905571</v>
+        <v>0.03174496259169936</v>
       </c>
       <c r="E181" t="n">
-        <v>0.4843563819455486</v>
+        <v>0.9764582769101604</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -4427,19 +4427,19 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2025.169202661431</v>
+        <v>136.1793002388016</v>
       </c>
       <c r="B182" t="n">
-        <v>21.30767342931938</v>
+        <v>4.443008977271189</v>
       </c>
       <c r="C182" t="n">
-        <v>0.2826968662643046</v>
+        <v>0.3910632155216724</v>
       </c>
       <c r="D182" t="n">
-        <v>0.04469392753937527</v>
+        <v>0.03406159577920672</v>
       </c>
       <c r="E182" t="n">
-        <v>0.3867899979180905</v>
+        <v>0.9619224150999658</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -4449,19 +4449,19 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>239.8986965532287</v>
+        <v>65.81356349826204</v>
       </c>
       <c r="B183" t="n">
-        <v>4.23382962478185</v>
+        <v>3.053623118567489</v>
       </c>
       <c r="C183" t="n">
-        <v>0.5890118882445665</v>
+        <v>0.4489087170617957</v>
       </c>
       <c r="D183" t="n">
-        <v>0.07949532275855355</v>
+        <v>0.03982282304301374</v>
       </c>
       <c r="E183" t="n">
-        <v>0.7528781448090206</v>
+        <v>0.9803411284883042</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -4471,19 +4471,19 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>814.6082569808028</v>
+        <v>34.55805301556885</v>
       </c>
       <c r="B184" t="n">
-        <v>11.36125654450262</v>
+        <v>2.553040806110941</v>
       </c>
       <c r="C184" t="n">
-        <v>0.3860321153225634</v>
+        <v>0.4372394953279755</v>
       </c>
       <c r="D184" t="n">
-        <v>0.03620744697332676</v>
+        <v>0.03116503959513481</v>
       </c>
       <c r="E184" t="n">
-        <v>0.5865768357116893</v>
+        <v>0.9909593162302629</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -4493,19 +4493,19 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1299.500190881326</v>
+        <v>95.66460460851762</v>
       </c>
       <c r="B185" t="n">
-        <v>15.34034140488656</v>
+        <v>3.484696873083323</v>
       </c>
       <c r="C185" t="n">
-        <v>0.3293617400838551</v>
+        <v>0.4289705890360963</v>
       </c>
       <c r="D185" t="n">
-        <v>0.04691369408990559</v>
+        <v>0.04287764814265794</v>
       </c>
       <c r="E185" t="n">
-        <v>0.4814790666541774</v>
+        <v>0.9525468808723886</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -4515,19 +4515,19 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1874.356457242583</v>
+        <v>125.3027925353005</v>
       </c>
       <c r="B186" t="n">
-        <v>20.68166448516579</v>
+        <v>4.64931696096029</v>
       </c>
       <c r="C186" t="n">
-        <v>0.2518269223382739</v>
+        <v>0.3660304995086296</v>
       </c>
       <c r="D186" t="n">
-        <v>0.03595174908057951</v>
+        <v>0.03763241713387781</v>
       </c>
       <c r="E186" t="n">
-        <v>0.4342801050017004</v>
+        <v>0.9655013546402266</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -4537,19 +4537,19 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>976.8874890924953</v>
+        <v>94.39243504048962</v>
       </c>
       <c r="B187" t="n">
-        <v>11.83426047120419</v>
+        <v>3.735708429292226</v>
       </c>
       <c r="C187" t="n">
-        <v>0.4156001595326906</v>
+        <v>0.4112165293436484</v>
       </c>
       <c r="D187" t="n">
-        <v>0.04840175103759024</v>
+        <v>0.03825557155665434</v>
       </c>
       <c r="E187" t="n">
-        <v>0.5188885457147848</v>
+        <v>0.9659797160991976</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -4559,19 +4559,19 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>310.3214986910994</v>
+        <v>77.74919162482929</v>
       </c>
       <c r="B188" t="n">
-        <v>5.434282286212913</v>
+        <v>3.541367553426818</v>
       </c>
       <c r="C188" t="n">
-        <v>0.5181626353887793</v>
+        <v>0.4057989227168169</v>
       </c>
       <c r="D188" t="n">
-        <v>0.09701003784468928</v>
+        <v>0.04537859878886431</v>
       </c>
       <c r="E188" t="n">
-        <v>0.7190395573724738</v>
+        <v>0.9645302819385213</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -4581,19 +4581,19 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1357.130944589878</v>
+        <v>86.76218632099707</v>
       </c>
       <c r="B189" t="n">
-        <v>17.50812609075044</v>
+        <v>3.781987195107045</v>
       </c>
       <c r="C189" t="n">
-        <v>0.265611382666356</v>
+        <v>0.4139032351328206</v>
       </c>
       <c r="D189" t="n">
-        <v>0.03208230851810537</v>
+        <v>0.04259483525488465</v>
       </c>
       <c r="E189" t="n">
-        <v>0.3821395933995437</v>
+        <v>0.9736862888695428</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -4603,19 +4603,19 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1201.648287521815</v>
+        <v>63.06596919784104</v>
       </c>
       <c r="B190" t="n">
-        <v>14.65794066317627</v>
+        <v>3.234796203238415</v>
       </c>
       <c r="C190" t="n">
-        <v>0.3301904123537934</v>
+        <v>0.4196839571495962</v>
       </c>
       <c r="D190" t="n">
-        <v>0.0348564369600473</v>
+        <v>0.03619521523916013</v>
       </c>
       <c r="E190" t="n">
-        <v>0.5564140372322747</v>
+        <v>0.9780243463709259</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -4625,19 +4625,19 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1265.157368019197</v>
+        <v>64.07270507505314</v>
       </c>
       <c r="B191" t="n">
-        <v>14.58243346422339</v>
+        <v>3.147471951398082</v>
       </c>
       <c r="C191" t="n">
-        <v>0.3411874292656417</v>
+        <v>0.4132692196709056</v>
       </c>
       <c r="D191" t="n">
-        <v>0.05958704718229198</v>
+        <v>0.03948721995805504</v>
       </c>
       <c r="E191" t="n">
-        <v>0.454265698072541</v>
+        <v>0.966469376980045</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -4647,19 +4647,19 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1291.75539921466</v>
+        <v>66.07825794343562</v>
       </c>
       <c r="B192" t="n">
-        <v>15.62554537521815</v>
+        <v>3.355918893955373</v>
       </c>
       <c r="C192" t="n">
-        <v>0.3314959396829214</v>
+        <v>0.4149190377788548</v>
       </c>
       <c r="D192" t="n">
-        <v>0.05051660684448433</v>
+        <v>0.04743010472067868</v>
       </c>
       <c r="E192" t="n">
-        <v>0.5267450130242767</v>
+        <v>0.9784803081757909</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -4669,19 +4669,19 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>923.2312118237347</v>
+        <v>65.94611927643243</v>
       </c>
       <c r="B193" t="n">
-        <v>12.55009271378709</v>
+        <v>3.252949643898775</v>
       </c>
       <c r="C193" t="n">
-        <v>0.3870550113064646</v>
+        <v>0.4375444490695531</v>
       </c>
       <c r="D193" t="n">
-        <v>0.1092580288438003</v>
+        <v>0.07560965823274433</v>
       </c>
       <c r="E193" t="n">
-        <v>0.4098911038975988</v>
+        <v>0.9551447987725595</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -4691,19 +4691,19 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1246.477421465969</v>
+        <v>58.77263320620692</v>
       </c>
       <c r="B194" t="n">
-        <v>15.65652268760908</v>
+        <v>3.097067958444477</v>
       </c>
       <c r="C194" t="n">
-        <v>0.3195692208696418</v>
+        <v>0.4183151686453349</v>
       </c>
       <c r="D194" t="n">
-        <v>0.05891060330216548</v>
+        <v>0.04032668011729584</v>
       </c>
       <c r="E194" t="n">
-        <v>0.4977881204848859</v>
+        <v>0.9715241873103257</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -4713,19 +4713,19 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>450.468477312391</v>
+        <v>83.27925232812902</v>
       </c>
       <c r="B195" t="n">
-        <v>6.18706369982548</v>
+        <v>3.320553149539844</v>
       </c>
       <c r="C195" t="n">
-        <v>0.4871974137146081</v>
+        <v>0.4371382391618043</v>
       </c>
       <c r="D195" t="n">
-        <v>0.101122823803143</v>
+        <v>0.05009711070310439</v>
       </c>
       <c r="E195" t="n">
-        <v>0.5614435954408494</v>
+        <v>0.9430605434957962</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -4735,19 +4735,19 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1512.273532940663</v>
+        <v>148.6199737692683</v>
       </c>
       <c r="B196" t="n">
-        <v>16.62879035776614</v>
+        <v>4.648582043159196</v>
       </c>
       <c r="C196" t="n">
-        <v>0.3333014157437788</v>
+        <v>0.3928916201083912</v>
       </c>
       <c r="D196" t="n">
-        <v>0.06373961015481455</v>
+        <v>0.04862258757301353</v>
       </c>
       <c r="E196" t="n">
-        <v>0.5260966136037046</v>
+        <v>0.9415588564004552</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -4757,19 +4757,19 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1119.282013525306</v>
+        <v>57.61571827207456</v>
       </c>
       <c r="B197" t="n">
-        <v>12.82106239092496</v>
+        <v>2.880815654223363</v>
       </c>
       <c r="C197" t="n">
-        <v>0.4500334309327175</v>
+        <v>0.4376053976989294</v>
       </c>
       <c r="D197" t="n">
-        <v>0.0576613118203613</v>
+        <v>0.0436931316656619</v>
       </c>
       <c r="E197" t="n">
-        <v>0.3922194262281575</v>
+        <v>0.9792835126587783</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -4779,19 +4779,19 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1395.599530977312</v>
+        <v>116.3031313219732</v>
       </c>
       <c r="B198" t="n">
-        <v>18.22813045375218</v>
+        <v>4.34215897006951</v>
       </c>
       <c r="C198" t="n">
-        <v>0.301866483985175</v>
+        <v>0.4174146844300273</v>
       </c>
       <c r="D198" t="n">
-        <v>0.04065849063994315</v>
+        <v>0.03670216670475594</v>
       </c>
       <c r="E198" t="n">
-        <v>0.6115220005826472</v>
+        <v>0.9639298895643241</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -4801,19 +4801,19 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>884.3808355148342</v>
+        <v>66.33592177941637</v>
       </c>
       <c r="B199" t="n">
-        <v>13.76712478184991</v>
+        <v>3.834113604186654</v>
       </c>
       <c r="C199" t="n">
-        <v>0.3074785062674043</v>
+        <v>0.3695152347645526</v>
       </c>
       <c r="D199" t="n">
-        <v>0.05537134253420495</v>
+        <v>0.03810278893602341</v>
       </c>
       <c r="E199" t="n">
-        <v>0.7098854207709973</v>
+        <v>0.9773255239187469</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -4823,19 +4823,19 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>817.0205333769634</v>
+        <v>66.87426626200228</v>
       </c>
       <c r="B200" t="n">
-        <v>11.17002072425829</v>
+        <v>3.704369129467196</v>
       </c>
       <c r="C200" t="n">
-        <v>0.3348160669360751</v>
+        <v>0.3912163025820297</v>
       </c>
       <c r="D200" t="n">
-        <v>0.0537266009904952</v>
+        <v>0.04414795148554978</v>
       </c>
       <c r="E200" t="n">
-        <v>0.5373774562961293</v>
+        <v>0.9818088184109808</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -4845,19 +4845,19 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1402.726357984293</v>
+        <v>66.91949435210604</v>
       </c>
       <c r="B201" t="n">
-        <v>16.80532831588133</v>
+        <v>3.302965610419997</v>
       </c>
       <c r="C201" t="n">
-        <v>0.3338196354291594</v>
+        <v>0.4135806706125168</v>
       </c>
       <c r="D201" t="n">
-        <v>0.06566685370801811</v>
+        <v>0.0516621965360631</v>
       </c>
       <c r="E201" t="n">
-        <v>0.5236810920663502</v>
+        <v>0.9799175125428625</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -4867,19 +4867,19 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1512.863738001746</v>
+        <v>79.0974665082144</v>
       </c>
       <c r="B202" t="n">
-        <v>16.54774760034904</v>
+        <v>3.588769144971564</v>
       </c>
       <c r="C202" t="n">
-        <v>0.2717376276324791</v>
+        <v>0.4024431074752469</v>
       </c>
       <c r="D202" t="n">
-        <v>0.04517576206657482</v>
+        <v>0.0391103351810321</v>
       </c>
       <c r="E202" t="n">
-        <v>0.5239259985968536</v>
+        <v>0.9696449325629796</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -4889,19 +4889,19 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>657.3804264834206</v>
+        <v>31.60500465457548</v>
       </c>
       <c r="B203" t="n">
-        <v>13.10948407504363</v>
+        <v>3.125955939551018</v>
       </c>
       <c r="C203" t="n">
-        <v>0.2856388774952388</v>
+        <v>0.3560273488926198</v>
       </c>
       <c r="D203" t="n">
-        <v>0.05925558528703637</v>
+        <v>0.05739170984839155</v>
       </c>
       <c r="E203" t="n">
-        <v>0.5417976058413316</v>
+        <v>0.9668499071570432</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -4911,19 +4911,19 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1782.378953970332</v>
+        <v>99.8670479278039</v>
       </c>
       <c r="B204" t="n">
-        <v>22.26867910122164</v>
+        <v>5.593546960309229</v>
       </c>
       <c r="C204" t="n">
-        <v>0.1530865084205211</v>
+        <v>0.2272655232756859</v>
       </c>
       <c r="D204" t="n">
-        <v>0.03070144608723368</v>
+        <v>0.03836014622517236</v>
       </c>
       <c r="E204" t="n">
-        <v>0.5715062196259794</v>
+        <v>0.9637684541012245</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -4933,19 +4933,19 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>990.1569589877836</v>
+        <v>129.8744392224162</v>
       </c>
       <c r="B205" t="n">
-        <v>16.43455497382199</v>
+        <v>7.568803614342096</v>
       </c>
       <c r="C205" t="n">
-        <v>0.1349685442388845</v>
+        <v>0.1472775863974158</v>
       </c>
       <c r="D205" t="n">
-        <v>0.02535866480692021</v>
+        <v>0.02198965487533715</v>
       </c>
       <c r="E205" t="n">
-        <v>0.8030007532904151</v>
+        <v>0.9740451986950182</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -4955,19 +4955,19 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>826.5926047120421</v>
+        <v>81.69488218535047</v>
       </c>
       <c r="B206" t="n">
-        <v>12.22676701570681</v>
+        <v>5.491909020069324</v>
       </c>
       <c r="C206" t="n">
-        <v>0.2216971224440725</v>
+        <v>0.2089894307876632</v>
       </c>
       <c r="D206" t="n">
-        <v>0.03806183767256945</v>
+        <v>0.02700156877596998</v>
       </c>
       <c r="E206" t="n">
-        <v>0.7678531517466983</v>
+        <v>0.9744705664476592</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -4977,19 +4977,19 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>1374.151532504363</v>
+        <v>116.6777002652271</v>
       </c>
       <c r="B207" t="n">
-        <v>17.90927683246073</v>
+        <v>5.689431432024996</v>
       </c>
       <c r="C207" t="n">
-        <v>0.2134240775701193</v>
+        <v>0.2251041357857726</v>
       </c>
       <c r="D207" t="n">
-        <v>0.0444915886266358</v>
+        <v>0.03861665061501205</v>
       </c>
       <c r="E207" t="n">
-        <v>0.5484254353290634</v>
+        <v>0.9562064090003763</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -4999,19 +4999,19 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>961.7487456369984</v>
+        <v>78.27718737307205</v>
       </c>
       <c r="B208" t="n">
-        <v>13.49072862129145</v>
+        <v>5.260192225782344</v>
       </c>
       <c r="C208" t="n">
-        <v>0.2660588073716287</v>
+        <v>0.2234859877393135</v>
       </c>
       <c r="D208" t="n">
-        <v>0.05134643235575839</v>
+        <v>0.03261401290750369</v>
       </c>
       <c r="E208" t="n">
-        <v>0.6344459142634855</v>
+        <v>0.9663915269889185</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -5021,19 +5021,19 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>487.7753326788831</v>
+        <v>44.33192325723971</v>
       </c>
       <c r="B209" t="n">
-        <v>10.44521705933682</v>
+        <v>3.613377536668676</v>
       </c>
       <c r="C209" t="n">
-        <v>0.3359455833358125</v>
+        <v>0.3220013417432499</v>
       </c>
       <c r="D209" t="n">
-        <v>0.08263334015141884</v>
+        <v>0.05684394974017787</v>
       </c>
       <c r="E209" t="n">
-        <v>0.6436725135749395</v>
+        <v>0.961181031214259</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -5043,19 +5043,19 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>730.935154886562</v>
+        <v>48.93882784956467</v>
       </c>
       <c r="B210" t="n">
-        <v>12.7456369982548</v>
+        <v>3.838069789482329</v>
       </c>
       <c r="C210" t="n">
-        <v>0.2689871284358204</v>
+        <v>0.310321040788085</v>
       </c>
       <c r="D210" t="n">
-        <v>0.05417334506968296</v>
+        <v>0.05214542112969219</v>
       </c>
       <c r="E210" t="n">
-        <v>0.5685869334297353</v>
+        <v>0.9615253415117668</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -5065,19 +5065,19 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>651.0492201134381</v>
+        <v>41.69120692883394</v>
       </c>
       <c r="B211" t="n">
-        <v>12.8928065008726</v>
+        <v>3.249014866607108</v>
       </c>
       <c r="C211" t="n">
-        <v>0.2693404705312673</v>
+        <v>0.3633508799204257</v>
       </c>
       <c r="D211" t="n">
-        <v>0.05751072505896522</v>
+        <v>0.06397839345765229</v>
       </c>
       <c r="E211" t="n">
-        <v>0.6186155494135225</v>
+        <v>0.9656257291716159</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -5087,19 +5087,19 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>488.590259598604</v>
+        <v>40.95397276999113</v>
       </c>
       <c r="B212" t="n">
-        <v>10.2696335078534</v>
+        <v>3.382500549850895</v>
       </c>
       <c r="C212" t="n">
-        <v>0.3288692914747672</v>
+        <v>0.3322945254280855</v>
       </c>
       <c r="D212" t="n">
-        <v>0.07346647773250604</v>
+        <v>0.05665366314868982</v>
       </c>
       <c r="E212" t="n">
-        <v>0.686486048396527</v>
+        <v>0.9631225650141385</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -5109,19 +5109,19 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>423.3724367364747</v>
+        <v>40.89213323536616</v>
       </c>
       <c r="B213" t="n">
-        <v>8.949934554973822</v>
+        <v>3.226442678066484</v>
       </c>
       <c r="C213" t="n">
-        <v>0.3655971727953631</v>
+        <v>0.3554862892257465</v>
       </c>
       <c r="D213" t="n">
-        <v>0.08486168077762955</v>
+        <v>0.06201669497280296</v>
       </c>
       <c r="E213" t="n">
-        <v>0.7002917700764165</v>
+        <v>0.9602828770289147</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -5131,19 +5131,19 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>432.9904832024433</v>
+        <v>28.85988646215406</v>
       </c>
       <c r="B214" t="n">
-        <v>7.82714332460733</v>
+        <v>3.038845115038347</v>
       </c>
       <c r="C214" t="n">
-        <v>0.410360758853456</v>
+        <v>0.3376284651146497</v>
       </c>
       <c r="D214" t="n">
-        <v>0.08890837210957597</v>
+        <v>0.06037415957338432</v>
       </c>
       <c r="E214" t="n">
-        <v>0.6734567191812009</v>
+        <v>0.9803239227793873</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -5153,19 +5153,19 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>489.7330115619547</v>
+        <v>37.94861283882362</v>
       </c>
       <c r="B215" t="n">
-        <v>8.096067844677139</v>
+        <v>3.306708323734931</v>
       </c>
       <c r="C215" t="n">
-        <v>0.4384499856134338</v>
+        <v>0.339081589286264</v>
       </c>
       <c r="D215" t="n">
-        <v>0.09018651386242835</v>
+        <v>0.05491522606011764</v>
       </c>
       <c r="E215" t="n">
-        <v>0.6253791000048384</v>
+        <v>0.964761764723686</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -5175,19 +5175,19 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>461.4824661867364</v>
+        <v>31.73286002406305</v>
       </c>
       <c r="B216" t="n">
-        <v>11.11542866492147</v>
+        <v>3.310720034846276</v>
       </c>
       <c r="C216" t="n">
-        <v>0.2766885269811978</v>
+        <v>0.3261177861367109</v>
       </c>
       <c r="D216" t="n">
-        <v>0.06077490179169445</v>
+        <v>0.06600254245745908</v>
       </c>
       <c r="E216" t="n">
-        <v>0.5910902512657759</v>
+        <v>0.9618896422601257</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -5197,19 +5197,19 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>353.7456642670157</v>
+        <v>27.33311380533514</v>
       </c>
       <c r="B217" t="n">
-        <v>8.530840968586388</v>
+        <v>3.012054800057194</v>
       </c>
       <c r="C217" t="n">
-        <v>0.3706771812267983</v>
+        <v>0.3549252946588566</v>
       </c>
       <c r="D217" t="n">
-        <v>0.08082204969304221</v>
+        <v>0.06512293818993332</v>
       </c>
       <c r="E217" t="n">
-        <v>0.6814318306618051</v>
+        <v>0.9737660266294558</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -5219,19 +5219,19 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>552.5900141797556</v>
+        <v>46.36264182116614</v>
       </c>
       <c r="B218" t="n">
-        <v>11.06569044502618</v>
+        <v>3.889959686834758</v>
       </c>
       <c r="C218" t="n">
-        <v>0.3013651929771144</v>
+        <v>0.2907855176078636</v>
       </c>
       <c r="D218" t="n">
-        <v>0.06107154819121737</v>
+        <v>0.0479300318568812</v>
       </c>
       <c r="E218" t="n">
-        <v>0.5836510341447437</v>
+        <v>0.9535129435500603</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -5241,19 +5241,19 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>467.9561791012217</v>
+        <v>38.99325689713339</v>
       </c>
       <c r="B219" t="n">
-        <v>8.029586605584642</v>
+        <v>3.362134171211046</v>
       </c>
       <c r="C219" t="n">
-        <v>0.3983388683240802</v>
+        <v>0.3387723651752272</v>
       </c>
       <c r="D219" t="n">
-        <v>0.09545396550902435</v>
+        <v>0.06184040968993868</v>
       </c>
       <c r="E219" t="n">
-        <v>0.6159538251897355</v>
+        <v>0.9619458464711014</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -5263,19 +5263,19 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>628.8320789703316</v>
+        <v>25.9118079150821</v>
       </c>
       <c r="B220" t="n">
-        <v>10.50785340314136</v>
+        <v>2.749611370318606</v>
       </c>
       <c r="C220" t="n">
-        <v>0.4377140761979482</v>
+        <v>0.3843835868259916</v>
       </c>
       <c r="D220" t="n">
-        <v>0.1195396745850731</v>
+        <v>0.07622312014372136</v>
       </c>
       <c r="E220" t="n">
-        <v>0.5384547625051211</v>
+        <v>0.968627771744345</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -5285,19 +5285,19 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>455.1857820680628</v>
+        <v>34.93597301850852</v>
       </c>
       <c r="B221" t="n">
-        <v>8.650332678883071</v>
+        <v>3.244888907483702</v>
       </c>
       <c r="C221" t="n">
-        <v>0.4495611157924218</v>
+        <v>0.3435625248924393</v>
       </c>
       <c r="D221" t="n">
-        <v>0.1143878236993417</v>
+        <v>0.07063491018358931</v>
       </c>
       <c r="E221" t="n">
-        <v>0.5878966465419696</v>
+        <v>0.9612787822610476</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -5307,19 +5307,19 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>796.1804101221639</v>
+        <v>46.76215495035327</v>
       </c>
       <c r="B222" t="n">
-        <v>13.29815663176265</v>
+        <v>3.982231808016412</v>
       </c>
       <c r="C222" t="n">
-        <v>0.2919198244842362</v>
+        <v>0.2850931927089623</v>
       </c>
       <c r="D222" t="n">
-        <v>0.05854262573716928</v>
+        <v>0.04812462145159045</v>
       </c>
       <c r="E222" t="n">
-        <v>0.5599552346603363</v>
+        <v>0.9565554778176075</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -5329,19 +5329,19 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>395.8439681500873</v>
+        <v>41.48781934919725</v>
       </c>
       <c r="B223" t="n">
-        <v>8.044938917975568</v>
+        <v>3.370574772553449</v>
       </c>
       <c r="C223" t="n">
-        <v>0.3898619172693559</v>
+        <v>0.343743684633096</v>
       </c>
       <c r="D223" t="n">
-        <v>0.09595623567427194</v>
+        <v>0.06407623568195711</v>
       </c>
       <c r="E223" t="n">
-        <v>0.701486580968539</v>
+        <v>0.9607085079214923</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -5351,19 +5351,19 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>588.9609511343805</v>
+        <v>34.59417750580892</v>
       </c>
       <c r="B224" t="n">
-        <v>11.24530977312391</v>
+        <v>3.258387842060661</v>
       </c>
       <c r="C224" t="n">
-        <v>0.287805942900738</v>
+        <v>0.3339183815846655</v>
       </c>
       <c r="D224" t="n">
-        <v>0.06318006545728268</v>
+        <v>0.06065337207411272</v>
       </c>
       <c r="E224" t="n">
-        <v>0.5575652488116312</v>
+        <v>0.9614734458459928</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -5373,19 +5373,19 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>678.5786158376964</v>
+        <v>42.55341580737218</v>
       </c>
       <c r="B225" t="n">
-        <v>12.78373145724258</v>
+        <v>3.354847573329444</v>
       </c>
       <c r="C225" t="n">
-        <v>0.2930450714395731</v>
+        <v>0.3468437759560176</v>
       </c>
       <c r="D225" t="n">
-        <v>0.0644477968332091</v>
+        <v>0.06707646386743613</v>
       </c>
       <c r="E225" t="n">
-        <v>0.555223012041005</v>
+        <v>0.9608694935861712</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -5395,19 +5395,19 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>437.661867364747</v>
+        <v>39.02486011309584</v>
       </c>
       <c r="B226" t="n">
-        <v>9.208442408376964</v>
+        <v>3.240744938367849</v>
       </c>
       <c r="C226" t="n">
-        <v>0.3653318336447819</v>
+        <v>0.3468140940187542</v>
       </c>
       <c r="D226" t="n">
-        <v>0.08354941643362859</v>
+        <v>0.05983856368653145</v>
       </c>
       <c r="E226" t="n">
-        <v>0.6713774393932573</v>
+        <v>0.9629082015945325</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -5417,19 +5417,19 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>1233.843231893543</v>
+        <v>108.6552985842628</v>
       </c>
       <c r="B227" t="n">
-        <v>17.53640379581152</v>
+        <v>6.450578105175775</v>
       </c>
       <c r="C227" t="n">
-        <v>0.1644222113479048</v>
+        <v>0.1839754744522855</v>
       </c>
       <c r="D227" t="n">
-        <v>0.0309366706391821</v>
+        <v>0.03068840598580842</v>
       </c>
       <c r="E227" t="n">
-        <v>0.640205643135389</v>
+        <v>0.953449275809335</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -5439,19 +5439,19 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>558.0141797556719</v>
+        <v>37.7062845537668</v>
       </c>
       <c r="B228" t="n">
-        <v>9.37652705061082</v>
+        <v>3.435045006213953</v>
       </c>
       <c r="C228" t="n">
-        <v>0.401283414860592</v>
+        <v>0.3201436255925847</v>
       </c>
       <c r="D228" t="n">
-        <v>0.09256013865096134</v>
+        <v>0.06178135782885504</v>
       </c>
       <c r="E228" t="n">
-        <v>0.5403874700180017</v>
+        <v>0.9592444383800907</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -5461,19 +5461,19 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>374.9693226439791</v>
+        <v>93.12255737234655</v>
       </c>
       <c r="B229" t="n">
-        <v>7.495500654450262</v>
+        <v>5.400111986407167</v>
       </c>
       <c r="C229" t="n">
-        <v>0.3115826466417621</v>
+        <v>0.228688540486205</v>
       </c>
       <c r="D229" t="n">
-        <v>0.06062552374182886</v>
+        <v>0.03905700061899113</v>
       </c>
       <c r="E229" t="n">
-        <v>0.7546213115339366</v>
+        <v>0.9583477803108684</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -5483,19 +5483,19 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>597.3450589005236</v>
+        <v>44.91426946643718</v>
       </c>
       <c r="B230" t="n">
-        <v>11.91132198952879</v>
+        <v>3.563425725760184</v>
       </c>
       <c r="C230" t="n">
-        <v>0.2576429904965513</v>
+        <v>0.3269276920117945</v>
       </c>
       <c r="D230" t="n">
-        <v>0.04904602197076294</v>
+        <v>0.05334719656758705</v>
       </c>
       <c r="E230" t="n">
-        <v>0.6012038740979913</v>
+        <v>0.9602195773479307</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -5505,19 +5505,19 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>702.1476058027923</v>
+        <v>61.51513565026022</v>
       </c>
       <c r="B231" t="n">
-        <v>13.86319262652705</v>
+        <v>5.002100536653625</v>
       </c>
       <c r="C231" t="n">
-        <v>0.2458932657455006</v>
+        <v>0.2197889993717888</v>
       </c>
       <c r="D231" t="n">
-        <v>0.05066899738391028</v>
+        <v>0.04371503914665973</v>
       </c>
       <c r="E231" t="n">
-        <v>0.5771442321863269</v>
+        <v>0.9438568488153136</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -5527,19 +5527,19 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>295.8852530541012</v>
+        <v>26.81154760053311</v>
       </c>
       <c r="B232" t="n">
-        <v>7.476930628272252</v>
+        <v>2.848503938247958</v>
       </c>
       <c r="C232" t="n">
-        <v>0.4048463403251011</v>
+        <v>0.3665926607659265</v>
       </c>
       <c r="D232" t="n">
-        <v>0.08495821513069363</v>
+        <v>0.05994415268522634</v>
       </c>
       <c r="E232" t="n">
-        <v>0.7253480897008072</v>
+        <v>0.9688248907296358</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -5549,19 +5549,19 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>1358.404123036649</v>
+        <v>124.4672810368069</v>
       </c>
       <c r="B233" t="n">
-        <v>18.47687609075044</v>
+        <v>6.781300401871714</v>
       </c>
       <c r="C233" t="n">
-        <v>0.151005438191351</v>
+        <v>0.178192244821951</v>
       </c>
       <c r="D233" t="n">
-        <v>0.03120301172209141</v>
+        <v>0.02825537228283099</v>
       </c>
       <c r="E233" t="n">
-        <v>0.7472671519987359</v>
+        <v>0.973929652872479</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -5571,19 +5571,19 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>1724.496345986038</v>
+        <v>154.0228823397452</v>
       </c>
       <c r="B234" t="n">
-        <v>20.92244764397906</v>
+        <v>8.163512024272276</v>
       </c>
       <c r="C234" t="n">
-        <v>0.1462718875171478</v>
+        <v>0.1390229101748126</v>
       </c>
       <c r="D234" t="n">
-        <v>0.02572716188349839</v>
+        <v>0.02178055583309538</v>
       </c>
       <c r="E234" t="n">
-        <v>0.7036654803115129</v>
+        <v>0.9668179587307149</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -5593,19 +5593,19 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>934.4865565008724</v>
+        <v>123.3989201052102</v>
       </c>
       <c r="B235" t="n">
-        <v>16.69319917102967</v>
+        <v>7.411768023293822</v>
       </c>
       <c r="C235" t="n">
-        <v>0.1176418090048149</v>
+        <v>0.1525309611926481</v>
       </c>
       <c r="D235" t="n">
-        <v>0.02211736064961153</v>
+        <v>0.0239981528721407</v>
       </c>
       <c r="E235" t="n">
-        <v>0.7800397687609477</v>
+        <v>0.9678647703491735</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -5615,19 +5615,19 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>1200.923347513089</v>
+        <v>138.0465696843906</v>
       </c>
       <c r="B236" t="n">
-        <v>18.39542430191972</v>
+        <v>7.297917007122145</v>
       </c>
       <c r="C236" t="n">
-        <v>0.1239676841191094</v>
+        <v>0.1655023262772538</v>
       </c>
       <c r="D236" t="n">
-        <v>0.02471074139693825</v>
+        <v>0.02615136329456054</v>
       </c>
       <c r="E236" t="n">
-        <v>0.768472733888685</v>
+        <v>0.9698298903904641</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -5637,19 +5637,19 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>874.7503817626528</v>
+        <v>123.1260777760394</v>
       </c>
       <c r="B237" t="n">
-        <v>13.36278359511344</v>
+        <v>7.331392361065179</v>
       </c>
       <c r="C237" t="n">
-        <v>0.1769614624319866</v>
+        <v>0.1498797962822226</v>
       </c>
       <c r="D237" t="n">
-        <v>0.03277612046517883</v>
+        <v>0.02372814881225028</v>
       </c>
       <c r="E237" t="n">
-        <v>0.7866599701233931</v>
+        <v>0.9671250556772137</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -5659,19 +5659,19 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1490.320517015707</v>
+        <v>103.4534473574339</v>
       </c>
       <c r="B238" t="n">
-        <v>19.87592713787086</v>
+        <v>5.588377639312107</v>
       </c>
       <c r="C238" t="n">
-        <v>0.1893704389123752</v>
+        <v>0.220313249903522</v>
       </c>
       <c r="D238" t="n">
-        <v>0.03304370794374203</v>
+        <v>0.03512229494909899</v>
       </c>
       <c r="E238" t="n">
-        <v>0.544969333091457</v>
+        <v>0.9538343503240669</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -5681,19 +5681,19 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>1352.066835732985</v>
+        <v>143.3990767865797</v>
       </c>
       <c r="B239" t="n">
-        <v>18.40491383071554</v>
+        <v>7.536850889370855</v>
       </c>
       <c r="C239" t="n">
-        <v>0.1266517924890052</v>
+        <v>0.1504158852638573</v>
       </c>
       <c r="D239" t="n">
-        <v>0.02577125856746973</v>
+        <v>0.02546347546795382</v>
       </c>
       <c r="E239" t="n">
-        <v>0.6639284469335641</v>
+        <v>0.9567965432434354</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -5703,19 +5703,19 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>1350.813836169285</v>
+        <v>141.5229120112053</v>
       </c>
       <c r="B240" t="n">
-        <v>17.09388634380454</v>
+        <v>7.792047551161712</v>
       </c>
       <c r="C240" t="n">
-        <v>0.1553259205361803</v>
+        <v>0.1445600427601578</v>
       </c>
       <c r="D240" t="n">
-        <v>0.03025020756917611</v>
+        <v>0.02631885442439551</v>
       </c>
       <c r="E240" t="n">
-        <v>0.7416582237637704</v>
+        <v>0.9689597554814799</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -5725,19 +5725,19 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>567.1008671465969</v>
+        <v>116.5795581948263</v>
       </c>
       <c r="B241" t="n">
-        <v>10.73279341186737</v>
+        <v>6.689903104242727</v>
       </c>
       <c r="C241" t="n">
-        <v>0.1823355522479317</v>
+        <v>0.1735416509726451</v>
       </c>
       <c r="D241" t="n">
-        <v>0.03765491544840976</v>
+        <v>0.02892245312480992</v>
       </c>
       <c r="E241" t="n">
-        <v>0.8291762981792722</v>
+        <v>0.9673138500931069</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -5747,19 +5747,19 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>1270.83622382199</v>
+        <v>111.0354681491267</v>
       </c>
       <c r="B242" t="n">
-        <v>18.9058682373473</v>
+        <v>6.652535968315849</v>
       </c>
       <c r="C242" t="n">
-        <v>0.1383322263096277</v>
+        <v>0.1772858396020967</v>
       </c>
       <c r="D242" t="n">
-        <v>0.02844576185202788</v>
+        <v>0.03331783791538689</v>
       </c>
       <c r="E242" t="n">
-        <v>0.6457720493382418</v>
+        <v>0.9632291701252741</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -5769,19 +5769,19 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>957.3856620855152</v>
+        <v>79.58392672227593</v>
       </c>
       <c r="B243" t="n">
-        <v>14.15038721640489</v>
+        <v>5.700495481783285</v>
       </c>
       <c r="C243" t="n">
-        <v>0.1831692326672157</v>
+        <v>0.1952439346319581</v>
       </c>
       <c r="D243" t="n">
-        <v>0.03302530654923255</v>
+        <v>0.02793173053091585</v>
       </c>
       <c r="E243" t="n">
-        <v>0.7078597663036086</v>
+        <v>0.9715799157020908</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -5791,19 +5791,19 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>1752.067926483421</v>
+        <v>181.9969109866222</v>
       </c>
       <c r="B244" t="n">
-        <v>20.20737892670157</v>
+        <v>7.418843484148483</v>
       </c>
       <c r="C244" t="n">
-        <v>0.1293801074109134</v>
+        <v>0.1737938213489825</v>
       </c>
       <c r="D244" t="n">
-        <v>0.02710538838290584</v>
+        <v>0.02661320647597283</v>
       </c>
       <c r="E244" t="n">
-        <v>0.651114996217495</v>
+        <v>0.961226054589294</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -5813,19 +5813,19 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>1587.277077879581</v>
+        <v>130.7884525070161</v>
       </c>
       <c r="B245" t="n">
-        <v>21.3644469895288</v>
+        <v>6.94445998695523</v>
       </c>
       <c r="C245" t="n">
-        <v>0.1100407388415153</v>
+        <v>0.17449510061282</v>
       </c>
       <c r="D245" t="n">
-        <v>0.02192022544312175</v>
+        <v>0.02337598709034227</v>
       </c>
       <c r="E245" t="n">
-        <v>0.6581881132752389</v>
+        <v>0.9665304255475822</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -5835,19 +5835,19 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>1385.667021160559</v>
+        <v>127.6867373908977</v>
       </c>
       <c r="B246" t="n">
-        <v>17.9618510034904</v>
+        <v>6.376398027748182</v>
       </c>
       <c r="C246" t="n">
-        <v>0.1406050120095015</v>
+        <v>0.1975459391012072</v>
       </c>
       <c r="D246" t="n">
-        <v>0.02542448223287083</v>
+        <v>0.02721971193879714</v>
       </c>
       <c r="E246" t="n">
-        <v>0.6844277867611162</v>
+        <v>0.9704681556937685</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -5857,19 +5857,19 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>1826.111229275742</v>
+        <v>138.6347687178916</v>
       </c>
       <c r="B247" t="n">
-        <v>19.8386507417103</v>
+        <v>6.709374583830654</v>
       </c>
       <c r="C247" t="n">
-        <v>0.1488799371008847</v>
+        <v>0.1813602147214869</v>
       </c>
       <c r="D247" t="n">
-        <v>0.03174261222459933</v>
+        <v>0.02920547106129777</v>
       </c>
       <c r="E247" t="n">
-        <v>0.6515326082313697</v>
+        <v>0.9659135620774341</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -5879,19 +5879,19 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>1700.612619982548</v>
+        <v>117.4055506810386</v>
       </c>
       <c r="B248" t="n">
-        <v>18.80911867364747</v>
+        <v>6.127635300716928</v>
       </c>
       <c r="C248" t="n">
-        <v>0.1629866047284421</v>
+        <v>0.2064112931049625</v>
       </c>
       <c r="D248" t="n">
-        <v>0.03336941568958615</v>
+        <v>0.03544274908092796</v>
       </c>
       <c r="E248" t="n">
-        <v>0.6796228104612836</v>
+        <v>0.9724262120178135</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -5901,19 +5901,19 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>647.9586060209425</v>
+        <v>32.3327677864495</v>
       </c>
       <c r="B249" t="n">
-        <v>11.53615837696335</v>
+        <v>3.095468334467109</v>
       </c>
       <c r="C249" t="n">
-        <v>0.3679041035408</v>
+        <v>0.3640396443169381</v>
       </c>
       <c r="D249" t="n">
-        <v>0.08278622460861024</v>
+        <v>0.06146112443475249</v>
       </c>
       <c r="E249" t="n">
-        <v>0.5722040900532605</v>
+        <v>0.9670699861087606</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -5923,19 +5923,19 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>2637.167593804538</v>
+        <v>156.1803522168706</v>
       </c>
       <c r="B250" t="n">
-        <v>27.66344895287958</v>
+        <v>7.54172511391112</v>
       </c>
       <c r="C250" t="n">
-        <v>0.08807449832526078</v>
+        <v>0.1628601228392675</v>
       </c>
       <c r="D250" t="n">
-        <v>0.0193736630277607</v>
+        <v>0.02518861883173122</v>
       </c>
       <c r="E250" t="n">
-        <v>0.5854406366432683</v>
+        <v>0.965216973770904</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -5945,19 +5945,19 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>1146.548511125655</v>
+        <v>130.3545171968905</v>
       </c>
       <c r="B251" t="n">
-        <v>16.51677028795812</v>
+        <v>6.999296465363924</v>
       </c>
       <c r="C251" t="n">
-        <v>0.1407768529733659</v>
+        <v>0.1726391164843585</v>
       </c>
       <c r="D251" t="n">
-        <v>0.03070730068485715</v>
+        <v>0.03202747322682728</v>
       </c>
       <c r="E251" t="n">
-        <v>0.7086851610134073</v>
+        <v>0.9642717829934354</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -5967,19 +5967,19 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>277.5326407068063</v>
+        <v>33.59041332509251</v>
       </c>
       <c r="B252" t="n">
-        <v>8.202579624781849</v>
+        <v>3.883133760481696</v>
       </c>
       <c r="C252" t="n">
-        <v>0.2855609963271743</v>
+        <v>0.2701651157289177</v>
       </c>
       <c r="D252" t="n">
-        <v>0.05653885448297315</v>
+        <v>0.04752561658021509</v>
       </c>
       <c r="E252" t="n">
-        <v>0.7942302326571617</v>
+        <v>0.9756511507375577</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -5989,19 +5989,19 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>1411.712887216405</v>
+        <v>117.3688497278483</v>
       </c>
       <c r="B253" t="n">
-        <v>18.32621618673648</v>
+        <v>5.832173012678149</v>
       </c>
       <c r="C253" t="n">
-        <v>0.140465160797484</v>
+        <v>0.2137450600595976</v>
       </c>
       <c r="D253" t="n">
-        <v>0.02976225670937908</v>
+        <v>0.03928116047129313</v>
       </c>
       <c r="E253" t="n">
-        <v>0.6183299823397576</v>
+        <v>0.9633740660754108</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -6011,19 +6011,19 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>1322.833742364747</v>
+        <v>128.166212162134</v>
       </c>
       <c r="B254" t="n">
-        <v>17.20890597731239</v>
+        <v>6.880132753468304</v>
       </c>
       <c r="C254" t="n">
-        <v>0.1467130565079574</v>
+        <v>0.1719850601514323</v>
       </c>
       <c r="D254" t="n">
-        <v>0.03103389859648291</v>
+        <v>0.03203494779585876</v>
       </c>
       <c r="E254" t="n">
-        <v>0.6965004844407046</v>
+        <v>0.9604701004509639</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -6033,19 +6033,19 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>2088.120282504363</v>
+        <v>181.8829949489336</v>
       </c>
       <c r="B255" t="n">
-        <v>25.70377945026178</v>
+        <v>8.533593502360869</v>
       </c>
       <c r="C255" t="n">
-        <v>0.07750209376826485</v>
+        <v>0.1423248873452864</v>
       </c>
       <c r="D255" t="n">
-        <v>0.01803166274180177</v>
+        <v>0.0240699338908281</v>
       </c>
       <c r="E255" t="n">
-        <v>0.6567764550114115</v>
+        <v>0.9607364807241665</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -6055,19 +6055,19 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>1678.183218804538</v>
+        <v>125.1958827063466</v>
       </c>
       <c r="B256" t="n">
-        <v>20.51884271378709</v>
+        <v>6.716683768508148</v>
       </c>
       <c r="C256" t="n">
-        <v>0.1491615310172649</v>
+        <v>0.1816109559301298</v>
       </c>
       <c r="D256" t="n">
-        <v>0.0308362365749758</v>
+        <v>0.03208756661133144</v>
       </c>
       <c r="E256" t="n">
-        <v>0.6844990318444359</v>
+        <v>0.967993111811719</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -6077,19 +6077,19 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1365.048565663176</v>
+        <v>150.4267187641181</v>
       </c>
       <c r="B257" t="n">
-        <v>19.62551810645724</v>
+        <v>7.584255457917426</v>
       </c>
       <c r="C257" t="n">
-        <v>0.09431620486931924</v>
+        <v>0.1549505683782816</v>
       </c>
       <c r="D257" t="n">
-        <v>0.02288130973305603</v>
+        <v>0.02537690405963116</v>
       </c>
       <c r="E257" t="n">
-        <v>0.7222256034019561</v>
+        <v>0.9652774890486365</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -6099,19 +6099,19 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>466.8151178010472</v>
+        <v>36.39546434963023</v>
       </c>
       <c r="B258" t="n">
-        <v>10.33818717277487</v>
+        <v>3.434667836138617</v>
       </c>
       <c r="C258" t="n">
-        <v>0.2796129552955195</v>
+        <v>0.3195839709087001</v>
       </c>
       <c r="D258" t="n">
-        <v>0.05985814769504943</v>
+        <v>0.06463623945701433</v>
       </c>
       <c r="E258" t="n">
-        <v>0.6993109299060524</v>
+        <v>0.9711669402392057</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -6121,19 +6121,19 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>1262.048156631763</v>
+        <v>72.85036105429219</v>
       </c>
       <c r="B259" t="n">
-        <v>18.31010034904014</v>
+        <v>5.062983788825584</v>
       </c>
       <c r="C259" t="n">
-        <v>0.1805697712948856</v>
+        <v>0.232913061446989</v>
       </c>
       <c r="D259" t="n">
-        <v>0.03787536655581069</v>
+        <v>0.04339362183374873</v>
       </c>
       <c r="E259" t="n">
-        <v>0.6393012221117097</v>
+        <v>0.9707314928015425</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -6143,19 +6143,19 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>825.7887761780106</v>
+        <v>45.2597242035455</v>
       </c>
       <c r="B260" t="n">
-        <v>15.02645069808028</v>
+        <v>3.430352783098511</v>
       </c>
       <c r="C260" t="n">
-        <v>0.2316958768620529</v>
+        <v>0.3649743462709739</v>
       </c>
       <c r="D260" t="n">
-        <v>0.0518888408840938</v>
+        <v>0.07159068163909184</v>
       </c>
       <c r="E260" t="n">
-        <v>0.5918947808812186</v>
+        <v>0.967060641967904</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -6165,19 +6165,19 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>1324.617010253054</v>
+        <v>128.6710560186729</v>
       </c>
       <c r="B261" t="n">
-        <v>19.47723058464224</v>
+        <v>7.308496665555185</v>
       </c>
       <c r="C261" t="n">
-        <v>0.1068240329207443</v>
+        <v>0.1605851128713241</v>
       </c>
       <c r="D261" t="n">
-        <v>0.02326353754106153</v>
+        <v>0.02670392743033522</v>
       </c>
       <c r="E261" t="n">
-        <v>0.7529930937484034</v>
+        <v>0.9706359727229558</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -6187,19 +6187,19 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>1052.715995855148</v>
+        <v>114.8079387877959</v>
       </c>
       <c r="B262" t="n">
-        <v>15.34334096858639</v>
+        <v>6.712536210937672</v>
       </c>
       <c r="C262" t="n">
-        <v>0.1691946250130121</v>
+        <v>0.1747434610003219</v>
       </c>
       <c r="D262" t="n">
-        <v>0.02857661411451994</v>
+        <v>0.02908841038953416</v>
       </c>
       <c r="E262" t="n">
-        <v>0.7385030580567661</v>
+        <v>0.966009559612914</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -6209,19 +6209,19 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>1952.308436954625</v>
+        <v>131.7011612069684</v>
       </c>
       <c r="B263" t="n">
-        <v>23.83330606457243</v>
+        <v>6.468971159456531</v>
       </c>
       <c r="C263" t="n">
-        <v>0.1522862767024649</v>
+        <v>0.2063042278662488</v>
       </c>
       <c r="D263" t="n">
-        <v>0.02994822625519856</v>
+        <v>0.03149661613645407</v>
       </c>
       <c r="E263" t="n">
-        <v>0.4204382121528544</v>
+        <v>0.9612799741749439</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -6231,19 +6231,19 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>690.0794339005236</v>
+        <v>44.11110336778926</v>
       </c>
       <c r="B264" t="n">
-        <v>11.61112020069808</v>
+        <v>3.48674108036012</v>
       </c>
       <c r="C264" t="n">
-        <v>0.3284927660274867</v>
+        <v>0.3212694977235127</v>
       </c>
       <c r="D264" t="n">
-        <v>0.07172654012246776</v>
+        <v>0.05656671015281291</v>
       </c>
       <c r="E264" t="n">
-        <v>0.5791919700083616</v>
+        <v>0.9644569160445133</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -6253,19 +6253,19 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>516.864965095986</v>
+        <v>28.54184011337112</v>
       </c>
       <c r="B265" t="n">
-        <v>9.547720331588133</v>
+        <v>3.082786428809603</v>
       </c>
       <c r="C265" t="n">
-        <v>0.3693057749052278</v>
+        <v>0.3295615530363394</v>
       </c>
       <c r="D265" t="n">
-        <v>0.07379659777630644</v>
+        <v>0.05284207551707706</v>
       </c>
       <c r="E265" t="n">
-        <v>0.670365190464425</v>
+        <v>0.972179406051936</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -6275,19 +6275,19 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>1010.157286212914</v>
+        <v>85.31109839794179</v>
       </c>
       <c r="B266" t="n">
-        <v>14.98445680628272</v>
+        <v>6.089873752294029</v>
       </c>
       <c r="C266" t="n">
-        <v>0.2198761994326826</v>
+        <v>0.1827237225929655</v>
       </c>
       <c r="D266" t="n">
-        <v>0.03986036251357609</v>
+        <v>0.02675430270399596</v>
       </c>
       <c r="E266" t="n">
-        <v>0.7225339739633815</v>
+        <v>0.9729531363021817</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -6297,19 +6297,19 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>2637.166612129145</v>
+        <v>145.5303120780195</v>
       </c>
       <c r="B267" t="n">
-        <v>31.04090314136126</v>
+        <v>7.094556472451446</v>
       </c>
       <c r="C267" t="n">
-        <v>0.08167060166366487</v>
+        <v>0.1835700538946705</v>
       </c>
       <c r="D267" t="n">
-        <v>0.01598035474246077</v>
+        <v>0.02290801364249125</v>
       </c>
       <c r="E267" t="n">
-        <v>0.4670487895279977</v>
+        <v>0.9668753133127754</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -6319,19 +6319,19 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>2811.097567626527</v>
+        <v>147.7343722597316</v>
       </c>
       <c r="B268" t="n">
-        <v>31.10634816753927</v>
+        <v>7.157912144702843</v>
       </c>
       <c r="C268" t="n">
-        <v>0.09389282929802287</v>
+        <v>0.1845701194335491</v>
       </c>
       <c r="D268" t="n">
-        <v>0.02107477437694518</v>
+        <v>0.02906347189988406</v>
       </c>
       <c r="E268" t="n">
-        <v>0.4180009541498887</v>
+        <v>0.9641826786581473</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -6341,19 +6341,19 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>1562.175201788831</v>
+        <v>100.9827851431734</v>
       </c>
       <c r="B269" t="n">
-        <v>19.4738492582897</v>
+        <v>6.246549457721977</v>
       </c>
       <c r="C269" t="n">
-        <v>0.1742562693141144</v>
+        <v>0.185402401976756</v>
       </c>
       <c r="D269" t="n">
-        <v>0.0291291893432761</v>
+        <v>0.02478991483078851</v>
       </c>
       <c r="E269" t="n">
-        <v>0.6860534481774154</v>
+        <v>0.9704212144650641</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -6363,19 +6363,19 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>467.2742146596859</v>
+        <v>46.67050013167748</v>
       </c>
       <c r="B270" t="n">
-        <v>8.377017888307158</v>
+        <v>3.317854361989873</v>
       </c>
       <c r="C270" t="n">
-        <v>0.4481912337550204</v>
+        <v>0.3714685187809111</v>
       </c>
       <c r="D270" t="n">
-        <v>0.1010142585584965</v>
+        <v>0.05237835231104436</v>
       </c>
       <c r="E270" t="n">
-        <v>0.6390277231222558</v>
+        <v>0.9678208197957867</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -6385,19 +6385,19 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>927.0940772251309</v>
+        <v>118.8694623052275</v>
       </c>
       <c r="B271" t="n">
-        <v>14.32258944153578</v>
+        <v>5.9211406277765</v>
       </c>
       <c r="C271" t="n">
-        <v>0.2189745848688172</v>
+        <v>0.211867971762159</v>
       </c>
       <c r="D271" t="n">
-        <v>0.04125046148539667</v>
+        <v>0.03469396392217702</v>
       </c>
       <c r="E271" t="n">
-        <v>0.7177962403276281</v>
+        <v>0.9537777566862966</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -6407,19 +6407,19 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>3524.84854930192</v>
+        <v>195.7879313161624</v>
       </c>
       <c r="B272" t="n">
-        <v>35.97414921465969</v>
+        <v>7.780172376427441</v>
       </c>
       <c r="C272" t="n">
-        <v>0.08413133855514254</v>
+        <v>0.1777418969940583</v>
       </c>
       <c r="D272" t="n">
-        <v>0.01579962925742747</v>
+        <v>0.02364885315702022</v>
       </c>
       <c r="E272" t="n">
-        <v>0.4255206406479907</v>
+        <v>0.9629857846584177</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -6429,19 +6429,19 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>723.7790412303665</v>
+        <v>28.87496090689339</v>
       </c>
       <c r="B273" t="n">
-        <v>15.66614856020943</v>
+        <v>3.265810619321496</v>
       </c>
       <c r="C273" t="n">
-        <v>0.1772684530685167</v>
+        <v>0.3237508793667049</v>
       </c>
       <c r="D273" t="n">
-        <v>0.04326467139768051</v>
+        <v>0.05996428079116621</v>
       </c>
       <c r="E273" t="n">
-        <v>0.4351361897492971</v>
+        <v>0.9694724266696459</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -6451,19 +6451,19 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>2559.832815226876</v>
+        <v>217.8452591481203</v>
       </c>
       <c r="B274" t="n">
-        <v>29.81160013089005</v>
+        <v>8.895454697007585</v>
       </c>
       <c r="C274" t="n">
-        <v>0.09399676884046071</v>
+        <v>0.1506232816190232</v>
       </c>
       <c r="D274" t="n">
-        <v>0.02190375844285253</v>
+        <v>0.02534442725474417</v>
       </c>
       <c r="E274" t="n">
-        <v>0.4101835821545942</v>
+        <v>0.9480936113531853</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -6473,19 +6473,19 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>1311.852530541012</v>
+        <v>53.6685186296574</v>
       </c>
       <c r="B275" t="n">
-        <v>22.89081588132635</v>
+        <v>4.360870217554387</v>
       </c>
       <c r="C275" t="n">
-        <v>0.1121297128675388</v>
+        <v>0.2615011567929769</v>
       </c>
       <c r="D275" t="n">
-        <v>0.02627225889502741</v>
+        <v>0.04721631877859112</v>
       </c>
       <c r="E275" t="n">
-        <v>0.3732280705755674</v>
+        <v>0.9539560850129598</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -6495,19 +6495,19 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>642.9176483420594</v>
+        <v>43.63519506502168</v>
       </c>
       <c r="B276" t="n">
-        <v>12.24547338568935</v>
+        <v>3.978282260753585</v>
       </c>
       <c r="C276" t="n">
-        <v>0.2531622750824865</v>
+        <v>0.2699134326586346</v>
       </c>
       <c r="D276" t="n">
-        <v>0.04970270475404617</v>
+        <v>0.04904468779687637</v>
       </c>
       <c r="E276" t="n">
-        <v>0.5491900413621632</v>
+        <v>0.9568473138759077</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -6517,19 +6517,19 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>2298.340586823735</v>
+        <v>135.1327248249416</v>
       </c>
       <c r="B277" t="n">
-        <v>24.7652705061082</v>
+        <v>6.729230660220074</v>
       </c>
       <c r="C277" t="n">
-        <v>0.1564893733485422</v>
+        <v>0.1889542310131974</v>
       </c>
       <c r="D277" t="n">
-        <v>0.02667572023670079</v>
+        <v>0.02255204970733399</v>
       </c>
       <c r="E277" t="n">
-        <v>0.5866163454741835</v>
+        <v>0.9689995778043089</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -6539,19 +6539,19 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>1407.829461169284</v>
+        <v>173.5615169223074</v>
       </c>
       <c r="B278" t="n">
-        <v>17.0744982547993</v>
+        <v>7.892984078026009</v>
       </c>
       <c r="C278" t="n">
-        <v>0.1941610913832921</v>
+        <v>0.1614366921525584</v>
       </c>
       <c r="D278" t="n">
-        <v>0.03572410107269512</v>
+        <v>0.02041457671571808</v>
       </c>
       <c r="E278" t="n">
-        <v>0.6149081714421829</v>
+        <v>0.9550758867098296</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -6561,19 +6561,19 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>2187.818390052356</v>
+        <v>170.9902828442814</v>
       </c>
       <c r="B279" t="n">
-        <v>26.22393106457243</v>
+        <v>8.143620123374458</v>
       </c>
       <c r="C279" t="n">
-        <v>0.07653080334603783</v>
+        <v>0.1492953317622354</v>
       </c>
       <c r="D279" t="n">
-        <v>0.01861692648165668</v>
+        <v>0.0249244358792919</v>
       </c>
       <c r="E279" t="n">
-        <v>0.671660911612557</v>
+        <v>0.9636522579732686</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -6583,19 +6583,19 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>2099.490237783595</v>
+        <v>173.4163564521507</v>
       </c>
       <c r="B280" t="n">
-        <v>25.11905541012217</v>
+        <v>8.394832444148049</v>
       </c>
       <c r="C280" t="n">
-        <v>0.08811912175251402</v>
+        <v>0.1433737501910652</v>
       </c>
       <c r="D280" t="n">
-        <v>0.02027058700164783</v>
+        <v>0.02539975333961776</v>
       </c>
       <c r="E280" t="n">
-        <v>0.6324817012154602</v>
+        <v>0.9584159395189931</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -6605,19 +6605,19 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>2004.658158813264</v>
+        <v>144.5274371457153</v>
       </c>
       <c r="B281" t="n">
-        <v>25.11960078534031</v>
+        <v>7.689065021673891</v>
       </c>
       <c r="C281" t="n">
-        <v>0.08765131972122636</v>
+        <v>0.1544724857035332</v>
       </c>
       <c r="D281" t="n">
-        <v>0.02020190099142172</v>
+        <v>0.02602183382611547</v>
       </c>
       <c r="E281" t="n">
-        <v>0.6527462529455162</v>
+        <v>0.9671041581266605</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -6627,19 +6627,19 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>429.2587805410122</v>
+        <v>61.66097011654496</v>
       </c>
       <c r="B282" t="n">
-        <v>11.05535558464223</v>
+        <v>4.791074568699207</v>
       </c>
       <c r="C282" t="n">
-        <v>0.2340479132247408</v>
+        <v>0.2439989509753595</v>
       </c>
       <c r="D282" t="n">
-        <v>0.04767144092373668</v>
+        <v>0.04396747010793124</v>
       </c>
       <c r="E282" t="n">
-        <v>0.7773956983697676</v>
+        <v>0.9682652075278343</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -6649,19 +6649,19 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>1742.830606457243</v>
+        <v>165.0013662054018</v>
       </c>
       <c r="B283" t="n">
-        <v>22.72845767888307</v>
+        <v>8.0363527009003</v>
       </c>
       <c r="C283" t="n">
-        <v>0.09760669266140939</v>
+        <v>0.153676562260728</v>
       </c>
       <c r="D283" t="n">
-        <v>0.02008159571186467</v>
+        <v>0.02469546733565573</v>
       </c>
       <c r="E283" t="n">
-        <v>0.6765189697399041</v>
+        <v>0.9635265367176181</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -6671,19 +6671,19 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>232.9888743455497</v>
+        <v>30.98832969323108</v>
       </c>
       <c r="B284" t="n">
-        <v>5.865783158813264</v>
+        <v>3.63102675891964</v>
       </c>
       <c r="C284" t="n">
-        <v>0.3936593697058855</v>
+        <v>0.2782514754378027</v>
       </c>
       <c r="D284" t="n">
-        <v>0.08105409031815725</v>
+        <v>0.04905278766267338</v>
       </c>
       <c r="E284" t="n">
-        <v>0.7297571912992176</v>
+        <v>0.9600949983858557</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -6693,19 +6693,19 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>827.7943390052357</v>
+        <v>72.31535575560557</v>
       </c>
       <c r="B285" t="n">
-        <v>14.45855148342059</v>
+        <v>4.414245144619488</v>
       </c>
       <c r="C285" t="n">
-        <v>0.2111553039851985</v>
+        <v>0.279803393444859</v>
       </c>
       <c r="D285" t="n">
-        <v>0.04882828573313853</v>
+        <v>0.05474245343968865</v>
       </c>
       <c r="E285" t="n">
-        <v>0.2456951788954138</v>
+        <v>0.9066031290095941</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -6715,19 +6715,19 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>974.2219404450262</v>
+        <v>42.0149222240747</v>
       </c>
       <c r="B286" t="n">
-        <v>16.88538939790576</v>
+        <v>4.012725325108369</v>
       </c>
       <c r="C286" t="n">
-        <v>0.1937829054403771</v>
+        <v>0.2665920800956796</v>
       </c>
       <c r="D286" t="n">
-        <v>0.03846741288035269</v>
+        <v>0.04661809155023493</v>
       </c>
       <c r="E286" t="n">
-        <v>0.5515461303712206</v>
+        <v>0.9609965743800337</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -6737,19 +6737,19 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>1102.768951788831</v>
+        <v>66.93141931396912</v>
       </c>
       <c r="B287" t="n">
-        <v>18.81438154450262</v>
+        <v>4.582038937668155</v>
       </c>
       <c r="C287" t="n">
-        <v>0.1693593643903085</v>
+        <v>0.2690012980894311</v>
       </c>
       <c r="D287" t="n">
-        <v>0.03632211747883748</v>
+        <v>0.04870502303325352</v>
       </c>
       <c r="E287" t="n">
-        <v>0.4682699256022545</v>
+        <v>0.9544497145644576</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -6759,19 +6759,19 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>622.4343368237348</v>
+        <v>51.16042183517672</v>
       </c>
       <c r="B288" t="n">
-        <v>9.082569808027925</v>
+        <v>3.976107865672107</v>
       </c>
       <c r="C288" t="n">
-        <v>0.3670009060202039</v>
+        <v>0.2901288784082713</v>
       </c>
       <c r="D288" t="n">
-        <v>0.07018730625672444</v>
+        <v>0.04882212949174813</v>
       </c>
       <c r="E288" t="n">
-        <v>0.5486402520123796</v>
+        <v>0.9493632611776219</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -6781,19 +6781,19 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>656.2006708115184</v>
+        <v>49.30196638423929</v>
       </c>
       <c r="B289" t="n">
-        <v>10.02691426701571</v>
+        <v>3.907826486711955</v>
       </c>
       <c r="C289" t="n">
-        <v>0.3469984194897017</v>
+        <v>0.2883246416296568</v>
       </c>
       <c r="D289" t="n">
-        <v>0.0636668603879295</v>
+        <v>0.04642858981341201</v>
       </c>
       <c r="E289" t="n">
-        <v>0.5736877890900445</v>
+        <v>0.9511052505914253</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -6803,19 +6803,19 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>730.4243019197207</v>
+        <v>62.06311257519276</v>
       </c>
       <c r="B290" t="n">
-        <v>11.34315008726004</v>
+        <v>4.97513464240402</v>
       </c>
       <c r="C290" t="n">
-        <v>0.3254516542522358</v>
+        <v>0.2216922675944591</v>
       </c>
       <c r="D290" t="n">
-        <v>0.06647040005085449</v>
+        <v>0.04096807961186218</v>
       </c>
       <c r="E290" t="n">
-        <v>0.5707755702591264</v>
+        <v>0.9439810849728871</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -6825,19 +6825,19 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>1085.92457460733</v>
+        <v>117.2227343504413</v>
       </c>
       <c r="B291" t="n">
-        <v>15.58169720767888</v>
+        <v>7.277793091903163</v>
       </c>
       <c r="C291" t="n">
-        <v>0.2165569951505766</v>
+        <v>0.148918966244281</v>
       </c>
       <c r="D291" t="n">
-        <v>0.04217021963601819</v>
+        <v>0.02562206974070172</v>
       </c>
       <c r="E291" t="n">
-        <v>0.6134127601465111</v>
+        <v>0.9470658692328445</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -6847,19 +6847,19 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>616.2023887434556</v>
+        <v>70.16991796025752</v>
       </c>
       <c r="B292" t="n">
-        <v>9.841295811518327</v>
+        <v>4.795868814687213</v>
       </c>
       <c r="C292" t="n">
-        <v>0.313919334198853</v>
+        <v>0.242422927518271</v>
       </c>
       <c r="D292" t="n">
-        <v>0.06414020366538495</v>
+        <v>0.03919522343518568</v>
       </c>
       <c r="E292" t="n">
-        <v>0.5655519228757974</v>
+        <v>0.9414660947446676</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -6869,19 +6869,19 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>859.4599694589875</v>
+        <v>31.24715471951377</v>
       </c>
       <c r="B293" t="n">
-        <v>13.15003272251309</v>
+        <v>3.043528735178398</v>
       </c>
       <c r="C293" t="n">
-        <v>0.3147315416893269</v>
+        <v>0.375666753536801</v>
       </c>
       <c r="D293" t="n">
-        <v>0.07252686902330252</v>
+        <v>0.07098982630089999</v>
       </c>
       <c r="E293" t="n">
-        <v>0.6234921521219383</v>
+        <v>0.9723451276027358</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -6891,19 +6891,19 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>448.4072589441535</v>
+        <v>38.79058146168594</v>
       </c>
       <c r="B294" t="n">
-        <v>9.525932591623036</v>
+        <v>3.810247491441361</v>
       </c>
       <c r="C294" t="n">
-        <v>0.3129299590900202</v>
+        <v>0.2783568287795611</v>
       </c>
       <c r="D294" t="n">
-        <v>0.07071309452245761</v>
+        <v>0.05069468033292238</v>
       </c>
       <c r="E294" t="n">
-        <v>0.6041284630016903</v>
+        <v>0.9494330929956454</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -6913,19 +6913,19 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>630.9580333769633</v>
+        <v>47.23431243475358</v>
       </c>
       <c r="B295" t="n">
-        <v>9.870827879581153</v>
+        <v>3.781644492674706</v>
       </c>
       <c r="C295" t="n">
-        <v>0.3458735126349899</v>
+        <v>0.2959609133922753</v>
       </c>
       <c r="D295" t="n">
-        <v>0.07210457250137671</v>
+        <v>0.04611624746735601</v>
       </c>
       <c r="E295" t="n">
-        <v>0.5313192665846604</v>
+        <v>0.9514017869233312</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -6935,19 +6935,19 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>1068.186818280977</v>
+        <v>110.3120012442734</v>
       </c>
       <c r="B296" t="n">
-        <v>13.36068390052356</v>
+        <v>6.653332916444487</v>
       </c>
       <c r="C296" t="n">
-        <v>0.2099603785753857</v>
+        <v>0.1709204317586538</v>
       </c>
       <c r="D296" t="n">
-        <v>0.03818547223651245</v>
+        <v>0.02743394538507883</v>
       </c>
       <c r="E296" t="n">
-        <v>0.4670252030754692</v>
+        <v>0.9471545133099726</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -6957,19 +6957,19 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>173.53125</v>
+        <v>34.97688338454626</v>
       </c>
       <c r="B297" t="n">
-        <v>5.476930628272251</v>
+        <v>4.044095222752152</v>
       </c>
       <c r="C297" t="n">
-        <v>0.396422912823504</v>
+        <v>0.2546068623916964</v>
       </c>
       <c r="D297" t="n">
-        <v>0.08343772532598849</v>
+        <v>0.04173423704657334</v>
       </c>
       <c r="E297" t="n">
-        <v>0.7923805147205069</v>
+        <v>0.9601701130602992</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -6979,19 +6979,19 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>1362.716214005236</v>
+        <v>156.1303057475615</v>
       </c>
       <c r="B298" t="n">
-        <v>20.66102203315882</v>
+        <v>8.447054573746806</v>
       </c>
       <c r="C298" t="n">
-        <v>0.107810431578749</v>
+        <v>0.1366183861103123</v>
       </c>
       <c r="D298" t="n">
-        <v>0.02127429141115073</v>
+        <v>0.02252837125772024</v>
       </c>
       <c r="E298" t="n">
-        <v>0.7073311447238321</v>
+        <v>0.9607105547083258</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -7001,19 +7001,19 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>1489.229330279232</v>
+        <v>140.1259601990631</v>
       </c>
       <c r="B299" t="n">
-        <v>18.49574607329843</v>
+        <v>7.455190062470923</v>
       </c>
       <c r="C299" t="n">
-        <v>0.1597817791469132</v>
+        <v>0.1577543878939069</v>
       </c>
       <c r="D299" t="n">
-        <v>0.02941518917620188</v>
+        <v>0.02318270744130204</v>
       </c>
       <c r="E299" t="n">
-        <v>0.7101957213904602</v>
+        <v>0.970126880175508</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -7023,19 +7023,19 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>1883.882607984294</v>
+        <v>145.574695844073</v>
       </c>
       <c r="B300" t="n">
-        <v>23.97532177137871</v>
+        <v>7.897930921813613</v>
       </c>
       <c r="C300" t="n">
-        <v>0.09469741246185105</v>
+        <v>0.1495000655103923</v>
       </c>
       <c r="D300" t="n">
-        <v>0.01989138824776072</v>
+        <v>0.02131680824775951</v>
       </c>
       <c r="E300" t="n">
-        <v>0.6726047620381543</v>
+        <v>0.9676563579271312</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -7045,19 +7045,19 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>1264.730639179756</v>
+        <v>82.47250079761803</v>
       </c>
       <c r="B301" t="n">
-        <v>16.12020069808028</v>
+        <v>5.579669558641514</v>
       </c>
       <c r="C301" t="n">
-        <v>0.1886246309243806</v>
+        <v>0.2024178286076736</v>
       </c>
       <c r="D301" t="n">
-        <v>0.03483092960055577</v>
+        <v>0.0289660364072405</v>
       </c>
       <c r="E301" t="n">
-        <v>0.6834196828271037</v>
+        <v>0.9730100219121645</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -7067,19 +7067,19 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>956.0585187609075</v>
+        <v>69.90695649981839</v>
       </c>
       <c r="B302" t="n">
-        <v>14.26210732984293</v>
+        <v>5.079934663215344</v>
       </c>
       <c r="C302" t="n">
-        <v>0.2047063733264227</v>
+        <v>0.2277574832505673</v>
       </c>
       <c r="D302" t="n">
-        <v>0.03391506027315968</v>
+        <v>0.03109099122216429</v>
       </c>
       <c r="E302" t="n">
-        <v>0.7019544123555211</v>
+        <v>0.9775932649511225</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -7089,19 +7089,19 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>932.3150087260035</v>
+        <v>65.67659380291302</v>
       </c>
       <c r="B303" t="n">
-        <v>14.01532504363002</v>
+        <v>4.764165847617947</v>
       </c>
       <c r="C303" t="n">
-        <v>0.2079147919405607</v>
+        <v>0.2407929641322901</v>
       </c>
       <c r="D303" t="n">
-        <v>0.03412719472501373</v>
+        <v>0.03229593623856727</v>
       </c>
       <c r="E303" t="n">
-        <v>0.7274838639592688</v>
+        <v>0.9744057623865438</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>

--- a/features.xlsx
+++ b/features.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F303"/>
+  <dimension ref="A1:F310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4977,19 +4977,19 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>116.6777002652271</v>
+        <v>199.0253049753606</v>
       </c>
       <c r="B207" t="n">
-        <v>5.689431432024996</v>
+        <v>6.063696449284953</v>
       </c>
       <c r="C207" t="n">
-        <v>0.2251041357857726</v>
+        <v>0.4670732810997741</v>
       </c>
       <c r="D207" t="n">
-        <v>0.03861665061501205</v>
+        <v>0.04854907062004235</v>
       </c>
       <c r="E207" t="n">
-        <v>0.9562064090003763</v>
+        <v>0.9549064254532585</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -4999,19 +4999,19 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>78.27718737307205</v>
+        <v>186.439803723481</v>
       </c>
       <c r="B208" t="n">
-        <v>5.260192225782344</v>
+        <v>5.820167930400288</v>
       </c>
       <c r="C208" t="n">
-        <v>0.2234859877393135</v>
+        <v>0.4549528590957792</v>
       </c>
       <c r="D208" t="n">
-        <v>0.03261401290750369</v>
+        <v>0.04537748668853531</v>
       </c>
       <c r="E208" t="n">
-        <v>0.9663915269889185</v>
+        <v>0.9565117427960597</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -5021,19 +5021,19 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>44.33192325723971</v>
+        <v>36.96548113010842</v>
       </c>
       <c r="B209" t="n">
-        <v>3.613377536668676</v>
+        <v>1.855704232693912</v>
       </c>
       <c r="C209" t="n">
-        <v>0.3220013417432499</v>
+        <v>0.7188976339402494</v>
       </c>
       <c r="D209" t="n">
-        <v>0.05684394974017787</v>
+        <v>0.09374623010139183</v>
       </c>
       <c r="E209" t="n">
-        <v>0.961181031214259</v>
+        <v>0.9614425538778568</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -5043,19 +5043,19 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>48.93882784956467</v>
+        <v>53.59549364053377</v>
       </c>
       <c r="B210" t="n">
-        <v>3.838069789482329</v>
+        <v>2.084122706422018</v>
       </c>
       <c r="C210" t="n">
-        <v>0.310321040788085</v>
+        <v>0.7574897977789338</v>
       </c>
       <c r="D210" t="n">
-        <v>0.05214542112969219</v>
+        <v>0.1135564209567866</v>
       </c>
       <c r="E210" t="n">
-        <v>0.9615253415117668</v>
+        <v>0.9411287621515331</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -5065,19 +5065,19 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>41.69120692883394</v>
+        <v>61.84905963302754</v>
       </c>
       <c r="B211" t="n">
-        <v>3.249014866607108</v>
+        <v>2.594175354462052</v>
       </c>
       <c r="C211" t="n">
-        <v>0.3633508799204257</v>
+        <v>0.7179686980445381</v>
       </c>
       <c r="D211" t="n">
-        <v>0.06397839345765229</v>
+        <v>0.09747462462326068</v>
       </c>
       <c r="E211" t="n">
-        <v>0.9656257291716159</v>
+        <v>0.9429553039380103</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -5087,19 +5087,19 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>40.95397276999113</v>
+        <v>58.30887249791493</v>
       </c>
       <c r="B212" t="n">
-        <v>3.382500549850895</v>
+        <v>2.403619161801501</v>
       </c>
       <c r="C212" t="n">
-        <v>0.3322945254280855</v>
+        <v>0.7398354865362771</v>
       </c>
       <c r="D212" t="n">
-        <v>0.05665366314868982</v>
+        <v>0.1065084346645854</v>
       </c>
       <c r="E212" t="n">
-        <v>0.9631225650141385</v>
+        <v>0.9426899454370405</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -5109,19 +5109,19 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>40.89213323536616</v>
+        <v>81.69593150542119</v>
       </c>
       <c r="B213" t="n">
-        <v>3.226442678066484</v>
+        <v>2.97728992910759</v>
       </c>
       <c r="C213" t="n">
-        <v>0.3554862892257465</v>
+        <v>0.6992399176508984</v>
       </c>
       <c r="D213" t="n">
-        <v>0.06201669497280296</v>
+        <v>0.1037845049693259</v>
       </c>
       <c r="E213" t="n">
-        <v>0.9602828770289147</v>
+        <v>0.9297695210717163</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -5131,19 +5131,19 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>28.85988646215406</v>
+        <v>116.6777002652271</v>
       </c>
       <c r="B214" t="n">
-        <v>3.038845115038347</v>
+        <v>5.689431432024996</v>
       </c>
       <c r="C214" t="n">
-        <v>0.3376284651146497</v>
+        <v>0.2251041357857726</v>
       </c>
       <c r="D214" t="n">
-        <v>0.06037415957338432</v>
+        <v>0.03861665061501205</v>
       </c>
       <c r="E214" t="n">
-        <v>0.9803239227793873</v>
+        <v>0.9562064090003763</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -5153,19 +5153,19 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>37.94861283882362</v>
+        <v>78.27718737307205</v>
       </c>
       <c r="B215" t="n">
-        <v>3.306708323734931</v>
+        <v>5.260192225782344</v>
       </c>
       <c r="C215" t="n">
-        <v>0.339081589286264</v>
+        <v>0.2234859877393135</v>
       </c>
       <c r="D215" t="n">
-        <v>0.05491522606011764</v>
+        <v>0.03261401290750369</v>
       </c>
       <c r="E215" t="n">
-        <v>0.964761764723686</v>
+        <v>0.9663915269889185</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -5175,19 +5175,19 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>31.73286002406305</v>
+        <v>44.33192325723971</v>
       </c>
       <c r="B216" t="n">
-        <v>3.310720034846276</v>
+        <v>3.613377536668676</v>
       </c>
       <c r="C216" t="n">
-        <v>0.3261177861367109</v>
+        <v>0.3220013417432499</v>
       </c>
       <c r="D216" t="n">
-        <v>0.06600254245745908</v>
+        <v>0.05684394974017787</v>
       </c>
       <c r="E216" t="n">
-        <v>0.9618896422601257</v>
+        <v>0.961181031214259</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -5197,19 +5197,19 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>27.33311380533514</v>
+        <v>48.93882784956467</v>
       </c>
       <c r="B217" t="n">
-        <v>3.012054800057194</v>
+        <v>3.838069789482329</v>
       </c>
       <c r="C217" t="n">
-        <v>0.3549252946588566</v>
+        <v>0.310321040788085</v>
       </c>
       <c r="D217" t="n">
-        <v>0.06512293818993332</v>
+        <v>0.05214542112969219</v>
       </c>
       <c r="E217" t="n">
-        <v>0.9737660266294558</v>
+        <v>0.9615253415117668</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -5219,19 +5219,19 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>46.36264182116614</v>
+        <v>41.69120692883394</v>
       </c>
       <c r="B218" t="n">
-        <v>3.889959686834758</v>
+        <v>3.249014866607108</v>
       </c>
       <c r="C218" t="n">
-        <v>0.2907855176078636</v>
+        <v>0.3633508799204257</v>
       </c>
       <c r="D218" t="n">
-        <v>0.0479300318568812</v>
+        <v>0.06397839345765229</v>
       </c>
       <c r="E218" t="n">
-        <v>0.9535129435500603</v>
+        <v>0.9656257291716159</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -5241,19 +5241,19 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>38.99325689713339</v>
+        <v>40.95397276999113</v>
       </c>
       <c r="B219" t="n">
-        <v>3.362134171211046</v>
+        <v>3.382500549850895</v>
       </c>
       <c r="C219" t="n">
-        <v>0.3387723651752272</v>
+        <v>0.3322945254280855</v>
       </c>
       <c r="D219" t="n">
-        <v>0.06184040968993868</v>
+        <v>0.05665366314868982</v>
       </c>
       <c r="E219" t="n">
-        <v>0.9619458464711014</v>
+        <v>0.9631225650141385</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -5263,19 +5263,19 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>25.9118079150821</v>
+        <v>40.89213323536616</v>
       </c>
       <c r="B220" t="n">
-        <v>2.749611370318606</v>
+        <v>3.226442678066484</v>
       </c>
       <c r="C220" t="n">
-        <v>0.3843835868259916</v>
+        <v>0.3554862892257465</v>
       </c>
       <c r="D220" t="n">
-        <v>0.07622312014372136</v>
+        <v>0.06201669497280296</v>
       </c>
       <c r="E220" t="n">
-        <v>0.968627771744345</v>
+        <v>0.9602828770289147</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -5285,19 +5285,19 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>34.93597301850852</v>
+        <v>28.85988646215406</v>
       </c>
       <c r="B221" t="n">
-        <v>3.244888907483702</v>
+        <v>3.038845115038347</v>
       </c>
       <c r="C221" t="n">
-        <v>0.3435625248924393</v>
+        <v>0.3376284651146497</v>
       </c>
       <c r="D221" t="n">
-        <v>0.07063491018358931</v>
+        <v>0.06037415957338432</v>
       </c>
       <c r="E221" t="n">
-        <v>0.9612787822610476</v>
+        <v>0.9803239227793873</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -5307,19 +5307,19 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>46.76215495035327</v>
+        <v>37.94861283882362</v>
       </c>
       <c r="B222" t="n">
-        <v>3.982231808016412</v>
+        <v>3.306708323734931</v>
       </c>
       <c r="C222" t="n">
-        <v>0.2850931927089623</v>
+        <v>0.339081589286264</v>
       </c>
       <c r="D222" t="n">
-        <v>0.04812462145159045</v>
+        <v>0.05491522606011764</v>
       </c>
       <c r="E222" t="n">
-        <v>0.9565554778176075</v>
+        <v>0.964761764723686</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -5329,19 +5329,19 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>41.48781934919725</v>
+        <v>31.73286002406305</v>
       </c>
       <c r="B223" t="n">
-        <v>3.370574772553449</v>
+        <v>3.310720034846276</v>
       </c>
       <c r="C223" t="n">
-        <v>0.343743684633096</v>
+        <v>0.3261177861367109</v>
       </c>
       <c r="D223" t="n">
-        <v>0.06407623568195711</v>
+        <v>0.06600254245745908</v>
       </c>
       <c r="E223" t="n">
-        <v>0.9607085079214923</v>
+        <v>0.9618896422601257</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -5351,19 +5351,19 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>34.59417750580892</v>
+        <v>27.33311380533514</v>
       </c>
       <c r="B224" t="n">
-        <v>3.258387842060661</v>
+        <v>3.012054800057194</v>
       </c>
       <c r="C224" t="n">
-        <v>0.3339183815846655</v>
+        <v>0.3549252946588566</v>
       </c>
       <c r="D224" t="n">
-        <v>0.06065337207411272</v>
+        <v>0.06512293818993332</v>
       </c>
       <c r="E224" t="n">
-        <v>0.9614734458459928</v>
+        <v>0.9737660266294558</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -5373,19 +5373,19 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>42.55341580737218</v>
+        <v>46.36264182116614</v>
       </c>
       <c r="B225" t="n">
-        <v>3.354847573329444</v>
+        <v>3.889959686834758</v>
       </c>
       <c r="C225" t="n">
-        <v>0.3468437759560176</v>
+        <v>0.2907855176078636</v>
       </c>
       <c r="D225" t="n">
-        <v>0.06707646386743613</v>
+        <v>0.0479300318568812</v>
       </c>
       <c r="E225" t="n">
-        <v>0.9608694935861712</v>
+        <v>0.9535129435500603</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -5395,19 +5395,19 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>39.02486011309584</v>
+        <v>38.99325689713339</v>
       </c>
       <c r="B226" t="n">
-        <v>3.240744938367849</v>
+        <v>3.362134171211046</v>
       </c>
       <c r="C226" t="n">
-        <v>0.3468140940187542</v>
+        <v>0.3387723651752272</v>
       </c>
       <c r="D226" t="n">
-        <v>0.05983856368653145</v>
+        <v>0.06184040968993868</v>
       </c>
       <c r="E226" t="n">
-        <v>0.9629082015945325</v>
+        <v>0.9619458464711014</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -5417,19 +5417,19 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>108.6552985842628</v>
+        <v>25.9118079150821</v>
       </c>
       <c r="B227" t="n">
-        <v>6.450578105175775</v>
+        <v>2.749611370318606</v>
       </c>
       <c r="C227" t="n">
-        <v>0.1839754744522855</v>
+        <v>0.3843835868259916</v>
       </c>
       <c r="D227" t="n">
-        <v>0.03068840598580842</v>
+        <v>0.07622312014372136</v>
       </c>
       <c r="E227" t="n">
-        <v>0.953449275809335</v>
+        <v>0.968627771744345</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -5439,19 +5439,19 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>37.7062845537668</v>
+        <v>34.93597301850852</v>
       </c>
       <c r="B228" t="n">
-        <v>3.435045006213953</v>
+        <v>3.244888907483702</v>
       </c>
       <c r="C228" t="n">
-        <v>0.3201436255925847</v>
+        <v>0.3435625248924393</v>
       </c>
       <c r="D228" t="n">
-        <v>0.06178135782885504</v>
+        <v>0.07063491018358931</v>
       </c>
       <c r="E228" t="n">
-        <v>0.9592444383800907</v>
+        <v>0.9612787822610476</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -5461,19 +5461,19 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>93.12255737234655</v>
+        <v>46.76215495035327</v>
       </c>
       <c r="B229" t="n">
-        <v>5.400111986407167</v>
+        <v>3.982231808016412</v>
       </c>
       <c r="C229" t="n">
-        <v>0.228688540486205</v>
+        <v>0.2850931927089623</v>
       </c>
       <c r="D229" t="n">
-        <v>0.03905700061899113</v>
+        <v>0.04812462145159045</v>
       </c>
       <c r="E229" t="n">
-        <v>0.9583477803108684</v>
+        <v>0.9565554778176075</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -5483,19 +5483,19 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>44.91426946643718</v>
+        <v>41.48781934919725</v>
       </c>
       <c r="B230" t="n">
-        <v>3.563425725760184</v>
+        <v>3.370574772553449</v>
       </c>
       <c r="C230" t="n">
-        <v>0.3269276920117945</v>
+        <v>0.343743684633096</v>
       </c>
       <c r="D230" t="n">
-        <v>0.05334719656758705</v>
+        <v>0.06407623568195711</v>
       </c>
       <c r="E230" t="n">
-        <v>0.9602195773479307</v>
+        <v>0.9607085079214923</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -5505,19 +5505,19 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>61.51513565026022</v>
+        <v>34.59417750580892</v>
       </c>
       <c r="B231" t="n">
-        <v>5.002100536653625</v>
+        <v>3.258387842060661</v>
       </c>
       <c r="C231" t="n">
-        <v>0.2197889993717888</v>
+        <v>0.3339183815846655</v>
       </c>
       <c r="D231" t="n">
-        <v>0.04371503914665973</v>
+        <v>0.06065337207411272</v>
       </c>
       <c r="E231" t="n">
-        <v>0.9438568488153136</v>
+        <v>0.9614734458459928</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -5527,19 +5527,19 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>26.81154760053311</v>
+        <v>42.55341580737218</v>
       </c>
       <c r="B232" t="n">
-        <v>2.848503938247958</v>
+        <v>3.354847573329444</v>
       </c>
       <c r="C232" t="n">
-        <v>0.3665926607659265</v>
+        <v>0.3468437759560176</v>
       </c>
       <c r="D232" t="n">
-        <v>0.05994415268522634</v>
+        <v>0.06707646386743613</v>
       </c>
       <c r="E232" t="n">
-        <v>0.9688248907296358</v>
+        <v>0.9608694935861712</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -5549,19 +5549,19 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>124.4672810368069</v>
+        <v>39.02486011309584</v>
       </c>
       <c r="B233" t="n">
-        <v>6.781300401871714</v>
+        <v>3.240744938367849</v>
       </c>
       <c r="C233" t="n">
-        <v>0.178192244821951</v>
+        <v>0.3468140940187542</v>
       </c>
       <c r="D233" t="n">
-        <v>0.02825537228283099</v>
+        <v>0.05983856368653145</v>
       </c>
       <c r="E233" t="n">
-        <v>0.973929652872479</v>
+        <v>0.9629082015945325</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -5571,19 +5571,19 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>154.0228823397452</v>
+        <v>108.6552985842628</v>
       </c>
       <c r="B234" t="n">
-        <v>8.163512024272276</v>
+        <v>6.450578105175775</v>
       </c>
       <c r="C234" t="n">
-        <v>0.1390229101748126</v>
+        <v>0.1839754744522855</v>
       </c>
       <c r="D234" t="n">
-        <v>0.02178055583309538</v>
+        <v>0.03068840598580842</v>
       </c>
       <c r="E234" t="n">
-        <v>0.9668179587307149</v>
+        <v>0.953449275809335</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -5593,19 +5593,19 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>123.3989201052102</v>
+        <v>37.7062845537668</v>
       </c>
       <c r="B235" t="n">
-        <v>7.411768023293822</v>
+        <v>3.435045006213953</v>
       </c>
       <c r="C235" t="n">
-        <v>0.1525309611926481</v>
+        <v>0.3201436255925847</v>
       </c>
       <c r="D235" t="n">
-        <v>0.0239981528721407</v>
+        <v>0.06178135782885504</v>
       </c>
       <c r="E235" t="n">
-        <v>0.9678647703491735</v>
+        <v>0.9592444383800907</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -5615,19 +5615,19 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>138.0465696843906</v>
+        <v>93.12255737234655</v>
       </c>
       <c r="B236" t="n">
-        <v>7.297917007122145</v>
+        <v>5.400111986407167</v>
       </c>
       <c r="C236" t="n">
-        <v>0.1655023262772538</v>
+        <v>0.228688540486205</v>
       </c>
       <c r="D236" t="n">
-        <v>0.02615136329456054</v>
+        <v>0.03905700061899113</v>
       </c>
       <c r="E236" t="n">
-        <v>0.9698298903904641</v>
+        <v>0.9583477803108684</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -5637,19 +5637,19 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>123.1260777760394</v>
+        <v>44.91426946643718</v>
       </c>
       <c r="B237" t="n">
-        <v>7.331392361065179</v>
+        <v>3.563425725760184</v>
       </c>
       <c r="C237" t="n">
-        <v>0.1498797962822226</v>
+        <v>0.3269276920117945</v>
       </c>
       <c r="D237" t="n">
-        <v>0.02372814881225028</v>
+        <v>0.05334719656758705</v>
       </c>
       <c r="E237" t="n">
-        <v>0.9671250556772137</v>
+        <v>0.9602195773479307</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -5659,19 +5659,19 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>103.4534473574339</v>
+        <v>61.51513565026022</v>
       </c>
       <c r="B238" t="n">
-        <v>5.588377639312107</v>
+        <v>5.002100536653625</v>
       </c>
       <c r="C238" t="n">
-        <v>0.220313249903522</v>
+        <v>0.2197889993717888</v>
       </c>
       <c r="D238" t="n">
-        <v>0.03512229494909899</v>
+        <v>0.04371503914665973</v>
       </c>
       <c r="E238" t="n">
-        <v>0.9538343503240669</v>
+        <v>0.9438568488153136</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -5681,19 +5681,19 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>143.3990767865797</v>
+        <v>26.81154760053311</v>
       </c>
       <c r="B239" t="n">
-        <v>7.536850889370855</v>
+        <v>2.848503938247958</v>
       </c>
       <c r="C239" t="n">
-        <v>0.1504158852638573</v>
+        <v>0.3665926607659265</v>
       </c>
       <c r="D239" t="n">
-        <v>0.02546347546795382</v>
+        <v>0.05994415268522634</v>
       </c>
       <c r="E239" t="n">
-        <v>0.9567965432434354</v>
+        <v>0.9688248907296358</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -5703,19 +5703,19 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>141.5229120112053</v>
+        <v>124.4672810368069</v>
       </c>
       <c r="B240" t="n">
-        <v>7.792047551161712</v>
+        <v>6.781300401871714</v>
       </c>
       <c r="C240" t="n">
-        <v>0.1445600427601578</v>
+        <v>0.178192244821951</v>
       </c>
       <c r="D240" t="n">
-        <v>0.02631885442439551</v>
+        <v>0.02825537228283099</v>
       </c>
       <c r="E240" t="n">
-        <v>0.9689597554814799</v>
+        <v>0.973929652872479</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -5725,19 +5725,19 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>116.5795581948263</v>
+        <v>154.0228823397452</v>
       </c>
       <c r="B241" t="n">
-        <v>6.689903104242727</v>
+        <v>8.163512024272276</v>
       </c>
       <c r="C241" t="n">
-        <v>0.1735416509726451</v>
+        <v>0.1390229101748126</v>
       </c>
       <c r="D241" t="n">
-        <v>0.02892245312480992</v>
+        <v>0.02178055583309538</v>
       </c>
       <c r="E241" t="n">
-        <v>0.9673138500931069</v>
+        <v>0.9668179587307149</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -5747,19 +5747,19 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>111.0354681491267</v>
+        <v>123.3989201052102</v>
       </c>
       <c r="B242" t="n">
-        <v>6.652535968315849</v>
+        <v>7.411768023293822</v>
       </c>
       <c r="C242" t="n">
-        <v>0.1772858396020967</v>
+        <v>0.1525309611926481</v>
       </c>
       <c r="D242" t="n">
-        <v>0.03331783791538689</v>
+        <v>0.0239981528721407</v>
       </c>
       <c r="E242" t="n">
-        <v>0.9632291701252741</v>
+        <v>0.9678647703491735</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -5769,19 +5769,19 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>79.58392672227593</v>
+        <v>138.0465696843906</v>
       </c>
       <c r="B243" t="n">
-        <v>5.700495481783285</v>
+        <v>7.297917007122145</v>
       </c>
       <c r="C243" t="n">
-        <v>0.1952439346319581</v>
+        <v>0.1655023262772538</v>
       </c>
       <c r="D243" t="n">
-        <v>0.02793173053091585</v>
+        <v>0.02615136329456054</v>
       </c>
       <c r="E243" t="n">
-        <v>0.9715799157020908</v>
+        <v>0.9698298903904641</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -5791,19 +5791,19 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>181.9969109866222</v>
+        <v>123.1260777760394</v>
       </c>
       <c r="B244" t="n">
-        <v>7.418843484148483</v>
+        <v>7.331392361065179</v>
       </c>
       <c r="C244" t="n">
-        <v>0.1737938213489825</v>
+        <v>0.1498797962822226</v>
       </c>
       <c r="D244" t="n">
-        <v>0.02661320647597283</v>
+        <v>0.02372814881225028</v>
       </c>
       <c r="E244" t="n">
-        <v>0.961226054589294</v>
+        <v>0.9671250556772137</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -5813,19 +5813,19 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>130.7884525070161</v>
+        <v>103.4534473574339</v>
       </c>
       <c r="B245" t="n">
-        <v>6.94445998695523</v>
+        <v>5.588377639312107</v>
       </c>
       <c r="C245" t="n">
-        <v>0.17449510061282</v>
+        <v>0.220313249903522</v>
       </c>
       <c r="D245" t="n">
-        <v>0.02337598709034227</v>
+        <v>0.03512229494909899</v>
       </c>
       <c r="E245" t="n">
-        <v>0.9665304255475822</v>
+        <v>0.9538343503240669</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -5835,19 +5835,19 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>127.6867373908977</v>
+        <v>143.3990767865797</v>
       </c>
       <c r="B246" t="n">
-        <v>6.376398027748182</v>
+        <v>7.536850889370855</v>
       </c>
       <c r="C246" t="n">
-        <v>0.1975459391012072</v>
+        <v>0.1504158852638573</v>
       </c>
       <c r="D246" t="n">
-        <v>0.02721971193879714</v>
+        <v>0.02546347546795382</v>
       </c>
       <c r="E246" t="n">
-        <v>0.9704681556937685</v>
+        <v>0.9567965432434354</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -5857,19 +5857,19 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>138.6347687178916</v>
+        <v>141.5229120112053</v>
       </c>
       <c r="B247" t="n">
-        <v>6.709374583830654</v>
+        <v>7.792047551161712</v>
       </c>
       <c r="C247" t="n">
-        <v>0.1813602147214869</v>
+        <v>0.1445600427601578</v>
       </c>
       <c r="D247" t="n">
-        <v>0.02920547106129777</v>
+        <v>0.02631885442439551</v>
       </c>
       <c r="E247" t="n">
-        <v>0.9659135620774341</v>
+        <v>0.9689597554814799</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -5879,19 +5879,19 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>117.4055506810386</v>
+        <v>116.5795581948263</v>
       </c>
       <c r="B248" t="n">
-        <v>6.127635300716928</v>
+        <v>6.689903104242727</v>
       </c>
       <c r="C248" t="n">
-        <v>0.2064112931049625</v>
+        <v>0.1735416509726451</v>
       </c>
       <c r="D248" t="n">
-        <v>0.03544274908092796</v>
+        <v>0.02892245312480992</v>
       </c>
       <c r="E248" t="n">
-        <v>0.9724262120178135</v>
+        <v>0.9673138500931069</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -5901,19 +5901,19 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>32.3327677864495</v>
+        <v>111.0354681491267</v>
       </c>
       <c r="B249" t="n">
-        <v>3.095468334467109</v>
+        <v>6.652535968315849</v>
       </c>
       <c r="C249" t="n">
-        <v>0.3640396443169381</v>
+        <v>0.1772858396020967</v>
       </c>
       <c r="D249" t="n">
-        <v>0.06146112443475249</v>
+        <v>0.03331783791538689</v>
       </c>
       <c r="E249" t="n">
-        <v>0.9670699861087606</v>
+        <v>0.9632291701252741</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -5923,19 +5923,19 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>156.1803522168706</v>
+        <v>79.58392672227593</v>
       </c>
       <c r="B250" t="n">
-        <v>7.54172511391112</v>
+        <v>5.700495481783285</v>
       </c>
       <c r="C250" t="n">
-        <v>0.1628601228392675</v>
+        <v>0.1952439346319581</v>
       </c>
       <c r="D250" t="n">
-        <v>0.02518861883173122</v>
+        <v>0.02793173053091585</v>
       </c>
       <c r="E250" t="n">
-        <v>0.965216973770904</v>
+        <v>0.9715799157020908</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -5945,19 +5945,19 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>130.3545171968905</v>
+        <v>181.9969109866222</v>
       </c>
       <c r="B251" t="n">
-        <v>6.999296465363924</v>
+        <v>7.418843484148483</v>
       </c>
       <c r="C251" t="n">
-        <v>0.1726391164843585</v>
+        <v>0.1737938213489825</v>
       </c>
       <c r="D251" t="n">
-        <v>0.03202747322682728</v>
+        <v>0.02661320647597283</v>
       </c>
       <c r="E251" t="n">
-        <v>0.9642717829934354</v>
+        <v>0.961226054589294</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -5967,19 +5967,19 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>33.59041332509251</v>
+        <v>130.7884525070161</v>
       </c>
       <c r="B252" t="n">
-        <v>3.883133760481696</v>
+        <v>6.94445998695523</v>
       </c>
       <c r="C252" t="n">
-        <v>0.2701651157289177</v>
+        <v>0.17449510061282</v>
       </c>
       <c r="D252" t="n">
-        <v>0.04752561658021509</v>
+        <v>0.02337598709034227</v>
       </c>
       <c r="E252" t="n">
-        <v>0.9756511507375577</v>
+        <v>0.9665304255475822</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -5989,19 +5989,19 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>117.3688497278483</v>
+        <v>127.6867373908977</v>
       </c>
       <c r="B253" t="n">
-        <v>5.832173012678149</v>
+        <v>6.376398027748182</v>
       </c>
       <c r="C253" t="n">
-        <v>0.2137450600595976</v>
+        <v>0.1975459391012072</v>
       </c>
       <c r="D253" t="n">
-        <v>0.03928116047129313</v>
+        <v>0.02721971193879714</v>
       </c>
       <c r="E253" t="n">
-        <v>0.9633740660754108</v>
+        <v>0.9704681556937685</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -6011,19 +6011,19 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>128.166212162134</v>
+        <v>138.6347687178916</v>
       </c>
       <c r="B254" t="n">
-        <v>6.880132753468304</v>
+        <v>6.709374583830654</v>
       </c>
       <c r="C254" t="n">
-        <v>0.1719850601514323</v>
+        <v>0.1813602147214869</v>
       </c>
       <c r="D254" t="n">
-        <v>0.03203494779585876</v>
+        <v>0.02920547106129777</v>
       </c>
       <c r="E254" t="n">
-        <v>0.9604701004509639</v>
+        <v>0.9659135620774341</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -6033,19 +6033,19 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>181.8829949489336</v>
+        <v>117.4055506810386</v>
       </c>
       <c r="B255" t="n">
-        <v>8.533593502360869</v>
+        <v>6.127635300716928</v>
       </c>
       <c r="C255" t="n">
-        <v>0.1423248873452864</v>
+        <v>0.2064112931049625</v>
       </c>
       <c r="D255" t="n">
-        <v>0.0240699338908281</v>
+        <v>0.03544274908092796</v>
       </c>
       <c r="E255" t="n">
-        <v>0.9607364807241665</v>
+        <v>0.9724262120178135</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -6055,19 +6055,19 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>125.1958827063466</v>
+        <v>32.3327677864495</v>
       </c>
       <c r="B256" t="n">
-        <v>6.716683768508148</v>
+        <v>3.095468334467109</v>
       </c>
       <c r="C256" t="n">
-        <v>0.1816109559301298</v>
+        <v>0.3640396443169381</v>
       </c>
       <c r="D256" t="n">
-        <v>0.03208756661133144</v>
+        <v>0.06146112443475249</v>
       </c>
       <c r="E256" t="n">
-        <v>0.967993111811719</v>
+        <v>0.9670699861087606</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -6077,19 +6077,19 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>150.4267187641181</v>
+        <v>156.1803522168706</v>
       </c>
       <c r="B257" t="n">
-        <v>7.584255457917426</v>
+        <v>7.54172511391112</v>
       </c>
       <c r="C257" t="n">
-        <v>0.1549505683782816</v>
+        <v>0.1628601228392675</v>
       </c>
       <c r="D257" t="n">
-        <v>0.02537690405963116</v>
+        <v>0.02518861883173122</v>
       </c>
       <c r="E257" t="n">
-        <v>0.9652774890486365</v>
+        <v>0.965216973770904</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -6099,19 +6099,19 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>36.39546434963023</v>
+        <v>130.3545171968905</v>
       </c>
       <c r="B258" t="n">
-        <v>3.434667836138617</v>
+        <v>6.999296465363924</v>
       </c>
       <c r="C258" t="n">
-        <v>0.3195839709087001</v>
+        <v>0.1726391164843585</v>
       </c>
       <c r="D258" t="n">
-        <v>0.06463623945701433</v>
+        <v>0.03202747322682728</v>
       </c>
       <c r="E258" t="n">
-        <v>0.9711669402392057</v>
+        <v>0.9642717829934354</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -6121,19 +6121,19 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>72.85036105429219</v>
+        <v>33.59041332509251</v>
       </c>
       <c r="B259" t="n">
-        <v>5.062983788825584</v>
+        <v>3.883133760481696</v>
       </c>
       <c r="C259" t="n">
-        <v>0.232913061446989</v>
+        <v>0.2701651157289177</v>
       </c>
       <c r="D259" t="n">
-        <v>0.04339362183374873</v>
+        <v>0.04752561658021509</v>
       </c>
       <c r="E259" t="n">
-        <v>0.9707314928015425</v>
+        <v>0.9756511507375577</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -6143,19 +6143,19 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>45.2597242035455</v>
+        <v>117.3688497278483</v>
       </c>
       <c r="B260" t="n">
-        <v>3.430352783098511</v>
+        <v>5.832173012678149</v>
       </c>
       <c r="C260" t="n">
-        <v>0.3649743462709739</v>
+        <v>0.2137450600595976</v>
       </c>
       <c r="D260" t="n">
-        <v>0.07159068163909184</v>
+        <v>0.03928116047129313</v>
       </c>
       <c r="E260" t="n">
-        <v>0.967060641967904</v>
+        <v>0.9633740660754108</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -6165,19 +6165,19 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>128.6710560186729</v>
+        <v>128.166212162134</v>
       </c>
       <c r="B261" t="n">
-        <v>7.308496665555185</v>
+        <v>6.880132753468304</v>
       </c>
       <c r="C261" t="n">
-        <v>0.1605851128713241</v>
+        <v>0.1719850601514323</v>
       </c>
       <c r="D261" t="n">
-        <v>0.02670392743033522</v>
+        <v>0.03203494779585876</v>
       </c>
       <c r="E261" t="n">
-        <v>0.9706359727229558</v>
+        <v>0.9604701004509639</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -6187,19 +6187,19 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>114.8079387877959</v>
+        <v>181.8829949489336</v>
       </c>
       <c r="B262" t="n">
-        <v>6.712536210937672</v>
+        <v>8.533593502360869</v>
       </c>
       <c r="C262" t="n">
-        <v>0.1747434610003219</v>
+        <v>0.1423248873452864</v>
       </c>
       <c r="D262" t="n">
-        <v>0.02908841038953416</v>
+        <v>0.0240699338908281</v>
       </c>
       <c r="E262" t="n">
-        <v>0.966009559612914</v>
+        <v>0.9607364807241665</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -6209,19 +6209,19 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>131.7011612069684</v>
+        <v>125.1958827063466</v>
       </c>
       <c r="B263" t="n">
-        <v>6.468971159456531</v>
+        <v>6.716683768508148</v>
       </c>
       <c r="C263" t="n">
-        <v>0.2063042278662488</v>
+        <v>0.1816109559301298</v>
       </c>
       <c r="D263" t="n">
-        <v>0.03149661613645407</v>
+        <v>0.03208756661133144</v>
       </c>
       <c r="E263" t="n">
-        <v>0.9612799741749439</v>
+        <v>0.967993111811719</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -6231,19 +6231,19 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>44.11110336778926</v>
+        <v>150.4267187641181</v>
       </c>
       <c r="B264" t="n">
-        <v>3.48674108036012</v>
+        <v>7.584255457917426</v>
       </c>
       <c r="C264" t="n">
-        <v>0.3212694977235127</v>
+        <v>0.1549505683782816</v>
       </c>
       <c r="D264" t="n">
-        <v>0.05656671015281291</v>
+        <v>0.02537690405963116</v>
       </c>
       <c r="E264" t="n">
-        <v>0.9644569160445133</v>
+        <v>0.9652774890486365</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -6253,19 +6253,19 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>28.54184011337112</v>
+        <v>36.39546434963023</v>
       </c>
       <c r="B265" t="n">
-        <v>3.082786428809603</v>
+        <v>3.434667836138617</v>
       </c>
       <c r="C265" t="n">
-        <v>0.3295615530363394</v>
+        <v>0.3195839709087001</v>
       </c>
       <c r="D265" t="n">
-        <v>0.05284207551707706</v>
+        <v>0.06463623945701433</v>
       </c>
       <c r="E265" t="n">
-        <v>0.972179406051936</v>
+        <v>0.9711669402392057</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -6275,19 +6275,19 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>85.31109839794179</v>
+        <v>72.85036105429219</v>
       </c>
       <c r="B266" t="n">
-        <v>6.089873752294029</v>
+        <v>5.062983788825584</v>
       </c>
       <c r="C266" t="n">
-        <v>0.1827237225929655</v>
+        <v>0.232913061446989</v>
       </c>
       <c r="D266" t="n">
-        <v>0.02675430270399596</v>
+        <v>0.04339362183374873</v>
       </c>
       <c r="E266" t="n">
-        <v>0.9729531363021817</v>
+        <v>0.9707314928015425</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -6297,19 +6297,19 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>145.5303120780195</v>
+        <v>45.2597242035455</v>
       </c>
       <c r="B267" t="n">
-        <v>7.094556472451446</v>
+        <v>3.430352783098511</v>
       </c>
       <c r="C267" t="n">
-        <v>0.1835700538946705</v>
+        <v>0.3649743462709739</v>
       </c>
       <c r="D267" t="n">
-        <v>0.02290801364249125</v>
+        <v>0.07159068163909184</v>
       </c>
       <c r="E267" t="n">
-        <v>0.9668753133127754</v>
+        <v>0.967060641967904</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -6319,19 +6319,19 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>147.7343722597316</v>
+        <v>128.6710560186729</v>
       </c>
       <c r="B268" t="n">
-        <v>7.157912144702843</v>
+        <v>7.308496665555185</v>
       </c>
       <c r="C268" t="n">
-        <v>0.1845701194335491</v>
+        <v>0.1605851128713241</v>
       </c>
       <c r="D268" t="n">
-        <v>0.02906347189988406</v>
+        <v>0.02670392743033522</v>
       </c>
       <c r="E268" t="n">
-        <v>0.9641826786581473</v>
+        <v>0.9706359727229558</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -6341,19 +6341,19 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>100.9827851431734</v>
+        <v>114.8079387877959</v>
       </c>
       <c r="B269" t="n">
-        <v>6.246549457721977</v>
+        <v>6.712536210937672</v>
       </c>
       <c r="C269" t="n">
-        <v>0.185402401976756</v>
+        <v>0.1747434610003219</v>
       </c>
       <c r="D269" t="n">
-        <v>0.02478991483078851</v>
+        <v>0.02908841038953416</v>
       </c>
       <c r="E269" t="n">
-        <v>0.9704212144650641</v>
+        <v>0.966009559612914</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -6363,19 +6363,19 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>46.67050013167748</v>
+        <v>131.7011612069684</v>
       </c>
       <c r="B270" t="n">
-        <v>3.317854361989873</v>
+        <v>6.468971159456531</v>
       </c>
       <c r="C270" t="n">
-        <v>0.3714685187809111</v>
+        <v>0.2063042278662488</v>
       </c>
       <c r="D270" t="n">
-        <v>0.05237835231104436</v>
+        <v>0.03149661613645407</v>
       </c>
       <c r="E270" t="n">
-        <v>0.9678208197957867</v>
+        <v>0.9612799741749439</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -6385,19 +6385,19 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>118.8694623052275</v>
+        <v>44.11110336778926</v>
       </c>
       <c r="B271" t="n">
-        <v>5.9211406277765</v>
+        <v>3.48674108036012</v>
       </c>
       <c r="C271" t="n">
-        <v>0.211867971762159</v>
+        <v>0.3212694977235127</v>
       </c>
       <c r="D271" t="n">
-        <v>0.03469396392217702</v>
+        <v>0.05656671015281291</v>
       </c>
       <c r="E271" t="n">
-        <v>0.9537777566862966</v>
+        <v>0.9644569160445133</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -6407,19 +6407,19 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>195.7879313161624</v>
+        <v>28.54184011337112</v>
       </c>
       <c r="B272" t="n">
-        <v>7.780172376427441</v>
+        <v>3.082786428809603</v>
       </c>
       <c r="C272" t="n">
-        <v>0.1777418969940583</v>
+        <v>0.3295615530363394</v>
       </c>
       <c r="D272" t="n">
-        <v>0.02364885315702022</v>
+        <v>0.05284207551707706</v>
       </c>
       <c r="E272" t="n">
-        <v>0.9629857846584177</v>
+        <v>0.972179406051936</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -6429,19 +6429,19 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>28.87496090689339</v>
+        <v>85.31109839794179</v>
       </c>
       <c r="B273" t="n">
-        <v>3.265810619321496</v>
+        <v>6.089873752294029</v>
       </c>
       <c r="C273" t="n">
-        <v>0.3237508793667049</v>
+        <v>0.1827237225929655</v>
       </c>
       <c r="D273" t="n">
-        <v>0.05996428079116621</v>
+        <v>0.02675430270399596</v>
       </c>
       <c r="E273" t="n">
-        <v>0.9694724266696459</v>
+        <v>0.9729531363021817</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -6451,19 +6451,19 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>217.8452591481203</v>
+        <v>145.5303120780195</v>
       </c>
       <c r="B274" t="n">
-        <v>8.895454697007585</v>
+        <v>7.094556472451446</v>
       </c>
       <c r="C274" t="n">
-        <v>0.1506232816190232</v>
+        <v>0.1835700538946705</v>
       </c>
       <c r="D274" t="n">
-        <v>0.02534442725474417</v>
+        <v>0.02290801364249125</v>
       </c>
       <c r="E274" t="n">
-        <v>0.9480936113531853</v>
+        <v>0.9668753133127754</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -6473,19 +6473,19 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>53.6685186296574</v>
+        <v>147.7343722597316</v>
       </c>
       <c r="B275" t="n">
-        <v>4.360870217554387</v>
+        <v>7.157912144702843</v>
       </c>
       <c r="C275" t="n">
-        <v>0.2615011567929769</v>
+        <v>0.1845701194335491</v>
       </c>
       <c r="D275" t="n">
-        <v>0.04721631877859112</v>
+        <v>0.02906347189988406</v>
       </c>
       <c r="E275" t="n">
-        <v>0.9539560850129598</v>
+        <v>0.9641826786581473</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -6495,19 +6495,19 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>43.63519506502168</v>
+        <v>100.9827851431734</v>
       </c>
       <c r="B276" t="n">
-        <v>3.978282260753585</v>
+        <v>6.246549457721977</v>
       </c>
       <c r="C276" t="n">
-        <v>0.2699134326586346</v>
+        <v>0.185402401976756</v>
       </c>
       <c r="D276" t="n">
-        <v>0.04904468779687637</v>
+        <v>0.02478991483078851</v>
       </c>
       <c r="E276" t="n">
-        <v>0.9568473138759077</v>
+        <v>0.9704212144650641</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -6517,19 +6517,19 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>135.1327248249416</v>
+        <v>46.67050013167748</v>
       </c>
       <c r="B277" t="n">
-        <v>6.729230660220074</v>
+        <v>3.317854361989873</v>
       </c>
       <c r="C277" t="n">
-        <v>0.1889542310131974</v>
+        <v>0.3714685187809111</v>
       </c>
       <c r="D277" t="n">
-        <v>0.02255204970733399</v>
+        <v>0.05237835231104436</v>
       </c>
       <c r="E277" t="n">
-        <v>0.9689995778043089</v>
+        <v>0.9678208197957867</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -6539,19 +6539,19 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>173.5615169223074</v>
+        <v>118.8694623052275</v>
       </c>
       <c r="B278" t="n">
-        <v>7.892984078026009</v>
+        <v>5.9211406277765</v>
       </c>
       <c r="C278" t="n">
-        <v>0.1614366921525584</v>
+        <v>0.211867971762159</v>
       </c>
       <c r="D278" t="n">
-        <v>0.02041457671571808</v>
+        <v>0.03469396392217702</v>
       </c>
       <c r="E278" t="n">
-        <v>0.9550758867098296</v>
+        <v>0.9537777566862966</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -6561,19 +6561,19 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>170.9902828442814</v>
+        <v>195.7879313161624</v>
       </c>
       <c r="B279" t="n">
-        <v>8.143620123374458</v>
+        <v>7.780172376427441</v>
       </c>
       <c r="C279" t="n">
-        <v>0.1492953317622354</v>
+        <v>0.1777418969940583</v>
       </c>
       <c r="D279" t="n">
-        <v>0.0249244358792919</v>
+        <v>0.02364885315702022</v>
       </c>
       <c r="E279" t="n">
-        <v>0.9636522579732686</v>
+        <v>0.9629857846584177</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -6583,19 +6583,19 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>173.4163564521507</v>
+        <v>28.87496090689339</v>
       </c>
       <c r="B280" t="n">
-        <v>8.394832444148049</v>
+        <v>3.265810619321496</v>
       </c>
       <c r="C280" t="n">
-        <v>0.1433737501910652</v>
+        <v>0.3237508793667049</v>
       </c>
       <c r="D280" t="n">
-        <v>0.02539975333961776</v>
+        <v>0.05996428079116621</v>
       </c>
       <c r="E280" t="n">
-        <v>0.9584159395189931</v>
+        <v>0.9694724266696459</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -6605,19 +6605,19 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>144.5274371457153</v>
+        <v>217.8452591481203</v>
       </c>
       <c r="B281" t="n">
-        <v>7.689065021673891</v>
+        <v>8.895454697007585</v>
       </c>
       <c r="C281" t="n">
-        <v>0.1544724857035332</v>
+        <v>0.1506232816190232</v>
       </c>
       <c r="D281" t="n">
-        <v>0.02602183382611547</v>
+        <v>0.02534442725474417</v>
       </c>
       <c r="E281" t="n">
-        <v>0.9671041581266605</v>
+        <v>0.9480936113531853</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -6627,19 +6627,19 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>61.66097011654496</v>
+        <v>53.6685186296574</v>
       </c>
       <c r="B282" t="n">
-        <v>4.791074568699207</v>
+        <v>4.360870217554387</v>
       </c>
       <c r="C282" t="n">
-        <v>0.2439989509753595</v>
+        <v>0.2615011567929769</v>
       </c>
       <c r="D282" t="n">
-        <v>0.04396747010793124</v>
+        <v>0.04721631877859112</v>
       </c>
       <c r="E282" t="n">
-        <v>0.9682652075278343</v>
+        <v>0.9539560850129598</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -6649,19 +6649,19 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>165.0013662054018</v>
+        <v>43.63519506502168</v>
       </c>
       <c r="B283" t="n">
-        <v>8.0363527009003</v>
+        <v>3.978282260753585</v>
       </c>
       <c r="C283" t="n">
-        <v>0.153676562260728</v>
+        <v>0.2699134326586346</v>
       </c>
       <c r="D283" t="n">
-        <v>0.02469546733565573</v>
+        <v>0.04904468779687637</v>
       </c>
       <c r="E283" t="n">
-        <v>0.9635265367176181</v>
+        <v>0.9568473138759077</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -6671,19 +6671,19 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>30.98832969323108</v>
+        <v>135.1327248249416</v>
       </c>
       <c r="B284" t="n">
-        <v>3.63102675891964</v>
+        <v>6.729230660220074</v>
       </c>
       <c r="C284" t="n">
-        <v>0.2782514754378027</v>
+        <v>0.1889542310131974</v>
       </c>
       <c r="D284" t="n">
-        <v>0.04905278766267338</v>
+        <v>0.02255204970733399</v>
       </c>
       <c r="E284" t="n">
-        <v>0.9600949983858557</v>
+        <v>0.9689995778043089</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -6693,19 +6693,19 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>72.31535575560557</v>
+        <v>173.5615169223074</v>
       </c>
       <c r="B285" t="n">
-        <v>4.414245144619488</v>
+        <v>7.892984078026009</v>
       </c>
       <c r="C285" t="n">
-        <v>0.279803393444859</v>
+        <v>0.1614366921525584</v>
       </c>
       <c r="D285" t="n">
-        <v>0.05474245343968865</v>
+        <v>0.02041457671571808</v>
       </c>
       <c r="E285" t="n">
-        <v>0.9066031290095941</v>
+        <v>0.9550758867098296</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -6715,19 +6715,19 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>42.0149222240747</v>
+        <v>170.9902828442814</v>
       </c>
       <c r="B286" t="n">
-        <v>4.012725325108369</v>
+        <v>8.143620123374458</v>
       </c>
       <c r="C286" t="n">
-        <v>0.2665920800956796</v>
+        <v>0.1492953317622354</v>
       </c>
       <c r="D286" t="n">
-        <v>0.04661809155023493</v>
+        <v>0.0249244358792919</v>
       </c>
       <c r="E286" t="n">
-        <v>0.9609965743800337</v>
+        <v>0.9636522579732686</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -6737,19 +6737,19 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>66.93141931396912</v>
+        <v>173.4163564521507</v>
       </c>
       <c r="B287" t="n">
-        <v>4.582038937668155</v>
+        <v>8.394832444148049</v>
       </c>
       <c r="C287" t="n">
-        <v>0.2690012980894311</v>
+        <v>0.1433737501910652</v>
       </c>
       <c r="D287" t="n">
-        <v>0.04870502303325352</v>
+        <v>0.02539975333961776</v>
       </c>
       <c r="E287" t="n">
-        <v>0.9544497145644576</v>
+        <v>0.9584159395189931</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -6759,19 +6759,19 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>51.16042183517672</v>
+        <v>144.5274371457153</v>
       </c>
       <c r="B288" t="n">
-        <v>3.976107865672107</v>
+        <v>7.689065021673891</v>
       </c>
       <c r="C288" t="n">
-        <v>0.2901288784082713</v>
+        <v>0.1544724857035332</v>
       </c>
       <c r="D288" t="n">
-        <v>0.04882212949174813</v>
+        <v>0.02602183382611547</v>
       </c>
       <c r="E288" t="n">
-        <v>0.9493632611776219</v>
+        <v>0.9671041581266605</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -6781,19 +6781,19 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>49.30196638423929</v>
+        <v>61.66097011654496</v>
       </c>
       <c r="B289" t="n">
-        <v>3.907826486711955</v>
+        <v>4.791074568699207</v>
       </c>
       <c r="C289" t="n">
-        <v>0.2883246416296568</v>
+        <v>0.2439989509753595</v>
       </c>
       <c r="D289" t="n">
-        <v>0.04642858981341201</v>
+        <v>0.04396747010793124</v>
       </c>
       <c r="E289" t="n">
-        <v>0.9511052505914253</v>
+        <v>0.9682652075278343</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -6803,19 +6803,19 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>62.06311257519276</v>
+        <v>165.0013662054018</v>
       </c>
       <c r="B290" t="n">
-        <v>4.97513464240402</v>
+        <v>8.0363527009003</v>
       </c>
       <c r="C290" t="n">
-        <v>0.2216922675944591</v>
+        <v>0.153676562260728</v>
       </c>
       <c r="D290" t="n">
-        <v>0.04096807961186218</v>
+        <v>0.02469546733565573</v>
       </c>
       <c r="E290" t="n">
-        <v>0.9439810849728871</v>
+        <v>0.9635265367176181</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -6825,19 +6825,19 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>117.2227343504413</v>
+        <v>30.98832969323108</v>
       </c>
       <c r="B291" t="n">
-        <v>7.277793091903163</v>
+        <v>3.63102675891964</v>
       </c>
       <c r="C291" t="n">
-        <v>0.148918966244281</v>
+        <v>0.2782514754378027</v>
       </c>
       <c r="D291" t="n">
-        <v>0.02562206974070172</v>
+        <v>0.04905278766267338</v>
       </c>
       <c r="E291" t="n">
-        <v>0.9470658692328445</v>
+        <v>0.9600949983858557</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -6847,19 +6847,19 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>70.16991796025752</v>
+        <v>72.31535575560557</v>
       </c>
       <c r="B292" t="n">
-        <v>4.795868814687213</v>
+        <v>4.414245144619488</v>
       </c>
       <c r="C292" t="n">
-        <v>0.242422927518271</v>
+        <v>0.279803393444859</v>
       </c>
       <c r="D292" t="n">
-        <v>0.03919522343518568</v>
+        <v>0.05474245343968865</v>
       </c>
       <c r="E292" t="n">
-        <v>0.9414660947446676</v>
+        <v>0.9066031290095941</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -6869,19 +6869,19 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>31.24715471951377</v>
+        <v>42.0149222240747</v>
       </c>
       <c r="B293" t="n">
-        <v>3.043528735178398</v>
+        <v>4.012725325108369</v>
       </c>
       <c r="C293" t="n">
-        <v>0.375666753536801</v>
+        <v>0.2665920800956796</v>
       </c>
       <c r="D293" t="n">
-        <v>0.07098982630089999</v>
+        <v>0.04661809155023493</v>
       </c>
       <c r="E293" t="n">
-        <v>0.9723451276027358</v>
+        <v>0.9609965743800337</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -6891,19 +6891,19 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>38.79058146168594</v>
+        <v>66.93141931396912</v>
       </c>
       <c r="B294" t="n">
-        <v>3.810247491441361</v>
+        <v>4.582038937668155</v>
       </c>
       <c r="C294" t="n">
-        <v>0.2783568287795611</v>
+        <v>0.2690012980894311</v>
       </c>
       <c r="D294" t="n">
-        <v>0.05069468033292238</v>
+        <v>0.04870502303325352</v>
       </c>
       <c r="E294" t="n">
-        <v>0.9494330929956454</v>
+        <v>0.9544497145644576</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -6913,19 +6913,19 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>47.23431243475358</v>
+        <v>51.16042183517672</v>
       </c>
       <c r="B295" t="n">
-        <v>3.781644492674706</v>
+        <v>3.976107865672107</v>
       </c>
       <c r="C295" t="n">
-        <v>0.2959609133922753</v>
+        <v>0.2901288784082713</v>
       </c>
       <c r="D295" t="n">
-        <v>0.04611624746735601</v>
+        <v>0.04882212949174813</v>
       </c>
       <c r="E295" t="n">
-        <v>0.9514017869233312</v>
+        <v>0.9493632611776219</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -6935,19 +6935,19 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>110.3120012442734</v>
+        <v>49.30196638423929</v>
       </c>
       <c r="B296" t="n">
-        <v>6.653332916444487</v>
+        <v>3.907826486711955</v>
       </c>
       <c r="C296" t="n">
-        <v>0.1709204317586538</v>
+        <v>0.2883246416296568</v>
       </c>
       <c r="D296" t="n">
-        <v>0.02743394538507883</v>
+        <v>0.04642858981341201</v>
       </c>
       <c r="E296" t="n">
-        <v>0.9471545133099726</v>
+        <v>0.9511052505914253</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -6957,19 +6957,19 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>34.97688338454626</v>
+        <v>62.06311257519276</v>
       </c>
       <c r="B297" t="n">
-        <v>4.044095222752152</v>
+        <v>4.97513464240402</v>
       </c>
       <c r="C297" t="n">
-        <v>0.2546068623916964</v>
+        <v>0.2216922675944591</v>
       </c>
       <c r="D297" t="n">
-        <v>0.04173423704657334</v>
+        <v>0.04096807961186218</v>
       </c>
       <c r="E297" t="n">
-        <v>0.9601701130602992</v>
+        <v>0.9439810849728871</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -6979,19 +6979,19 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>156.1303057475615</v>
+        <v>117.2227343504413</v>
       </c>
       <c r="B298" t="n">
-        <v>8.447054573746806</v>
+        <v>7.277793091903163</v>
       </c>
       <c r="C298" t="n">
-        <v>0.1366183861103123</v>
+        <v>0.148918966244281</v>
       </c>
       <c r="D298" t="n">
-        <v>0.02252837125772024</v>
+        <v>0.02562206974070172</v>
       </c>
       <c r="E298" t="n">
-        <v>0.9607105547083258</v>
+        <v>0.9470658692328445</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -7001,19 +7001,19 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>140.1259601990631</v>
+        <v>70.16991796025752</v>
       </c>
       <c r="B299" t="n">
-        <v>7.455190062470923</v>
+        <v>4.795868814687213</v>
       </c>
       <c r="C299" t="n">
-        <v>0.1577543878939069</v>
+        <v>0.242422927518271</v>
       </c>
       <c r="D299" t="n">
-        <v>0.02318270744130204</v>
+        <v>0.03919522343518568</v>
       </c>
       <c r="E299" t="n">
-        <v>0.970126880175508</v>
+        <v>0.9414660947446676</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -7023,19 +7023,19 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>145.574695844073</v>
+        <v>31.24715471951377</v>
       </c>
       <c r="B300" t="n">
-        <v>7.897930921813613</v>
+        <v>3.043528735178398</v>
       </c>
       <c r="C300" t="n">
-        <v>0.1495000655103923</v>
+        <v>0.375666753536801</v>
       </c>
       <c r="D300" t="n">
-        <v>0.02131680824775951</v>
+        <v>0.07098982630089999</v>
       </c>
       <c r="E300" t="n">
-        <v>0.9676563579271312</v>
+        <v>0.9723451276027358</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -7045,19 +7045,19 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>82.47250079761803</v>
+        <v>38.79058146168594</v>
       </c>
       <c r="B301" t="n">
-        <v>5.579669558641514</v>
+        <v>3.810247491441361</v>
       </c>
       <c r="C301" t="n">
-        <v>0.2024178286076736</v>
+        <v>0.2783568287795611</v>
       </c>
       <c r="D301" t="n">
-        <v>0.0289660364072405</v>
+        <v>0.05069468033292238</v>
       </c>
       <c r="E301" t="n">
-        <v>0.9730100219121645</v>
+        <v>0.9494330929956454</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -7067,19 +7067,19 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>69.90695649981839</v>
+        <v>47.23431243475358</v>
       </c>
       <c r="B302" t="n">
-        <v>5.079934663215344</v>
+        <v>3.781644492674706</v>
       </c>
       <c r="C302" t="n">
-        <v>0.2277574832505673</v>
+        <v>0.2959609133922753</v>
       </c>
       <c r="D302" t="n">
-        <v>0.03109099122216429</v>
+        <v>0.04611624746735601</v>
       </c>
       <c r="E302" t="n">
-        <v>0.9775932649511225</v>
+        <v>0.9514017869233312</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -7089,21 +7089,175 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
+        <v>110.3120012442734</v>
+      </c>
+      <c r="B303" t="n">
+        <v>6.653332916444487</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0.1709204317586538</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0.02743394538507883</v>
+      </c>
+      <c r="E303" t="n">
+        <v>0.9471545133099726</v>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>umair</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>34.97688338454626</v>
+      </c>
+      <c r="B304" t="n">
+        <v>4.044095222752152</v>
+      </c>
+      <c r="C304" t="n">
+        <v>0.2546068623916964</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0.04173423704657334</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0.9601701130602992</v>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>umair</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>156.1303057475615</v>
+      </c>
+      <c r="B305" t="n">
+        <v>8.447054573746806</v>
+      </c>
+      <c r="C305" t="n">
+        <v>0.1366183861103123</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0.02252837125772024</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0.9607105547083258</v>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>umair</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>140.1259601990631</v>
+      </c>
+      <c r="B306" t="n">
+        <v>7.455190062470923</v>
+      </c>
+      <c r="C306" t="n">
+        <v>0.1577543878939069</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0.02318270744130204</v>
+      </c>
+      <c r="E306" t="n">
+        <v>0.970126880175508</v>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>umair</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>145.574695844073</v>
+      </c>
+      <c r="B307" t="n">
+        <v>7.897930921813613</v>
+      </c>
+      <c r="C307" t="n">
+        <v>0.1495000655103923</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0.02131680824775951</v>
+      </c>
+      <c r="E307" t="n">
+        <v>0.9676563579271312</v>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>umair</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>82.47250079761803</v>
+      </c>
+      <c r="B308" t="n">
+        <v>5.579669558641514</v>
+      </c>
+      <c r="C308" t="n">
+        <v>0.2024178286076736</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0.0289660364072405</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0.9730100219121645</v>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>umair</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>69.90695649981839</v>
+      </c>
+      <c r="B309" t="n">
+        <v>5.079934663215344</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0.2277574832505673</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0.03109099122216429</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0.9775932649511225</v>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>umair</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
         <v>65.67659380291302</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B310" t="n">
         <v>4.764165847617947</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C310" t="n">
         <v>0.2407929641322901</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D310" t="n">
         <v>0.03229593623856727</v>
       </c>
-      <c r="E303" t="n">
+      <c r="E310" t="n">
         <v>0.9744057623865438</v>
       </c>
-      <c r="F303" t="inlineStr">
+      <c r="F310" t="inlineStr">
         <is>
           <t>umair</t>
         </is>

--- a/features.xlsx
+++ b/features.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -489,19 +489,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>23.16933839125469</v>
+        <v>23.16934713190219</v>
       </c>
       <c r="B3" t="n">
-        <v>1.567411758307499</v>
+        <v>1.567412082035185</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7713383273280552</v>
+        <v>0.7713383268966096</v>
       </c>
       <c r="D3" t="n">
         <v>0.1255268702293486</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9807121352329367</v>
+        <v>0.9807121295053518</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -511,19 +511,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>31.68929503974525</v>
+        <v>31.69305814348952</v>
       </c>
       <c r="B4" t="n">
-        <v>1.44322168658137</v>
+        <v>1.443669664530356</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8210652408824377</v>
+        <v>0.8209249854537634</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2702599227986909</v>
+        <v>0.2701902646346345</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9684721966927508</v>
+        <v>0.9684688953472639</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -533,19 +533,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>19.09216451300799</v>
+        <v>19.09218586475865</v>
       </c>
       <c r="B5" t="n">
-        <v>1.214103723617841</v>
+        <v>1.214104679666377</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8223095711769243</v>
+        <v>0.8223095180409699</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1315680329427749</v>
+        <v>0.1315680329415205</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9795394722531625</v>
+        <v>0.9795394599038041</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -577,19 +577,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17.91341824025713</v>
+        <v>17.91341904379269</v>
       </c>
       <c r="B7" t="n">
-        <v>1.215927413954734</v>
+        <v>1.21592768179992</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8198167050656349</v>
+        <v>0.8198166247120793</v>
       </c>
       <c r="D7" t="n">
         <v>0.1397807737876776</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9806746955337289</v>
+        <v>0.9806746963949582</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -599,19 +599,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>42.64286819004668</v>
+        <v>42.64289862857957</v>
       </c>
       <c r="B8" t="n">
-        <v>2.156262584173855</v>
+        <v>2.156263818168431</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7412298748495068</v>
+        <v>0.7412299724956928</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1250664844079324</v>
+        <v>0.1250664844115681</v>
       </c>
       <c r="E8" t="n">
-        <v>0.96878036165048</v>
+        <v>0.9687803479328404</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -621,19 +621,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>37.43916331045437</v>
+        <v>37.43914969652278</v>
       </c>
       <c r="B9" t="n">
-        <v>1.867977574829353</v>
+        <v>1.86797681849982</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7711120085081032</v>
+        <v>0.7711120660220986</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1404951541616929</v>
+        <v>0.1404951541585119</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9766839591387499</v>
+        <v>0.9766839638743902</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -643,19 +643,19 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>18.76512100456621</v>
+        <v>18.76513686613794</v>
       </c>
       <c r="B10" t="n">
-        <v>1.273214491708724</v>
+        <v>1.273215693342946</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8180274406701389</v>
+        <v>0.8180273510082909</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1551019322810776</v>
+        <v>0.1551019322809612</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9845468546327164</v>
+        <v>0.9845468466026978</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -665,19 +665,19 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>33.40584702797203</v>
+        <v>33.4058782051282</v>
       </c>
       <c r="B11" t="n">
-        <v>1.787868881118881</v>
+        <v>1.787869755244755</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7718214574409681</v>
+        <v>0.7718214508202421</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1469353071510255</v>
+        <v>0.1469353071512422</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9796905551070637</v>
+        <v>0.9796905416195537</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -687,19 +687,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>14.37096676561978</v>
+        <v>14.37162277510298</v>
       </c>
       <c r="B12" t="n">
-        <v>1.337748357401096</v>
+        <v>1.337812013931753</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7722033935020765</v>
+        <v>0.7721978500334989</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1549590955272082</v>
+        <v>0.1549590911723538</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9884262505387038</v>
+        <v>0.9884260641448166</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -709,19 +709,19 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>56.6655591700077</v>
+        <v>56.66569675105587</v>
       </c>
       <c r="B13" t="n">
-        <v>3.109927026642709</v>
+        <v>3.109932566819144</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4857756410111257</v>
+        <v>0.4857747176855161</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04668697204677446</v>
+        <v>0.04668697195546433</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9665449433324301</v>
+        <v>0.9665449128775773</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -731,19 +731,19 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>25.23884554800586</v>
+        <v>25.23885603370336</v>
       </c>
       <c r="B14" t="n">
-        <v>1.607591411980725</v>
+        <v>1.607591800339892</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7656116356741379</v>
+        <v>0.7656116353180323</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1084810411249552</v>
+        <v>0.1084810411247814</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9814777713237465</v>
+        <v>0.9814777652992646</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -753,19 +753,19 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>33.78557565564724</v>
+        <v>33.78595532664109</v>
       </c>
       <c r="B15" t="n">
-        <v>2.118708572029222</v>
+        <v>2.118715719766648</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6035531869404983</v>
+        <v>0.6035536412896737</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06099893797477288</v>
+        <v>0.06099893796915776</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9778282278704198</v>
+        <v>0.9778280326298605</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -797,19 +797,19 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>90.33494609085798</v>
+        <v>90.33495350493807</v>
       </c>
       <c r="B17" t="n">
         <v>4.047752333825589</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5072369208295167</v>
+        <v>0.5072367612497721</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0471950552470031</v>
+        <v>0.04719505526152166</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9636681305504996</v>
+        <v>0.9636681308174715</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -819,19 +819,19 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>85.19006520114209</v>
+        <v>85.19051931960513</v>
       </c>
       <c r="B18" t="n">
-        <v>3.717593870789619</v>
+        <v>3.717603971663682</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5576545761404748</v>
+        <v>0.5576545401728438</v>
       </c>
       <c r="D18" t="n">
-        <v>0.05991281576955211</v>
+        <v>0.0599128157771281</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9560897301772829</v>
+        <v>0.9560895653879682</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -841,19 +841,19 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>108.3151329450845</v>
+        <v>108.3154161450897</v>
       </c>
       <c r="B19" t="n">
-        <v>4.333401994054022</v>
+        <v>4.333406068874242</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4874707908251347</v>
+        <v>0.4874703968536354</v>
       </c>
       <c r="D19" t="n">
-        <v>0.04509365427006545</v>
+        <v>0.04509363659528182</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9568405575153711</v>
+        <v>0.9568404822335924</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -863,19 +863,19 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>88.63649334956635</v>
+        <v>88.6364885821592</v>
       </c>
       <c r="B20" t="n">
-        <v>3.677807898520972</v>
+        <v>3.67780869308883</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5664024020552925</v>
+        <v>0.5664025704238199</v>
       </c>
       <c r="D20" t="n">
-        <v>0.06332846876315699</v>
+        <v>0.06332846874695694</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9496456938066716</v>
+        <v>0.9496457014933852</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -885,19 +885,19 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>87.76839617811942</v>
+        <v>87.76845455850166</v>
       </c>
       <c r="B21" t="n">
-        <v>3.692334058739068</v>
+        <v>3.692334943290314</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5802008543404992</v>
+        <v>0.5802005697260252</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06717980971298536</v>
+        <v>0.06717980970807186</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9528077430922076</v>
+        <v>0.9528077078296523</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -907,19 +907,19 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>89.05076935913367</v>
+        <v>89.05075907781298</v>
       </c>
       <c r="B22" t="n">
-        <v>3.848353881475354</v>
+        <v>3.848353486039944</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5286028241954133</v>
+        <v>0.5286030196003118</v>
       </c>
       <c r="D22" t="n">
-        <v>0.05111811340234364</v>
+        <v>0.05111811808296151</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9609383900267832</v>
+        <v>0.9609384057188151</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -929,19 +929,19 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>50.83881639635711</v>
+        <v>50.83892261934712</v>
       </c>
       <c r="B23" t="n">
-        <v>2.645142814014726</v>
+        <v>2.645146727493305</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6097014584380923</v>
+        <v>0.609700758534544</v>
       </c>
       <c r="D23" t="n">
-        <v>0.06512324780018465</v>
+        <v>0.06512324778338649</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9758807964772626</v>
+        <v>0.975880781337475</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -951,19 +951,19 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>103.593932716437</v>
+        <v>103.5952947124231</v>
       </c>
       <c r="B24" t="n">
-        <v>3.762942566765988</v>
+        <v>3.762985388583965</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5701600111361312</v>
+        <v>0.570158950949549</v>
       </c>
       <c r="D24" t="n">
-        <v>0.05743856940654545</v>
+        <v>0.05743856868085227</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9575474871064923</v>
+        <v>0.9575472205614415</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -995,19 +995,19 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>64.64350060579635</v>
+        <v>64.64350333102824</v>
       </c>
       <c r="B26" t="n">
-        <v>3.053930522483731</v>
+        <v>3.053930068278414</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5863029792292382</v>
+        <v>0.5863028233019822</v>
       </c>
       <c r="D26" t="n">
-        <v>0.06322898643832767</v>
+        <v>0.06322898635614632</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9621766892467924</v>
+        <v>0.9621767008008825</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1039,19 +1039,19 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>80.86027719362156</v>
+        <v>80.86010905853267</v>
       </c>
       <c r="B28" t="n">
-        <v>3.639840203732174</v>
+        <v>3.639837656230827</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5404217385309382</v>
+        <v>0.5404222921523506</v>
       </c>
       <c r="D28" t="n">
-        <v>0.05221068687510077</v>
+        <v>0.05221068685913173</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9640578159083012</v>
+        <v>0.9640578923662985</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1061,19 +1061,19 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>35.86648708796438</v>
+        <v>35.86687106546083</v>
       </c>
       <c r="B29" t="n">
-        <v>2.301618993908903</v>
+        <v>2.301629335613846</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5913956986055006</v>
+        <v>0.5913961606974568</v>
       </c>
       <c r="D29" t="n">
-        <v>0.05606996553706148</v>
+        <v>0.05606996576780184</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9832508323607635</v>
+        <v>0.9832506790296826</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1083,19 +1083,19 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>47.40455583341991</v>
+        <v>47.40453982426416</v>
       </c>
       <c r="B30" t="n">
-        <v>2.643900157969414</v>
+        <v>2.643901647193204</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5943153147372547</v>
+        <v>0.594315189303344</v>
       </c>
       <c r="D30" t="n">
-        <v>0.05769601717893288</v>
+        <v>0.05769601742953831</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9779612959805427</v>
+        <v>0.9779613164533556</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1105,19 +1105,19 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>58.37961851055189</v>
+        <v>58.37978356863537</v>
       </c>
       <c r="B31" t="n">
-        <v>2.912788377732492</v>
+        <v>2.912789215590784</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5820925602433354</v>
+        <v>0.5820928721822676</v>
       </c>
       <c r="D31" t="n">
-        <v>0.05787677563251428</v>
+        <v>0.05787677568160016</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9691492152558233</v>
+        <v>0.9691491422088812</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1127,19 +1127,19 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>89.57067955448839</v>
+        <v>89.57095859219896</v>
       </c>
       <c r="B32" t="n">
-        <v>3.984319475855565</v>
+        <v>3.984329707238285</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4152039018183958</v>
+        <v>0.4152038027730254</v>
       </c>
       <c r="D32" t="n">
-        <v>0.04074801200205668</v>
+        <v>0.04074801189755881</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9541425324231727</v>
+        <v>0.9541424585863215</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1149,19 +1149,19 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>50.4877147062672</v>
+        <v>50.48798183692624</v>
       </c>
       <c r="B33" t="n">
-        <v>2.56124038273032</v>
+        <v>2.561245815896267</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5821337334133025</v>
+        <v>0.5821340181836037</v>
       </c>
       <c r="D33" t="n">
-        <v>0.05940977928463884</v>
+        <v>0.05940977928571713</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9704330827687075</v>
+        <v>0.9704329640875665</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1171,19 +1171,19 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>55.16934173904509</v>
+        <v>55.16951145758461</v>
       </c>
       <c r="B34" t="n">
-        <v>3.116767410662926</v>
+        <v>3.116772054702565</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4472903944443269</v>
+        <v>0.447290314955044</v>
       </c>
       <c r="D34" t="n">
-        <v>0.04536601682490101</v>
+        <v>0.04536601681949871</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9667220669147819</v>
+        <v>0.9667219995165977</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1193,19 +1193,19 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>51.38407039355069</v>
+        <v>51.38408617685803</v>
       </c>
       <c r="B35" t="n">
-        <v>3.019259479596029</v>
+        <v>3.019259884296217</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4452151523526547</v>
+        <v>0.4452151856173217</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0429720269035849</v>
+        <v>0.04297202688929228</v>
       </c>
       <c r="E35" t="n">
-        <v>0.969855679578052</v>
+        <v>0.9698556685903585</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1237,19 +1237,19 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>30.65527915135852</v>
+        <v>30.65524811306217</v>
       </c>
       <c r="B37" t="n">
-        <v>2.205845709173341</v>
+        <v>2.205845164641826</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5767345224529206</v>
+        <v>0.576734524370365</v>
       </c>
       <c r="D37" t="n">
         <v>0.0671306397143057</v>
       </c>
       <c r="E37" t="n">
-        <v>0.978231650867925</v>
+        <v>0.9782316700298984</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1259,19 +1259,19 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>55.59477448627884</v>
+        <v>55.59492953916605</v>
       </c>
       <c r="B38" t="n">
-        <v>2.859235409913838</v>
+        <v>2.859233674247191</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5239201607687719</v>
+        <v>0.5239201073387155</v>
       </c>
       <c r="D38" t="n">
-        <v>0.05413381223883382</v>
+        <v>0.05413381219864227</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9658498606161459</v>
+        <v>0.9658497354510647</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1281,19 +1281,19 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>37.94224327569292</v>
+        <v>37.94227221329525</v>
       </c>
       <c r="B39" t="n">
-        <v>2.369331164651135</v>
+        <v>2.369331710643632</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5342764944749187</v>
+        <v>0.534276493706484</v>
       </c>
       <c r="D39" t="n">
-        <v>0.06281340902478202</v>
+        <v>0.06281340903546036</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9713277079143954</v>
+        <v>0.9713276899799831</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1303,19 +1303,19 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>51.53506691623328</v>
+        <v>51.53512800285884</v>
       </c>
       <c r="B40" t="n">
-        <v>3.118994802916497</v>
+        <v>3.118997024248335</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4289869966728636</v>
+        <v>0.4289867780868207</v>
       </c>
       <c r="D40" t="n">
-        <v>0.05180603014879207</v>
+        <v>0.05180603014767591</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9683389990739649</v>
+        <v>0.9683389761276823</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1325,19 +1325,19 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>38.19837841253452</v>
+        <v>38.19830473284647</v>
       </c>
       <c r="B41" t="n">
-        <v>2.315599868547629</v>
+        <v>2.315598892657721</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5624711108043988</v>
+        <v>0.5624710846307125</v>
       </c>
       <c r="D41" t="n">
-        <v>0.06239660565801368</v>
+        <v>0.06239660565753671</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9749392703982215</v>
+        <v>0.9749393160972952</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1347,19 +1347,19 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>69.16993293704078</v>
+        <v>69.16998121633651</v>
       </c>
       <c r="B42" t="n">
-        <v>3.063993074938519</v>
+        <v>3.063993829302515</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5297825120993666</v>
+        <v>0.5297825119727432</v>
       </c>
       <c r="D42" t="n">
         <v>0.06841016506372348</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9453821391148177</v>
+        <v>0.9453821126488717</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1391,19 +1391,19 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>42.64101483329897</v>
+        <v>42.64100259813671</v>
       </c>
       <c r="B44" t="n">
-        <v>2.39650368003093</v>
+        <v>2.396503068272817</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5671875617105495</v>
+        <v>0.5671875924120442</v>
       </c>
       <c r="D44" t="n">
         <v>0.07005799398251691</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9591164875152471</v>
+        <v>0.9591164912411235</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1413,19 +1413,19 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>59.5395314227563</v>
+        <v>59.53964428223288</v>
       </c>
       <c r="B45" t="n">
-        <v>2.780089962392928</v>
+        <v>2.780092831701654</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5925172938734977</v>
+        <v>0.5925170771738615</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1032175528313082</v>
+        <v>0.1032175528356011</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9667079046962141</v>
+        <v>0.9667078561560524</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1435,19 +1435,19 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>45.8172352133549</v>
+        <v>45.81762999465885</v>
       </c>
       <c r="B46" t="n">
-        <v>2.363651400051848</v>
+        <v>2.363659456813153</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5717181282128786</v>
+        <v>0.5717181746891399</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0945281263729309</v>
+        <v>0.09452812635793187</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9653142726484745</v>
+        <v>0.9653140497533941</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1501,19 +1501,19 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>44.8166269741122</v>
+        <v>44.81653582068807</v>
       </c>
       <c r="B49" t="n">
-        <v>2.30646030619841</v>
+        <v>2.30645849219992</v>
       </c>
       <c r="C49" t="n">
-        <v>0.652564146815495</v>
+        <v>0.6525641482543707</v>
       </c>
       <c r="D49" t="n">
-        <v>0.08189596533705588</v>
+        <v>0.08189596533611417</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9689665168766207</v>
+        <v>0.9689665675303233</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1523,19 +1523,19 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>69.35622932006649</v>
+        <v>69.35625525440506</v>
       </c>
       <c r="B50" t="n">
-        <v>3.448028233849931</v>
+        <v>3.448028666088907</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5423719301926606</v>
+        <v>0.5423719315669879</v>
       </c>
       <c r="D50" t="n">
-        <v>0.06735975814174468</v>
+        <v>0.06735975814209137</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9647103306208519</v>
+        <v>0.9647103197978188</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1545,19 +1545,19 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>35.24498869217312</v>
+        <v>35.24588004288779</v>
       </c>
       <c r="B51" t="n">
-        <v>2.17843202197762</v>
+        <v>2.178470629113438</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6397220391037844</v>
+        <v>0.639720500339812</v>
       </c>
       <c r="D51" t="n">
-        <v>0.08864039943211595</v>
+        <v>0.08864039896405512</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9747946670870632</v>
+        <v>0.9747942233584673</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1589,19 +1589,19 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>196.752254464324</v>
+        <v>196.7179522481817</v>
       </c>
       <c r="B53" t="n">
-        <v>3.815518371568116</v>
+        <v>3.817012717277106</v>
       </c>
       <c r="C53" t="n">
-        <v>0.758148522096262</v>
+        <v>0.7577383886591722</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5756434397644672</v>
+        <v>0.579609772904508</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9746307923211304</v>
+        <v>0.9746387975268715</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1611,19 +1611,19 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>221.0180088713235</v>
+        <v>220.9689140545664</v>
       </c>
       <c r="B54" t="n">
-        <v>4.272563922298859</v>
+        <v>4.273480822782538</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7289483783142829</v>
+        <v>0.7287428946417509</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5378911637061772</v>
+        <v>0.5388061419062714</v>
       </c>
       <c r="E54" t="n">
-        <v>0.971180279071047</v>
+        <v>0.9711890325323937</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1633,19 +1633,19 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>228.9257281040732</v>
+        <v>228.8448618678444</v>
       </c>
       <c r="B55" t="n">
-        <v>4.144339341862085</v>
+        <v>4.145157093824256</v>
       </c>
       <c r="C55" t="n">
-        <v>0.742759178006313</v>
+        <v>0.7425930779085909</v>
       </c>
       <c r="D55" t="n">
-        <v>0.548096726421185</v>
+        <v>0.5500331820645038</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9708026539537837</v>
+        <v>0.9708161998267516</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1655,19 +1655,19 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>231.3707898743066</v>
+        <v>231.3024201477854</v>
       </c>
       <c r="B56" t="n">
-        <v>4.391180163786133</v>
+        <v>4.392316421684537</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7145261403716231</v>
+        <v>0.7143815183015862</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5173016018807125</v>
+        <v>0.5188840705849649</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9699724210647276</v>
+        <v>0.9699850112094078</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1677,19 +1677,19 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>259.3720654127643</v>
+        <v>259.3085036163644</v>
       </c>
       <c r="B57" t="n">
-        <v>4.282871075105136</v>
+        <v>4.283998340170456</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7219036226647196</v>
+        <v>0.7217174377520174</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4861796314600343</v>
+        <v>0.4868987040838395</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9688936197880812</v>
+        <v>0.968904144924599</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1699,19 +1699,19 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>22.27428191926867</v>
+        <v>22.27431374257783</v>
       </c>
       <c r="B58" t="n">
-        <v>1.623350328612386</v>
+        <v>1.623352776559244</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7648388872820833</v>
+        <v>0.7648385998137474</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1327670424517706</v>
+        <v>0.1327670423958031</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9776372860069946</v>
+        <v>0.9776372733055374</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1721,19 +1721,19 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>262.0996670824073</v>
+        <v>262.1246122543709</v>
       </c>
       <c r="B59" t="n">
-        <v>4.813837728515161</v>
+        <v>4.815320206459615</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7001586353732849</v>
+        <v>0.7001083811158029</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4674752744579534</v>
+        <v>0.4711260083445824</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9710690129841342</v>
+        <v>0.971070177417664</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1743,19 +1743,19 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>203.0717360605842</v>
+        <v>202.9079549863719</v>
       </c>
       <c r="B60" t="n">
-        <v>3.378249561025655</v>
+        <v>3.387009767141821</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7854080748230187</v>
+        <v>0.7820480231365254</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5556713845176712</v>
+        <v>0.5553686704407226</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9693412864957807</v>
+        <v>0.9693767353433239</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -1765,19 +1765,19 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>231.6230920493045</v>
+        <v>231.7389980597839</v>
       </c>
       <c r="B61" t="n">
-        <v>4.283693278203381</v>
+        <v>4.285652782262405</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8165117425539681</v>
+        <v>0.8168265098041103</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7282318989372355</v>
+        <v>0.7298461635231108</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9345422412103529</v>
+        <v>0.9345445161340472</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -1787,19 +1787,19 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>310.4405951602197</v>
+        <v>310.3614954964021</v>
       </c>
       <c r="B62" t="n">
-        <v>4.713225889158058</v>
+        <v>4.714523893389691</v>
       </c>
       <c r="C62" t="n">
-        <v>0.723832365246183</v>
+        <v>0.7236133522174248</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5327196617711837</v>
+        <v>0.5335164370214459</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9604702955720585</v>
+        <v>0.9604841453008477</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -1809,19 +1809,19 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>101.3666297149183</v>
+        <v>101.3835180264122</v>
       </c>
       <c r="B63" t="n">
-        <v>2.362347678688215</v>
+        <v>2.363561127483039</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7786537547518095</v>
+        <v>0.7785261478844959</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5219114206639252</v>
+        <v>0.5224972495781646</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9773714739297771</v>
+        <v>0.9773718795008324</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -1831,19 +1831,19 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131.6887710144525</v>
+        <v>131.7122847317884</v>
       </c>
       <c r="B64" t="n">
-        <v>2.917979655763</v>
+        <v>2.919491943803836</v>
       </c>
       <c r="C64" t="n">
-        <v>0.743588016237979</v>
+        <v>0.7433145352506831</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4905838142107468</v>
+        <v>0.4914491547997512</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9748751936214176</v>
+        <v>0.9748750109579343</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -1853,19 +1853,19 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>148.4228976417517</v>
+        <v>148.4751044197247</v>
       </c>
       <c r="B65" t="n">
-        <v>2.963947155319573</v>
+        <v>2.966831595995487</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7732046594413886</v>
+        <v>0.7726660345359736</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5752781224913806</v>
+        <v>0.5756826152507063</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9726383929053283</v>
+        <v>0.9726346132525351</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -1875,19 +1875,19 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>147.4292157788245</v>
+        <v>147.467941629836</v>
       </c>
       <c r="B66" t="n">
-        <v>2.890164255481142</v>
+        <v>2.892698668374245</v>
       </c>
       <c r="C66" t="n">
-        <v>0.7809192054993735</v>
+        <v>0.7803152055809347</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5844426308333742</v>
+        <v>0.5845435534828686</v>
       </c>
       <c r="E66" t="n">
-        <v>0.97148843242824</v>
+        <v>0.9714845590419876</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -1897,19 +1897,19 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131.3828370438934</v>
+        <v>131.427378379695</v>
       </c>
       <c r="B67" t="n">
-        <v>2.744666439323817</v>
+        <v>2.747315633068641</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8067974434640569</v>
+        <v>0.8062283092920474</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6333261135424101</v>
+        <v>0.6344102775278189</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9758522910524822</v>
+        <v>0.9758497106762746</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -1919,19 +1919,19 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>158.6890046143803</v>
+        <v>158.7261907952083</v>
       </c>
       <c r="B68" t="n">
-        <v>3.088639424032444</v>
+        <v>3.094849185914342</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8186997593964369</v>
+        <v>0.8168100308168744</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6632628139940776</v>
+        <v>0.6628000089449966</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9727398919180631</v>
+        <v>0.9727444831746297</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -1941,19 +1941,19 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>16.07340444484706</v>
+        <v>16.07397847027207</v>
       </c>
       <c r="B69" t="n">
-        <v>1.277911495606486</v>
+        <v>1.277947730772715</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7860555808808924</v>
+        <v>0.7860536648136377</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1229689908173391</v>
+        <v>0.1229689888550452</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9895906743367821</v>
+        <v>0.9895903960490795</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -1963,19 +1963,19 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>186.8368339134749</v>
+        <v>186.9009354525924</v>
       </c>
       <c r="B70" t="n">
-        <v>3.348044174805048</v>
+        <v>3.351250327995211</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7599104424383522</v>
+        <v>0.7594296329295513</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5198862831127445</v>
+        <v>0.5203803515106271</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9680231117149573</v>
+        <v>0.968019557167078</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -1985,19 +1985,19 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>155.5401985385896</v>
+        <v>155.5939025398229</v>
       </c>
       <c r="B71" t="n">
-        <v>3.172519521382508</v>
+        <v>3.175364377470356</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7615759594046543</v>
+        <v>0.7612464449115159</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5585770969902163</v>
+        <v>0.5599846159456464</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9749397737587694</v>
+        <v>0.9749370735580858</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2007,19 +2007,19 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>120.5247818730956</v>
+        <v>120.5735465328815</v>
       </c>
       <c r="B72" t="n">
-        <v>2.469897817855668</v>
+        <v>2.472201369774145</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8070961931011679</v>
+        <v>0.8068341431983147</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6082450229632821</v>
+        <v>0.6091922159906136</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9779170388991036</v>
+        <v>0.9779131643044713</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2029,19 +2029,19 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>149.4759675767437</v>
+        <v>149.5068093953944</v>
       </c>
       <c r="B73" t="n">
-        <v>3.000537673138581</v>
+        <v>3.003522281070461</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7797902680484843</v>
+        <v>0.7791190539179349</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6093733958371411</v>
+        <v>0.6100445532217259</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9740611380325691</v>
+        <v>0.9740615065265847</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2051,19 +2051,19 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>166.1249531426727</v>
+        <v>166.19558201186</v>
       </c>
       <c r="B74" t="n">
-        <v>3.265548873710429</v>
+        <v>3.268937444489754</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7779866502160719</v>
+        <v>0.7773098722417836</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5819913028304661</v>
+        <v>0.5827801339234896</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9710414940892161</v>
+        <v>0.9710361272326403</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2073,19 +2073,19 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>211.9906031330435</v>
+        <v>212.0174654270813</v>
       </c>
       <c r="B75" t="n">
-        <v>4.153726757381377</v>
+        <v>4.154957288254529</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8326535276805654</v>
+        <v>0.8323754470034916</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7648458731020209</v>
+        <v>0.7659417269010824</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9470675096376696</v>
+        <v>0.9470651897337016</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2095,19 +2095,19 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>187.9856863193175</v>
+        <v>188.0473513101767</v>
       </c>
       <c r="B76" t="n">
-        <v>3.158877666057282</v>
+        <v>3.161968007312614</v>
       </c>
       <c r="C76" t="n">
-        <v>0.887288616280682</v>
+        <v>0.8863550451794106</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8286253245772828</v>
+        <v>0.8295643559896553</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9439234195248362</v>
+        <v>0.9439157935510087</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2117,19 +2117,19 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>82.39666131064902</v>
+        <v>82.41771487082545</v>
       </c>
       <c r="B77" t="n">
-        <v>1.589895715185885</v>
+        <v>1.59163988657845</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9354310710229772</v>
+        <v>0.9347855945758785</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9011563806155294</v>
+        <v>0.9015416169681775</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9563679135838061</v>
+        <v>0.956361227794458</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2139,19 +2139,19 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>102.1125888420066</v>
+        <v>102.1468532583216</v>
       </c>
       <c r="B78" t="n">
-        <v>1.82123050476637</v>
+        <v>1.823322706672918</v>
       </c>
       <c r="C78" t="n">
-        <v>0.926422562699652</v>
+        <v>0.9257399213968934</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8851223771718829</v>
+        <v>0.8856346563261247</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9510387533373533</v>
+        <v>0.9510301619584344</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2161,19 +2161,19 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>140.1305331301988</v>
+        <v>140.1535302791304</v>
       </c>
       <c r="B79" t="n">
-        <v>2.394723563933495</v>
+        <v>2.395588600298497</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9089723240665393</v>
+        <v>0.9088239754579307</v>
       </c>
       <c r="D79" t="n">
-        <v>0.865414547918712</v>
+        <v>0.8661072707959859</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9447979169742248</v>
+        <v>0.944795755206555</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2183,19 +2183,19 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>13.62172346170651</v>
+        <v>13.62177474442403</v>
       </c>
       <c r="B80" t="n">
-        <v>1.145890955164546</v>
+        <v>1.145894374012381</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8099654770298856</v>
+        <v>0.8099654860077941</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1276233240615063</v>
+        <v>0.127623324032256</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9851879656319148</v>
+        <v>0.9851879424533533</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2205,19 +2205,19 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>184.6543323408648</v>
+        <v>184.6770676704208</v>
       </c>
       <c r="B81" t="n">
-        <v>3.473757837679947</v>
+        <v>3.474549986888793</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8611440533450044</v>
+        <v>0.8610545637546527</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8001112553808952</v>
+        <v>0.8018297221360217</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9469301487085222</v>
+        <v>0.9469290601037859</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2227,19 +2227,19 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>183.4329173857462</v>
+        <v>183.4727032598275</v>
       </c>
       <c r="B82" t="n">
-        <v>3.600172099712368</v>
+        <v>3.602940076701822</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8617574516749297</v>
+        <v>0.8607915335072425</v>
       </c>
       <c r="D82" t="n">
-        <v>0.8054849240928067</v>
+        <v>0.8061654468580369</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9506977079787104</v>
+        <v>0.9506923151286936</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2249,19 +2249,19 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>172.8772190031153</v>
+        <v>172.9054517133956</v>
       </c>
       <c r="B83" t="n">
-        <v>3.046704361370717</v>
+        <v>3.049265732087227</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8798336290199452</v>
+        <v>0.8788845922815887</v>
       </c>
       <c r="D83" t="n">
-        <v>0.825648376864184</v>
+        <v>0.826264293586765</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9496408227043915</v>
+        <v>0.9496360262229234</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2271,19 +2271,19 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>226.868088893774</v>
+        <v>226.8889813031936</v>
       </c>
       <c r="B84" t="n">
-        <v>4.29084267324722</v>
+        <v>4.29233288183621</v>
       </c>
       <c r="C84" t="n">
-        <v>0.821287910274763</v>
+        <v>0.8208494543506054</v>
       </c>
       <c r="D84" t="n">
-        <v>0.7347361560440235</v>
+        <v>0.7359201270424731</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9488973029635199</v>
+        <v>0.9488962107001517</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2293,19 +2293,19 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>213.4918569792891</v>
+        <v>213.5085011094322</v>
       </c>
       <c r="B85" t="n">
-        <v>4.291526947783329</v>
+        <v>4.292173171251866</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8091943207839881</v>
+        <v>0.8090868753131205</v>
       </c>
       <c r="D85" t="n">
-        <v>0.7337370311891451</v>
+        <v>0.7349143323243457</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9487318161463345</v>
+        <v>0.9487305403024195</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2315,19 +2315,19 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>259.0438214787603</v>
+        <v>259.0686890321425</v>
       </c>
       <c r="B86" t="n">
-        <v>4.398192227415885</v>
+        <v>4.398827297497471</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8445773414363645</v>
+        <v>0.8445212665024535</v>
       </c>
       <c r="D86" t="n">
-        <v>0.7930495855781289</v>
+        <v>0.7945966552854811</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9341125325943838</v>
+        <v>0.9341105260516305</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2337,19 +2337,19 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>101.0401628578216</v>
+        <v>101.0842824725771</v>
       </c>
       <c r="B87" t="n">
-        <v>1.838174072425552</v>
+        <v>1.839632256140316</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9183434485646916</v>
+        <v>0.9182628489688021</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8739192677974947</v>
+        <v>0.8746399437152841</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9582551866274831</v>
+        <v>0.958250515465349</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2359,19 +2359,19 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>170.4426152017403</v>
+        <v>170.5583601959285</v>
       </c>
       <c r="B88" t="n">
-        <v>3.112529387825609</v>
+        <v>3.116612648695809</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8698173470564264</v>
+        <v>0.8691449695258348</v>
       </c>
       <c r="D88" t="n">
-        <v>0.8080468226941289</v>
+        <v>0.8084130384315613</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9583337402571426</v>
+        <v>0.958322325719924</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2381,19 +2381,19 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>188.5820950784088</v>
+        <v>188.6449277829767</v>
       </c>
       <c r="B89" t="n">
-        <v>3.465512618947814</v>
+        <v>3.467221420528397</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8492475491069367</v>
+        <v>0.8493270795603818</v>
       </c>
       <c r="D89" t="n">
-        <v>0.7827751099247543</v>
+        <v>0.7846866558491198</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9510308252240486</v>
+        <v>0.9510272204381162</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2403,19 +2403,19 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>216.0344612548741</v>
+        <v>216.2411919177596</v>
       </c>
       <c r="B90" t="n">
-        <v>4.224008791208791</v>
+        <v>4.230547465437788</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8166712993243673</v>
+        <v>0.8159517418046361</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7268674842115727</v>
+        <v>0.7272753077224758</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9589222636967616</v>
+        <v>0.9589083615778974</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2447,19 +2447,19 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>182.7512338244034</v>
+        <v>182.8226388387091</v>
       </c>
       <c r="B92" t="n">
-        <v>3.364976259369259</v>
+        <v>3.367041894463189</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8617691511771911</v>
+        <v>0.8616905961696237</v>
       </c>
       <c r="D92" t="n">
-        <v>0.7999772426723618</v>
+        <v>0.8012512005137384</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9560815733274947</v>
+        <v>0.9560756672169378</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2469,19 +2469,19 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>149.8499959271462</v>
+        <v>149.9100652253578</v>
       </c>
       <c r="B93" t="n">
-        <v>2.839161365698175</v>
+        <v>2.841150420409022</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8794994712898716</v>
+        <v>0.8793449898659378</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8248737023116581</v>
+        <v>0.8257584824404901</v>
       </c>
       <c r="E93" t="n">
-        <v>0.959777337701864</v>
+        <v>0.9597710549008798</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2491,19 +2491,19 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>148.6082085711742</v>
+        <v>148.6641436058351</v>
       </c>
       <c r="B94" t="n">
-        <v>2.723115980127071</v>
+        <v>2.725330265046567</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8756154490404372</v>
+        <v>0.8751349007912577</v>
       </c>
       <c r="D94" t="n">
-        <v>0.7778236236321446</v>
+        <v>0.7793825305922497</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9604876794279055</v>
+        <v>0.9604839192515305</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2513,19 +2513,19 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>136.2331761433573</v>
+        <v>136.2930742274157</v>
       </c>
       <c r="B95" t="n">
-        <v>3.013176249926734</v>
+        <v>3.015217410610412</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8620495508814794</v>
+        <v>0.8618466530686065</v>
       </c>
       <c r="D95" t="n">
-        <v>0.8014038853836003</v>
+        <v>0.8017424295135188</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9644882842234134</v>
+        <v>0.9644818628803766</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -2535,19 +2535,19 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>169.0554040852766</v>
+        <v>169.1171104556745</v>
       </c>
       <c r="B96" t="n">
-        <v>3.362254049890124</v>
+        <v>3.363949239003668</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8503900177529479</v>
+        <v>0.8502967088118635</v>
       </c>
       <c r="D96" t="n">
-        <v>0.7799034391353962</v>
+        <v>0.7818452785286942</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9487914888669547</v>
+        <v>0.9487853847820596</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -2557,19 +2557,19 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>155.4938251719886</v>
+        <v>155.5880950437503</v>
       </c>
       <c r="B97" t="n">
-        <v>2.830724037527502</v>
+        <v>2.833895257221154</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8878252690401465</v>
+        <v>0.8872343609243017</v>
       </c>
       <c r="D97" t="n">
-        <v>0.8385794343745112</v>
+        <v>0.8390673578208664</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9515112906056608</v>
+        <v>0.9514954022978162</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -2579,19 +2579,19 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>92.65012747967481</v>
+        <v>92.70024585365853</v>
       </c>
       <c r="B98" t="n">
-        <v>1.990109593495935</v>
+        <v>1.992892032520325</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9078661421371585</v>
+        <v>0.9070350045697829</v>
       </c>
       <c r="D98" t="n">
-        <v>0.8573552934449618</v>
+        <v>0.8576450333781033</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9689769718986105</v>
+        <v>0.9689699110137371</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -2601,19 +2601,19 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>89.77435920299095</v>
+        <v>89.84319413246722</v>
       </c>
       <c r="B99" t="n">
-        <v>1.720886200825644</v>
+        <v>1.723037262728671</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9261133850674831</v>
+        <v>0.9257395443804499</v>
       </c>
       <c r="D99" t="n">
-        <v>0.8924926005967115</v>
+        <v>0.8928478747862342</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9582898663154348</v>
+        <v>0.9582725219953593</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -2623,19 +2623,19 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>19.98344932186284</v>
+        <v>19.98577638968254</v>
       </c>
       <c r="B100" t="n">
-        <v>1.027874855879715</v>
+        <v>1.028402688823301</v>
       </c>
       <c r="C100" t="n">
-        <v>0.8573677879698161</v>
+        <v>0.857145625948502</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2992477207544054</v>
+        <v>0.2990718623491581</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9753006571815115</v>
+        <v>0.9752980673658319</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -2645,19 +2645,19 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>24.98015584002238</v>
+        <v>24.9832213910954</v>
       </c>
       <c r="B101" t="n">
-        <v>1.270345798524506</v>
+        <v>1.270529748700531</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8081203995358422</v>
+        <v>0.808067081132458</v>
       </c>
       <c r="D101" t="n">
-        <v>0.194069261574177</v>
+        <v>0.1940113056538371</v>
       </c>
       <c r="E101" t="n">
-        <v>0.980062532800932</v>
+        <v>0.9800600283052041</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -2667,19 +2667,19 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>47.77975743498614</v>
+        <v>47.77956698367094</v>
       </c>
       <c r="B102" t="n">
-        <v>2.697884746637563</v>
+        <v>2.697883191932949</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4521163754439488</v>
+        <v>0.4521161256186173</v>
       </c>
       <c r="D102" t="n">
-        <v>0.04438879880750834</v>
+        <v>0.04438879955177122</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9769907884202166</v>
+        <v>0.9769908916981385</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -2689,19 +2689,19 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>124.2490424485444</v>
+        <v>124.2497937949474</v>
       </c>
       <c r="B103" t="n">
-        <v>4.276257363402354</v>
+        <v>4.276288413758269</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4055046667631306</v>
+        <v>0.4055044779619083</v>
       </c>
       <c r="D103" t="n">
-        <v>0.04020244742441013</v>
+        <v>0.04020244564993651</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9562862198574148</v>
+        <v>0.9562861578549881</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -2711,19 +2711,19 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>57.77528944658408</v>
+        <v>57.77508080693839</v>
       </c>
       <c r="B104" t="n">
-        <v>2.780486389313841</v>
+        <v>2.780482222473556</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4770352202557479</v>
+        <v>0.4770356630572929</v>
       </c>
       <c r="D104" t="n">
-        <v>0.06192926537675554</v>
+        <v>0.06192929486946845</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9589458286866254</v>
+        <v>0.9589459755976775</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -2733,19 +2733,19 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>49.22636599586182</v>
+        <v>49.22534307470868</v>
       </c>
       <c r="B105" t="n">
-        <v>2.726735371516521</v>
+        <v>2.726698354952286</v>
       </c>
       <c r="C105" t="n">
-        <v>0.4771197938405415</v>
+        <v>0.4771207799340219</v>
       </c>
       <c r="D105" t="n">
-        <v>0.03243177319488405</v>
+        <v>0.03243185469541716</v>
       </c>
       <c r="E105" t="n">
-        <v>0.9887875146175067</v>
+        <v>0.9887877269920409</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -2755,19 +2755,19 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>97.41431751554285</v>
+        <v>97.3941524553255</v>
       </c>
       <c r="B106" t="n">
-        <v>3.478925175698789</v>
+        <v>3.478505166345608</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4307015974332145</v>
+        <v>0.4307051448245751</v>
       </c>
       <c r="D106" t="n">
-        <v>0.06388243018085306</v>
+        <v>0.06388309770391937</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9502437555977737</v>
+        <v>0.9502534110764078</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -2777,19 +2777,19 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>91.30009511359955</v>
+        <v>91.30156356508567</v>
       </c>
       <c r="B107" t="n">
-        <v>3.896374771437999</v>
+        <v>3.896429992989072</v>
       </c>
       <c r="C107" t="n">
-        <v>0.3836914133919015</v>
+        <v>0.3836888705236744</v>
       </c>
       <c r="D107" t="n">
-        <v>0.03674352250438282</v>
+        <v>0.0367435259362693</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9617747072700331</v>
+        <v>0.961774485478371</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -2799,19 +2799,19 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>175.3048561953616</v>
+        <v>175.3006136283319</v>
       </c>
       <c r="B108" t="n">
-        <v>4.981293527809607</v>
+        <v>4.981148955689537</v>
       </c>
       <c r="C108" t="n">
-        <v>0.3953147212937466</v>
+        <v>0.3953152245484569</v>
       </c>
       <c r="D108" t="n">
-        <v>0.06915518752667103</v>
+        <v>0.06915537244404239</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9254753949763724</v>
+        <v>0.9254771536207174</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -2821,19 +2821,19 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>64.95547203236893</v>
+        <v>64.95192517682045</v>
       </c>
       <c r="B109" t="n">
-        <v>3.26562902827787</v>
+        <v>3.265521607534668</v>
       </c>
       <c r="C109" t="n">
-        <v>0.4231117458335132</v>
+        <v>0.4231100332851939</v>
       </c>
       <c r="D109" t="n">
-        <v>0.07537039740402611</v>
+        <v>0.07537071025374019</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9456893993873535</v>
+        <v>0.9456922452299386</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -2843,19 +2843,19 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>148.3676851345782</v>
+        <v>148.359944566196</v>
       </c>
       <c r="B110" t="n">
-        <v>4.691258651582448</v>
+        <v>4.691107243362183</v>
       </c>
       <c r="C110" t="n">
-        <v>0.3757727930277739</v>
+        <v>0.3757696329254979</v>
       </c>
       <c r="D110" t="n">
-        <v>0.02825052413737041</v>
+        <v>0.02825072435704163</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9641020002180523</v>
+        <v>0.9641035381558573</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -2865,19 +2865,19 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>114.4403841939249</v>
+        <v>114.4402961269348</v>
       </c>
       <c r="B111" t="n">
-        <v>4.073341819585023</v>
+        <v>4.073333752379826</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4030652934716648</v>
+        <v>0.4030653890774857</v>
       </c>
       <c r="D111" t="n">
-        <v>0.03289783415232985</v>
+        <v>0.03289782509741746</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9736772945083501</v>
+        <v>0.9736773422332954</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -2887,19 +2887,19 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>123.6933145572962</v>
+        <v>123.6938130610808</v>
       </c>
       <c r="B112" t="n">
-        <v>4.181476500616089</v>
+        <v>4.181488705040192</v>
       </c>
       <c r="C112" t="n">
-        <v>0.4204395386527514</v>
+        <v>0.4204397420957767</v>
       </c>
       <c r="D112" t="n">
-        <v>0.05679543472570405</v>
+        <v>0.05679543401769742</v>
       </c>
       <c r="E112" t="n">
-        <v>0.9661431750850927</v>
+        <v>0.9661430463106423</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -2909,19 +2909,19 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>52.60042271928857</v>
+        <v>52.60040115338857</v>
       </c>
       <c r="B113" t="n">
-        <v>3.182163424731276</v>
+        <v>3.182169230935122</v>
       </c>
       <c r="C113" t="n">
-        <v>0.4063189601300523</v>
+        <v>0.4063183075222398</v>
       </c>
       <c r="D113" t="n">
-        <v>0.03922667490361538</v>
+        <v>0.03922668828946865</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9741386154712958</v>
+        <v>0.9741386982091942</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -2931,19 +2931,19 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>50.00760482481333</v>
+        <v>50.00753486631086</v>
       </c>
       <c r="B114" t="n">
-        <v>2.824665406036825</v>
+        <v>2.824676506463417</v>
       </c>
       <c r="C114" t="n">
-        <v>0.446809306362431</v>
+        <v>0.4468094116118347</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0420840730227803</v>
+        <v>0.04208411479562896</v>
       </c>
       <c r="E114" t="n">
-        <v>0.976799149861806</v>
+        <v>0.9767992870103428</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -2953,19 +2953,19 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>43.45964655707278</v>
+        <v>43.45966741223886</v>
       </c>
       <c r="B115" t="n">
-        <v>2.55173645326618</v>
+        <v>2.551731239474659</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4584120557904698</v>
+        <v>0.4584122709484407</v>
       </c>
       <c r="D115" t="n">
-        <v>0.05346530751730302</v>
+        <v>0.05346530754510805</v>
       </c>
       <c r="E115" t="n">
-        <v>0.974354430553995</v>
+        <v>0.9743543841291655</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -2975,19 +2975,19 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>50.35763380034643</v>
+        <v>50.35802553589569</v>
       </c>
       <c r="B116" t="n">
-        <v>2.857846185328918</v>
+        <v>2.857862264026837</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4339167018535112</v>
+        <v>0.4339161353957079</v>
       </c>
       <c r="D116" t="n">
-        <v>0.04637547668908721</v>
+        <v>0.04637548174711099</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9799612053372759</v>
+        <v>0.9799611020282674</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -2997,19 +2997,19 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>51.99447155594432</v>
+        <v>51.99526418366251</v>
       </c>
       <c r="B117" t="n">
-        <v>3.328974008767757</v>
+        <v>3.329008537564774</v>
       </c>
       <c r="C117" t="n">
-        <v>0.4188953981135766</v>
+        <v>0.4188950292300462</v>
       </c>
       <c r="D117" t="n">
-        <v>0.03920611622043827</v>
+        <v>0.03920611415611803</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9851789449013123</v>
+        <v>0.9851787892257032</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3019,19 +3019,19 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>48.41610475943768</v>
+        <v>48.416494987333</v>
       </c>
       <c r="B118" t="n">
-        <v>2.797716353837666</v>
+        <v>2.797738772233167</v>
       </c>
       <c r="C118" t="n">
-        <v>0.4376556139238791</v>
+        <v>0.4376548933175049</v>
       </c>
       <c r="D118" t="n">
-        <v>0.04830554866680647</v>
+        <v>0.04830555321914994</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9821816030567873</v>
+        <v>0.9821815375540627</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -3041,19 +3041,19 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>66.30263005090677</v>
+        <v>66.30273981864461</v>
       </c>
       <c r="B119" t="n">
-        <v>3.208171730830417</v>
+        <v>3.208175177643441</v>
       </c>
       <c r="C119" t="n">
-        <v>0.4211596681038242</v>
+        <v>0.4211594711485429</v>
       </c>
       <c r="D119" t="n">
-        <v>0.03735386209162245</v>
+        <v>0.03735386364495534</v>
       </c>
       <c r="E119" t="n">
-        <v>0.9724450036737134</v>
+        <v>0.9724449805121721</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -3063,19 +3063,19 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>53.34845533280918</v>
+        <v>53.34912999509124</v>
       </c>
       <c r="B120" t="n">
-        <v>3.364166899915094</v>
+        <v>3.364184950295816</v>
       </c>
       <c r="C120" t="n">
-        <v>0.3794857065588953</v>
+        <v>0.379485703210821</v>
       </c>
       <c r="D120" t="n">
-        <v>0.03123557765019211</v>
+        <v>0.03123558113702931</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9804027997916099</v>
+        <v>0.9804026010117118</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -3085,19 +3085,19 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>153.5765146068472</v>
+        <v>153.5771906830824</v>
       </c>
       <c r="B121" t="n">
-        <v>4.76817740350491</v>
+        <v>4.768189787533641</v>
       </c>
       <c r="C121" t="n">
-        <v>0.3808886922535849</v>
+        <v>0.3808885672659132</v>
       </c>
       <c r="D121" t="n">
-        <v>0.06518140286388077</v>
+        <v>0.06518140054751008</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9257732345520826</v>
+        <v>0.9257729431893367</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -3107,19 +3107,19 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>100.1854848961793</v>
+        <v>100.1726234880689</v>
       </c>
       <c r="B122" t="n">
-        <v>3.617804678735058</v>
+        <v>3.617501082456335</v>
       </c>
       <c r="C122" t="n">
-        <v>0.4343737034244979</v>
+        <v>0.4343798489558317</v>
       </c>
       <c r="D122" t="n">
-        <v>0.06127441424145826</v>
+        <v>0.06127438092785997</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9410316225881159</v>
+        <v>0.9410383540933094</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -3129,19 +3129,19 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>115.6056759347973</v>
+        <v>115.602924655307</v>
       </c>
       <c r="B123" t="n">
-        <v>4.167722615485118</v>
+        <v>4.16766675030298</v>
       </c>
       <c r="C123" t="n">
-        <v>0.3907642274765673</v>
+        <v>0.390764094235873</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0609136182724215</v>
+        <v>0.06091374837463249</v>
       </c>
       <c r="E123" t="n">
-        <v>0.9529935441062144</v>
+        <v>0.9529948227172017</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -3151,19 +3151,19 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>102.1599087605685</v>
+        <v>102.1624811688869</v>
       </c>
       <c r="B124" t="n">
-        <v>3.857943096505653</v>
+        <v>3.858029632453831</v>
       </c>
       <c r="C124" t="n">
-        <v>0.40351446864254</v>
+        <v>0.403511589121159</v>
       </c>
       <c r="D124" t="n">
-        <v>0.03659378528777021</v>
+        <v>0.03659378411676778</v>
       </c>
       <c r="E124" t="n">
-        <v>0.961569227552605</v>
+        <v>0.9615687432293265</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -3173,19 +3173,19 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>92.90933743634153</v>
+        <v>92.90773025298449</v>
       </c>
       <c r="B125" t="n">
-        <v>3.723270826031079</v>
+        <v>3.723204160738955</v>
       </c>
       <c r="C125" t="n">
-        <v>0.3927217107758546</v>
+        <v>0.392722141199885</v>
       </c>
       <c r="D125" t="n">
-        <v>0.05504049686865175</v>
+        <v>0.05504054554206953</v>
       </c>
       <c r="E125" t="n">
-        <v>0.9474027876243735</v>
+        <v>0.9474036103326476</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -3195,19 +3195,19 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>195.5051797286567</v>
+        <v>195.4996027948091</v>
       </c>
       <c r="B126" t="n">
-        <v>5.48099777779242</v>
+        <v>5.480879584023827</v>
       </c>
       <c r="C126" t="n">
-        <v>0.3698753520854942</v>
+        <v>0.3698762365022215</v>
       </c>
       <c r="D126" t="n">
-        <v>0.03803343289018072</v>
+        <v>0.03803357233115157</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9510353282485867</v>
+        <v>0.9510365360806772</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -3217,19 +3217,19 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>38.83347581520665</v>
+        <v>38.83421743050635</v>
       </c>
       <c r="B127" t="n">
-        <v>2.443432162156409</v>
+        <v>2.443451168186642</v>
       </c>
       <c r="C127" t="n">
-        <v>0.4654113247465514</v>
+        <v>0.4654105451261343</v>
       </c>
       <c r="D127" t="n">
-        <v>0.03827590884242652</v>
+        <v>0.03827591158449429</v>
       </c>
       <c r="E127" t="n">
-        <v>0.9860680666098769</v>
+        <v>0.9860678351230403</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -3239,19 +3239,19 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>76.30533918642085</v>
+        <v>76.30542313641874</v>
       </c>
       <c r="B128" t="n">
-        <v>3.217455244784481</v>
+        <v>3.217456582633053</v>
       </c>
       <c r="C128" t="n">
-        <v>0.4273602939536201</v>
+        <v>0.4273603309954249</v>
       </c>
       <c r="D128" t="n">
-        <v>0.04385894905703257</v>
+        <v>0.04385894905320672</v>
       </c>
       <c r="E128" t="n">
-        <v>0.9642428526994281</v>
+        <v>0.9642428221089402</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -3261,19 +3261,19 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>129.3504410873861</v>
+        <v>129.3412980583326</v>
       </c>
       <c r="B129" t="n">
-        <v>4.248066793816683</v>
+        <v>4.247732432328586</v>
       </c>
       <c r="C129" t="n">
-        <v>0.4129231013225045</v>
+        <v>0.4129313482217903</v>
       </c>
       <c r="D129" t="n">
-        <v>0.04618686587787344</v>
+        <v>0.04618684046770886</v>
       </c>
       <c r="E129" t="n">
-        <v>0.9450409593986396</v>
+        <v>0.9450441671190739</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -3283,19 +3283,19 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>147.6253108101473</v>
+        <v>147.6152952668918</v>
       </c>
       <c r="B130" t="n">
-        <v>4.694632190587719</v>
+        <v>4.694430296816821</v>
       </c>
       <c r="C130" t="n">
-        <v>0.3532668004250816</v>
+        <v>0.3532687292183342</v>
       </c>
       <c r="D130" t="n">
-        <v>0.03864431743614632</v>
+        <v>0.03864450322881631</v>
       </c>
       <c r="E130" t="n">
-        <v>0.958840209971661</v>
+        <v>0.9588427196192134</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -3305,19 +3305,19 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>48.21764750124338</v>
+        <v>48.21725345531168</v>
       </c>
       <c r="B131" t="n">
-        <v>2.63870408229872</v>
+        <v>2.638696886677359</v>
       </c>
       <c r="C131" t="n">
-        <v>0.4646450470365255</v>
+        <v>0.4646452851076633</v>
       </c>
       <c r="D131" t="n">
-        <v>0.03911478047799365</v>
+        <v>0.03911478515978534</v>
       </c>
       <c r="E131" t="n">
-        <v>0.9791537128424459</v>
+        <v>0.9791539141485697</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -3327,19 +3327,19 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>66.81232378963635</v>
+        <v>66.81190934605401</v>
       </c>
       <c r="B132" t="n">
-        <v>3.000050767742368</v>
+        <v>3.000029055751921</v>
       </c>
       <c r="C132" t="n">
-        <v>0.4530866733614957</v>
+        <v>0.453087024010298</v>
       </c>
       <c r="D132" t="n">
-        <v>0.03885236858554669</v>
+        <v>0.03885238878263913</v>
       </c>
       <c r="E132" t="n">
-        <v>0.9738617754069896</v>
+        <v>0.9738619174097263</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -3349,19 +3349,19 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>82.17875181668286</v>
+        <v>82.17864357369605</v>
       </c>
       <c r="B133" t="n">
-        <v>3.747485688265298</v>
+        <v>3.747484838189486</v>
       </c>
       <c r="C133" t="n">
-        <v>0.3923016030607817</v>
+        <v>0.3923019936894634</v>
       </c>
       <c r="D133" t="n">
-        <v>0.04692234198315214</v>
+        <v>0.04692235522172304</v>
       </c>
       <c r="E133" t="n">
-        <v>0.9710647343815301</v>
+        <v>0.97106478683064</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -3371,19 +3371,19 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>69.27379921321675</v>
+        <v>69.27249837795725</v>
       </c>
       <c r="B134" t="n">
-        <v>3.637098773249529</v>
+        <v>3.637063961601552</v>
       </c>
       <c r="C134" t="n">
-        <v>0.3957874433591395</v>
+        <v>0.3957874507302465</v>
       </c>
       <c r="D134" t="n">
-        <v>0.03337829012019013</v>
+        <v>0.03337831161439481</v>
       </c>
       <c r="E134" t="n">
-        <v>0.9758306901642232</v>
+        <v>0.9758311234691965</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -3393,19 +3393,19 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>61.59604774424839</v>
+        <v>61.59607580638414</v>
       </c>
       <c r="B135" t="n">
-        <v>3.190298610731193</v>
+        <v>3.190299640534339</v>
       </c>
       <c r="C135" t="n">
-        <v>0.4466533454514811</v>
+        <v>0.4466533657549788</v>
       </c>
       <c r="D135" t="n">
-        <v>0.05226793796920511</v>
+        <v>0.05226793796825404</v>
       </c>
       <c r="E135" t="n">
-        <v>0.9780290999060213</v>
+        <v>0.9780290926051046</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -3415,19 +3415,19 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>98.77791523070148</v>
+        <v>98.77828370992069</v>
       </c>
       <c r="B136" t="n">
-        <v>4.228275601742643</v>
+        <v>4.228288138757498</v>
       </c>
       <c r="C136" t="n">
-        <v>0.3746967623787071</v>
+        <v>0.3746969845435054</v>
       </c>
       <c r="D136" t="n">
-        <v>0.04218871283875938</v>
+        <v>0.04218871273047858</v>
       </c>
       <c r="E136" t="n">
-        <v>0.9709520863475238</v>
+        <v>0.9709520230156556</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -3437,19 +3437,19 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>77.35755465909656</v>
+        <v>77.35792519547785</v>
       </c>
       <c r="B137" t="n">
-        <v>3.79662532994671</v>
+        <v>3.79667015289606</v>
       </c>
       <c r="C137" t="n">
-        <v>0.3899537603782694</v>
+        <v>0.3899502276229336</v>
       </c>
       <c r="D137" t="n">
-        <v>0.04776129865366573</v>
+        <v>0.04776134038275603</v>
       </c>
       <c r="E137" t="n">
-        <v>0.9710982581121286</v>
+        <v>0.9710983584149365</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -3459,19 +3459,19 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>84.7872614933577</v>
+        <v>84.7770985726832</v>
       </c>
       <c r="B138" t="n">
-        <v>3.297417571669722</v>
+        <v>3.297155549437679</v>
       </c>
       <c r="C138" t="n">
-        <v>0.4341055709859868</v>
+        <v>0.434106516739005</v>
       </c>
       <c r="D138" t="n">
-        <v>0.06951785657816786</v>
+        <v>0.06951816304085941</v>
       </c>
       <c r="E138" t="n">
-        <v>0.9560484267839482</v>
+        <v>0.956053298855464</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -3481,19 +3481,19 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>115.132152340893</v>
+        <v>115.133255490712</v>
       </c>
       <c r="B139" t="n">
-        <v>4.40282615754861</v>
+        <v>4.402862575149237</v>
       </c>
       <c r="C139" t="n">
-        <v>0.3698704271120948</v>
+        <v>0.3698698529315271</v>
       </c>
       <c r="D139" t="n">
-        <v>0.03678669363971993</v>
+        <v>0.03678669377663697</v>
       </c>
       <c r="E139" t="n">
-        <v>0.9576721278628351</v>
+        <v>0.9576719764909331</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -3503,19 +3503,19 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>79.44623981758167</v>
+        <v>79.44654467696731</v>
       </c>
       <c r="B140" t="n">
-        <v>3.572960242741584</v>
+        <v>3.572968350703967</v>
       </c>
       <c r="C140" t="n">
-        <v>0.400766690450838</v>
+        <v>0.4007669136002843</v>
       </c>
       <c r="D140" t="n">
-        <v>0.04205503459087671</v>
+        <v>0.04205503563700468</v>
       </c>
       <c r="E140" t="n">
-        <v>0.9583369128714941</v>
+        <v>0.9583368359472916</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -3525,19 +3525,19 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>105.4709946217445</v>
+        <v>105.4606303932409</v>
       </c>
       <c r="B141" t="n">
-        <v>3.74610113401258</v>
+        <v>3.745819116526122</v>
       </c>
       <c r="C141" t="n">
-        <v>0.4324643904676535</v>
+        <v>0.4324668921368681</v>
       </c>
       <c r="D141" t="n">
-        <v>0.04976303031782396</v>
+        <v>0.04976360328828543</v>
       </c>
       <c r="E141" t="n">
-        <v>0.960287267732063</v>
+        <v>0.9602907275133403</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -3547,19 +3547,19 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>105.1395665249226</v>
+        <v>105.1399542114127</v>
       </c>
       <c r="B142" t="n">
-        <v>4.181644879175121</v>
+        <v>4.181657414779294</v>
       </c>
       <c r="C142" t="n">
-        <v>0.3854979456622363</v>
+        <v>0.3854971999084931</v>
       </c>
       <c r="D142" t="n">
-        <v>0.03531570128886446</v>
+        <v>0.03531569724490019</v>
       </c>
       <c r="E142" t="n">
-        <v>0.9590740808750273</v>
+        <v>0.9590739944735509</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -3569,19 +3569,19 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>116.0174701350382</v>
+        <v>116.0122694286133</v>
       </c>
       <c r="B143" t="n">
-        <v>3.912128606353197</v>
+        <v>3.912025264716544</v>
       </c>
       <c r="C143" t="n">
-        <v>0.4083105949548095</v>
+        <v>0.4083127484328698</v>
       </c>
       <c r="D143" t="n">
-        <v>0.07255510102172022</v>
+        <v>0.0725554838582827</v>
       </c>
       <c r="E143" t="n">
-        <v>0.9524432405452813</v>
+        <v>0.9524452123909709</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -3591,19 +3591,19 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>84.98184542297049</v>
+        <v>84.98258836348779</v>
       </c>
       <c r="B144" t="n">
-        <v>3.541851405341184</v>
+        <v>3.54187689839815</v>
       </c>
       <c r="C144" t="n">
-        <v>0.4119612025835187</v>
+        <v>0.4119601205118391</v>
       </c>
       <c r="D144" t="n">
-        <v>0.0387810745011114</v>
+        <v>0.0387810742602854</v>
       </c>
       <c r="E144" t="n">
-        <v>0.9627782244050607</v>
+        <v>0.9627780577667927</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -3613,19 +3613,19 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>61.99761205389827</v>
+        <v>61.99768537054521</v>
       </c>
       <c r="B145" t="n">
-        <v>3.102562428265676</v>
+        <v>3.1025658649835</v>
       </c>
       <c r="C145" t="n">
-        <v>0.4338108430506534</v>
+        <v>0.4338105667706907</v>
       </c>
       <c r="D145" t="n">
-        <v>0.03811701684023999</v>
+        <v>0.03811701680865124</v>
       </c>
       <c r="E145" t="n">
-        <v>0.979544437310539</v>
+        <v>0.9795444232513399</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -3635,19 +3635,19 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>68.13301604250042</v>
+        <v>68.13188510760988</v>
       </c>
       <c r="B146" t="n">
-        <v>3.213803254852136</v>
+        <v>3.213774008914493</v>
       </c>
       <c r="C146" t="n">
-        <v>0.4534633947728165</v>
+        <v>0.4534634889076377</v>
       </c>
       <c r="D146" t="n">
-        <v>0.03077722228013727</v>
+        <v>0.03077727442625592</v>
       </c>
       <c r="E146" t="n">
-        <v>0.9863549741898517</v>
+        <v>0.9863551869349443</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -3657,19 +3657,19 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>129.4242134642671</v>
+        <v>129.4254651305856</v>
       </c>
       <c r="B147" t="n">
-        <v>4.679627469513484</v>
+        <v>4.679592497886601</v>
       </c>
       <c r="C147" t="n">
-        <v>0.3462664268999905</v>
+        <v>0.3462697697051773</v>
       </c>
       <c r="D147" t="n">
-        <v>0.02577754350952719</v>
+        <v>0.02577780447586222</v>
       </c>
       <c r="E147" t="n">
-        <v>0.9739972735426498</v>
+        <v>0.9739970429271182</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -3679,19 +3679,19 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>107.5043634743424</v>
+        <v>107.5046918311778</v>
       </c>
       <c r="B148" t="n">
-        <v>4.339948248525721</v>
+        <v>4.339963319591408</v>
       </c>
       <c r="C148" t="n">
-        <v>0.4103947892204509</v>
+        <v>0.4103942623035173</v>
       </c>
       <c r="D148" t="n">
-        <v>0.04287309848631662</v>
+        <v>0.04287318737010495</v>
       </c>
       <c r="E148" t="n">
-        <v>0.9697509952683874</v>
+        <v>0.9697510182727264</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -3701,19 +3701,19 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>83.35233928404475</v>
+        <v>83.35242448997455</v>
       </c>
       <c r="B149" t="n">
-        <v>3.624442265854436</v>
+        <v>3.624452543612506</v>
       </c>
       <c r="C149" t="n">
-        <v>0.4162865738477067</v>
+        <v>0.4162852079211927</v>
       </c>
       <c r="D149" t="n">
-        <v>0.04125335606625426</v>
+        <v>0.04125338043051092</v>
       </c>
       <c r="E149" t="n">
-        <v>0.9672320440061702</v>
+        <v>0.9672321202128329</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -3723,19 +3723,19 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>137.7168669517441</v>
+        <v>137.7183713892382</v>
       </c>
       <c r="B150" t="n">
-        <v>5.478965965209013</v>
+        <v>5.479026619992314</v>
       </c>
       <c r="C150" t="n">
-        <v>0.3070285304489557</v>
+        <v>0.3070272453440022</v>
       </c>
       <c r="D150" t="n">
-        <v>0.02765329308589219</v>
+        <v>0.02765328628594394</v>
       </c>
       <c r="E150" t="n">
-        <v>0.956849748747796</v>
+        <v>0.9568495460869119</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -3745,19 +3745,19 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>83.92122926412056</v>
+        <v>83.92050920007908</v>
       </c>
       <c r="B151" t="n">
-        <v>3.613622361531561</v>
+        <v>3.613568828622592</v>
       </c>
       <c r="C151" t="n">
-        <v>0.4365496202512473</v>
+        <v>0.4365504790430121</v>
       </c>
       <c r="D151" t="n">
-        <v>0.03819750873810426</v>
+        <v>0.03819754608723157</v>
       </c>
       <c r="E151" t="n">
-        <v>0.9699701778778259</v>
+        <v>0.9699703599341354</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -3767,19 +3767,19 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>49.23414071025712</v>
+        <v>49.23464555987312</v>
       </c>
       <c r="B152" t="n">
-        <v>3.040983462350458</v>
+        <v>3.041008449856704</v>
       </c>
       <c r="C152" t="n">
-        <v>0.4054753338754832</v>
+        <v>0.4054741399058209</v>
       </c>
       <c r="D152" t="n">
-        <v>0.04527347601725817</v>
+        <v>0.04527347531802332</v>
       </c>
       <c r="E152" t="n">
-        <v>0.9828997134536712</v>
+        <v>0.9828995938946056</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -3789,19 +3789,19 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>47.06310961619751</v>
+        <v>47.06326174475404</v>
       </c>
       <c r="B153" t="n">
-        <v>2.914563653255393</v>
+        <v>2.914567043936445</v>
       </c>
       <c r="C153" t="n">
-        <v>0.4220772516587856</v>
+        <v>0.4220770291867407</v>
       </c>
       <c r="D153" t="n">
-        <v>0.03524125168233814</v>
+        <v>0.03524125166339873</v>
       </c>
       <c r="E153" t="n">
-        <v>0.9812312593830024</v>
+        <v>0.981231204379314</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -3811,19 +3811,19 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>85.37832148609311</v>
+        <v>85.3803484250023</v>
       </c>
       <c r="B154" t="n">
-        <v>3.466633475505984</v>
+        <v>3.466713930187397</v>
       </c>
       <c r="C154" t="n">
-        <v>0.4382188014499727</v>
+        <v>0.4382181466544133</v>
       </c>
       <c r="D154" t="n">
-        <v>0.03943081961759547</v>
+        <v>0.03943081456648764</v>
       </c>
       <c r="E154" t="n">
-        <v>0.9709821592247486</v>
+        <v>0.9709817950686874</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -3833,19 +3833,19 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>55.90044788267303</v>
+        <v>55.90064074042495</v>
       </c>
       <c r="B155" t="n">
-        <v>2.783310983124947</v>
+        <v>2.783319974885084</v>
       </c>
       <c r="C155" t="n">
-        <v>0.4442610019192771</v>
+        <v>0.4442604790678235</v>
       </c>
       <c r="D155" t="n">
-        <v>0.05492817946216091</v>
+        <v>0.05492817934544162</v>
       </c>
       <c r="E155" t="n">
-        <v>0.9787134543071511</v>
+        <v>0.9787134064298857</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -3855,19 +3855,19 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>50.76752457743923</v>
+        <v>50.76821637590866</v>
       </c>
       <c r="B156" t="n">
-        <v>2.612673871916937</v>
+        <v>2.612696302242738</v>
       </c>
       <c r="C156" t="n">
-        <v>0.4428141094873191</v>
+        <v>0.4428136006130666</v>
       </c>
       <c r="D156" t="n">
-        <v>0.04393864882864367</v>
+        <v>0.04393863922836647</v>
       </c>
       <c r="E156" t="n">
-        <v>0.9686757558275599</v>
+        <v>0.9686755431755579</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -3877,19 +3877,19 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>65.51922669147315</v>
+        <v>65.51066771388625</v>
       </c>
       <c r="B157" t="n">
-        <v>2.851857422168747</v>
+        <v>2.851573336007085</v>
       </c>
       <c r="C157" t="n">
-        <v>0.5013078347911422</v>
+        <v>0.5013144886165304</v>
       </c>
       <c r="D157" t="n">
-        <v>0.07302531228100163</v>
+        <v>0.07302609159581301</v>
       </c>
       <c r="E157" t="n">
-        <v>0.9532836499199943</v>
+        <v>0.9532892016645585</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -3899,19 +3899,19 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>90.50153971591804</v>
+        <v>90.50180063791976</v>
       </c>
       <c r="B158" t="n">
-        <v>3.715921239658376</v>
+        <v>3.715935321163231</v>
       </c>
       <c r="C158" t="n">
-        <v>0.414142193794521</v>
+        <v>0.4141415524177053</v>
       </c>
       <c r="D158" t="n">
-        <v>0.04577070291711123</v>
+        <v>0.04577070360968771</v>
       </c>
       <c r="E158" t="n">
-        <v>0.9630335970371303</v>
+        <v>0.9630335877422024</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -3921,19 +3921,19 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>94.74911647376443</v>
+        <v>94.74892250489268</v>
       </c>
       <c r="B159" t="n">
-        <v>3.7379302770792</v>
+        <v>3.737910919696887</v>
       </c>
       <c r="C159" t="n">
-        <v>0.4308370082346352</v>
+        <v>0.4308383992273724</v>
       </c>
       <c r="D159" t="n">
-        <v>0.03708402363039387</v>
+        <v>0.03708409885630358</v>
       </c>
       <c r="E159" t="n">
-        <v>0.9699108596575995</v>
+        <v>0.9699109253323621</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -3943,19 +3943,19 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>122.7405475289897</v>
+        <v>122.7378061894475</v>
       </c>
       <c r="B160" t="n">
-        <v>4.138786308863624</v>
+        <v>4.138728076195734</v>
       </c>
       <c r="C160" t="n">
-        <v>0.3984227357818234</v>
+        <v>0.3984199378423127</v>
       </c>
       <c r="D160" t="n">
-        <v>0.0668806673525454</v>
+        <v>0.06688062737490474</v>
       </c>
       <c r="E160" t="n">
-        <v>0.9582319804342536</v>
+        <v>0.9582329647174744</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -3965,19 +3965,19 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>74.82307023135371</v>
+        <v>74.82520167661025</v>
       </c>
       <c r="B161" t="n">
-        <v>3.507946674041714</v>
+        <v>3.508022284449183</v>
       </c>
       <c r="C161" t="n">
-        <v>0.3841613582235983</v>
+        <v>0.3841595442950566</v>
       </c>
       <c r="D161" t="n">
-        <v>0.0370264023667215</v>
+        <v>0.0370264009184757</v>
       </c>
       <c r="E161" t="n">
-        <v>0.9701140617782285</v>
+        <v>0.9701136109960139</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -3987,19 +3987,19 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>62.45033317646357</v>
+        <v>62.451714083586</v>
       </c>
       <c r="B162" t="n">
-        <v>3.365226578854687</v>
+        <v>3.365278990606674</v>
       </c>
       <c r="C162" t="n">
-        <v>0.3943678029252357</v>
+        <v>0.3943664377383784</v>
       </c>
       <c r="D162" t="n">
-        <v>0.03957664441679232</v>
+        <v>0.03957664257966829</v>
       </c>
       <c r="E162" t="n">
-        <v>0.9725262004716955</v>
+        <v>0.9725258277936958</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -4009,19 +4009,19 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>49.07452526988558</v>
+        <v>49.07457661004716</v>
       </c>
       <c r="B163" t="n">
-        <v>2.993425199625624</v>
+        <v>2.993424927984558</v>
       </c>
       <c r="C163" t="n">
-        <v>0.4365518916209615</v>
+        <v>0.4365523268267223</v>
       </c>
       <c r="D163" t="n">
-        <v>0.03618647734287758</v>
+        <v>0.0361864876500323</v>
       </c>
       <c r="E163" t="n">
-        <v>0.9859327596836333</v>
+        <v>0.9859327469256143</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -4031,19 +4031,19 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>59.39170893627335</v>
+        <v>59.39231209509416</v>
       </c>
       <c r="B164" t="n">
-        <v>2.840391970920081</v>
+        <v>2.840397647708983</v>
       </c>
       <c r="C164" t="n">
-        <v>0.4459638811920475</v>
+        <v>0.4459642787457079</v>
       </c>
       <c r="D164" t="n">
-        <v>0.0433768566923655</v>
+        <v>0.04337680521361178</v>
       </c>
       <c r="E164" t="n">
-        <v>0.9772358703118275</v>
+        <v>0.9772356524216641</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -4053,19 +4053,19 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>56.48286138435213</v>
+        <v>56.48294334159961</v>
       </c>
       <c r="B165" t="n">
-        <v>2.881933809003733</v>
+        <v>2.881917933820362</v>
       </c>
       <c r="C165" t="n">
-        <v>0.437228745675008</v>
+        <v>0.4372285131100742</v>
       </c>
       <c r="D165" t="n">
-        <v>0.04436852855079645</v>
+        <v>0.0443685336727806</v>
       </c>
       <c r="E165" t="n">
-        <v>0.9844230284005022</v>
+        <v>0.9844230054757634</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -4075,19 +4075,19 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>110.8401434317465</v>
+        <v>110.8344911558652</v>
       </c>
       <c r="B166" t="n">
-        <v>3.96998213715771</v>
+        <v>3.96969823611045</v>
       </c>
       <c r="C166" t="n">
-        <v>0.4061925822802499</v>
+        <v>0.4061928221018312</v>
       </c>
       <c r="D166" t="n">
-        <v>0.03350341400377333</v>
+        <v>0.03350440057517189</v>
       </c>
       <c r="E166" t="n">
-        <v>0.9685774670128576</v>
+        <v>0.9685787001268155</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -4097,19 +4097,19 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>46.42406323949559</v>
+        <v>46.42393771610185</v>
       </c>
       <c r="B167" t="n">
-        <v>2.979367935723924</v>
+        <v>2.979369285437835</v>
       </c>
       <c r="C167" t="n">
-        <v>0.4372430797765393</v>
+        <v>0.4372420999584595</v>
       </c>
       <c r="D167" t="n">
-        <v>0.05168913842691969</v>
+        <v>0.05168918863736022</v>
       </c>
       <c r="E167" t="n">
-        <v>0.9812168687649054</v>
+        <v>0.9812169358413542</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -4119,19 +4119,19 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>102.3345143596975</v>
+        <v>102.3362516757537</v>
       </c>
       <c r="B168" t="n">
-        <v>4.211880919017445</v>
+        <v>4.211927614624745</v>
       </c>
       <c r="C168" t="n">
-        <v>0.3657836011695015</v>
+        <v>0.365783130119234</v>
       </c>
       <c r="D168" t="n">
-        <v>0.04093036821356911</v>
+        <v>0.04093038092956005</v>
       </c>
       <c r="E168" t="n">
-        <v>0.966230617263887</v>
+        <v>0.9662302381941131</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -4141,19 +4141,19 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>87.21524367735374</v>
+        <v>87.2157766793615</v>
       </c>
       <c r="B169" t="n">
-        <v>4.832073215748769</v>
+        <v>4.832086540798963</v>
       </c>
       <c r="C169" t="n">
-        <v>0.2777081812990553</v>
+        <v>0.2777082863846859</v>
       </c>
       <c r="D169" t="n">
-        <v>0.02647153192363686</v>
+        <v>0.02647153139173069</v>
       </c>
       <c r="E169" t="n">
-        <v>0.9611460848583093</v>
+        <v>0.9611459311084605</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -4163,19 +4163,19 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>101.0082028810546</v>
+        <v>101.0109116830101</v>
       </c>
       <c r="B170" t="n">
-        <v>4.290050352279709</v>
+        <v>4.290127109664009</v>
       </c>
       <c r="C170" t="n">
-        <v>0.377189322479625</v>
+        <v>0.3771881934406879</v>
       </c>
       <c r="D170" t="n">
-        <v>0.03220334480775661</v>
+        <v>0.03220334237522376</v>
       </c>
       <c r="E170" t="n">
-        <v>0.9699070901562507</v>
+        <v>0.9699065332227962</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -4185,19 +4185,19 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>65.1286984251867</v>
+        <v>65.12898921045937</v>
       </c>
       <c r="B171" t="n">
-        <v>3.413665061094221</v>
+        <v>3.413688218389121</v>
       </c>
       <c r="C171" t="n">
-        <v>0.4373224887140213</v>
+        <v>0.4373208143745347</v>
       </c>
       <c r="D171" t="n">
-        <v>0.04108023340591707</v>
+        <v>0.04108023275096983</v>
       </c>
       <c r="E171" t="n">
-        <v>0.9795507980756839</v>
+        <v>0.9795507673984296</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -4207,19 +4207,19 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>63.86112341850046</v>
+        <v>63.86323044355831</v>
       </c>
       <c r="B172" t="n">
-        <v>4.063151676266431</v>
+        <v>4.063250653587151</v>
       </c>
       <c r="C172" t="n">
-        <v>0.3288134029185639</v>
+        <v>0.3288081696209909</v>
       </c>
       <c r="D172" t="n">
-        <v>0.03152434413856475</v>
+        <v>0.03152434048389999</v>
       </c>
       <c r="E172" t="n">
-        <v>0.9817139532678869</v>
+        <v>0.9817135627311397</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -4229,19 +4229,19 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>74.77335279975105</v>
+        <v>74.77422803565693</v>
       </c>
       <c r="B173" t="n">
-        <v>3.529612461853517</v>
+        <v>3.529649478999357</v>
       </c>
       <c r="C173" t="n">
-        <v>0.4202291263593805</v>
+        <v>0.4202274701572373</v>
       </c>
       <c r="D173" t="n">
-        <v>0.03770267042709965</v>
+        <v>0.03770267741551804</v>
       </c>
       <c r="E173" t="n">
-        <v>0.9747171545363141</v>
+        <v>0.9747169988282632</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -4251,19 +4251,19 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>38.47781342694759</v>
+        <v>38.47778612335208</v>
       </c>
       <c r="B174" t="n">
-        <v>3.001081778566324</v>
+        <v>3.001082284188463</v>
       </c>
       <c r="C174" t="n">
-        <v>0.3838585431001125</v>
+        <v>0.3838584591385872</v>
       </c>
       <c r="D174" t="n">
-        <v>0.05112692082537421</v>
+        <v>0.05112692082412412</v>
       </c>
       <c r="E174" t="n">
-        <v>0.9847688234827698</v>
+        <v>0.9847688353265335</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -4273,19 +4273,19 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>82.08925084477131</v>
+        <v>82.09005565135131</v>
       </c>
       <c r="B175" t="n">
-        <v>3.242214756309766</v>
+        <v>3.242238905757045</v>
       </c>
       <c r="C175" t="n">
-        <v>0.4575779219035624</v>
+        <v>0.4575779621186387</v>
       </c>
       <c r="D175" t="n">
-        <v>0.04174112980416817</v>
+        <v>0.04174112935475849</v>
       </c>
       <c r="E175" t="n">
-        <v>0.9652281679705</v>
+        <v>0.9652279720546895</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -4295,19 +4295,19 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>73.55902298087454</v>
+        <v>73.55849825263235</v>
       </c>
       <c r="B176" t="n">
-        <v>3.248834005252933</v>
+        <v>3.248839655592942</v>
       </c>
       <c r="C176" t="n">
-        <v>0.440563667185476</v>
+        <v>0.4405632867413427</v>
       </c>
       <c r="D176" t="n">
-        <v>0.07489345848463776</v>
+        <v>0.07489352950039542</v>
       </c>
       <c r="E176" t="n">
-        <v>0.9537181972033182</v>
+        <v>0.9537187968948923</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -4317,19 +4317,19 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>85.82654543419092</v>
+        <v>85.82676597560889</v>
       </c>
       <c r="B177" t="n">
-        <v>3.545430692480461</v>
+        <v>3.545434330854109</v>
       </c>
       <c r="C177" t="n">
-        <v>0.3913075323580726</v>
+        <v>0.3913076207409164</v>
       </c>
       <c r="D177" t="n">
-        <v>0.04165049460388113</v>
+        <v>0.04165051085315472</v>
       </c>
       <c r="E177" t="n">
-        <v>0.9567253913452828</v>
+        <v>0.9567254639315727</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -4339,19 +4339,19 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>83.48540896573265</v>
+        <v>83.48491042784546</v>
       </c>
       <c r="B178" t="n">
-        <v>3.667206086931834</v>
+        <v>3.667193216553578</v>
       </c>
       <c r="C178" t="n">
-        <v>0.4106723053037241</v>
+        <v>0.4106716555168115</v>
       </c>
       <c r="D178" t="n">
-        <v>0.05983611014376022</v>
+        <v>0.05983614162372954</v>
       </c>
       <c r="E178" t="n">
-        <v>0.9717774751303299</v>
+        <v>0.9717776721548993</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -4361,19 +4361,19 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>88.76632799130908</v>
+        <v>88.76698134368266</v>
       </c>
       <c r="B179" t="n">
-        <v>3.849271805480733</v>
+        <v>3.84929953396343</v>
       </c>
       <c r="C179" t="n">
-        <v>0.3948077376496482</v>
+        <v>0.3948064122626709</v>
       </c>
       <c r="D179" t="n">
-        <v>0.03619668149487579</v>
+        <v>0.03619668096549141</v>
       </c>
       <c r="E179" t="n">
-        <v>0.9651622650049814</v>
+        <v>0.9651621741005707</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -4383,19 +4383,19 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>74.15579242489407</v>
+        <v>74.15663238086032</v>
       </c>
       <c r="B180" t="n">
-        <v>3.5525415814809</v>
+        <v>3.552576444069426</v>
       </c>
       <c r="C180" t="n">
-        <v>0.4139019988275243</v>
+        <v>0.4139012193901279</v>
       </c>
       <c r="D180" t="n">
-        <v>0.04003689812468652</v>
+        <v>0.04003689870163814</v>
       </c>
       <c r="E180" t="n">
-        <v>0.9785704799933501</v>
+        <v>0.978570326346249</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -4405,19 +4405,19 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>72.65145937827729</v>
+        <v>72.65206410416982</v>
       </c>
       <c r="B181" t="n">
-        <v>3.706235449623109</v>
+        <v>3.706252919482226</v>
       </c>
       <c r="C181" t="n">
-        <v>0.393555832777907</v>
+        <v>0.3935558363562387</v>
       </c>
       <c r="D181" t="n">
-        <v>0.03174496259169936</v>
+        <v>0.03174496229503075</v>
       </c>
       <c r="E181" t="n">
-        <v>0.9764582769101604</v>
+        <v>0.9764581272375148</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -4427,19 +4427,19 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>136.1793002388016</v>
+        <v>136.1779329684534</v>
       </c>
       <c r="B182" t="n">
-        <v>4.443008977271189</v>
+        <v>4.442968971081998</v>
       </c>
       <c r="C182" t="n">
-        <v>0.3910632155216724</v>
+        <v>0.3910627528217277</v>
       </c>
       <c r="D182" t="n">
-        <v>0.03406159577920672</v>
+        <v>0.03406155635576312</v>
       </c>
       <c r="E182" t="n">
-        <v>0.9619224150999658</v>
+        <v>0.9619227792720622</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -4449,19 +4449,19 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>65.81356349826204</v>
+        <v>65.80913410234798</v>
       </c>
       <c r="B183" t="n">
-        <v>3.053623118567489</v>
+        <v>3.053532196995527</v>
       </c>
       <c r="C183" t="n">
-        <v>0.4489087170617957</v>
+        <v>0.4489092299012138</v>
       </c>
       <c r="D183" t="n">
-        <v>0.03982282304301374</v>
+        <v>0.03982277427642893</v>
       </c>
       <c r="E183" t="n">
-        <v>0.9803411284883042</v>
+        <v>0.9803423526741365</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -4471,19 +4471,19 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>34.55805301556885</v>
+        <v>34.5581459006327</v>
       </c>
       <c r="B184" t="n">
-        <v>2.553040806110941</v>
+        <v>2.553042598105741</v>
       </c>
       <c r="C184" t="n">
-        <v>0.4372394953279755</v>
+        <v>0.4372395223818359</v>
       </c>
       <c r="D184" t="n">
-        <v>0.03116503959513481</v>
+        <v>0.03116503873485822</v>
       </c>
       <c r="E184" t="n">
-        <v>0.9909593162302629</v>
+        <v>0.9909592934813967</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -4493,19 +4493,19 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>95.66460460851762</v>
+        <v>95.6635274224672</v>
       </c>
       <c r="B185" t="n">
-        <v>3.484696873083323</v>
+        <v>3.484644637822545</v>
       </c>
       <c r="C185" t="n">
-        <v>0.4289705890360963</v>
+        <v>0.428971511893886</v>
       </c>
       <c r="D185" t="n">
-        <v>0.04287764814265794</v>
+        <v>0.04287776551839721</v>
       </c>
       <c r="E185" t="n">
-        <v>0.9525468808723886</v>
+        <v>0.9525474702400553</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -4515,19 +4515,19 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>125.3027925353005</v>
+        <v>125.3044670720382</v>
       </c>
       <c r="B186" t="n">
-        <v>4.64931696096029</v>
+        <v>4.649373402331816</v>
       </c>
       <c r="C186" t="n">
-        <v>0.3660304995086296</v>
+        <v>0.3660306443380725</v>
       </c>
       <c r="D186" t="n">
-        <v>0.03763241713387781</v>
+        <v>0.03763240708308715</v>
       </c>
       <c r="E186" t="n">
-        <v>0.9655013546402266</v>
+        <v>0.9655011340901163</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -4537,19 +4537,19 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>94.39243504048962</v>
+        <v>94.39368611918619</v>
       </c>
       <c r="B187" t="n">
-        <v>3.735708429292226</v>
+        <v>3.735726370191316</v>
       </c>
       <c r="C187" t="n">
-        <v>0.4112165293436484</v>
+        <v>0.4112154518898461</v>
       </c>
       <c r="D187" t="n">
-        <v>0.03825557155665434</v>
+        <v>0.03825557690021481</v>
       </c>
       <c r="E187" t="n">
-        <v>0.9659797160991976</v>
+        <v>0.9659794564481715</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -4559,19 +4559,19 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>77.74919162482929</v>
+        <v>77.74916950391443</v>
       </c>
       <c r="B188" t="n">
         <v>3.541367553426818</v>
       </c>
       <c r="C188" t="n">
-        <v>0.4057989227168169</v>
+        <v>0.4057986717266887</v>
       </c>
       <c r="D188" t="n">
-        <v>0.04537859878886431</v>
+        <v>0.04537857319615559</v>
       </c>
       <c r="E188" t="n">
-        <v>0.9645302819385213</v>
+        <v>0.964530308927957</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -4581,19 +4581,19 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>86.76218632099707</v>
+        <v>86.76249912270944</v>
       </c>
       <c r="B189" t="n">
-        <v>3.781987195107045</v>
+        <v>3.782007698076427</v>
       </c>
       <c r="C189" t="n">
-        <v>0.4139032351328206</v>
+        <v>0.413901014001592</v>
       </c>
       <c r="D189" t="n">
-        <v>0.04259483525488465</v>
+        <v>0.0425948347978477</v>
       </c>
       <c r="E189" t="n">
-        <v>0.9736862888695428</v>
+        <v>0.9736862471859496</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -4603,19 +4603,19 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>63.06596919784104</v>
+        <v>63.06615787269682</v>
       </c>
       <c r="B190" t="n">
-        <v>3.234796203238415</v>
+        <v>3.23480620696073</v>
       </c>
       <c r="C190" t="n">
-        <v>0.4196839571495962</v>
+        <v>0.4196835142459439</v>
       </c>
       <c r="D190" t="n">
-        <v>0.03619521523916013</v>
+        <v>0.03619521420757376</v>
       </c>
       <c r="E190" t="n">
-        <v>0.9780243463709259</v>
+        <v>0.9780243165984414</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -4625,19 +4625,19 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>64.07270507505314</v>
+        <v>64.07450341632644</v>
       </c>
       <c r="B191" t="n">
-        <v>3.147471951398082</v>
+        <v>3.147540907044218</v>
       </c>
       <c r="C191" t="n">
-        <v>0.4132692196709056</v>
+        <v>0.4132682949495252</v>
       </c>
       <c r="D191" t="n">
-        <v>0.03948721995805504</v>
+        <v>0.03948721816905017</v>
       </c>
       <c r="E191" t="n">
-        <v>0.966469376980045</v>
+        <v>0.9664689483524186</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -4647,19 +4647,19 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>66.07825794343562</v>
+        <v>66.07869538803361</v>
       </c>
       <c r="B192" t="n">
-        <v>3.355918893955373</v>
+        <v>3.355936090215823</v>
       </c>
       <c r="C192" t="n">
-        <v>0.4149190377788548</v>
+        <v>0.4149183471748452</v>
       </c>
       <c r="D192" t="n">
-        <v>0.04743010472067868</v>
+        <v>0.04743009848614772</v>
       </c>
       <c r="E192" t="n">
-        <v>0.9784803081757909</v>
+        <v>0.97848021848174</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -4669,19 +4669,19 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>65.94611927643243</v>
+        <v>65.94563383866902</v>
       </c>
       <c r="B193" t="n">
-        <v>3.252949643898775</v>
+        <v>3.252937095655261</v>
       </c>
       <c r="C193" t="n">
-        <v>0.4375444490695531</v>
+        <v>0.4375446293211841</v>
       </c>
       <c r="D193" t="n">
-        <v>0.07560965823274433</v>
+        <v>0.07560968713882159</v>
       </c>
       <c r="E193" t="n">
-        <v>0.9551447987725595</v>
+        <v>0.9551453169748699</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -4691,19 +4691,19 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>58.77263320620692</v>
+        <v>58.77363153629003</v>
       </c>
       <c r="B194" t="n">
-        <v>3.097067958444477</v>
+        <v>3.097104427123311</v>
       </c>
       <c r="C194" t="n">
-        <v>0.4183151686453349</v>
+        <v>0.4183147208370874</v>
       </c>
       <c r="D194" t="n">
-        <v>0.04032668011729584</v>
+        <v>0.04032668033070771</v>
       </c>
       <c r="E194" t="n">
-        <v>0.9715241873103257</v>
+        <v>0.9715239322074772</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -4713,19 +4713,19 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>83.27925232812902</v>
+        <v>83.28057969691557</v>
       </c>
       <c r="B195" t="n">
-        <v>3.320553149539844</v>
+        <v>3.320579930779925</v>
       </c>
       <c r="C195" t="n">
-        <v>0.4371382391618043</v>
+        <v>0.4371380881410921</v>
       </c>
       <c r="D195" t="n">
-        <v>0.05009711070310439</v>
+        <v>0.05009711061878925</v>
       </c>
       <c r="E195" t="n">
-        <v>0.9430605434957962</v>
+        <v>0.9430600302373797</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -4735,19 +4735,19 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>148.6199737692683</v>
+        <v>148.5897748750983</v>
       </c>
       <c r="B196" t="n">
-        <v>4.648582043159196</v>
+        <v>4.647963825735751</v>
       </c>
       <c r="C196" t="n">
-        <v>0.3928916201083912</v>
+        <v>0.3929000765166015</v>
       </c>
       <c r="D196" t="n">
-        <v>0.04862258757301353</v>
+        <v>0.04862363781572636</v>
       </c>
       <c r="E196" t="n">
-        <v>0.9415588564004552</v>
+        <v>0.9415693370142999</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -4757,19 +4757,19 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>57.61571827207456</v>
+        <v>57.61622707024902</v>
       </c>
       <c r="B197" t="n">
-        <v>2.880815654223363</v>
+        <v>2.880826064416191</v>
       </c>
       <c r="C197" t="n">
-        <v>0.4376053976989294</v>
+        <v>0.4376047492917644</v>
       </c>
       <c r="D197" t="n">
-        <v>0.0436931316656619</v>
+        <v>0.04369311755420069</v>
       </c>
       <c r="E197" t="n">
-        <v>0.9792835126587783</v>
+        <v>0.97928335461314</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -4779,19 +4779,19 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>116.3031313219732</v>
+        <v>116.2968963434139</v>
       </c>
       <c r="B198" t="n">
-        <v>4.34215897006951</v>
+        <v>4.341897445706678</v>
       </c>
       <c r="C198" t="n">
-        <v>0.4174146844300273</v>
+        <v>0.4174151352161438</v>
       </c>
       <c r="D198" t="n">
-        <v>0.03670216670475594</v>
+        <v>0.03670223064674255</v>
       </c>
       <c r="E198" t="n">
-        <v>0.9639298895643241</v>
+        <v>0.9639314520211656</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -4801,19 +4801,19 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>66.33592177941637</v>
+        <v>66.33696755653733</v>
       </c>
       <c r="B199" t="n">
-        <v>3.834113604186654</v>
+        <v>3.834169438049892</v>
       </c>
       <c r="C199" t="n">
-        <v>0.3695152347645526</v>
+        <v>0.3695101135601704</v>
       </c>
       <c r="D199" t="n">
-        <v>0.03810278893602341</v>
+        <v>0.03810278478750133</v>
       </c>
       <c r="E199" t="n">
-        <v>0.9773255239187469</v>
+        <v>0.9773253172147058</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -4823,19 +4823,19 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>66.87426626200228</v>
+        <v>66.87453829987552</v>
       </c>
       <c r="B200" t="n">
-        <v>3.704369129467196</v>
+        <v>3.704382286348691</v>
       </c>
       <c r="C200" t="n">
-        <v>0.3912163025820297</v>
+        <v>0.3912157198935238</v>
       </c>
       <c r="D200" t="n">
-        <v>0.04414795148554978</v>
+        <v>0.0441479512074175</v>
       </c>
       <c r="E200" t="n">
-        <v>0.9818088184109808</v>
+        <v>0.9818087686109852</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -4845,19 +4845,19 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>66.91949435210604</v>
+        <v>66.9202511722264</v>
       </c>
       <c r="B201" t="n">
-        <v>3.302965610419997</v>
+        <v>3.302996780455747</v>
       </c>
       <c r="C201" t="n">
-        <v>0.4135806706125168</v>
+        <v>0.4135791542077569</v>
       </c>
       <c r="D201" t="n">
-        <v>0.0516621965360631</v>
+        <v>0.05166218057144183</v>
       </c>
       <c r="E201" t="n">
-        <v>0.9799175125428625</v>
+        <v>0.9799173637595833</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -4867,19 +4867,19 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>79.0974665082144</v>
+        <v>79.09999993537836</v>
       </c>
       <c r="B202" t="n">
-        <v>3.588769144971564</v>
+        <v>3.588870730205258</v>
       </c>
       <c r="C202" t="n">
-        <v>0.4024431074752469</v>
+        <v>0.4024403245600085</v>
       </c>
       <c r="D202" t="n">
-        <v>0.0391103351810321</v>
+        <v>0.03911033140871489</v>
       </c>
       <c r="E202" t="n">
-        <v>0.9696449325629796</v>
+        <v>0.9696445066822418</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -4889,19 +4889,19 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>31.60500465457548</v>
+        <v>31.6005113746692</v>
       </c>
       <c r="B203" t="n">
-        <v>3.125955939551018</v>
+        <v>3.125837520015535</v>
       </c>
       <c r="C203" t="n">
-        <v>0.3560273488926198</v>
+        <v>0.356029603240113</v>
       </c>
       <c r="D203" t="n">
-        <v>0.05739170984839155</v>
+        <v>0.05739171083463813</v>
       </c>
       <c r="E203" t="n">
-        <v>0.9668499071570432</v>
+        <v>0.9668524401419162</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -4911,19 +4911,19 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>99.8670479278039</v>
+        <v>99.8569592795384</v>
       </c>
       <c r="B204" t="n">
-        <v>5.593546960309229</v>
+        <v>5.593267629544359</v>
       </c>
       <c r="C204" t="n">
-        <v>0.2272655232756859</v>
+        <v>0.2272583228263781</v>
       </c>
       <c r="D204" t="n">
-        <v>0.03836014622517236</v>
+        <v>0.03836063557871261</v>
       </c>
       <c r="E204" t="n">
-        <v>0.9637684541012245</v>
+        <v>0.9637711049537581</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -4933,19 +4933,19 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>129.8744392224162</v>
+        <v>129.8748399398694</v>
       </c>
       <c r="B205" t="n">
-        <v>7.568803614342096</v>
+        <v>7.568891225654093</v>
       </c>
       <c r="C205" t="n">
-        <v>0.1472775863974158</v>
+        <v>0.147275659668699</v>
       </c>
       <c r="D205" t="n">
-        <v>0.02198965487533715</v>
+        <v>0.02198971313108214</v>
       </c>
       <c r="E205" t="n">
-        <v>0.9740451986950182</v>
+        <v>0.9740454781004255</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -4955,19 +4955,19 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>81.69488218535047</v>
+        <v>81.69161309709428</v>
       </c>
       <c r="B206" t="n">
-        <v>5.491909020069324</v>
+        <v>5.491873551082903</v>
       </c>
       <c r="C206" t="n">
-        <v>0.2089894307876632</v>
+        <v>0.2089893688385923</v>
       </c>
       <c r="D206" t="n">
-        <v>0.02700156877596998</v>
+        <v>0.02700162369349921</v>
       </c>
       <c r="E206" t="n">
-        <v>0.9744705664476592</v>
+        <v>0.9744717010449615</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -4977,19 +4977,19 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>199.0253049753606</v>
+        <v>199.031883256911</v>
       </c>
       <c r="B207" t="n">
-        <v>6.063696449284953</v>
+        <v>6.064648807994623</v>
       </c>
       <c r="C207" t="n">
-        <v>0.4670732810997741</v>
+        <v>0.4670502305488011</v>
       </c>
       <c r="D207" t="n">
-        <v>0.04854907062004235</v>
+        <v>0.04854882131249318</v>
       </c>
       <c r="E207" t="n">
-        <v>0.9549064254532585</v>
+        <v>0.9549119884240689</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -4999,19 +4999,19 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>186.439803723481</v>
+        <v>186.4131147055667</v>
       </c>
       <c r="B208" t="n">
-        <v>5.820167930400288</v>
+        <v>5.820341855671628</v>
       </c>
       <c r="C208" t="n">
-        <v>0.4549528590957792</v>
+        <v>0.4549380285371941</v>
       </c>
       <c r="D208" t="n">
-        <v>0.04537748668853531</v>
+        <v>0.0453775912579067</v>
       </c>
       <c r="E208" t="n">
-        <v>0.9565117427960597</v>
+        <v>0.9565208753340355</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -5109,19 +5109,19 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>81.69593150542119</v>
+        <v>81.69602012093411</v>
       </c>
       <c r="B213" t="n">
-        <v>2.97728992910759</v>
+        <v>2.977290971643035</v>
       </c>
       <c r="C213" t="n">
-        <v>0.6992399176508984</v>
+        <v>0.6992399175663045</v>
       </c>
       <c r="D213" t="n">
         <v>0.1037845049693259</v>
       </c>
       <c r="E213" t="n">
-        <v>0.9297695210717163</v>
+        <v>0.9297694617759452</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -5131,19 +5131,19 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>116.6777002652271</v>
+        <v>116.6592795268038</v>
       </c>
       <c r="B214" t="n">
-        <v>5.689431432024996</v>
+        <v>5.689107310313</v>
       </c>
       <c r="C214" t="n">
-        <v>0.2251041357857726</v>
+        <v>0.225092969423123</v>
       </c>
       <c r="D214" t="n">
-        <v>0.03861665061501205</v>
+        <v>0.03861728253259848</v>
       </c>
       <c r="E214" t="n">
-        <v>0.9562064090003763</v>
+        <v>0.956213139513164</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -5153,19 +5153,19 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>78.27718737307205</v>
+        <v>78.27469002929516</v>
       </c>
       <c r="B215" t="n">
-        <v>5.260192225782344</v>
+        <v>5.260242151855351</v>
       </c>
       <c r="C215" t="n">
-        <v>0.2234859877393135</v>
+        <v>0.2234733603610272</v>
       </c>
       <c r="D215" t="n">
-        <v>0.03261401290750369</v>
+        <v>0.0326134277988253</v>
       </c>
       <c r="E215" t="n">
-        <v>0.9663915269889185</v>
+        <v>0.9663916797619893</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -5175,19 +5175,19 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>44.33192325723971</v>
+        <v>44.32733981442842</v>
       </c>
       <c r="B216" t="n">
-        <v>3.613377536668676</v>
+        <v>3.613311489260857</v>
       </c>
       <c r="C216" t="n">
-        <v>0.3220013417432499</v>
+        <v>0.3219977811328361</v>
       </c>
       <c r="D216" t="n">
-        <v>0.05684394974017787</v>
+        <v>0.05684367135004693</v>
       </c>
       <c r="E216" t="n">
-        <v>0.961181031214259</v>
+        <v>0.9611825372124219</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -5197,19 +5197,19 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>48.93882784956467</v>
+        <v>48.93561889491228</v>
       </c>
       <c r="B217" t="n">
-        <v>3.838069789482329</v>
+        <v>3.837983703305841</v>
       </c>
       <c r="C217" t="n">
-        <v>0.310321040788085</v>
+        <v>0.3103223561936096</v>
       </c>
       <c r="D217" t="n">
-        <v>0.05214542112969219</v>
+        <v>0.05214542226569351</v>
       </c>
       <c r="E217" t="n">
-        <v>0.9615253415117668</v>
+        <v>0.9615264844279278</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -5219,19 +5219,19 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>41.69120692883394</v>
+        <v>41.66511745101081</v>
       </c>
       <c r="B218" t="n">
-        <v>3.249014866607108</v>
+        <v>3.248579407154588</v>
       </c>
       <c r="C218" t="n">
-        <v>0.3633508799204257</v>
+        <v>0.3633475554946646</v>
       </c>
       <c r="D218" t="n">
-        <v>0.06397839345765229</v>
+        <v>0.06397814931507409</v>
       </c>
       <c r="E218" t="n">
-        <v>0.9656257291716159</v>
+        <v>0.965639108310978</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -5241,19 +5241,19 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>40.95397276999113</v>
+        <v>40.95423284844061</v>
       </c>
       <c r="B219" t="n">
-        <v>3.382500549850895</v>
+        <v>3.382504440788328</v>
       </c>
       <c r="C219" t="n">
-        <v>0.3322945254280855</v>
+        <v>0.332293774655552</v>
       </c>
       <c r="D219" t="n">
-        <v>0.05665366314868982</v>
+        <v>0.05665366030667218</v>
       </c>
       <c r="E219" t="n">
-        <v>0.9631225650141385</v>
+        <v>0.9631224064999637</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -5263,19 +5263,19 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>40.89213323536616</v>
+        <v>40.89201901453923</v>
       </c>
       <c r="B220" t="n">
-        <v>3.226442678066484</v>
+        <v>3.226440006234275</v>
       </c>
       <c r="C220" t="n">
-        <v>0.3554862892257465</v>
+        <v>0.3554868121201292</v>
       </c>
       <c r="D220" t="n">
-        <v>0.06201669497280296</v>
+        <v>0.06201669616431227</v>
       </c>
       <c r="E220" t="n">
-        <v>0.9602828770289147</v>
+        <v>0.9602829881909903</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -5285,19 +5285,19 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>28.85988646215406</v>
+        <v>28.8599328942981</v>
       </c>
       <c r="B221" t="n">
-        <v>3.038845115038347</v>
+        <v>3.038850700233411</v>
       </c>
       <c r="C221" t="n">
-        <v>0.3376284651146497</v>
+        <v>0.3376274485783518</v>
       </c>
       <c r="D221" t="n">
-        <v>0.06037415957338432</v>
+        <v>0.06037415824236588</v>
       </c>
       <c r="E221" t="n">
-        <v>0.9803239227793873</v>
+        <v>0.9803239923903053</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -5307,19 +5307,19 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>37.94861283882362</v>
+        <v>37.94863107578899</v>
       </c>
       <c r="B222" t="n">
-        <v>3.306708323734931</v>
+        <v>3.306709091607157</v>
       </c>
       <c r="C222" t="n">
-        <v>0.339081589286264</v>
+        <v>0.3390814754928898</v>
       </c>
       <c r="D222" t="n">
-        <v>0.05491522606011764</v>
+        <v>0.054915226088596</v>
       </c>
       <c r="E222" t="n">
-        <v>0.964761764723686</v>
+        <v>0.9647617590533488</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -5329,19 +5329,19 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>31.73286002406305</v>
+        <v>31.7329087972602</v>
       </c>
       <c r="B223" t="n">
-        <v>3.310720034846276</v>
+        <v>3.31072100065216</v>
       </c>
       <c r="C223" t="n">
-        <v>0.3261177861367109</v>
+        <v>0.3261177826100896</v>
       </c>
       <c r="D223" t="n">
-        <v>0.06600254245745908</v>
+        <v>0.06600254245580292</v>
       </c>
       <c r="E223" t="n">
-        <v>0.9618896422601257</v>
+        <v>0.9618895973269638</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -5351,19 +5351,19 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>27.33311380533514</v>
+        <v>27.33311574316111</v>
       </c>
       <c r="B224" t="n">
         <v>3.012054800057194</v>
       </c>
       <c r="C224" t="n">
-        <v>0.3549252946588566</v>
+        <v>0.3549253090122985</v>
       </c>
       <c r="D224" t="n">
-        <v>0.06512293818993332</v>
+        <v>0.06512293819493468</v>
       </c>
       <c r="E224" t="n">
-        <v>0.9737660266294558</v>
+        <v>0.9737660247137926</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -5373,19 +5373,19 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>46.36264182116614</v>
+        <v>46.36278850443336</v>
       </c>
       <c r="B225" t="n">
-        <v>3.889959686834758</v>
+        <v>3.889963825867074</v>
       </c>
       <c r="C225" t="n">
-        <v>0.2907855176078636</v>
+        <v>0.2907853495953871</v>
       </c>
       <c r="D225" t="n">
-        <v>0.0479300318568812</v>
+        <v>0.04793003184518661</v>
       </c>
       <c r="E225" t="n">
-        <v>0.9535129435500603</v>
+        <v>0.9535128488643223</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -5395,19 +5395,19 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>38.99325689713339</v>
+        <v>38.99329556841241</v>
       </c>
       <c r="B226" t="n">
-        <v>3.362134171211046</v>
+        <v>3.362134976862692</v>
       </c>
       <c r="C226" t="n">
-        <v>0.3387723651752272</v>
+        <v>0.3387724410742666</v>
       </c>
       <c r="D226" t="n">
-        <v>0.06184040968993868</v>
+        <v>0.06184040965324381</v>
       </c>
       <c r="E226" t="n">
-        <v>0.9619458464711014</v>
+        <v>0.9619458158263281</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -5417,19 +5417,19 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>25.9118079150821</v>
+        <v>25.91194364951322</v>
       </c>
       <c r="B227" t="n">
-        <v>2.749611370318606</v>
+        <v>2.749615074147384</v>
       </c>
       <c r="C227" t="n">
-        <v>0.3843835868259916</v>
+        <v>0.3843834467842031</v>
       </c>
       <c r="D227" t="n">
-        <v>0.07622312014372136</v>
+        <v>0.07622312020004177</v>
       </c>
       <c r="E227" t="n">
-        <v>0.968627771744345</v>
+        <v>0.9686276455949591</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -5439,19 +5439,19 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>34.93597301850852</v>
+        <v>34.93597818953797</v>
       </c>
       <c r="B228" t="n">
-        <v>3.244888907483702</v>
+        <v>3.244888672436909</v>
       </c>
       <c r="C228" t="n">
-        <v>0.3435625248924393</v>
+        <v>0.3435625607873878</v>
       </c>
       <c r="D228" t="n">
-        <v>0.07063491018358931</v>
+        <v>0.07063491017694104</v>
       </c>
       <c r="E228" t="n">
-        <v>0.9612787822610476</v>
+        <v>0.961278782673032</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -5461,19 +5461,19 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>46.76215495035327</v>
+        <v>46.76218790304638</v>
       </c>
       <c r="B229" t="n">
-        <v>3.982231808016412</v>
+        <v>3.98223280658287</v>
       </c>
       <c r="C229" t="n">
-        <v>0.2850931927089623</v>
+        <v>0.2850928748414049</v>
       </c>
       <c r="D229" t="n">
-        <v>0.04812462145159045</v>
+        <v>0.04812462141911208</v>
       </c>
       <c r="E229" t="n">
-        <v>0.9565554778176075</v>
+        <v>0.9565554649806786</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -5483,19 +5483,19 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>41.48781934919725</v>
+        <v>41.48778454819498</v>
       </c>
       <c r="B230" t="n">
-        <v>3.370574772553449</v>
+        <v>3.370579972703213</v>
       </c>
       <c r="C230" t="n">
-        <v>0.343743684633096</v>
+        <v>0.3437407385371943</v>
       </c>
       <c r="D230" t="n">
-        <v>0.06407623568195711</v>
+        <v>0.06407623328818607</v>
       </c>
       <c r="E230" t="n">
-        <v>0.9607085079214923</v>
+        <v>0.9607086160831746</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -5505,19 +5505,19 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>34.59417750580892</v>
+        <v>34.59429506805299</v>
       </c>
       <c r="B231" t="n">
-        <v>3.258387842060661</v>
+        <v>3.25839548624245</v>
       </c>
       <c r="C231" t="n">
-        <v>0.3339183815846655</v>
+        <v>0.3339177713710688</v>
       </c>
       <c r="D231" t="n">
-        <v>0.06065337207411272</v>
+        <v>0.0606533719516829</v>
       </c>
       <c r="E231" t="n">
-        <v>0.9614734458459928</v>
+        <v>0.961473417300142</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -5527,19 +5527,19 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>42.55341580737218</v>
+        <v>42.55352964365853</v>
       </c>
       <c r="B232" t="n">
-        <v>3.354847573329444</v>
+        <v>3.35485037833034</v>
       </c>
       <c r="C232" t="n">
-        <v>0.3468437759560176</v>
+        <v>0.3468438152922709</v>
       </c>
       <c r="D232" t="n">
-        <v>0.06707646386743613</v>
+        <v>0.06707646386249774</v>
       </c>
       <c r="E232" t="n">
-        <v>0.9608694935861712</v>
+        <v>0.9608694339808469</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -5549,19 +5549,19 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>39.02486011309584</v>
+        <v>39.02510985229374</v>
       </c>
       <c r="B233" t="n">
-        <v>3.240744938367849</v>
+        <v>3.240753882844305</v>
       </c>
       <c r="C233" t="n">
-        <v>0.3468140940187542</v>
+        <v>0.3468126352359866</v>
       </c>
       <c r="D233" t="n">
-        <v>0.05983856368653145</v>
+        <v>0.05983856341912155</v>
       </c>
       <c r="E233" t="n">
-        <v>0.9629082015945325</v>
+        <v>0.9629081495205116</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -5571,19 +5571,19 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>108.6552985842628</v>
+        <v>108.6436220150667</v>
       </c>
       <c r="B234" t="n">
-        <v>6.450578105175775</v>
+        <v>6.450389825177743</v>
       </c>
       <c r="C234" t="n">
-        <v>0.1839754744522855</v>
+        <v>0.183969686420949</v>
       </c>
       <c r="D234" t="n">
-        <v>0.03068840598580842</v>
+        <v>0.03068849048567681</v>
       </c>
       <c r="E234" t="n">
-        <v>0.953449275809335</v>
+        <v>0.9534524412670221</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -5593,19 +5593,19 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>37.7062845537668</v>
+        <v>37.70634644275045</v>
       </c>
       <c r="B235" t="n">
-        <v>3.435045006213953</v>
+        <v>3.435046588602739</v>
       </c>
       <c r="C235" t="n">
-        <v>0.3201436255925847</v>
+        <v>0.3201434716327213</v>
       </c>
       <c r="D235" t="n">
-        <v>0.06178135782885504</v>
+        <v>0.06178135780683913</v>
       </c>
       <c r="E235" t="n">
-        <v>0.9592444383800907</v>
+        <v>0.9592443810831019</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -5615,19 +5615,19 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>93.12255737234655</v>
+        <v>93.07445551436516</v>
       </c>
       <c r="B236" t="n">
-        <v>5.400111986407167</v>
+        <v>5.399504060196831</v>
       </c>
       <c r="C236" t="n">
-        <v>0.228688540486205</v>
+        <v>0.2286782825637078</v>
       </c>
       <c r="D236" t="n">
-        <v>0.03905700061899113</v>
+        <v>0.03905646683345843</v>
       </c>
       <c r="E236" t="n">
-        <v>0.9583477803108684</v>
+        <v>0.9583597354560572</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -5637,19 +5637,19 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>44.91426946643718</v>
+        <v>44.91438769936891</v>
       </c>
       <c r="B237" t="n">
-        <v>3.563425725760184</v>
+        <v>3.563429581181871</v>
       </c>
       <c r="C237" t="n">
-        <v>0.3269276920117945</v>
+        <v>0.3269278100063816</v>
       </c>
       <c r="D237" t="n">
-        <v>0.05334719656758705</v>
+        <v>0.05334719648485808</v>
       </c>
       <c r="E237" t="n">
-        <v>0.9602195773479307</v>
+        <v>0.9602195507206871</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -5659,19 +5659,19 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>61.51513565026022</v>
+        <v>61.51517818100483</v>
       </c>
       <c r="B238" t="n">
         <v>5.002100536653625</v>
       </c>
       <c r="C238" t="n">
-        <v>0.2197889993717888</v>
+        <v>0.2197889864611362</v>
       </c>
       <c r="D238" t="n">
-        <v>0.04371503914665973</v>
+        <v>0.04371503916700683</v>
       </c>
       <c r="E238" t="n">
-        <v>0.9438568488153136</v>
+        <v>0.9438568047520228</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -5681,19 +5681,19 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>26.81154760053311</v>
+        <v>26.81156728685131</v>
       </c>
       <c r="B239" t="n">
-        <v>2.848503938247958</v>
+        <v>2.848512403364786</v>
       </c>
       <c r="C239" t="n">
-        <v>0.3665926607659265</v>
+        <v>0.3665916142006518</v>
       </c>
       <c r="D239" t="n">
-        <v>0.05994415268522634</v>
+        <v>0.05994413807273404</v>
       </c>
       <c r="E239" t="n">
-        <v>0.9688248907296358</v>
+        <v>0.9688248506136116</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -5703,19 +5703,19 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>124.4672810368069</v>
+        <v>124.4495909378956</v>
       </c>
       <c r="B240" t="n">
-        <v>6.781300401871714</v>
+        <v>6.781015788833245</v>
       </c>
       <c r="C240" t="n">
-        <v>0.178192244821951</v>
+        <v>0.1781917291549442</v>
       </c>
       <c r="D240" t="n">
-        <v>0.02825537228283099</v>
+        <v>0.02825600270761983</v>
       </c>
       <c r="E240" t="n">
-        <v>0.973929652872479</v>
+        <v>0.9739336751913511</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -5725,19 +5725,19 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>154.0228823397452</v>
+        <v>154.0165157624342</v>
       </c>
       <c r="B241" t="n">
-        <v>8.163512024272276</v>
+        <v>8.163436946709645</v>
       </c>
       <c r="C241" t="n">
-        <v>0.1390229101748126</v>
+        <v>0.1390249181177122</v>
       </c>
       <c r="D241" t="n">
-        <v>0.02178055583309538</v>
+        <v>0.0217808891105317</v>
       </c>
       <c r="E241" t="n">
-        <v>0.9668179587307149</v>
+        <v>0.9668198836129172</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -5747,19 +5747,19 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>123.3989201052102</v>
+        <v>123.3951797609695</v>
       </c>
       <c r="B242" t="n">
-        <v>7.411768023293822</v>
+        <v>7.411711374402009</v>
       </c>
       <c r="C242" t="n">
-        <v>0.1525309611926481</v>
+        <v>0.1525279587430819</v>
       </c>
       <c r="D242" t="n">
-        <v>0.0239981528721407</v>
+        <v>0.0239983496023028</v>
       </c>
       <c r="E242" t="n">
-        <v>0.9678647703491735</v>
+        <v>0.9678660053495549</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -5769,19 +5769,19 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>138.0465696843906</v>
+        <v>138.0368480378532</v>
       </c>
       <c r="B243" t="n">
-        <v>7.297917007122145</v>
+        <v>7.297791249659177</v>
       </c>
       <c r="C243" t="n">
-        <v>0.1655023262772538</v>
+        <v>0.1655040020336848</v>
       </c>
       <c r="D243" t="n">
-        <v>0.02615136329456054</v>
+        <v>0.02615159861872634</v>
       </c>
       <c r="E243" t="n">
-        <v>0.9698298903904641</v>
+        <v>0.9698322278867931</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -5791,19 +5791,19 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>123.1260777760394</v>
+        <v>123.1163070772793</v>
       </c>
       <c r="B244" t="n">
-        <v>7.331392361065179</v>
+        <v>7.33119712954934</v>
       </c>
       <c r="C244" t="n">
-        <v>0.1498797962822226</v>
+        <v>0.1498781402635027</v>
       </c>
       <c r="D244" t="n">
-        <v>0.02372814881225028</v>
+        <v>0.02372854664381421</v>
       </c>
       <c r="E244" t="n">
-        <v>0.9671250556772137</v>
+        <v>0.9671276420714001</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -5813,19 +5813,19 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>103.4534473574339</v>
+        <v>103.419699949258</v>
       </c>
       <c r="B245" t="n">
-        <v>5.588377639312107</v>
+        <v>5.587895291432631</v>
       </c>
       <c r="C245" t="n">
-        <v>0.220313249903522</v>
+        <v>0.2203106870907874</v>
       </c>
       <c r="D245" t="n">
-        <v>0.03512229494909899</v>
+        <v>0.03512248789488121</v>
       </c>
       <c r="E245" t="n">
-        <v>0.9538343503240669</v>
+        <v>0.9538448815548577</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -5835,19 +5835,19 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>143.3990767865797</v>
+        <v>143.3779288468154</v>
       </c>
       <c r="B246" t="n">
-        <v>7.536850889370855</v>
+        <v>7.53650093870384</v>
       </c>
       <c r="C246" t="n">
-        <v>0.1504158852638573</v>
+        <v>0.1504159342123011</v>
       </c>
       <c r="D246" t="n">
-        <v>0.02546347546795382</v>
+        <v>0.02546387257350757</v>
       </c>
       <c r="E246" t="n">
-        <v>0.9567965432434354</v>
+        <v>0.9568025395524471</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -5857,19 +5857,19 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>141.5229120112053</v>
+        <v>141.5154297845765</v>
       </c>
       <c r="B247" t="n">
-        <v>7.792047551161712</v>
+        <v>7.791828924169876</v>
       </c>
       <c r="C247" t="n">
-        <v>0.1445600427601578</v>
+        <v>0.1445652687493842</v>
       </c>
       <c r="D247" t="n">
-        <v>0.02631885442439551</v>
+        <v>0.02631929128307672</v>
       </c>
       <c r="E247" t="n">
-        <v>0.9689597554814799</v>
+        <v>0.968961427720583</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -5879,19 +5879,19 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>116.5795581948263</v>
+        <v>116.5603772493513</v>
       </c>
       <c r="B248" t="n">
-        <v>6.689903104242727</v>
+        <v>6.689590289363202</v>
       </c>
       <c r="C248" t="n">
-        <v>0.1735416509726451</v>
+        <v>0.1735404525512182</v>
       </c>
       <c r="D248" t="n">
-        <v>0.02892245312480992</v>
+        <v>0.02892291999845291</v>
       </c>
       <c r="E248" t="n">
-        <v>0.9673138500931069</v>
+        <v>0.9673193354703659</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -5901,19 +5901,19 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>111.0354681491267</v>
+        <v>111.020835196649</v>
       </c>
       <c r="B249" t="n">
-        <v>6.652535968315849</v>
+        <v>6.65220031364115</v>
       </c>
       <c r="C249" t="n">
-        <v>0.1772858396020967</v>
+        <v>0.1772863915717384</v>
       </c>
       <c r="D249" t="n">
-        <v>0.03331783791538689</v>
+        <v>0.03331821057111912</v>
       </c>
       <c r="E249" t="n">
-        <v>0.9632291701252741</v>
+        <v>0.9632338082394351</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -5923,19 +5923,19 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>79.58392672227593</v>
+        <v>79.573962319014</v>
       </c>
       <c r="B250" t="n">
-        <v>5.700495481783285</v>
+        <v>5.70028542935596</v>
       </c>
       <c r="C250" t="n">
-        <v>0.1952439346319581</v>
+        <v>0.1952430832806982</v>
       </c>
       <c r="D250" t="n">
-        <v>0.02793173053091585</v>
+        <v>0.02793195742688323</v>
       </c>
       <c r="E250" t="n">
-        <v>0.9715799157020908</v>
+        <v>0.9715833186777367</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -5945,19 +5945,19 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>181.9969109866222</v>
+        <v>181.8965014135737</v>
       </c>
       <c r="B251" t="n">
-        <v>7.418843484148483</v>
+        <v>7.417749568933025</v>
       </c>
       <c r="C251" t="n">
-        <v>0.1737938213489825</v>
+        <v>0.1737961371467016</v>
       </c>
       <c r="D251" t="n">
-        <v>0.02661320647597283</v>
+        <v>0.0266140208926822</v>
       </c>
       <c r="E251" t="n">
-        <v>0.961226054589294</v>
+        <v>0.9612467639416473</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -5967,19 +5967,19 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>130.7884525070161</v>
+        <v>130.7599227862129</v>
       </c>
       <c r="B252" t="n">
-        <v>6.94445998695523</v>
+        <v>6.944015550584816</v>
       </c>
       <c r="C252" t="n">
-        <v>0.17449510061282</v>
+        <v>0.174498044539539</v>
       </c>
       <c r="D252" t="n">
-        <v>0.02337598709034227</v>
+        <v>0.02337641585414383</v>
       </c>
       <c r="E252" t="n">
-        <v>0.9665304255475822</v>
+        <v>0.9665372172621717</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -5989,19 +5989,19 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>127.6867373908977</v>
+        <v>127.6385843192752</v>
       </c>
       <c r="B253" t="n">
-        <v>6.376398027748182</v>
+        <v>6.375645756961664</v>
       </c>
       <c r="C253" t="n">
-        <v>0.1975459391012072</v>
+        <v>0.1975382831851076</v>
       </c>
       <c r="D253" t="n">
-        <v>0.02721971193879714</v>
+        <v>0.02722025494073926</v>
       </c>
       <c r="E253" t="n">
-        <v>0.9704681556937685</v>
+        <v>0.9704786796027299</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -6011,19 +6011,19 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>138.6347687178916</v>
+        <v>138.6174661606603</v>
       </c>
       <c r="B254" t="n">
-        <v>6.709374583830654</v>
+        <v>6.709101849751564</v>
       </c>
       <c r="C254" t="n">
-        <v>0.1813602147214869</v>
+        <v>0.1813628311240453</v>
       </c>
       <c r="D254" t="n">
-        <v>0.02920547106129777</v>
+        <v>0.02920577976160362</v>
       </c>
       <c r="E254" t="n">
-        <v>0.9659135620774341</v>
+        <v>0.9659176540535599</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -6033,19 +6033,19 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>117.4055506810386</v>
+        <v>117.3898561326953</v>
       </c>
       <c r="B255" t="n">
-        <v>6.127635300716928</v>
+        <v>6.127398082717164</v>
       </c>
       <c r="C255" t="n">
-        <v>0.2064112931049625</v>
+        <v>0.206414813234247</v>
       </c>
       <c r="D255" t="n">
-        <v>0.03544274908092796</v>
+        <v>0.03544297726311857</v>
       </c>
       <c r="E255" t="n">
-        <v>0.9724262120178135</v>
+        <v>0.9724298045139077</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -6055,19 +6055,19 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>32.3327677864495</v>
+        <v>32.33142481362416</v>
       </c>
       <c r="B256" t="n">
-        <v>3.095468334467109</v>
+        <v>3.095439789091218</v>
       </c>
       <c r="C256" t="n">
-        <v>0.3640396443169381</v>
+        <v>0.3640404111195357</v>
       </c>
       <c r="D256" t="n">
-        <v>0.06146112443475249</v>
+        <v>0.06146112449852978</v>
       </c>
       <c r="E256" t="n">
-        <v>0.9670699861087606</v>
+        <v>0.9670709288011744</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -6077,19 +6077,19 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>156.1803522168706</v>
+        <v>156.1791502633918</v>
       </c>
       <c r="B257" t="n">
-        <v>7.54172511391112</v>
+        <v>7.541764367369125</v>
       </c>
       <c r="C257" t="n">
-        <v>0.1628601228392675</v>
+        <v>0.1628574237764784</v>
       </c>
       <c r="D257" t="n">
-        <v>0.02518861883173122</v>
+        <v>0.02518870456326795</v>
       </c>
       <c r="E257" t="n">
-        <v>0.965216973770904</v>
+        <v>0.9652177287025492</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -6099,19 +6099,19 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>130.3545171968905</v>
+        <v>130.3370732336267</v>
       </c>
       <c r="B258" t="n">
-        <v>6.999296465363924</v>
+        <v>6.998996863628681</v>
       </c>
       <c r="C258" t="n">
-        <v>0.1726391164843585</v>
+        <v>0.1726406181517537</v>
       </c>
       <c r="D258" t="n">
-        <v>0.03202747322682728</v>
+        <v>0.03202785091628272</v>
       </c>
       <c r="E258" t="n">
-        <v>0.9642717829934354</v>
+        <v>0.9642763941155227</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -6121,19 +6121,19 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>33.59041332509251</v>
+        <v>33.59040539587455</v>
       </c>
       <c r="B259" t="n">
-        <v>3.883133760481696</v>
+        <v>3.883133343154435</v>
       </c>
       <c r="C259" t="n">
-        <v>0.2701651157289177</v>
+        <v>0.270165220126356</v>
       </c>
       <c r="D259" t="n">
-        <v>0.04752561658021509</v>
+        <v>0.04752561657952797</v>
       </c>
       <c r="E259" t="n">
-        <v>0.9756511507375577</v>
+        <v>0.9756511544177625</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -6143,19 +6143,19 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>117.3688497278483</v>
+        <v>117.3315148348917</v>
       </c>
       <c r="B260" t="n">
-        <v>5.832173012678149</v>
+        <v>5.831615739353853</v>
       </c>
       <c r="C260" t="n">
-        <v>0.2137450600595976</v>
+        <v>0.2137461174824117</v>
       </c>
       <c r="D260" t="n">
-        <v>0.03928116047129313</v>
+        <v>0.03928170499889932</v>
       </c>
       <c r="E260" t="n">
-        <v>0.9633740660754108</v>
+        <v>0.9633851755996209</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -6165,19 +6165,19 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>128.166212162134</v>
+        <v>128.1463403576265</v>
       </c>
       <c r="B261" t="n">
-        <v>6.880132753468304</v>
+        <v>6.879793572187427</v>
       </c>
       <c r="C261" t="n">
-        <v>0.1719850601514323</v>
+        <v>0.1719862383135723</v>
       </c>
       <c r="D261" t="n">
-        <v>0.03203494779585876</v>
+        <v>0.03203534685787389</v>
       </c>
       <c r="E261" t="n">
-        <v>0.9604701004509639</v>
+        <v>0.9604759239693681</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -6187,19 +6187,19 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>181.8829949489336</v>
+        <v>181.8658363487417</v>
       </c>
       <c r="B262" t="n">
-        <v>8.533593502360869</v>
+        <v>8.533321806857431</v>
       </c>
       <c r="C262" t="n">
-        <v>0.1423248873452864</v>
+        <v>0.1423315706965045</v>
       </c>
       <c r="D262" t="n">
-        <v>0.0240699338908281</v>
+        <v>0.02407036401045513</v>
       </c>
       <c r="E262" t="n">
-        <v>0.9607364807241665</v>
+        <v>0.9607400672290897</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -6209,19 +6209,19 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>125.1958827063466</v>
+        <v>125.1874774565938</v>
       </c>
       <c r="B263" t="n">
-        <v>6.716683768508148</v>
+        <v>6.716539509120379</v>
       </c>
       <c r="C263" t="n">
-        <v>0.1816109559301298</v>
+        <v>0.1816100483843955</v>
       </c>
       <c r="D263" t="n">
-        <v>0.03208756661133144</v>
+        <v>0.03208767727489245</v>
       </c>
       <c r="E263" t="n">
-        <v>0.967993111811719</v>
+        <v>0.9679952235867969</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -6231,19 +6231,19 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>150.4267187641181</v>
+        <v>150.4124719243875</v>
       </c>
       <c r="B264" t="n">
-        <v>7.584255457917426</v>
+        <v>7.584104284188265</v>
       </c>
       <c r="C264" t="n">
-        <v>0.1549505683782816</v>
+        <v>0.154948942571577</v>
       </c>
       <c r="D264" t="n">
-        <v>0.02537690405963116</v>
+        <v>0.025377169771382</v>
       </c>
       <c r="E264" t="n">
-        <v>0.9652774890486365</v>
+        <v>0.9652810274737158</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -6253,19 +6253,19 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>36.39546434963023</v>
+        <v>36.39540797012853</v>
       </c>
       <c r="B265" t="n">
-        <v>3.434667836138617</v>
+        <v>3.434666628006437</v>
       </c>
       <c r="C265" t="n">
-        <v>0.3195839709087001</v>
+        <v>0.319583979800234</v>
       </c>
       <c r="D265" t="n">
-        <v>0.06463623945701433</v>
+        <v>0.06463623945858249</v>
       </c>
       <c r="E265" t="n">
-        <v>0.9711669402392057</v>
+        <v>0.9711669765500777</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -6275,19 +6275,19 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>72.85036105429219</v>
+        <v>72.8419143511011</v>
       </c>
       <c r="B266" t="n">
-        <v>5.062983788825584</v>
+        <v>5.062823826621023</v>
       </c>
       <c r="C266" t="n">
-        <v>0.232913061446989</v>
+        <v>0.2329135608880613</v>
       </c>
       <c r="D266" t="n">
-        <v>0.04339362183374873</v>
+        <v>0.04339378096695377</v>
       </c>
       <c r="E266" t="n">
-        <v>0.9707314928015425</v>
+        <v>0.9707348086806517</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -6297,19 +6297,19 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>45.2597242035455</v>
+        <v>45.25964328032394</v>
       </c>
       <c r="B267" t="n">
-        <v>3.430352783098511</v>
+        <v>3.430351659164878</v>
       </c>
       <c r="C267" t="n">
-        <v>0.3649743462709739</v>
+        <v>0.3649741210020409</v>
       </c>
       <c r="D267" t="n">
-        <v>0.07159068163909184</v>
+        <v>0.07159068178059751</v>
       </c>
       <c r="E267" t="n">
-        <v>0.967060641967904</v>
+        <v>0.967060686564822</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -6319,19 +6319,19 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>128.6710560186729</v>
+        <v>128.6667789263088</v>
       </c>
       <c r="B268" t="n">
-        <v>7.308496665555185</v>
+        <v>7.308462987662555</v>
       </c>
       <c r="C268" t="n">
-        <v>0.1605851128713241</v>
+        <v>0.1605825338981702</v>
       </c>
       <c r="D268" t="n">
-        <v>0.02670392743033522</v>
+        <v>0.02670406263789484</v>
       </c>
       <c r="E268" t="n">
-        <v>0.9706359727229558</v>
+        <v>0.9706373166354142</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -6341,19 +6341,19 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>114.8079387877959</v>
+        <v>114.7963087761445</v>
       </c>
       <c r="B269" t="n">
-        <v>6.712536210937672</v>
+        <v>6.712362980864444</v>
       </c>
       <c r="C269" t="n">
-        <v>0.1747434610003219</v>
+        <v>0.1747430651072777</v>
       </c>
       <c r="D269" t="n">
-        <v>0.02908841038953416</v>
+        <v>0.02908862419645144</v>
       </c>
       <c r="E269" t="n">
-        <v>0.966009559612914</v>
+        <v>0.9660130075943019</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -6363,19 +6363,19 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>131.7011612069684</v>
+        <v>131.6933641743769</v>
       </c>
       <c r="B270" t="n">
-        <v>6.468971159456531</v>
+        <v>6.469185296324081</v>
       </c>
       <c r="C270" t="n">
-        <v>0.2063042278662488</v>
+        <v>0.2062703432612156</v>
       </c>
       <c r="D270" t="n">
-        <v>0.03149661613645407</v>
+        <v>0.03149129605961532</v>
       </c>
       <c r="E270" t="n">
-        <v>0.9612799741749439</v>
+        <v>0.961283394327322</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -6385,19 +6385,19 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>44.11110336778926</v>
+        <v>44.11118706235411</v>
       </c>
       <c r="B271" t="n">
-        <v>3.48674108036012</v>
+        <v>3.486743581193731</v>
       </c>
       <c r="C271" t="n">
-        <v>0.3212694977235127</v>
+        <v>0.3212691916002325</v>
       </c>
       <c r="D271" t="n">
-        <v>0.05656671015281291</v>
+        <v>0.05656671013444722</v>
       </c>
       <c r="E271" t="n">
-        <v>0.9644569160445133</v>
+        <v>0.9644568676119383</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -6407,19 +6407,19 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>28.54184011337112</v>
+        <v>28.54185961987329</v>
       </c>
       <c r="B272" t="n">
-        <v>3.082786428809603</v>
+        <v>3.082787262420807</v>
       </c>
       <c r="C272" t="n">
-        <v>0.3295615530363394</v>
+        <v>0.3295614922888772</v>
       </c>
       <c r="D272" t="n">
-        <v>0.05284207551707706</v>
+        <v>0.05284207551641952</v>
       </c>
       <c r="E272" t="n">
-        <v>0.972179406051936</v>
+        <v>0.972179394769122</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -6429,19 +6429,19 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>85.31109839794179</v>
+        <v>85.31003158394462</v>
       </c>
       <c r="B273" t="n">
-        <v>6.089873752294029</v>
+        <v>6.089867975493867</v>
       </c>
       <c r="C273" t="n">
-        <v>0.1827237225929655</v>
+        <v>0.1827227464719124</v>
       </c>
       <c r="D273" t="n">
-        <v>0.02675430270399596</v>
+        <v>0.02675438122887869</v>
       </c>
       <c r="E273" t="n">
-        <v>0.9729531363021817</v>
+        <v>0.9729535900018039</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -6451,19 +6451,19 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>145.5303120780195</v>
+        <v>145.5277359339835</v>
       </c>
       <c r="B274" t="n">
-        <v>7.094556472451446</v>
+        <v>7.094881553721764</v>
       </c>
       <c r="C274" t="n">
-        <v>0.1835700538946705</v>
+        <v>0.1835710782030838</v>
       </c>
       <c r="D274" t="n">
-        <v>0.02290801364249125</v>
+        <v>0.02290101104572909</v>
       </c>
       <c r="E274" t="n">
-        <v>0.9668753133127754</v>
+        <v>0.9668782596638305</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -6473,19 +6473,19 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>147.7343722597316</v>
+        <v>147.7211727931983</v>
       </c>
       <c r="B275" t="n">
-        <v>7.157912144702843</v>
+        <v>7.157721096940901</v>
       </c>
       <c r="C275" t="n">
-        <v>0.1845701194335491</v>
+        <v>0.1845723910642904</v>
       </c>
       <c r="D275" t="n">
-        <v>0.02906347189988406</v>
+        <v>0.02906354474130113</v>
       </c>
       <c r="E275" t="n">
-        <v>0.9641826786581473</v>
+        <v>0.964187002790776</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -6495,19 +6495,19 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>100.9827851431734</v>
+        <v>100.9690802709312</v>
       </c>
       <c r="B276" t="n">
-        <v>6.246549457721977</v>
+        <v>6.246235472614479</v>
       </c>
       <c r="C276" t="n">
-        <v>0.185402401976756</v>
+        <v>0.1854041984307031</v>
       </c>
       <c r="D276" t="n">
-        <v>0.02478991483078851</v>
+        <v>0.02479005711234667</v>
       </c>
       <c r="E276" t="n">
-        <v>0.9704212144650641</v>
+        <v>0.9704241309965586</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -6517,19 +6517,19 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>46.67050013167748</v>
+        <v>46.6704806623617</v>
       </c>
       <c r="B277" t="n">
         <v>3.317854361989873</v>
       </c>
       <c r="C277" t="n">
-        <v>0.3714685187809111</v>
+        <v>0.3714685057919421</v>
       </c>
       <c r="D277" t="n">
-        <v>0.05237835231104436</v>
+        <v>0.05237835231007944</v>
       </c>
       <c r="E277" t="n">
-        <v>0.9678208197957867</v>
+        <v>0.9678208332198258</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -6539,19 +6539,19 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>118.8694623052275</v>
+        <v>118.8405437952941</v>
       </c>
       <c r="B278" t="n">
-        <v>5.9211406277765</v>
+        <v>5.920613424995842</v>
       </c>
       <c r="C278" t="n">
-        <v>0.211867971762159</v>
+        <v>0.2118727098891182</v>
       </c>
       <c r="D278" t="n">
-        <v>0.03469396392217702</v>
+        <v>0.03469174052097088</v>
       </c>
       <c r="E278" t="n">
-        <v>0.9537777566862966</v>
+        <v>0.9537820718049048</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -6561,19 +6561,19 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>195.7879313161624</v>
+        <v>195.7704748687172</v>
       </c>
       <c r="B279" t="n">
-        <v>7.780172376427441</v>
+        <v>7.779834208552138</v>
       </c>
       <c r="C279" t="n">
-        <v>0.1777418969940583</v>
+        <v>0.1777455184797929</v>
       </c>
       <c r="D279" t="n">
-        <v>0.02364885315702022</v>
+        <v>0.02364983942552008</v>
       </c>
       <c r="E279" t="n">
-        <v>0.9629857846584177</v>
+        <v>0.9629893523426466</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -6583,19 +6583,19 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>28.87496090689339</v>
+        <v>28.87496557472701</v>
       </c>
       <c r="B280" t="n">
-        <v>3.265810619321496</v>
+        <v>3.265811119446528</v>
       </c>
       <c r="C280" t="n">
-        <v>0.3237508793667049</v>
+        <v>0.3237508634098397</v>
       </c>
       <c r="D280" t="n">
-        <v>0.05996428079116621</v>
+        <v>0.05996428078293961</v>
       </c>
       <c r="E280" t="n">
-        <v>0.9694724266696459</v>
+        <v>0.9694724334540737</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -6605,19 +6605,19 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>217.8452591481203</v>
+        <v>217.8835961490373</v>
       </c>
       <c r="B281" t="n">
-        <v>8.895454697007585</v>
+        <v>8.894973660081687</v>
       </c>
       <c r="C281" t="n">
-        <v>0.1506232816190232</v>
+        <v>0.1510312965974336</v>
       </c>
       <c r="D281" t="n">
-        <v>0.02534442725474417</v>
+        <v>0.02534936128498346</v>
       </c>
       <c r="E281" t="n">
-        <v>0.9480936113531853</v>
+        <v>0.9480996799053687</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -6627,19 +6627,19 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>53.6685186296574</v>
+        <v>53.66864116029005</v>
       </c>
       <c r="B282" t="n">
-        <v>4.360870217554387</v>
+        <v>4.360873051596231</v>
       </c>
       <c r="C282" t="n">
-        <v>0.2615011567929769</v>
+        <v>0.261501141098132</v>
       </c>
       <c r="D282" t="n">
-        <v>0.04721631877859112</v>
+        <v>0.04721631875026459</v>
       </c>
       <c r="E282" t="n">
-        <v>0.9539560850129598</v>
+        <v>0.9539560147471582</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -6649,19 +6649,19 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>43.63519506502168</v>
+        <v>43.63520040013339</v>
       </c>
       <c r="B283" t="n">
-        <v>3.978282260753585</v>
+        <v>3.978282427475826</v>
       </c>
       <c r="C283" t="n">
-        <v>0.2699134326586346</v>
+        <v>0.2699134324527998</v>
       </c>
       <c r="D283" t="n">
         <v>0.04904468779687637</v>
       </c>
       <c r="E283" t="n">
-        <v>0.9568473138759077</v>
+        <v>0.9568473106766486</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -6671,19 +6671,19 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>135.1327248249416</v>
+        <v>135.1272392464155</v>
       </c>
       <c r="B284" t="n">
-        <v>6.729230660220074</v>
+        <v>6.729148049349783</v>
       </c>
       <c r="C284" t="n">
-        <v>0.1889542310131974</v>
+        <v>0.1889566260758126</v>
       </c>
       <c r="D284" t="n">
-        <v>0.02255204970733399</v>
+        <v>0.02255217211086709</v>
       </c>
       <c r="E284" t="n">
-        <v>0.9689995778043089</v>
+        <v>0.9690010446279061</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -6693,19 +6693,19 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>173.5615169223074</v>
+        <v>173.6082039846616</v>
       </c>
       <c r="B285" t="n">
-        <v>7.892984078026009</v>
+        <v>7.893445231743916</v>
       </c>
       <c r="C285" t="n">
-        <v>0.1614366921525584</v>
+        <v>0.1614327489814997</v>
       </c>
       <c r="D285" t="n">
-        <v>0.02041457671571808</v>
+        <v>0.02041468242129142</v>
       </c>
       <c r="E285" t="n">
-        <v>0.9550758867098296</v>
+        <v>0.9550650866889202</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -6715,19 +6715,19 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>170.9902828442814</v>
+        <v>170.9690516838946</v>
       </c>
       <c r="B286" t="n">
-        <v>8.143620123374458</v>
+        <v>8.143334111370457</v>
       </c>
       <c r="C286" t="n">
-        <v>0.1492953317622354</v>
+        <v>0.149297737936008</v>
       </c>
       <c r="D286" t="n">
-        <v>0.0249244358792919</v>
+        <v>0.02492525914586923</v>
       </c>
       <c r="E286" t="n">
-        <v>0.9636522579732686</v>
+        <v>0.9636588414140675</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -6737,19 +6737,19 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>173.4163564521507</v>
+        <v>173.4115991163721</v>
       </c>
       <c r="B287" t="n">
-        <v>8.394832444148049</v>
+        <v>8.394774508169389</v>
       </c>
       <c r="C287" t="n">
-        <v>0.1433737501910652</v>
+        <v>0.1433735472852853</v>
       </c>
       <c r="D287" t="n">
-        <v>0.02539975333961776</v>
+        <v>0.02540000839421478</v>
       </c>
       <c r="E287" t="n">
-        <v>0.9584159395189931</v>
+        <v>0.9584178714540819</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -6759,19 +6759,19 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>144.5274371457153</v>
+        <v>144.5215031677226</v>
       </c>
       <c r="B288" t="n">
-        <v>7.689065021673891</v>
+        <v>7.688976658886295</v>
       </c>
       <c r="C288" t="n">
-        <v>0.1544724857035332</v>
+        <v>0.1544742166373644</v>
       </c>
       <c r="D288" t="n">
-        <v>0.02602183382611547</v>
+        <v>0.02602199272154142</v>
       </c>
       <c r="E288" t="n">
-        <v>0.9671041581266605</v>
+        <v>0.9671058522605175</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -6781,19 +6781,19 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>61.66097011654496</v>
+        <v>61.65980209273959</v>
       </c>
       <c r="B289" t="n">
-        <v>4.791074568699207</v>
+        <v>4.791063677265023</v>
       </c>
       <c r="C289" t="n">
-        <v>0.2439989509753595</v>
+        <v>0.2439950847694687</v>
       </c>
       <c r="D289" t="n">
-        <v>0.04396747010793124</v>
+        <v>0.04396739948286927</v>
       </c>
       <c r="E289" t="n">
-        <v>0.9682652075278343</v>
+        <v>0.968265490832902</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -6803,19 +6803,19 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>165.0013662054018</v>
+        <v>164.9977040680227</v>
       </c>
       <c r="B290" t="n">
-        <v>8.0363527009003</v>
+        <v>8.036353451150383</v>
       </c>
       <c r="C290" t="n">
-        <v>0.153676562260728</v>
+        <v>0.1536730493222509</v>
       </c>
       <c r="D290" t="n">
-        <v>0.02469546733565573</v>
+        <v>0.02469557640606224</v>
       </c>
       <c r="E290" t="n">
-        <v>0.9635265367176181</v>
+        <v>0.9635280113253923</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -6825,19 +6825,19 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>30.98832969323108</v>
+        <v>30.98849666555519</v>
       </c>
       <c r="B291" t="n">
-        <v>3.63102675891964</v>
+        <v>3.631047349116372</v>
       </c>
       <c r="C291" t="n">
-        <v>0.2782514754378027</v>
+        <v>0.2782490696442398</v>
       </c>
       <c r="D291" t="n">
-        <v>0.04905278766267338</v>
+        <v>0.04905278711786417</v>
       </c>
       <c r="E291" t="n">
-        <v>0.9600949983858557</v>
+        <v>0.9600956365638903</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -6847,19 +6847,19 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>72.31535575560557</v>
+        <v>72.31538976410769</v>
       </c>
       <c r="B292" t="n">
-        <v>4.414245144619488</v>
+        <v>4.414245644744519</v>
       </c>
       <c r="C292" t="n">
-        <v>0.279803393444859</v>
+        <v>0.2798033931022169</v>
       </c>
       <c r="D292" t="n">
-        <v>0.05474245343968865</v>
+        <v>0.0547424534365791</v>
       </c>
       <c r="E292" t="n">
-        <v>0.9066031290095941</v>
+        <v>0.906603099259765</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -6869,19 +6869,19 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>42.0149222240747</v>
+        <v>42.01521765588531</v>
       </c>
       <c r="B293" t="n">
-        <v>4.012725325108369</v>
+        <v>4.012751333777926</v>
       </c>
       <c r="C293" t="n">
-        <v>0.2665920800956796</v>
+        <v>0.266589382073874</v>
       </c>
       <c r="D293" t="n">
-        <v>0.04661809155023493</v>
+        <v>0.04661809104229955</v>
       </c>
       <c r="E293" t="n">
-        <v>0.9609965743800337</v>
+        <v>0.9609970741726054</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -6891,19 +6891,19 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>66.93141931396912</v>
+        <v>66.93148927835148</v>
       </c>
       <c r="B294" t="n">
-        <v>4.582038937668155</v>
+        <v>4.582040771940352</v>
       </c>
       <c r="C294" t="n">
-        <v>0.2690012980894311</v>
+        <v>0.2690016579539288</v>
       </c>
       <c r="D294" t="n">
-        <v>0.04870502303325352</v>
+        <v>0.04870502303378219</v>
       </c>
       <c r="E294" t="n">
-        <v>0.9544497145644576</v>
+        <v>0.9544496984835036</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -6913,19 +6913,19 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>51.16042183517672</v>
+        <v>51.161344027261</v>
       </c>
       <c r="B295" t="n">
-        <v>3.976107865672107</v>
+        <v>3.976128124543271</v>
       </c>
       <c r="C295" t="n">
-        <v>0.2901288784082713</v>
+        <v>0.2901278228773691</v>
       </c>
       <c r="D295" t="n">
-        <v>0.04882212949174813</v>
+        <v>0.04882212936253057</v>
       </c>
       <c r="E295" t="n">
-        <v>0.9493632611776219</v>
+        <v>0.9493627491774246</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -6935,19 +6935,19 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>49.30196638423929</v>
+        <v>49.30248430977615</v>
       </c>
       <c r="B296" t="n">
-        <v>3.907826486711955</v>
+        <v>3.907838549303018</v>
       </c>
       <c r="C296" t="n">
-        <v>0.2883246416296568</v>
+        <v>0.2883241736330471</v>
       </c>
       <c r="D296" t="n">
-        <v>0.04642858981341201</v>
+        <v>0.04642858965687113</v>
       </c>
       <c r="E296" t="n">
-        <v>0.9511052505914253</v>
+        <v>0.95110494431328</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -6957,19 +6957,19 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>62.06311257519276</v>
+        <v>62.0637877228426</v>
       </c>
       <c r="B297" t="n">
-        <v>4.97513464240402</v>
+        <v>4.975174490568063</v>
       </c>
       <c r="C297" t="n">
-        <v>0.2216922675944591</v>
+        <v>0.2216877033022839</v>
       </c>
       <c r="D297" t="n">
-        <v>0.04096807961186218</v>
+        <v>0.04096807874730823</v>
       </c>
       <c r="E297" t="n">
-        <v>0.9439810849728871</v>
+        <v>0.9439813638778872</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -6979,19 +6979,19 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>117.2227343504413</v>
+        <v>117.2144211669739</v>
       </c>
       <c r="B298" t="n">
-        <v>7.277793091903163</v>
+        <v>7.277637024202342</v>
       </c>
       <c r="C298" t="n">
-        <v>0.148918966244281</v>
+        <v>0.1489200928515002</v>
       </c>
       <c r="D298" t="n">
-        <v>0.02562206974070172</v>
+        <v>0.02562231418124181</v>
       </c>
       <c r="E298" t="n">
-        <v>0.9470658692328445</v>
+        <v>0.9470695273449874</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -7001,19 +7001,19 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>70.16991796025752</v>
+        <v>70.17149005120629</v>
       </c>
       <c r="B299" t="n">
-        <v>4.795868814687213</v>
+        <v>4.795890708485242</v>
       </c>
       <c r="C299" t="n">
-        <v>0.242422927518271</v>
+        <v>0.2424225099604845</v>
       </c>
       <c r="D299" t="n">
-        <v>0.03919522343518568</v>
+        <v>0.03919522336515021</v>
       </c>
       <c r="E299" t="n">
-        <v>0.9414660947446676</v>
+        <v>0.9414651492747961</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -7023,19 +7023,19 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>31.24715471951377</v>
+        <v>31.24726593568912</v>
       </c>
       <c r="B300" t="n">
-        <v>3.043528735178398</v>
+        <v>3.04353210536553</v>
       </c>
       <c r="C300" t="n">
-        <v>0.375666753536801</v>
+        <v>0.3756666672731477</v>
       </c>
       <c r="D300" t="n">
-        <v>0.07098982630089999</v>
+        <v>0.07098982634294003</v>
       </c>
       <c r="E300" t="n">
-        <v>0.9723451276027358</v>
+        <v>0.9723450613586477</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -7067,19 +7067,19 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>47.23431243475358</v>
+        <v>47.23437191301621</v>
       </c>
       <c r="B302" t="n">
-        <v>3.781644492674706</v>
+        <v>3.781645285718208</v>
       </c>
       <c r="C302" t="n">
-        <v>0.2959609133922753</v>
+        <v>0.2959609131564486</v>
       </c>
       <c r="D302" t="n">
-        <v>0.04611624746735601</v>
+        <v>0.04611624746703638</v>
       </c>
       <c r="E302" t="n">
-        <v>0.9514017869233312</v>
+        <v>0.9514017378592737</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -7089,19 +7089,19 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>110.3120012442734</v>
+        <v>110.3118051533455</v>
       </c>
       <c r="B303" t="n">
-        <v>6.653332916444487</v>
+        <v>6.653319630609844</v>
       </c>
       <c r="C303" t="n">
-        <v>0.1709204317586538</v>
+        <v>0.1709198078080958</v>
       </c>
       <c r="D303" t="n">
-        <v>0.02743394538507883</v>
+        <v>0.02743405659955158</v>
       </c>
       <c r="E303" t="n">
-        <v>0.9471545133099726</v>
+        <v>0.9471545038960939</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -7133,19 +7133,19 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>156.1303057475615</v>
+        <v>156.133804060813</v>
       </c>
       <c r="B305" t="n">
-        <v>8.447054573746806</v>
+        <v>8.44718419653398</v>
       </c>
       <c r="C305" t="n">
-        <v>0.1366183861103123</v>
+        <v>0.1366108327184725</v>
       </c>
       <c r="D305" t="n">
-        <v>0.02252837125772024</v>
+        <v>0.02252838076959799</v>
       </c>
       <c r="E305" t="n">
-        <v>0.9607105547083258</v>
+        <v>0.9607101398260328</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -7155,19 +7155,19 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>140.1259601990631</v>
+        <v>140.1253329806279</v>
       </c>
       <c r="B306" t="n">
-        <v>7.455190062470923</v>
+        <v>7.455251291147571</v>
       </c>
       <c r="C306" t="n">
-        <v>0.1577543878939069</v>
+        <v>0.1577522321929347</v>
       </c>
       <c r="D306" t="n">
-        <v>0.02318270744130204</v>
+        <v>0.02318277026210289</v>
       </c>
       <c r="E306" t="n">
-        <v>0.970126880175508</v>
+        <v>0.9701273129743151</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -7177,19 +7177,19 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>145.574695844073</v>
+        <v>145.5785563947649</v>
       </c>
       <c r="B307" t="n">
-        <v>7.897930921813613</v>
+        <v>7.898092126182488</v>
       </c>
       <c r="C307" t="n">
-        <v>0.1495000655103923</v>
+        <v>0.1494978075956273</v>
       </c>
       <c r="D307" t="n">
-        <v>0.02131680824775951</v>
+        <v>0.02131681231423124</v>
       </c>
       <c r="E307" t="n">
-        <v>0.9676563579271312</v>
+        <v>0.9676559669670379</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -7199,19 +7199,19 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>82.47250079761803</v>
+        <v>82.47129548764617</v>
       </c>
       <c r="B308" t="n">
-        <v>5.579669558641514</v>
+        <v>5.579641133260862</v>
       </c>
       <c r="C308" t="n">
-        <v>0.2024178286076736</v>
+        <v>0.2024168230536688</v>
       </c>
       <c r="D308" t="n">
-        <v>0.0289660364072405</v>
+        <v>0.02896605800752807</v>
       </c>
       <c r="E308" t="n">
-        <v>0.9730100219121645</v>
+        <v>0.9730104075451559</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
@@ -7221,19 +7221,19 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>69.90695649981839</v>
+        <v>69.90638746707091</v>
       </c>
       <c r="B309" t="n">
-        <v>5.079934663215344</v>
+        <v>5.079923433813562</v>
       </c>
       <c r="C309" t="n">
-        <v>0.2277574832505673</v>
+        <v>0.2277575026780227</v>
       </c>
       <c r="D309" t="n">
-        <v>0.03109099122216429</v>
+        <v>0.03109101237659044</v>
       </c>
       <c r="E309" t="n">
-        <v>0.9775932649511225</v>
+        <v>0.9775934303550987</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -7243,19 +7243,19 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>65.67659380291302</v>
+        <v>65.67277333518859</v>
       </c>
       <c r="B310" t="n">
-        <v>4.764165847617947</v>
+        <v>4.764097913629252</v>
       </c>
       <c r="C310" t="n">
-        <v>0.2407929641322901</v>
+        <v>0.2407929048036902</v>
       </c>
       <c r="D310" t="n">
-        <v>0.03229593623856727</v>
+        <v>0.03229602653665232</v>
       </c>
       <c r="E310" t="n">
-        <v>0.9744057623865438</v>
+        <v>0.9744072055766501</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
